--- a/آمارفروش بین الملل غیرعربی.xlsx
+++ b/آمارفروش بین الملل غیرعربی.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\undergit\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2151F845-D8F6-4F98-936F-A0A6E1E65A9D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF246E46-EE3A-4DA7-97CD-6A4541E538A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2043" uniqueCount="802">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2044" uniqueCount="803">
   <si>
     <t>دقایق تماشا</t>
   </si>
@@ -2450,6 +2450,9 @@
   </si>
   <si>
     <t>دانلود</t>
+  </si>
+  <si>
+    <t>؟</t>
   </si>
 </sst>
 </file>
@@ -17453,23 +17456,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:K486"/>
   <sheetViews>
     <sheetView rightToLeft="1" tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A128" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A131" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="D182" sqref="D182"/>
+      <selection pane="bottomLeft" activeCell="K487" sqref="K487"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="3" max="3" width="0" hidden="1" customWidth="1"/>
     <col min="4" max="4" width="28.7109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="33.5703125" style="1" customWidth="1"/>
-    <col min="6" max="6" width="13.5703125" style="1" customWidth="1"/>
-    <col min="7" max="7" width="12.5703125" style="1" customWidth="1"/>
-    <col min="8" max="8" width="11.140625" customWidth="1"/>
-    <col min="9" max="9" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="9" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="33.5703125" style="1" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="13.5703125" style="1" hidden="1" customWidth="1"/>
+    <col min="7" max="7" width="12.5703125" style="1" hidden="1" customWidth="1"/>
+    <col min="8" max="8" width="11.140625" hidden="1" customWidth="1"/>
+    <col min="9" max="9" width="9.7109375" hidden="1" customWidth="1"/>
+    <col min="10" max="10" width="9" hidden="1" customWidth="1"/>
     <col min="11" max="11" width="9.140625" customWidth="1"/>
   </cols>
   <sheetData>
@@ -17537,7 +17542,10 @@
       <c r="J2" s="2">
         <v>39</v>
       </c>
-      <c r="K2" s="2"/>
+      <c r="K2" s="2">
+        <f>81000+78000+27000+70500</f>
+        <v>256500</v>
+      </c>
     </row>
     <row r="3" spans="1:11" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
@@ -17568,7 +17576,10 @@
       <c r="J3" s="2">
         <v>24</v>
       </c>
-      <c r="K3" s="2"/>
+      <c r="K3" s="2">
+        <f>4200+91000+35000</f>
+        <v>130200</v>
+      </c>
     </row>
     <row r="4" spans="1:11" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
@@ -17599,7 +17610,10 @@
       <c r="J4" s="2">
         <v>49</v>
       </c>
-      <c r="K4" s="2"/>
+      <c r="K4" s="2">
+        <f>60000+168000+36000</f>
+        <v>264000</v>
+      </c>
     </row>
     <row r="5" spans="1:11" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
@@ -17630,7 +17644,10 @@
       <c r="J5" s="2">
         <v>22</v>
       </c>
-      <c r="K5" s="2"/>
+      <c r="K5" s="2">
+        <f>21000+77000+21000</f>
+        <v>119000</v>
+      </c>
     </row>
     <row r="6" spans="1:11" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
@@ -17661,7 +17678,10 @@
       <c r="J6" s="2">
         <v>12</v>
       </c>
-      <c r="K6" s="2"/>
+      <c r="K6" s="2">
+        <f>18000+48000+6000</f>
+        <v>72000</v>
+      </c>
     </row>
     <row r="7" spans="1:11" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
@@ -17692,7 +17712,10 @@
       <c r="J7" s="2">
         <v>73</v>
       </c>
-      <c r="K7" s="2"/>
+      <c r="K7" s="2">
+        <f>77000+182000+119000</f>
+        <v>378000</v>
+      </c>
     </row>
     <row r="8" spans="1:11" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
@@ -17723,7 +17746,10 @@
       <c r="J8" s="2">
         <v>41</v>
       </c>
-      <c r="K8" s="2"/>
+      <c r="K8" s="2">
+        <f>36000+150000+48000</f>
+        <v>234000</v>
+      </c>
     </row>
     <row r="9" spans="1:11" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
@@ -17754,7 +17780,10 @@
       <c r="J9" s="2">
         <v>22</v>
       </c>
-      <c r="K9" s="2"/>
+      <c r="K9" s="2">
+        <f>77000+105000</f>
+        <v>182000</v>
+      </c>
     </row>
     <row r="10" spans="1:11" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
@@ -17785,7 +17814,10 @@
       <c r="J10" s="2">
         <v>31</v>
       </c>
-      <c r="K10" s="2"/>
+      <c r="K10" s="2">
+        <f>84000+126000+28000</f>
+        <v>238000</v>
+      </c>
     </row>
     <row r="11" spans="1:11" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
@@ -17816,7 +17848,10 @@
       <c r="J11" s="2">
         <v>29</v>
       </c>
-      <c r="K11" s="2"/>
+      <c r="K11" s="2">
+        <f>216000+84000+12000</f>
+        <v>312000</v>
+      </c>
     </row>
     <row r="12" spans="1:11" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
@@ -17847,7 +17882,10 @@
       <c r="J12" s="2">
         <v>27</v>
       </c>
-      <c r="K12" s="2"/>
+      <c r="K12" s="2">
+        <f>14000+126000+200000</f>
+        <v>340000</v>
+      </c>
     </row>
     <row r="13" spans="1:11" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
@@ -17878,7 +17916,10 @@
       <c r="J13" s="2">
         <v>26</v>
       </c>
-      <c r="K13" s="2"/>
+      <c r="K13" s="2">
+        <f>21000+105000</f>
+        <v>126000</v>
+      </c>
     </row>
     <row r="14" spans="1:11" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
@@ -17909,7 +17950,10 @@
       <c r="J14" s="2">
         <v>68</v>
       </c>
-      <c r="K14" s="2"/>
+      <c r="K14" s="2">
+        <f>140000+161000</f>
+        <v>301000</v>
+      </c>
     </row>
     <row r="15" spans="1:11" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
@@ -17940,7 +17984,10 @@
       <c r="J15" s="2">
         <v>22</v>
       </c>
-      <c r="K15" s="2"/>
+      <c r="K15" s="2">
+        <f>12000+9000</f>
+        <v>21000</v>
+      </c>
     </row>
     <row r="16" spans="1:11" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
@@ -17971,7 +18018,10 @@
       <c r="J16" s="2">
         <v>32</v>
       </c>
-      <c r="K16" s="2"/>
+      <c r="K16" s="2">
+        <f>12000+42000+21000+316500</f>
+        <v>391500</v>
+      </c>
     </row>
     <row r="17" spans="1:11" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
@@ -18002,7 +18052,10 @@
       <c r="J17" s="2">
         <v>37</v>
       </c>
-      <c r="K17" s="2"/>
+      <c r="K17" s="2">
+        <f>93000+27000+18000</f>
+        <v>138000</v>
+      </c>
     </row>
     <row r="18" spans="1:11" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
@@ -18033,7 +18086,10 @@
       <c r="J18" s="2">
         <v>16</v>
       </c>
-      <c r="K18" s="2"/>
+      <c r="K18" s="2">
+        <f>88500+21000+12000</f>
+        <v>121500</v>
+      </c>
     </row>
     <row r="19" spans="1:11" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
@@ -18064,7 +18120,10 @@
       <c r="J19" s="2">
         <v>4</v>
       </c>
-      <c r="K19" s="2"/>
+      <c r="K19" s="2">
+        <f>6000+37500</f>
+        <v>43500</v>
+      </c>
     </row>
     <row r="20" spans="1:11" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A20" s="2">
@@ -18095,7 +18154,10 @@
       <c r="J20" s="2">
         <v>20</v>
       </c>
-      <c r="K20" s="2"/>
+      <c r="K20" s="2">
+        <f>61500+30000+6000</f>
+        <v>97500</v>
+      </c>
     </row>
     <row r="21" spans="1:11" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
@@ -18126,7 +18188,10 @@
       <c r="J21" s="2">
         <v>18</v>
       </c>
-      <c r="K21" s="2"/>
+      <c r="K21" s="2">
+        <f>3000+30000+6000+52500</f>
+        <v>91500</v>
+      </c>
     </row>
     <row r="22" spans="1:11" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A22" s="2">
@@ -18157,7 +18222,10 @@
       <c r="J22" s="2">
         <v>13</v>
       </c>
-      <c r="K22" s="2"/>
+      <c r="K22" s="2">
+        <f>133500+18000+21000+9000</f>
+        <v>181500</v>
+      </c>
     </row>
     <row r="23" spans="1:11" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A23" s="2">
@@ -18188,7 +18256,10 @@
       <c r="J23" s="2">
         <v>13</v>
       </c>
-      <c r="K23" s="2"/>
+      <c r="K23" s="2">
+        <f>12000+18000+6000+76500</f>
+        <v>112500</v>
+      </c>
     </row>
     <row r="24" spans="1:11" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A24" s="2">
@@ -18219,7 +18290,10 @@
       <c r="J24" s="2">
         <v>9</v>
       </c>
-      <c r="K24" s="2"/>
+      <c r="K24" s="2">
+        <f>63000+6000+18000+3000</f>
+        <v>90000</v>
+      </c>
     </row>
     <row r="25" spans="1:11" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A25" s="2">
@@ -18250,7 +18324,10 @@
       <c r="J25" s="2">
         <v>21</v>
       </c>
-      <c r="K25" s="2"/>
+      <c r="K25" s="2">
+        <f>21000+37000+3000+73500</f>
+        <v>134500</v>
+      </c>
     </row>
     <row r="26" spans="1:11" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A26" s="2">
@@ -18281,7 +18358,10 @@
       <c r="J26" s="2">
         <v>2</v>
       </c>
-      <c r="K26" s="2"/>
+      <c r="K26" s="2">
+        <f>27000+6000</f>
+        <v>33000</v>
+      </c>
     </row>
     <row r="27" spans="1:11" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A27" s="2">
@@ -18312,7 +18392,10 @@
       <c r="J27" s="2">
         <v>4</v>
       </c>
-      <c r="K27" s="2"/>
+      <c r="K27" s="2">
+        <f>16000+9000+64500</f>
+        <v>89500</v>
+      </c>
     </row>
     <row r="28" spans="1:11" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A28" s="2">
@@ -18343,7 +18426,10 @@
       <c r="J28" s="2">
         <v>9</v>
       </c>
-      <c r="K28" s="2"/>
+      <c r="K28" s="2">
+        <f>61500+15000</f>
+        <v>76500</v>
+      </c>
     </row>
     <row r="29" spans="1:11" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A29" s="2">
@@ -18374,7 +18460,10 @@
       <c r="J29" s="2">
         <v>19</v>
       </c>
-      <c r="K29" s="2"/>
+      <c r="K29" s="2">
+        <f>3000+15000+18000+48000</f>
+        <v>84000</v>
+      </c>
     </row>
     <row r="30" spans="1:11" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A30" s="2">
@@ -18405,7 +18494,10 @@
       <c r="J30" s="2">
         <v>13</v>
       </c>
-      <c r="K30" s="2"/>
+      <c r="K30" s="2">
+        <f>109500+6000+18000+9000</f>
+        <v>142500</v>
+      </c>
     </row>
     <row r="31" spans="1:11" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A31" s="2">
@@ -18436,7 +18528,10 @@
       <c r="J31" s="2">
         <v>3</v>
       </c>
-      <c r="K31" s="2"/>
+      <c r="K31" s="2">
+        <f>5000+10000+72500</f>
+        <v>87500</v>
+      </c>
     </row>
     <row r="32" spans="1:11" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A32" s="2">
@@ -18467,7 +18562,10 @@
       <c r="J32" s="2">
         <v>54</v>
       </c>
-      <c r="K32" s="2"/>
+      <c r="K32" s="2">
+        <f>157500+27000+76000+21000</f>
+        <v>281500</v>
+      </c>
     </row>
     <row r="33" spans="1:11" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A33" s="2">
@@ -18498,7 +18596,10 @@
       <c r="J33" s="2">
         <v>18</v>
       </c>
-      <c r="K33" s="2"/>
+      <c r="K33" s="2">
+        <f>8000+28000+20000+86000</f>
+        <v>142000</v>
+      </c>
     </row>
     <row r="34" spans="1:11" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A34" s="2">
@@ -18529,7 +18630,10 @@
       <c r="J34" s="2">
         <v>8</v>
       </c>
-      <c r="K34" s="2"/>
+      <c r="K34" s="2">
+        <f>44000+18000</f>
+        <v>62000</v>
+      </c>
     </row>
     <row r="35" spans="1:11" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A35" s="2">
@@ -18560,7 +18664,10 @@
       <c r="J35" s="2">
         <v>10</v>
       </c>
-      <c r="K35" s="2"/>
+      <c r="K35" s="2">
+        <f>4000+24000+4000+78000</f>
+        <v>110000</v>
+      </c>
     </row>
     <row r="36" spans="1:11" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A36" s="2">
@@ -18591,7 +18698,10 @@
       <c r="J36" s="2">
         <v>65</v>
       </c>
-      <c r="K36" s="2"/>
+      <c r="K36" s="2">
+        <f>310000+104000+108000+40000</f>
+        <v>562000</v>
+      </c>
     </row>
     <row r="37" spans="1:11" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A37" s="2">
@@ -18622,7 +18732,10 @@
       <c r="J37" s="2">
         <v>17</v>
       </c>
-      <c r="K37" s="2"/>
+      <c r="K37" s="2">
+        <f>12000+21000+9000+48000</f>
+        <v>90000</v>
+      </c>
     </row>
     <row r="38" spans="1:11" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A38" s="2">
@@ -18653,7 +18766,10 @@
       <c r="J38" s="2">
         <v>15</v>
       </c>
-      <c r="K38" s="2"/>
+      <c r="K38" s="2">
+        <f>34500+12000+24000+6000</f>
+        <v>76500</v>
+      </c>
     </row>
     <row r="39" spans="1:11" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A39" s="2">
@@ -18684,7 +18800,10 @@
       <c r="J39" s="2">
         <v>31</v>
       </c>
-      <c r="K39" s="2"/>
+      <c r="K39" s="2">
+        <f>51000+39000+15000+27000</f>
+        <v>132000</v>
+      </c>
     </row>
     <row r="40" spans="1:11" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A40" s="2">
@@ -18715,7 +18834,10 @@
       <c r="J40" s="2">
         <v>10</v>
       </c>
-      <c r="K40" s="2"/>
+      <c r="K40" s="2">
+        <f>9000+15000+3000</f>
+        <v>27000</v>
+      </c>
     </row>
     <row r="41" spans="1:11" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A41" s="2">
@@ -18746,7 +18868,10 @@
       <c r="J41" s="2">
         <v>23</v>
       </c>
-      <c r="K41" s="2"/>
+      <c r="K41" s="2">
+        <f>60000+48000+9000+33000</f>
+        <v>150000</v>
+      </c>
     </row>
     <row r="42" spans="1:11" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A42" s="2">
@@ -18777,7 +18902,10 @@
       <c r="J42" s="2">
         <v>6</v>
       </c>
-      <c r="K42" s="2"/>
+      <c r="K42" s="2">
+        <f>425000+10000+5000+5000</f>
+        <v>445000</v>
+      </c>
     </row>
     <row r="43" spans="1:11" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A43" s="2">
@@ -18808,7 +18936,10 @@
       <c r="J43" s="2">
         <v>14</v>
       </c>
-      <c r="K43" s="2"/>
+      <c r="K43" s="2">
+        <f>25000+20000+552500</f>
+        <v>597500</v>
+      </c>
     </row>
     <row r="44" spans="1:11" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A44" s="2">
@@ -18839,7 +18970,10 @@
       <c r="J44" s="2">
         <v>3</v>
       </c>
-      <c r="K44" s="2"/>
+      <c r="K44" s="2">
+        <f>295000</f>
+        <v>295000</v>
+      </c>
     </row>
     <row r="45" spans="1:11" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A45" s="2">
@@ -18870,7 +19004,10 @@
       <c r="J45" s="2">
         <v>22</v>
       </c>
-      <c r="K45" s="2"/>
+      <c r="K45" s="2">
+        <f>10000+55000+257500</f>
+        <v>322500</v>
+      </c>
     </row>
     <row r="46" spans="1:11" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A46" s="2">
@@ -18901,7 +19038,10 @@
       <c r="J46" s="2">
         <v>11</v>
       </c>
-      <c r="K46" s="2"/>
+      <c r="K46" s="2">
+        <f>380000+25000</f>
+        <v>405000</v>
+      </c>
     </row>
     <row r="47" spans="1:11" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A47" s="2">
@@ -18932,7 +19072,10 @@
       <c r="J47" s="2">
         <v>7</v>
       </c>
-      <c r="K47" s="2"/>
+      <c r="K47" s="2">
+        <f>5000+290000</f>
+        <v>295000</v>
+      </c>
     </row>
     <row r="48" spans="1:11" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A48" s="2">
@@ -18963,7 +19106,10 @@
       <c r="J48" s="2">
         <v>45</v>
       </c>
-      <c r="K48" s="2"/>
+      <c r="K48" s="2">
+        <f>526000+12000+68000+52000</f>
+        <v>658000</v>
+      </c>
     </row>
     <row r="49" spans="1:11" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A49" s="2">
@@ -18994,7 +19140,10 @@
       <c r="J49" s="2">
         <v>5</v>
       </c>
-      <c r="K49" s="2"/>
+      <c r="K49" s="2">
+        <f>10000+217500</f>
+        <v>227500</v>
+      </c>
     </row>
     <row r="50" spans="1:11" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A50" s="2">
@@ -19025,7 +19174,10 @@
       <c r="J50" s="2">
         <v>10</v>
       </c>
-      <c r="K50" s="2"/>
+      <c r="K50" s="2">
+        <f>220500+7000+6000+12000</f>
+        <v>245500</v>
+      </c>
     </row>
     <row r="51" spans="1:11" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A51" s="2">
@@ -19056,7 +19208,10 @@
       <c r="J51" s="2">
         <v>14</v>
       </c>
-      <c r="K51" s="2"/>
+      <c r="K51" s="2">
+        <f>3000+9000+9000+163500</f>
+        <v>184500</v>
+      </c>
     </row>
     <row r="52" spans="1:11" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A52" s="2">
@@ -19087,7 +19242,10 @@
       <c r="J52" s="2">
         <v>3</v>
       </c>
-      <c r="K52" s="2"/>
+      <c r="K52" s="2">
+        <f>171000+9000+6000</f>
+        <v>186000</v>
+      </c>
     </row>
     <row r="53" spans="1:11" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A53" s="2">
@@ -19118,7 +19276,10 @@
       <c r="J53" s="2">
         <v>44</v>
       </c>
-      <c r="K53" s="2"/>
+      <c r="K53" s="2">
+        <f>34000+75000+33000+433500</f>
+        <v>575500</v>
+      </c>
     </row>
     <row r="54" spans="1:11" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A54" s="2">
@@ -19149,7 +19310,10 @@
       <c r="J54" s="2">
         <v>12</v>
       </c>
-      <c r="K54" s="2"/>
+      <c r="K54" s="2">
+        <f>145500+18000+6000</f>
+        <v>169500</v>
+      </c>
     </row>
     <row r="55" spans="1:11" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A55" s="2">
@@ -19180,7 +19344,10 @@
       <c r="J55" s="2">
         <v>56</v>
       </c>
-      <c r="K55" s="2"/>
+      <c r="K55" s="2">
+        <f>24000+83000+28000+450000</f>
+        <v>585000</v>
+      </c>
     </row>
     <row r="56" spans="1:11" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A56" s="2">
@@ -19211,7 +19378,10 @@
       <c r="J56" s="2">
         <v>36</v>
       </c>
-      <c r="K56" s="2"/>
+      <c r="K56" s="2">
+        <f>570000+60000+35000</f>
+        <v>665000</v>
+      </c>
     </row>
     <row r="57" spans="1:11" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A57" s="2">
@@ -19242,7 +19412,10 @@
       <c r="J57" s="2">
         <v>7</v>
       </c>
-      <c r="K57" s="2"/>
+      <c r="K57" s="2">
+        <f>3000+9000+12000+85500</f>
+        <v>109500</v>
+      </c>
     </row>
     <row r="58" spans="1:11" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A58" s="2">
@@ -19273,7 +19446,10 @@
       <c r="J58" s="2">
         <v>6</v>
       </c>
-      <c r="K58" s="2"/>
+      <c r="K58" s="2">
+        <f>120000+10000+15000</f>
+        <v>145000</v>
+      </c>
     </row>
     <row r="59" spans="1:11" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A59" s="2">
@@ -19304,7 +19480,10 @@
       <c r="J59" s="2">
         <v>4</v>
       </c>
-      <c r="K59" s="2"/>
+      <c r="K59" s="2">
+        <f>3000+15000+124500</f>
+        <v>142500</v>
+      </c>
     </row>
     <row r="60" spans="1:11" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A60" s="2">
@@ -19335,7 +19514,10 @@
       <c r="J60" s="2">
         <v>64</v>
       </c>
-      <c r="K60" s="2"/>
+      <c r="K60" s="2">
+        <f>258000+55000+92000+30000</f>
+        <v>435000</v>
+      </c>
     </row>
     <row r="61" spans="1:11" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A61" s="2">
@@ -19366,7 +19548,10 @@
       <c r="J61" s="2">
         <v>13</v>
       </c>
-      <c r="K61" s="2"/>
+      <c r="K61" s="2">
+        <f>20000+4000+232000</f>
+        <v>256000</v>
+      </c>
     </row>
     <row r="62" spans="1:11" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A62" s="2">
@@ -19397,7 +19582,10 @@
       <c r="J62" s="2">
         <v>14</v>
       </c>
-      <c r="K62" s="2"/>
+      <c r="K62" s="2">
+        <f>274000+23000+16000</f>
+        <v>313000</v>
+      </c>
     </row>
     <row r="63" spans="1:11" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A63" s="2">
@@ -19428,7 +19616,10 @@
       <c r="J63" s="2">
         <v>48</v>
       </c>
-      <c r="K63" s="2"/>
+      <c r="K63" s="2">
+        <f>25000+85000+15000+460000</f>
+        <v>585000</v>
+      </c>
     </row>
     <row r="64" spans="1:11" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A64" s="2">
@@ -19459,7 +19650,10 @@
       <c r="J64" s="2">
         <v>3</v>
       </c>
-      <c r="K64" s="2"/>
+      <c r="K64" s="2">
+        <f>135000+10000+10000</f>
+        <v>155000</v>
+      </c>
     </row>
     <row r="65" spans="1:11" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A65" s="2">
@@ -19490,7 +19684,10 @@
       <c r="J65" s="2">
         <v>20</v>
       </c>
-      <c r="K65" s="2"/>
+      <c r="K65" s="2">
+        <f>20000+35000+30000+380000</f>
+        <v>465000</v>
+      </c>
     </row>
     <row r="66" spans="1:11" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A66" s="2">
@@ -19521,7 +19718,10 @@
       <c r="J66" s="2">
         <v>8</v>
       </c>
-      <c r="K66" s="2"/>
+      <c r="K66" s="2">
+        <f>6000+30000+12000+129000</f>
+        <v>177000</v>
+      </c>
     </row>
     <row r="67" spans="1:11" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A67" s="2">
@@ -19552,7 +19752,10 @@
       <c r="J67" s="2">
         <v>2</v>
       </c>
-      <c r="K67" s="2"/>
+      <c r="K67" s="2">
+        <f>5000+5000+135000</f>
+        <v>145000</v>
+      </c>
     </row>
     <row r="68" spans="1:11" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A68" s="2">
@@ -19583,7 +19786,10 @@
       <c r="J68" s="2">
         <v>4</v>
       </c>
-      <c r="K68" s="2"/>
+      <c r="K68" s="2">
+        <f>75000+5000</f>
+        <v>80000</v>
+      </c>
     </row>
     <row r="69" spans="1:11" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A69" s="2">
@@ -19614,7 +19820,10 @@
       <c r="J69" s="2">
         <v>10</v>
       </c>
-      <c r="K69" s="2"/>
+      <c r="K69" s="2">
+        <f>10500+21000+10500+157500</f>
+        <v>199500</v>
+      </c>
     </row>
     <row r="70" spans="1:11" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A70" s="2">
@@ -19645,7 +19854,10 @@
       <c r="J70" s="2">
         <v>11</v>
       </c>
-      <c r="K70" s="2"/>
+      <c r="K70" s="2">
+        <f>63000+15000+48000+12000+12000</f>
+        <v>150000</v>
+      </c>
     </row>
     <row r="71" spans="1:11" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A71" s="2">
@@ -19676,7 +19888,10 @@
       <c r="J71" s="2">
         <v>23</v>
       </c>
-      <c r="K71" s="2"/>
+      <c r="K71" s="2">
+        <f>7000+21000+6000+184500</f>
+        <v>218500</v>
+      </c>
     </row>
     <row r="72" spans="1:11" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A72" s="2">
@@ -19707,7 +19922,10 @@
       <c r="J72" s="2">
         <v>46</v>
       </c>
-      <c r="K72" s="2"/>
+      <c r="K72" s="2">
+        <f>398000+32000+80000+24000</f>
+        <v>534000</v>
+      </c>
     </row>
     <row r="73" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="2">
@@ -19738,9 +19956,12 @@
       <c r="J73" s="2">
         <v>34</v>
       </c>
-      <c r="K73" s="2"/>
-    </row>
-    <row r="74" spans="1:11" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="K73" s="2">
+        <f>52200+14500+371200</f>
+        <v>437900</v>
+      </c>
+    </row>
+    <row r="74" spans="1:11" ht="17.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A74" s="2">
         <v>73</v>
       </c>
@@ -19769,9 +19990,12 @@
       <c r="J74" s="2">
         <v>186</v>
       </c>
-      <c r="K74" s="2"/>
-    </row>
-    <row r="75" spans="1:11" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="K74" s="2">
+        <f>60000+288000+54000</f>
+        <v>402000</v>
+      </c>
+    </row>
+    <row r="75" spans="1:11" ht="17.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A75" s="2">
         <v>74</v>
       </c>
@@ -19800,9 +20024,12 @@
       <c r="J75" s="2">
         <v>117</v>
       </c>
-      <c r="K75" s="2"/>
-    </row>
-    <row r="76" spans="1:11" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="K75" s="2">
+        <f>18000+204000+21000</f>
+        <v>243000</v>
+      </c>
+    </row>
+    <row r="76" spans="1:11" ht="17.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A76" s="2">
         <v>75</v>
       </c>
@@ -19831,9 +20058,12 @@
       <c r="J76" s="2">
         <v>74</v>
       </c>
-      <c r="K76" s="2"/>
-    </row>
-    <row r="77" spans="1:11" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="K76" s="2">
+        <f>9000+156000+15000</f>
+        <v>180000</v>
+      </c>
+    </row>
+    <row r="77" spans="1:11" ht="17.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A77" s="2">
         <v>76</v>
       </c>
@@ -19862,9 +20092,12 @@
       <c r="J77" s="2">
         <v>73</v>
       </c>
-      <c r="K77" s="2"/>
-    </row>
-    <row r="78" spans="1:11" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="K77" s="2">
+        <f>9000+144000+12000</f>
+        <v>165000</v>
+      </c>
+    </row>
+    <row r="78" spans="1:11" ht="17.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A78" s="2">
         <v>77</v>
       </c>
@@ -19893,9 +20126,12 @@
       <c r="J78" s="2">
         <v>60</v>
       </c>
-      <c r="K78" s="2"/>
-    </row>
-    <row r="79" spans="1:11" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="K78" s="2">
+        <f>6000+123000+6000</f>
+        <v>135000</v>
+      </c>
+    </row>
+    <row r="79" spans="1:11" ht="17.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A79" s="2">
         <v>78</v>
       </c>
@@ -19924,9 +20160,12 @@
       <c r="J79" s="2">
         <v>62</v>
       </c>
-      <c r="K79" s="2"/>
-    </row>
-    <row r="80" spans="1:11" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="K79" s="2">
+        <f>6000+130000+6000</f>
+        <v>142000</v>
+      </c>
+    </row>
+    <row r="80" spans="1:11" ht="17.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A80" s="2">
         <v>79</v>
       </c>
@@ -19955,9 +20194,12 @@
       <c r="J80" s="2">
         <v>55</v>
       </c>
-      <c r="K80" s="2"/>
-    </row>
-    <row r="81" spans="1:11" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="K80" s="2">
+        <f>3000+117000+6000</f>
+        <v>126000</v>
+      </c>
+    </row>
+    <row r="81" spans="1:11" ht="17.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A81" s="2">
         <v>80</v>
       </c>
@@ -19986,9 +20228,12 @@
       <c r="J81" s="2">
         <v>34</v>
       </c>
-      <c r="K81" s="2"/>
-    </row>
-    <row r="82" spans="1:11" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="K81" s="2">
+        <f>66000+3000</f>
+        <v>69000</v>
+      </c>
+    </row>
+    <row r="82" spans="1:11" ht="17.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A82" s="2">
         <v>81</v>
       </c>
@@ -20017,9 +20262,12 @@
       <c r="J82" s="2">
         <v>28</v>
       </c>
-      <c r="K82" s="2"/>
-    </row>
-    <row r="83" spans="1:11" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="K82" s="2">
+        <f>60000+3000</f>
+        <v>63000</v>
+      </c>
+    </row>
+    <row r="83" spans="1:11" ht="17.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A83" s="2">
         <v>82</v>
       </c>
@@ -20048,7 +20296,10 @@
       <c r="J83" s="2">
         <v>30</v>
       </c>
-      <c r="K83" s="2"/>
+      <c r="K83" s="2">
+        <f>66000+3000</f>
+        <v>69000</v>
+      </c>
     </row>
     <row r="84" spans="1:11" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A84" s="2">
@@ -20079,7 +20330,10 @@
       <c r="J84" s="2">
         <v>113</v>
       </c>
-      <c r="K84" s="2"/>
+      <c r="K84" s="2">
+        <f>16000+528000+128000</f>
+        <v>672000</v>
+      </c>
     </row>
     <row r="85" spans="1:11" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A85" s="2">
@@ -20110,9 +20364,12 @@
       <c r="J85" s="2">
         <v>17</v>
       </c>
-      <c r="K85" s="2"/>
-    </row>
-    <row r="86" spans="1:11" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="K85" s="2">
+        <f>3000+30000+9000+33000</f>
+        <v>75000</v>
+      </c>
+    </row>
+    <row r="86" spans="1:11" ht="17.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A86" s="2">
         <v>85</v>
       </c>
@@ -20141,9 +20398,12 @@
       <c r="J86" s="2">
         <v>83</v>
       </c>
-      <c r="K86" s="2"/>
-    </row>
-    <row r="87" spans="1:11" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="K86" s="2">
+        <f>48000+96000+14000</f>
+        <v>158000</v>
+      </c>
+    </row>
+    <row r="87" spans="1:11" ht="17.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A87" s="2">
         <v>86</v>
       </c>
@@ -20172,9 +20432,12 @@
       <c r="J87" s="2">
         <v>57</v>
       </c>
-      <c r="K87" s="2"/>
-    </row>
-    <row r="88" spans="1:11" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="K87" s="2">
+        <f>34000+70000+8000</f>
+        <v>112000</v>
+      </c>
+    </row>
+    <row r="88" spans="1:11" ht="17.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A88" s="2">
         <v>87</v>
       </c>
@@ -20203,9 +20466,12 @@
       <c r="J88" s="2">
         <v>55</v>
       </c>
-      <c r="K88" s="2"/>
-    </row>
-    <row r="89" spans="1:11" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="K88" s="2">
+        <f>14000+58000+10000</f>
+        <v>82000</v>
+      </c>
+    </row>
+    <row r="89" spans="1:11" ht="17.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A89" s="2">
         <v>88</v>
       </c>
@@ -20234,9 +20500,12 @@
       <c r="J89" s="2">
         <v>47</v>
       </c>
-      <c r="K89" s="2"/>
-    </row>
-    <row r="90" spans="1:11" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="K89" s="2">
+        <f>16000+54000+8000</f>
+        <v>78000</v>
+      </c>
+    </row>
+    <row r="90" spans="1:11" ht="17.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A90" s="2">
         <v>89</v>
       </c>
@@ -20265,9 +20534,12 @@
       <c r="J90" s="2">
         <v>34</v>
       </c>
-      <c r="K90" s="2"/>
-    </row>
-    <row r="91" spans="1:11" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="K90" s="2">
+        <f>3000+8000</f>
+        <v>11000</v>
+      </c>
+    </row>
+    <row r="91" spans="1:11" ht="17.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A91" s="2">
         <v>90</v>
       </c>
@@ -20296,9 +20568,12 @@
       <c r="J91" s="2">
         <v>10</v>
       </c>
-      <c r="K91" s="2"/>
-    </row>
-    <row r="92" spans="1:11" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="K91" s="2">
+        <f>8000+3000</f>
+        <v>11000</v>
+      </c>
+    </row>
+    <row r="92" spans="1:11" ht="17.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A92" s="2">
         <v>91</v>
       </c>
@@ -20327,9 +20602,12 @@
       <c r="J92" s="2">
         <v>10</v>
       </c>
-      <c r="K92" s="2"/>
-    </row>
-    <row r="93" spans="1:11" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="K92" s="2">
+        <f>3000</f>
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="93" spans="1:11" ht="17.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A93" s="2">
         <v>92</v>
       </c>
@@ -20358,7 +20636,9 @@
       <c r="J93" s="2">
         <v>6</v>
       </c>
-      <c r="K93" s="2"/>
+      <c r="K93" s="2">
+        <v>3000</v>
+      </c>
     </row>
     <row r="94" spans="1:11" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A94" s="2">
@@ -20389,9 +20669,12 @@
       <c r="J94" s="2">
         <v>25</v>
       </c>
-      <c r="K94" s="2"/>
-    </row>
-    <row r="95" spans="1:11" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="K94" s="2">
+        <f>42000+15000+30000+24000</f>
+        <v>111000</v>
+      </c>
+    </row>
+    <row r="95" spans="1:11" ht="17.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A95" s="2">
         <v>94</v>
       </c>
@@ -20420,9 +20703,12 @@
       <c r="J95" s="2">
         <v>14</v>
       </c>
-      <c r="K95" s="2"/>
-    </row>
-    <row r="96" spans="1:11" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K95" s="2">
+        <f>13000+8000+14000+2000</f>
+        <v>37000</v>
+      </c>
+    </row>
+    <row r="96" spans="1:11" ht="20.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A96" s="2">
         <v>95</v>
       </c>
@@ -20451,9 +20737,12 @@
       <c r="J96" s="2">
         <v>8</v>
       </c>
-      <c r="K96" s="2"/>
-    </row>
-    <row r="97" spans="1:11" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="K96" s="2">
+        <f>8000+8000</f>
+        <v>16000</v>
+      </c>
+    </row>
+    <row r="97" spans="1:11" ht="17.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A97" s="2">
         <v>96</v>
       </c>
@@ -20482,9 +20771,12 @@
       <c r="J97" s="2">
         <v>11</v>
       </c>
-      <c r="K97" s="2"/>
-    </row>
-    <row r="98" spans="1:11" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="K97" s="2">
+        <f>8000+4000</f>
+        <v>12000</v>
+      </c>
+    </row>
+    <row r="98" spans="1:11" ht="17.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A98" s="2">
         <v>97</v>
       </c>
@@ -20513,9 +20805,11 @@
       <c r="J98" s="2">
         <v>12</v>
       </c>
-      <c r="K98" s="2"/>
-    </row>
-    <row r="99" spans="1:11" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="K98" s="2">
+        <v>12000</v>
+      </c>
+    </row>
+    <row r="99" spans="1:11" ht="17.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A99" s="2">
         <v>98</v>
       </c>
@@ -20544,9 +20838,12 @@
       <c r="J99" s="2">
         <v>18</v>
       </c>
-      <c r="K99" s="2"/>
-    </row>
-    <row r="100" spans="1:11" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="K99" s="2">
+        <f>24000+18000+6000+6000</f>
+        <v>54000</v>
+      </c>
+    </row>
+    <row r="100" spans="1:11" ht="17.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A100" s="2">
         <v>99</v>
       </c>
@@ -20575,9 +20872,11 @@
       <c r="J100" s="2">
         <v>5</v>
       </c>
-      <c r="K100" s="2"/>
-    </row>
-    <row r="101" spans="1:11" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="K100" s="2">
+        <v>21000</v>
+      </c>
+    </row>
+    <row r="101" spans="1:11" ht="17.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A101" s="2">
         <v>100</v>
       </c>
@@ -20606,7 +20905,9 @@
       <c r="J101" s="2">
         <v>3</v>
       </c>
-      <c r="K101" s="2"/>
+      <c r="K101" s="2">
+        <v>16000</v>
+      </c>
     </row>
     <row r="102" spans="1:11" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A102" s="2">
@@ -20637,7 +20938,9 @@
       <c r="J102" s="2">
         <v>8</v>
       </c>
-      <c r="K102" s="2"/>
+      <c r="K102" s="2">
+        <v>36000</v>
+      </c>
     </row>
     <row r="103" spans="1:11" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A103" s="2">
@@ -20668,9 +20971,12 @@
       <c r="J103" s="2">
         <v>75</v>
       </c>
-      <c r="K103" s="2"/>
-    </row>
-    <row r="104" spans="1:11" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="K103" s="2">
+        <f>63000+343000+84000</f>
+        <v>490000</v>
+      </c>
+    </row>
+    <row r="104" spans="1:11" ht="17.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A104" s="2">
         <v>103</v>
       </c>
@@ -20699,9 +21005,12 @@
       <c r="J104" s="2">
         <v>7</v>
       </c>
-      <c r="K104" s="2"/>
-    </row>
-    <row r="105" spans="1:11" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="K104" s="2">
+        <f>8000</f>
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="105" spans="1:11" ht="17.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A105" s="2">
         <v>104</v>
       </c>
@@ -20730,7 +21039,10 @@
       <c r="J105" s="2">
         <v>4</v>
       </c>
-      <c r="K105" s="2"/>
+      <c r="K105" s="2">
+        <f>10000</f>
+        <v>10000</v>
+      </c>
     </row>
     <row r="106" spans="1:11" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A106" s="2">
@@ -20761,9 +21073,11 @@
       <c r="J106" s="2">
         <v>468</v>
       </c>
-      <c r="K106" s="2"/>
-    </row>
-    <row r="107" spans="1:11" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="K106" s="2" t="s">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="107" spans="1:11" ht="17.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A107" s="2">
         <v>106</v>
       </c>
@@ -20792,9 +21106,12 @@
       <c r="J107" s="2">
         <v>4</v>
       </c>
-      <c r="K107" s="2"/>
-    </row>
-    <row r="108" spans="1:11" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="K107" s="2">
+        <f>5250+9000</f>
+        <v>14250</v>
+      </c>
+    </row>
+    <row r="108" spans="1:11" ht="17.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A108" s="2">
         <v>107</v>
       </c>
@@ -20823,9 +21140,12 @@
       <c r="J108" s="2">
         <v>4</v>
       </c>
-      <c r="K108" s="2"/>
-    </row>
-    <row r="109" spans="1:11" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="K108" s="2">
+        <f>7500+5250</f>
+        <v>12750</v>
+      </c>
+    </row>
+    <row r="109" spans="1:11" ht="17.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A109" s="2">
         <v>108</v>
       </c>
@@ -20854,9 +21174,12 @@
       <c r="J109" s="2">
         <v>4</v>
       </c>
-      <c r="K109" s="2"/>
-    </row>
-    <row r="110" spans="1:11" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="K109" s="2">
+        <f>4500+7500</f>
+        <v>12000</v>
+      </c>
+    </row>
+    <row r="110" spans="1:11" ht="17.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A110" s="2">
         <v>109</v>
       </c>
@@ -20885,9 +21208,11 @@
       <c r="J110" s="2">
         <v>2</v>
       </c>
-      <c r="K110" s="2"/>
-    </row>
-    <row r="111" spans="1:11" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="K110" s="2">
+        <v>9000</v>
+      </c>
+    </row>
+    <row r="111" spans="1:11" ht="17.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A111" s="2">
         <v>110</v>
       </c>
@@ -20916,9 +21241,11 @@
       <c r="J111" s="2">
         <v>2</v>
       </c>
-      <c r="K111" s="2"/>
-    </row>
-    <row r="112" spans="1:11" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="K111" s="2">
+        <v>15000</v>
+      </c>
+    </row>
+    <row r="112" spans="1:11" ht="17.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A112" s="2">
         <v>111</v>
       </c>
@@ -20947,7 +21274,9 @@
       <c r="J112" s="2">
         <v>3</v>
       </c>
-      <c r="K112" s="2"/>
+      <c r="K112" s="2">
+        <v>12750</v>
+      </c>
     </row>
     <row r="113" spans="1:11" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A113" s="2">
@@ -20978,7 +21307,9 @@
       <c r="J113" s="2">
         <v>5</v>
       </c>
-      <c r="K113" s="2"/>
+      <c r="K113" s="2">
+        <v>30000</v>
+      </c>
     </row>
     <row r="114" spans="1:11" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A114" s="2">
@@ -21009,7 +21340,9 @@
       <c r="J114" s="2">
         <v>22</v>
       </c>
-      <c r="K114" s="2"/>
+      <c r="K114" s="2">
+        <v>0</v>
+      </c>
     </row>
     <row r="115" spans="1:11" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A115" s="2">
@@ -21040,7 +21373,9 @@
       <c r="J115" s="2">
         <v>32</v>
       </c>
-      <c r="K115" s="2"/>
+      <c r="K115" s="2">
+        <v>60000</v>
+      </c>
     </row>
     <row r="116" spans="1:11" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A116" s="2">
@@ -21071,7 +21406,9 @@
       <c r="J116" s="2">
         <v>3</v>
       </c>
-      <c r="K116" s="2"/>
+      <c r="K116" s="2">
+        <v>33000</v>
+      </c>
     </row>
     <row r="117" spans="1:11" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A117" s="2">
@@ -21102,7 +21439,10 @@
       <c r="J117" s="2">
         <v>49</v>
       </c>
-      <c r="K117" s="2"/>
+      <c r="K117" s="2">
+        <f>75750+34500+15000</f>
+        <v>125250</v>
+      </c>
     </row>
     <row r="118" spans="1:11" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A118" s="2">
@@ -21133,7 +21473,10 @@
       <c r="J118" s="2">
         <v>37</v>
       </c>
-      <c r="K118" s="2"/>
+      <c r="K118" s="2">
+        <f>309000+54000+21000</f>
+        <v>384000</v>
+      </c>
     </row>
     <row r="119" spans="1:11" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A119" s="2">
@@ -21164,7 +21507,10 @@
       <c r="J119" s="2">
         <v>9</v>
       </c>
-      <c r="K119" s="2"/>
+      <c r="K119" s="2">
+        <f>15000+18750</f>
+        <v>33750</v>
+      </c>
     </row>
     <row r="120" spans="1:11" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A120" s="2">
@@ -21195,7 +21541,10 @@
       <c r="J120" s="2">
         <v>20</v>
       </c>
-      <c r="K120" s="2"/>
+      <c r="K120" s="2">
+        <f>63750+21000+1500</f>
+        <v>86250</v>
+      </c>
     </row>
     <row r="121" spans="1:11" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A121" s="2">
@@ -21226,7 +21575,10 @@
       <c r="J121" s="2">
         <v>24</v>
       </c>
-      <c r="K121" s="2"/>
+      <c r="K121" s="2">
+        <f>6000+15000+12000+43500</f>
+        <v>76500</v>
+      </c>
     </row>
     <row r="122" spans="1:11" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A122" s="2">
@@ -21257,7 +21609,10 @@
       <c r="J122" s="2">
         <v>14</v>
       </c>
-      <c r="K122" s="2"/>
+      <c r="K122" s="2">
+        <f>31500+15000</f>
+        <v>46500</v>
+      </c>
     </row>
     <row r="123" spans="1:11" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A123" s="2">
@@ -21288,7 +21643,10 @@
       <c r="J123" s="2">
         <v>6</v>
       </c>
-      <c r="K123" s="2"/>
+      <c r="K123" s="2">
+        <f>8000+32000</f>
+        <v>40000</v>
+      </c>
     </row>
     <row r="124" spans="1:11" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A124" s="2">
@@ -21319,7 +21677,10 @@
       <c r="J124" s="2">
         <v>9</v>
       </c>
-      <c r="K124" s="2"/>
+      <c r="K124" s="2">
+        <f>26250+6000+7500+1500</f>
+        <v>41250</v>
+      </c>
     </row>
     <row r="125" spans="1:11" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A125" s="2">
@@ -21350,9 +21711,12 @@
       <c r="J125" s="2">
         <v>32</v>
       </c>
-      <c r="K125" s="2"/>
-    </row>
-    <row r="126" spans="1:11" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="K125" s="2">
+        <f>19500+9000+66000</f>
+        <v>94500</v>
+      </c>
+    </row>
+    <row r="126" spans="1:11" ht="17.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A126" s="2">
         <v>125</v>
       </c>
@@ -21381,9 +21745,12 @@
       <c r="J126" s="2">
         <v>16</v>
       </c>
-      <c r="K126" s="2"/>
-    </row>
-    <row r="127" spans="1:11" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="K126" s="2">
+        <f>30000+3000+9000+7500</f>
+        <v>49500</v>
+      </c>
+    </row>
+    <row r="127" spans="1:11" ht="17.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A127" s="2">
         <v>126</v>
       </c>
@@ -21412,9 +21779,11 @@
       <c r="J127" s="2">
         <v>3</v>
       </c>
-      <c r="K127" s="2"/>
-    </row>
-    <row r="128" spans="1:11" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="K127" s="2">
+        <v>27750</v>
+      </c>
+    </row>
+    <row r="128" spans="1:11" ht="17.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A128" s="2">
         <v>127</v>
       </c>
@@ -21443,9 +21812,12 @@
       <c r="J128" s="2">
         <v>2</v>
       </c>
-      <c r="K128" s="2"/>
-    </row>
-    <row r="129" spans="1:11" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="K128" s="2">
+        <f>36750</f>
+        <v>36750</v>
+      </c>
+    </row>
+    <row r="129" spans="1:11" ht="17.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A129" s="2">
         <v>128</v>
       </c>
@@ -21474,7 +21846,9 @@
       <c r="J129" s="2">
         <v>1</v>
       </c>
-      <c r="K129" s="2"/>
+      <c r="K129" s="2">
+        <v>27750</v>
+      </c>
     </row>
     <row r="130" spans="1:11" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A130" s="2">
@@ -21505,7 +21879,10 @@
       <c r="J130" s="2">
         <v>14</v>
       </c>
-      <c r="K130" s="2"/>
+      <c r="K130" s="2">
+        <f>27000+58500</f>
+        <v>85500</v>
+      </c>
     </row>
     <row r="131" spans="1:11" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A131" s="2">
@@ -21536,9 +21913,12 @@
       <c r="J131" s="2">
         <v>7</v>
       </c>
-      <c r="K131" s="2"/>
-    </row>
-    <row r="132" spans="1:11" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="K131" s="2">
+        <f>83000+16000</f>
+        <v>99000</v>
+      </c>
+    </row>
+    <row r="132" spans="1:11" ht="17.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A132" s="2">
         <v>131</v>
       </c>
@@ -21567,9 +21947,12 @@
       <c r="J132" s="2">
         <v>33</v>
       </c>
-      <c r="K132" s="2"/>
-    </row>
-    <row r="133" spans="1:11" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="K132" s="2">
+        <f>14000+30000+12000+120000</f>
+        <v>176000</v>
+      </c>
+    </row>
+    <row r="133" spans="1:11" ht="17.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A133" s="2">
         <v>132</v>
       </c>
@@ -21598,9 +21981,12 @@
       <c r="J133" s="2">
         <v>28</v>
       </c>
-      <c r="K133" s="2"/>
-    </row>
-    <row r="134" spans="1:11" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="K133" s="2">
+        <f>64000+32000</f>
+        <v>96000</v>
+      </c>
+    </row>
+    <row r="134" spans="1:11" ht="17.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A134" s="2">
         <v>133</v>
       </c>
@@ -21629,9 +22015,12 @@
       <c r="J134" s="2">
         <v>24</v>
       </c>
-      <c r="K134" s="2"/>
-    </row>
-    <row r="135" spans="1:11" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="K134" s="2">
+        <f>4000+24000+4000+58000</f>
+        <v>90000</v>
+      </c>
+    </row>
+    <row r="135" spans="1:11" ht="17.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A135" s="2">
         <v>134</v>
       </c>
@@ -21660,9 +22049,12 @@
       <c r="J135" s="2">
         <v>22</v>
       </c>
-      <c r="K135" s="2"/>
-    </row>
-    <row r="136" spans="1:11" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="K135" s="2">
+        <f>45000+30000</f>
+        <v>75000</v>
+      </c>
+    </row>
+    <row r="136" spans="1:11" ht="17.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A136" s="2">
         <v>135</v>
       </c>
@@ -21691,9 +22083,11 @@
       <c r="J136" s="2">
         <v>25</v>
       </c>
-      <c r="K136" s="2"/>
-    </row>
-    <row r="137" spans="1:11" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="K136" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="137" spans="1:11" ht="17.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A137" s="2">
         <v>136</v>
       </c>
@@ -21722,7 +22116,9 @@
       <c r="J137" s="2">
         <v>21</v>
       </c>
-      <c r="K137" s="2"/>
+      <c r="K137" s="2">
+        <v>0</v>
+      </c>
     </row>
     <row r="138" spans="1:11" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A138" s="2">
@@ -21753,7 +22149,10 @@
       <c r="J138" s="2">
         <v>10</v>
       </c>
-      <c r="K138" s="2"/>
+      <c r="K138" s="2">
+        <f>6000+8000+6000+73000</f>
+        <v>93000</v>
+      </c>
     </row>
     <row r="139" spans="1:11" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A139" s="2">
@@ -21784,7 +22183,10 @@
       <c r="J139" s="2">
         <v>6</v>
       </c>
-      <c r="K139" s="2"/>
+      <c r="K139" s="2">
+        <f>156000+12000</f>
+        <v>168000</v>
+      </c>
     </row>
     <row r="140" spans="1:11" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A140" s="2">
@@ -21815,7 +22217,9 @@
       <c r="J140" s="2">
         <v>11</v>
       </c>
-      <c r="K140" s="2"/>
+      <c r="K140" s="2">
+        <v>59000</v>
+      </c>
     </row>
     <row r="141" spans="1:11" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A141" s="2">
@@ -21846,7 +22250,9 @@
       <c r="J141" s="2">
         <v>8</v>
       </c>
-      <c r="K141" s="2"/>
+      <c r="K141" s="2">
+        <v>66000</v>
+      </c>
     </row>
     <row r="142" spans="1:11" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A142" s="2">
@@ -21877,7 +22283,10 @@
       <c r="J142" s="2">
         <v>24</v>
       </c>
-      <c r="K142" s="2"/>
+      <c r="K142" s="2">
+        <f>91000+42000</f>
+        <v>133000</v>
+      </c>
     </row>
     <row r="143" spans="1:11" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A143" s="2">
@@ -21908,7 +22317,10 @@
       <c r="J143" s="2">
         <v>18</v>
       </c>
-      <c r="K143" s="2"/>
+      <c r="K143" s="2">
+        <f>52000+284000</f>
+        <v>336000</v>
+      </c>
     </row>
     <row r="144" spans="1:11" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A144" s="2">
@@ -21939,7 +22351,10 @@
       <c r="J144" s="2">
         <v>46</v>
       </c>
-      <c r="K144" s="2"/>
+      <c r="K144" s="2">
+        <f>436000+8000+59000+20000</f>
+        <v>523000</v>
+      </c>
     </row>
     <row r="145" spans="1:11" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A145" s="2">
@@ -21970,7 +22385,10 @@
       <c r="J145" s="2">
         <v>12</v>
       </c>
-      <c r="K145" s="2"/>
+      <c r="K145" s="2">
+        <f>13500+3000+93750</f>
+        <v>110250</v>
+      </c>
     </row>
     <row r="146" spans="1:11" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A146" s="2">
@@ -22001,7 +22419,10 @@
       <c r="J146" s="2">
         <v>64</v>
       </c>
-      <c r="K146" s="2"/>
+      <c r="K146" s="2">
+        <f>114000+38000+42000</f>
+        <v>194000</v>
+      </c>
     </row>
     <row r="147" spans="1:11" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A147" s="2">
@@ -22032,7 +22453,10 @@
       <c r="J147" s="2">
         <v>15</v>
       </c>
-      <c r="K147" s="2"/>
+      <c r="K147" s="2">
+        <f>10000+35500</f>
+        <v>45500</v>
+      </c>
     </row>
     <row r="148" spans="1:11" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A148" s="2">
@@ -22063,7 +22487,10 @@
       <c r="J148" s="2">
         <v>20</v>
       </c>
-      <c r="K148" s="2"/>
+      <c r="K148" s="2">
+        <f>33500+13000</f>
+        <v>46500</v>
+      </c>
     </row>
     <row r="149" spans="1:11" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A149" s="2">
@@ -22094,9 +22521,12 @@
       <c r="J149" s="2">
         <v>19</v>
       </c>
-      <c r="K149" s="2"/>
-    </row>
-    <row r="150" spans="1:11" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="K149" s="2">
+        <f>26000+36500</f>
+        <v>62500</v>
+      </c>
+    </row>
+    <row r="150" spans="1:11" ht="17.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A150" s="2">
         <v>149</v>
       </c>
@@ -22127,7 +22557,7 @@
       </c>
       <c r="K150" s="2"/>
     </row>
-    <row r="151" spans="1:11" ht="17.25" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:11" ht="17.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A151" s="2">
         <v>150</v>
       </c>
@@ -22158,7 +22588,7 @@
       </c>
       <c r="K151" s="2"/>
     </row>
-    <row r="152" spans="1:11" ht="17.25" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:11" ht="17.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A152" s="2">
         <v>151</v>
       </c>
@@ -22189,7 +22619,7 @@
       </c>
       <c r="K152" s="2"/>
     </row>
-    <row r="153" spans="1:11" ht="17.25" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:11" ht="17.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A153" s="2">
         <v>152</v>
       </c>
@@ -22220,7 +22650,7 @@
       </c>
       <c r="K153" s="2"/>
     </row>
-    <row r="154" spans="1:11" ht="17.25" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:11" ht="17.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A154" s="2">
         <v>153</v>
       </c>
@@ -22251,7 +22681,7 @@
       </c>
       <c r="K154" s="2"/>
     </row>
-    <row r="155" spans="1:11" ht="17.25" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:11" ht="17.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A155" s="2">
         <v>154</v>
       </c>
@@ -22282,7 +22712,7 @@
       </c>
       <c r="K155" s="2"/>
     </row>
-    <row r="156" spans="1:11" ht="17.25" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:11" ht="17.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A156" s="2">
         <v>155</v>
       </c>
@@ -22313,7 +22743,7 @@
       </c>
       <c r="K156" s="2"/>
     </row>
-    <row r="157" spans="1:11" ht="17.25" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:11" ht="17.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A157" s="2">
         <v>156</v>
       </c>
@@ -22344,7 +22774,7 @@
       </c>
       <c r="K157" s="2"/>
     </row>
-    <row r="158" spans="1:11" ht="17.25" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:11" ht="17.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A158" s="2">
         <v>157</v>
       </c>
@@ -22375,7 +22805,7 @@
       </c>
       <c r="K158" s="2"/>
     </row>
-    <row r="159" spans="1:11" ht="17.25" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:11" ht="17.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A159" s="2">
         <v>158</v>
       </c>
@@ -22406,7 +22836,7 @@
       </c>
       <c r="K159" s="2"/>
     </row>
-    <row r="160" spans="1:11" ht="17.25" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:11" ht="17.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A160" s="2">
         <v>159</v>
       </c>
@@ -22437,7 +22867,7 @@
       </c>
       <c r="K160" s="2"/>
     </row>
-    <row r="161" spans="1:11" ht="17.25" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:11" ht="17.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A161" s="2">
         <v>160</v>
       </c>
@@ -22468,7 +22898,7 @@
       </c>
       <c r="K161" s="2"/>
     </row>
-    <row r="162" spans="1:11" ht="17.25" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:11" ht="17.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A162" s="2">
         <v>161</v>
       </c>
@@ -22499,7 +22929,7 @@
       </c>
       <c r="K162" s="2"/>
     </row>
-    <row r="163" spans="1:11" ht="17.25" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:11" ht="17.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A163" s="3">
         <v>162</v>
       </c>
@@ -22532,7 +22962,7 @@
       </c>
       <c r="K163" s="3"/>
     </row>
-    <row r="164" spans="1:11" ht="17.25" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:11" ht="17.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A164" s="3">
         <v>163</v>
       </c>
@@ -22565,7 +22995,7 @@
       </c>
       <c r="K164" s="3"/>
     </row>
-    <row r="165" spans="1:11" ht="17.25" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:11" ht="17.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A165" s="3">
         <v>164</v>
       </c>
@@ -22598,7 +23028,7 @@
       </c>
       <c r="K165" s="3"/>
     </row>
-    <row r="166" spans="1:11" ht="17.25" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:11" ht="17.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A166" s="3">
         <v>165</v>
       </c>
@@ -22631,7 +23061,7 @@
       </c>
       <c r="K166" s="3"/>
     </row>
-    <row r="167" spans="1:11" ht="17.25" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:11" ht="17.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A167" s="3">
         <v>166</v>
       </c>
@@ -22664,7 +23094,7 @@
       </c>
       <c r="K167" s="3"/>
     </row>
-    <row r="168" spans="1:11" ht="17.25" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:11" ht="17.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A168" s="3">
         <v>167</v>
       </c>
@@ -22697,7 +23127,7 @@
       </c>
       <c r="K168" s="3"/>
     </row>
-    <row r="169" spans="1:11" ht="17.25" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:11" ht="17.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A169" s="3">
         <v>168</v>
       </c>
@@ -22730,7 +23160,7 @@
       </c>
       <c r="K169" s="3"/>
     </row>
-    <row r="170" spans="1:11" ht="17.25" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:11" ht="17.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A170" s="3">
         <v>169</v>
       </c>
@@ -22763,7 +23193,7 @@
       </c>
       <c r="K170" s="3"/>
     </row>
-    <row r="171" spans="1:11" ht="17.25" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:11" ht="17.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A171" s="3">
         <v>170</v>
       </c>
@@ -22794,7 +23224,7 @@
       <c r="J171" s="3"/>
       <c r="K171" s="3"/>
     </row>
-    <row r="172" spans="1:11" ht="17.25" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:11" ht="17.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A172" s="3">
         <v>171</v>
       </c>
@@ -22827,7 +23257,7 @@
       </c>
       <c r="K172" s="3"/>
     </row>
-    <row r="173" spans="1:11" ht="17.25" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:11" ht="17.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A173" s="3">
         <v>172</v>
       </c>
@@ -22860,7 +23290,7 @@
       </c>
       <c r="K173" s="3"/>
     </row>
-    <row r="174" spans="1:11" ht="17.25" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:11" ht="17.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A174" s="3">
         <v>173</v>
       </c>
@@ -22893,7 +23323,7 @@
       </c>
       <c r="K174" s="3"/>
     </row>
-    <row r="175" spans="1:11" ht="17.25" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:11" ht="17.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A175" s="3">
         <v>174</v>
       </c>
@@ -22926,7 +23356,7 @@
       </c>
       <c r="K175" s="3"/>
     </row>
-    <row r="176" spans="1:11" ht="17.25" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:11" ht="17.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A176" s="3">
         <v>175</v>
       </c>
@@ -22959,7 +23389,7 @@
       </c>
       <c r="K176" s="3"/>
     </row>
-    <row r="177" spans="1:11" ht="17.25" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:11" ht="17.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A177" s="3">
         <v>176</v>
       </c>
@@ -22992,7 +23422,7 @@
       </c>
       <c r="K177" s="3"/>
     </row>
-    <row r="178" spans="1:11" ht="17.25" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:11" ht="17.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A178" s="3">
         <v>177</v>
       </c>
@@ -23025,7 +23455,7 @@
       </c>
       <c r="K178" s="3"/>
     </row>
-    <row r="179" spans="1:11" ht="17.25" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:11" ht="17.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A179" s="3">
         <v>178</v>
       </c>
@@ -23058,7 +23488,7 @@
       </c>
       <c r="K179" s="3"/>
     </row>
-    <row r="180" spans="1:11" ht="17.25" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:11" ht="17.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A180" s="3">
         <v>179</v>
       </c>
@@ -23091,7 +23521,7 @@
       </c>
       <c r="K180" s="3"/>
     </row>
-    <row r="181" spans="1:11" ht="17.25" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:11" ht="17.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A181" s="3">
         <v>180</v>
       </c>
@@ -23124,7 +23554,7 @@
       </c>
       <c r="K181" s="3"/>
     </row>
-    <row r="182" spans="1:11" ht="17.25" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:11" ht="17.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A182" s="3">
         <v>181</v>
       </c>
@@ -23157,7 +23587,7 @@
       </c>
       <c r="K182" s="3"/>
     </row>
-    <row r="183" spans="1:11" ht="34.5" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:11" ht="34.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A183" s="3">
         <v>182</v>
       </c>
@@ -23190,7 +23620,7 @@
       </c>
       <c r="K183" s="3"/>
     </row>
-    <row r="184" spans="1:11" ht="17.25" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:11" ht="17.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A184" s="3">
         <v>183</v>
       </c>
@@ -23223,7 +23653,7 @@
       </c>
       <c r="K184" s="3"/>
     </row>
-    <row r="185" spans="1:11" ht="17.25" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:11" ht="17.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A185" s="3">
         <v>184</v>
       </c>
@@ -23256,7 +23686,7 @@
       </c>
       <c r="K185" s="3"/>
     </row>
-    <row r="186" spans="1:11" ht="17.25" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:11" ht="17.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A186" s="3">
         <v>185</v>
       </c>
@@ -23289,7 +23719,7 @@
       </c>
       <c r="K186" s="3"/>
     </row>
-    <row r="187" spans="1:11" ht="17.25" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:11" ht="17.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A187" s="3">
         <v>186</v>
       </c>
@@ -23322,7 +23752,7 @@
       </c>
       <c r="K187" s="3"/>
     </row>
-    <row r="188" spans="1:11" ht="17.25" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:11" ht="17.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A188" s="3">
         <v>191</v>
       </c>
@@ -23355,7 +23785,7 @@
       </c>
       <c r="K188" s="3"/>
     </row>
-    <row r="189" spans="1:11" ht="17.25" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:11" ht="17.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A189" s="3">
         <v>192</v>
       </c>
@@ -23388,7 +23818,7 @@
       </c>
       <c r="K189" s="3"/>
     </row>
-    <row r="190" spans="1:11" ht="17.25" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:11" ht="17.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A190" s="3">
         <v>193</v>
       </c>
@@ -23419,7 +23849,7 @@
       </c>
       <c r="K190" s="3"/>
     </row>
-    <row r="191" spans="1:11" ht="17.25" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:11" ht="17.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A191" s="3">
         <v>194</v>
       </c>
@@ -23450,7 +23880,7 @@
       </c>
       <c r="K191" s="3"/>
     </row>
-    <row r="192" spans="1:11" ht="17.25" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:11" ht="17.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A192" s="3">
         <v>195</v>
       </c>
@@ -23481,7 +23911,7 @@
       </c>
       <c r="K192" s="3"/>
     </row>
-    <row r="193" spans="1:11" ht="17.25" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:11" ht="17.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A193" s="3">
         <v>196</v>
       </c>
@@ -23514,7 +23944,7 @@
       </c>
       <c r="K193" s="3"/>
     </row>
-    <row r="194" spans="1:11" ht="17.25" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:11" ht="17.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A194" s="3">
         <v>197</v>
       </c>
@@ -23547,7 +23977,7 @@
       </c>
       <c r="K194" s="3"/>
     </row>
-    <row r="195" spans="1:11" ht="17.25" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:11" ht="17.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A195" s="3">
         <v>198</v>
       </c>
@@ -23580,7 +24010,7 @@
       </c>
       <c r="K195" s="3"/>
     </row>
-    <row r="196" spans="1:11" ht="17.25" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:11" ht="17.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A196" s="3">
         <v>199</v>
       </c>
@@ -23613,7 +24043,7 @@
       </c>
       <c r="K196" s="3"/>
     </row>
-    <row r="197" spans="1:11" ht="17.25" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:11" ht="17.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A197" s="3">
         <v>200</v>
       </c>
@@ -23646,7 +24076,7 @@
       </c>
       <c r="K197" s="3"/>
     </row>
-    <row r="198" spans="1:11" ht="17.25" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:11" ht="17.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A198" s="3">
         <v>201</v>
       </c>
@@ -23679,7 +24109,7 @@
       </c>
       <c r="K198" s="3"/>
     </row>
-    <row r="199" spans="1:11" ht="17.25" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:11" ht="17.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A199" s="3">
         <v>202</v>
       </c>
@@ -23712,7 +24142,7 @@
       </c>
       <c r="K199" s="3"/>
     </row>
-    <row r="200" spans="1:11" ht="17.25" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:11" ht="17.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A200" s="3">
         <v>203</v>
       </c>
@@ -23745,7 +24175,7 @@
       </c>
       <c r="K200" s="3"/>
     </row>
-    <row r="201" spans="1:11" ht="17.25" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:11" ht="17.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A201" s="3">
         <v>204</v>
       </c>
@@ -23778,7 +24208,7 @@
       </c>
       <c r="K201" s="3"/>
     </row>
-    <row r="202" spans="1:11" ht="17.25" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:11" ht="17.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A202" s="3">
         <v>205</v>
       </c>
@@ -23811,7 +24241,7 @@
       </c>
       <c r="K202" s="3"/>
     </row>
-    <row r="203" spans="1:11" ht="17.25" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:11" ht="17.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A203" s="3">
         <v>206</v>
       </c>
@@ -23873,9 +24303,12 @@
       <c r="J204" s="3">
         <v>49</v>
       </c>
-      <c r="K204" s="3"/>
-    </row>
-    <row r="205" spans="1:11" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="K204" s="3">
+        <f>381000+24000+48000</f>
+        <v>453000</v>
+      </c>
+    </row>
+    <row r="205" spans="1:11" ht="17.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A205" s="3">
         <v>208</v>
       </c>
@@ -23908,7 +24341,7 @@
       </c>
       <c r="K205" s="3"/>
     </row>
-    <row r="206" spans="1:11" ht="17.25" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:11" ht="17.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A206" s="3">
         <v>209</v>
       </c>
@@ -23941,7 +24374,7 @@
       </c>
       <c r="K206" s="3"/>
     </row>
-    <row r="207" spans="1:11" ht="17.25" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:11" ht="17.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A207" s="3">
         <v>210</v>
       </c>
@@ -23972,7 +24405,7 @@
       </c>
       <c r="K207" s="3"/>
     </row>
-    <row r="208" spans="1:11" ht="17.25" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:11" ht="17.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A208" s="3">
         <v>211</v>
       </c>
@@ -24003,7 +24436,7 @@
       </c>
       <c r="K208" s="3"/>
     </row>
-    <row r="209" spans="1:11" ht="17.25" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:11" ht="17.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A209" s="3">
         <v>212</v>
       </c>
@@ -24034,7 +24467,7 @@
       </c>
       <c r="K209" s="3"/>
     </row>
-    <row r="210" spans="1:11" ht="17.25" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:11" ht="17.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A210" s="3">
         <v>213</v>
       </c>
@@ -24065,7 +24498,7 @@
       </c>
       <c r="K210" s="3"/>
     </row>
-    <row r="211" spans="1:11" ht="17.25" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:11" ht="17.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A211" s="3">
         <v>214</v>
       </c>
@@ -24096,7 +24529,7 @@
       </c>
       <c r="K211" s="3"/>
     </row>
-    <row r="212" spans="1:11" ht="17.25" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:11" ht="17.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A212" s="3">
         <v>215</v>
       </c>
@@ -24127,7 +24560,7 @@
       </c>
       <c r="K212" s="3"/>
     </row>
-    <row r="213" spans="1:11" ht="17.25" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:11" ht="17.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A213" s="3">
         <v>216</v>
       </c>
@@ -24158,7 +24591,7 @@
       </c>
       <c r="K213" s="3"/>
     </row>
-    <row r="214" spans="1:11" ht="17.25" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:11" ht="17.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A214" s="3">
         <v>217</v>
       </c>
@@ -24189,7 +24622,7 @@
       </c>
       <c r="K214" s="3"/>
     </row>
-    <row r="215" spans="1:11" ht="17.25" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:11" ht="17.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A215" s="3">
         <v>218</v>
       </c>
@@ -24220,7 +24653,7 @@
       </c>
       <c r="K215" s="3"/>
     </row>
-    <row r="216" spans="1:11" ht="17.25" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:11" ht="17.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A216" s="3">
         <v>219</v>
       </c>
@@ -24251,7 +24684,7 @@
       </c>
       <c r="K216" s="3"/>
     </row>
-    <row r="217" spans="1:11" ht="17.25" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:11" ht="17.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A217" s="3">
         <v>220</v>
       </c>
@@ -24282,7 +24715,7 @@
       </c>
       <c r="K217" s="3"/>
     </row>
-    <row r="218" spans="1:11" ht="17.25" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:11" ht="17.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A218" s="3">
         <v>221</v>
       </c>
@@ -24313,7 +24746,7 @@
       </c>
       <c r="K218" s="3"/>
     </row>
-    <row r="219" spans="1:11" ht="17.25" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:11" ht="17.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A219" s="3">
         <v>222</v>
       </c>
@@ -24344,7 +24777,7 @@
       </c>
       <c r="K219" s="3"/>
     </row>
-    <row r="220" spans="1:11" ht="17.25" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:11" ht="17.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A220" s="3">
         <v>223</v>
       </c>
@@ -24375,7 +24808,7 @@
       </c>
       <c r="K220" s="3"/>
     </row>
-    <row r="221" spans="1:11" ht="17.25" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:11" ht="17.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A221" s="3">
         <v>224</v>
       </c>
@@ -24406,7 +24839,7 @@
       </c>
       <c r="K221" s="3"/>
     </row>
-    <row r="222" spans="1:11" ht="17.25" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:11" ht="17.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A222" s="7">
         <v>225</v>
       </c>
@@ -24437,7 +24870,7 @@
       </c>
       <c r="K222" s="7"/>
     </row>
-    <row r="223" spans="1:11" ht="17.25" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:11" ht="17.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A223" s="3">
         <v>226</v>
       </c>
@@ -24468,7 +24901,7 @@
       </c>
       <c r="K223" s="3"/>
     </row>
-    <row r="224" spans="1:11" ht="17.25" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:11" ht="17.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A224" s="7">
         <v>227</v>
       </c>
@@ -24499,7 +24932,7 @@
       </c>
       <c r="K224" s="7"/>
     </row>
-    <row r="225" spans="1:11" ht="17.25" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:11" ht="17.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A225" s="3">
         <v>228</v>
       </c>
@@ -24530,7 +24963,7 @@
       </c>
       <c r="K225" s="3"/>
     </row>
-    <row r="226" spans="1:11" ht="17.25" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:11" ht="17.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A226" s="3"/>
       <c r="B226" s="3">
         <v>3809</v>
@@ -24559,7 +24992,7 @@
       </c>
       <c r="K226" s="3"/>
     </row>
-    <row r="227" spans="1:11" ht="17.25" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:11" ht="17.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A227" s="3"/>
       <c r="B227" s="3">
         <v>3811</v>
@@ -24588,7 +25021,7 @@
       </c>
       <c r="K227" s="3"/>
     </row>
-    <row r="228" spans="1:11" ht="17.25" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:11" ht="17.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A228" s="3"/>
       <c r="B228" s="3">
         <v>3806</v>
@@ -24617,7 +25050,7 @@
       </c>
       <c r="K228" s="3"/>
     </row>
-    <row r="229" spans="1:11" ht="17.25" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:11" ht="17.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A229" s="3"/>
       <c r="B229" s="3">
         <v>3807</v>
@@ -24646,7 +25079,7 @@
       </c>
       <c r="K229" s="3"/>
     </row>
-    <row r="230" spans="1:11" ht="17.25" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:11" ht="17.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A230" s="3"/>
       <c r="B230" s="3">
         <v>3808</v>
@@ -24675,7 +25108,7 @@
       </c>
       <c r="K230" s="3"/>
     </row>
-    <row r="231" spans="1:11" ht="17.25" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:11" ht="17.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A231" s="3"/>
       <c r="B231" s="3">
         <v>3805</v>
@@ -24704,7 +25137,7 @@
       </c>
       <c r="K231" s="3"/>
     </row>
-    <row r="232" spans="1:11" ht="17.25" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:11" ht="17.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A232" s="3"/>
       <c r="B232" s="3">
         <v>3810</v>
@@ -24733,7 +25166,7 @@
       </c>
       <c r="K232" s="3"/>
     </row>
-    <row r="233" spans="1:11" ht="17.25" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:11" ht="17.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A233" s="3"/>
       <c r="B233" s="3">
         <v>3812</v>
@@ -24762,7 +25195,7 @@
       </c>
       <c r="K233" s="3"/>
     </row>
-    <row r="234" spans="1:11" ht="17.25" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:11" ht="17.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A234" s="3"/>
       <c r="B234" s="3">
         <v>3815</v>
@@ -24791,7 +25224,7 @@
       </c>
       <c r="K234" s="3"/>
     </row>
-    <row r="235" spans="1:11" ht="17.25" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:11" ht="17.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A235" s="3"/>
       <c r="B235" s="3">
         <v>3814</v>
@@ -24820,7 +25253,7 @@
       </c>
       <c r="K235" s="3"/>
     </row>
-    <row r="236" spans="1:11" ht="17.25" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:11" ht="17.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A236" s="3"/>
       <c r="B236" s="3">
         <v>3816</v>
@@ -24849,7 +25282,7 @@
       </c>
       <c r="K236" s="3"/>
     </row>
-    <row r="237" spans="1:11" ht="17.25" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:11" ht="17.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A237" s="3"/>
       <c r="B237" s="3">
         <v>3813</v>
@@ -24878,7 +25311,7 @@
       </c>
       <c r="K237" s="3"/>
     </row>
-    <row r="238" spans="1:11" ht="17.25" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:11" ht="17.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A238" s="3">
         <v>229</v>
       </c>
@@ -24909,7 +25342,7 @@
       </c>
       <c r="K238" s="3"/>
     </row>
-    <row r="239" spans="1:11" ht="17.25" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:11" ht="17.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A239" s="3">
         <v>230</v>
       </c>
@@ -24940,7 +25373,7 @@
       </c>
       <c r="K239" s="3"/>
     </row>
-    <row r="240" spans="1:11" ht="17.25" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:11" ht="17.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A240" s="3"/>
       <c r="B240" s="3">
         <v>3881</v>
@@ -24969,7 +25402,7 @@
       </c>
       <c r="K240" s="3"/>
     </row>
-    <row r="241" spans="1:11" ht="34.5" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:11" ht="34.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A241" s="3"/>
       <c r="B241" s="3">
         <v>3882</v>
@@ -24998,7 +25431,7 @@
       </c>
       <c r="K241" s="3"/>
     </row>
-    <row r="242" spans="1:11" ht="17.25" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:11" ht="17.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A242" s="3"/>
       <c r="B242" s="3">
         <v>3883</v>
@@ -25027,7 +25460,7 @@
       </c>
       <c r="K242" s="3"/>
     </row>
-    <row r="243" spans="1:11" ht="17.25" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:11" ht="17.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A243" s="3"/>
       <c r="B243" s="3">
         <v>3884</v>
@@ -25056,7 +25489,7 @@
       </c>
       <c r="K243" s="3"/>
     </row>
-    <row r="244" spans="1:11" ht="17.25" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:11" ht="17.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A244" s="3"/>
       <c r="B244" s="3">
         <v>3885</v>
@@ -25085,7 +25518,7 @@
       </c>
       <c r="K244" s="3"/>
     </row>
-    <row r="245" spans="1:11" ht="17.25" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:11" ht="17.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A245" s="3"/>
       <c r="B245" s="3">
         <v>3886</v>
@@ -25114,7 +25547,7 @@
       </c>
       <c r="K245" s="3"/>
     </row>
-    <row r="246" spans="1:11" ht="34.5" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:11" ht="34.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A246" s="3"/>
       <c r="B246" s="3">
         <v>3887</v>
@@ -25143,7 +25576,7 @@
       </c>
       <c r="K246" s="3"/>
     </row>
-    <row r="247" spans="1:11" ht="17.25" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:11" ht="17.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A247" s="3">
         <v>231</v>
       </c>
@@ -25174,7 +25607,7 @@
       </c>
       <c r="K247" s="3"/>
     </row>
-    <row r="248" spans="1:11" ht="17.25" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:11" ht="17.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A248" s="3"/>
       <c r="B248" s="3">
         <v>4205</v>
@@ -25203,7 +25636,7 @@
       </c>
       <c r="K248" s="3"/>
     </row>
-    <row r="249" spans="1:11" ht="17.25" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:11" ht="17.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A249" s="3"/>
       <c r="B249" s="3">
         <v>4203</v>
@@ -25232,7 +25665,7 @@
       </c>
       <c r="K249" s="3"/>
     </row>
-    <row r="250" spans="1:11" ht="17.25" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:11" ht="17.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A250" s="3"/>
       <c r="B250" s="3">
         <v>4206</v>
@@ -25261,7 +25694,7 @@
       </c>
       <c r="K250" s="3"/>
     </row>
-    <row r="251" spans="1:11" ht="17.25" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:11" ht="17.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A251" s="3"/>
       <c r="B251" s="3">
         <v>4204</v>
@@ -25290,7 +25723,7 @@
       </c>
       <c r="K251" s="3"/>
     </row>
-    <row r="252" spans="1:11" ht="17.25" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:11" ht="17.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A252" s="3">
         <v>232</v>
       </c>
@@ -25321,7 +25754,7 @@
       </c>
       <c r="K252" s="3"/>
     </row>
-    <row r="253" spans="1:11" ht="17.25" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:11" ht="17.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A253" s="3"/>
       <c r="B253" s="3">
         <v>4072</v>
@@ -25350,7 +25783,7 @@
       </c>
       <c r="K253" s="3"/>
     </row>
-    <row r="254" spans="1:11" ht="17.25" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:11" ht="17.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A254" s="3"/>
       <c r="B254" s="3">
         <v>4073</v>
@@ -25379,7 +25812,7 @@
       </c>
       <c r="K254" s="3"/>
     </row>
-    <row r="255" spans="1:11" ht="17.25" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:11" ht="17.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A255" s="3"/>
       <c r="B255" s="3">
         <v>4077</v>
@@ -25408,7 +25841,7 @@
       </c>
       <c r="K255" s="3"/>
     </row>
-    <row r="256" spans="1:11" ht="17.25" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:11" ht="17.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A256" s="3"/>
       <c r="B256" s="3">
         <v>4078</v>
@@ -25437,7 +25870,7 @@
       </c>
       <c r="K256" s="3"/>
     </row>
-    <row r="257" spans="1:11" ht="17.25" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:11" ht="17.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A257" s="3"/>
       <c r="B257" s="3">
         <v>4079</v>
@@ -25466,7 +25899,7 @@
       </c>
       <c r="K257" s="3"/>
     </row>
-    <row r="258" spans="1:11" ht="17.25" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:11" ht="17.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A258" s="3"/>
       <c r="B258" s="3">
         <v>4081</v>
@@ -25495,7 +25928,7 @@
       </c>
       <c r="K258" s="3"/>
     </row>
-    <row r="259" spans="1:11" ht="17.25" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:11" ht="17.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A259" s="3"/>
       <c r="B259" s="3">
         <v>4076</v>
@@ -25524,7 +25957,7 @@
       </c>
       <c r="K259" s="3"/>
     </row>
-    <row r="260" spans="1:11" ht="17.25" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:11" ht="17.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A260" s="3"/>
       <c r="B260" s="3">
         <v>4075</v>
@@ -25553,7 +25986,7 @@
       </c>
       <c r="K260" s="3"/>
     </row>
-    <row r="261" spans="1:11" ht="17.25" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:11" ht="17.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A261" s="3"/>
       <c r="B261" s="3">
         <v>4080</v>
@@ -25582,7 +26015,7 @@
       </c>
       <c r="K261" s="3"/>
     </row>
-    <row r="262" spans="1:11" ht="17.25" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:11" ht="17.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A262" s="3"/>
       <c r="B262" s="3">
         <v>4074</v>
@@ -25611,7 +26044,7 @@
       </c>
       <c r="K262" s="3"/>
     </row>
-    <row r="263" spans="1:11" ht="17.25" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:11" ht="17.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A263" s="3">
         <v>233</v>
       </c>
@@ -25642,7 +26075,7 @@
       </c>
       <c r="K263" s="3"/>
     </row>
-    <row r="264" spans="1:11" ht="17.25" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:11" ht="17.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A264" s="3"/>
       <c r="B264" s="3">
         <v>3988</v>
@@ -25671,7 +26104,7 @@
       </c>
       <c r="K264" s="3"/>
     </row>
-    <row r="265" spans="1:11" ht="17.25" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:11" ht="17.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A265" s="3"/>
       <c r="B265" s="3">
         <v>3989</v>
@@ -25700,7 +26133,7 @@
       </c>
       <c r="K265" s="3"/>
     </row>
-    <row r="266" spans="1:11" ht="17.25" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:11" ht="17.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A266" s="3"/>
       <c r="B266" s="3">
         <v>3990</v>
@@ -25729,7 +26162,7 @@
       </c>
       <c r="K266" s="3"/>
     </row>
-    <row r="267" spans="1:11" ht="17.25" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:11" ht="17.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A267" s="3">
         <v>234</v>
       </c>
@@ -25760,7 +26193,7 @@
       </c>
       <c r="K267" s="3"/>
     </row>
-    <row r="268" spans="1:11" ht="17.25" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:11" ht="17.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A268" s="3"/>
       <c r="B268" s="3">
         <v>3957</v>
@@ -25789,7 +26222,7 @@
       </c>
       <c r="K268" s="3"/>
     </row>
-    <row r="269" spans="1:11" ht="17.25" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:11" ht="17.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A269" s="3"/>
       <c r="B269" s="3">
         <v>3958</v>
@@ -25818,7 +26251,7 @@
       </c>
       <c r="K269" s="3"/>
     </row>
-    <row r="270" spans="1:11" ht="17.25" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:11" ht="17.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A270" s="3"/>
       <c r="B270" s="3">
         <v>3960</v>
@@ -25847,7 +26280,7 @@
       </c>
       <c r="K270" s="3"/>
     </row>
-    <row r="271" spans="1:11" ht="17.25" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:11" ht="17.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A271" s="3"/>
       <c r="B271" s="3">
         <v>3961</v>
@@ -25876,7 +26309,7 @@
       </c>
       <c r="K271" s="3"/>
     </row>
-    <row r="272" spans="1:11" ht="17.25" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:11" ht="17.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A272" s="3"/>
       <c r="B272" s="3">
         <v>3962</v>
@@ -25905,7 +26338,7 @@
       </c>
       <c r="K272" s="3"/>
     </row>
-    <row r="273" spans="1:11" ht="17.25" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:11" ht="17.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A273" s="3"/>
       <c r="B273" s="3">
         <v>3963</v>
@@ -25934,7 +26367,7 @@
       </c>
       <c r="K273" s="3"/>
     </row>
-    <row r="274" spans="1:11" ht="17.25" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:11" ht="17.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A274" s="3">
         <v>235</v>
       </c>
@@ -25965,7 +26398,7 @@
       </c>
       <c r="K274" s="3"/>
     </row>
-    <row r="275" spans="1:11" ht="17.25" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:11" ht="17.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A275" s="3">
         <v>236</v>
       </c>
@@ -25996,7 +26429,7 @@
       </c>
       <c r="K275" s="3"/>
     </row>
-    <row r="276" spans="1:11" ht="17.25" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:11" ht="17.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A276" s="3">
         <v>237</v>
       </c>
@@ -26027,7 +26460,7 @@
       </c>
       <c r="K276" s="3"/>
     </row>
-    <row r="277" spans="1:11" ht="17.25" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:11" ht="17.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A277" s="3">
         <v>238</v>
       </c>
@@ -26058,7 +26491,7 @@
       </c>
       <c r="K277" s="3"/>
     </row>
-    <row r="278" spans="1:11" ht="17.25" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:11" ht="17.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A278" s="3">
         <v>239</v>
       </c>
@@ -26089,7 +26522,7 @@
       </c>
       <c r="K278" s="3"/>
     </row>
-    <row r="279" spans="1:11" ht="17.25" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:11" ht="17.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A279" s="3">
         <v>240</v>
       </c>
@@ -26120,7 +26553,7 @@
       </c>
       <c r="K279" s="3"/>
     </row>
-    <row r="280" spans="1:11" ht="17.25" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:11" ht="17.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A280" s="3">
         <v>241</v>
       </c>
@@ -26151,7 +26584,7 @@
       </c>
       <c r="K280" s="3"/>
     </row>
-    <row r="281" spans="1:11" ht="17.25" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:11" ht="17.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A281" s="3"/>
       <c r="B281" s="3">
         <v>3667</v>
@@ -26180,7 +26613,7 @@
       </c>
       <c r="K281" s="3"/>
     </row>
-    <row r="282" spans="1:11" ht="17.25" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:11" ht="17.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A282" s="3"/>
       <c r="B282" s="3">
         <v>3666</v>
@@ -26209,7 +26642,7 @@
       </c>
       <c r="K282" s="3"/>
     </row>
-    <row r="283" spans="1:11" ht="17.25" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:11" ht="17.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A283" s="3"/>
       <c r="B283" s="3">
         <v>3665</v>
@@ -26238,7 +26671,7 @@
       </c>
       <c r="K283" s="3"/>
     </row>
-    <row r="284" spans="1:11" ht="17.25" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:11" ht="17.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A284" s="3"/>
       <c r="B284" s="3">
         <v>3664</v>
@@ -26267,7 +26700,7 @@
       </c>
       <c r="K284" s="3"/>
     </row>
-    <row r="285" spans="1:11" ht="17.25" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:11" ht="17.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A285" s="3"/>
       <c r="B285" s="3">
         <v>3663</v>
@@ -26296,7 +26729,7 @@
       </c>
       <c r="K285" s="3"/>
     </row>
-    <row r="286" spans="1:11" ht="17.25" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:11" ht="17.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A286" s="3"/>
       <c r="B286" s="3">
         <v>3662</v>
@@ -26325,7 +26758,7 @@
       </c>
       <c r="K286" s="3"/>
     </row>
-    <row r="287" spans="1:11" ht="17.25" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:11" ht="17.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A287" s="3"/>
       <c r="B287" s="3">
         <v>3661</v>
@@ -26354,7 +26787,7 @@
       </c>
       <c r="K287" s="3"/>
     </row>
-    <row r="288" spans="1:11" ht="17.25" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:11" ht="17.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A288" s="3"/>
       <c r="B288" s="3">
         <v>3660</v>
@@ -26383,7 +26816,7 @@
       </c>
       <c r="K288" s="3"/>
     </row>
-    <row r="289" spans="1:11" ht="17.25" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:11" ht="17.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A289" s="3"/>
       <c r="B289" s="3">
         <v>3659</v>
@@ -26412,7 +26845,7 @@
       </c>
       <c r="K289" s="3"/>
     </row>
-    <row r="290" spans="1:11" ht="17.25" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:11" ht="17.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A290" s="7">
         <v>242</v>
       </c>
@@ -26443,7 +26876,7 @@
       </c>
       <c r="K290" s="7"/>
     </row>
-    <row r="291" spans="1:11" ht="17.25" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:11" ht="17.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A291" s="3">
         <v>243</v>
       </c>
@@ -26474,7 +26907,7 @@
       </c>
       <c r="K291" s="3"/>
     </row>
-    <row r="292" spans="1:11" ht="17.25" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:11" ht="17.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A292" s="3"/>
       <c r="B292" s="3">
         <v>3556</v>
@@ -26503,7 +26936,7 @@
       </c>
       <c r="K292" s="3"/>
     </row>
-    <row r="293" spans="1:11" ht="17.25" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:11" ht="17.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A293" s="3"/>
       <c r="B293" s="3">
         <v>3557</v>
@@ -26532,7 +26965,7 @@
       </c>
       <c r="K293" s="3"/>
     </row>
-    <row r="294" spans="1:11" ht="17.25" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:11" ht="17.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A294" s="7">
         <v>244</v>
       </c>
@@ -26563,7 +26996,7 @@
       </c>
       <c r="K294" s="7"/>
     </row>
-    <row r="295" spans="1:11" ht="17.25" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:11" ht="17.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A295" s="3">
         <v>245</v>
       </c>
@@ -26594,7 +27027,7 @@
       </c>
       <c r="K295" s="3"/>
     </row>
-    <row r="296" spans="1:11" ht="17.25" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:11" ht="17.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A296" s="3"/>
       <c r="B296" s="3">
         <v>3357</v>
@@ -26623,7 +27056,7 @@
       </c>
       <c r="K296" s="3"/>
     </row>
-    <row r="297" spans="1:11" ht="17.25" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:11" ht="17.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A297" s="3"/>
       <c r="B297" s="3">
         <v>3358</v>
@@ -26652,7 +27085,7 @@
       </c>
       <c r="K297" s="3"/>
     </row>
-    <row r="298" spans="1:11" ht="17.25" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:11" ht="17.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A298" s="3"/>
       <c r="B298" s="3">
         <v>3359</v>
@@ -26681,7 +27114,7 @@
       </c>
       <c r="K298" s="3"/>
     </row>
-    <row r="299" spans="1:11" ht="17.25" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:11" ht="17.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A299" s="3"/>
       <c r="B299" s="3">
         <v>3360</v>
@@ -26710,7 +27143,7 @@
       </c>
       <c r="K299" s="3"/>
     </row>
-    <row r="300" spans="1:11" ht="17.25" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:11" ht="17.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A300" s="3"/>
       <c r="B300" s="3">
         <v>3361</v>
@@ -26739,7 +27172,7 @@
       </c>
       <c r="K300" s="3"/>
     </row>
-    <row r="301" spans="1:11" ht="17.25" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:11" ht="17.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A301" s="3"/>
       <c r="B301" s="3">
         <v>3362</v>
@@ -26768,7 +27201,7 @@
       </c>
       <c r="K301" s="3"/>
     </row>
-    <row r="302" spans="1:11" ht="17.25" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:11" ht="17.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A302" s="3"/>
       <c r="B302" s="3">
         <v>3363</v>
@@ -26797,7 +27230,7 @@
       </c>
       <c r="K302" s="3"/>
     </row>
-    <row r="303" spans="1:11" ht="17.25" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:11" ht="17.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A303" s="3"/>
       <c r="B303" s="3">
         <v>3364</v>
@@ -26826,7 +27259,7 @@
       </c>
       <c r="K303" s="3"/>
     </row>
-    <row r="304" spans="1:11" ht="17.25" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:11" ht="17.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A304" s="3"/>
       <c r="B304" s="3">
         <v>3365</v>
@@ -26855,7 +27288,7 @@
       </c>
       <c r="K304" s="3"/>
     </row>
-    <row r="305" spans="1:11" ht="17.25" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:11" ht="17.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A305" s="7">
         <v>246</v>
       </c>
@@ -26886,7 +27319,7 @@
       </c>
       <c r="K305" s="7"/>
     </row>
-    <row r="306" spans="1:11" ht="17.25" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:11" ht="17.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A306" s="3">
         <v>247</v>
       </c>
@@ -26917,7 +27350,7 @@
       </c>
       <c r="K306" s="3"/>
     </row>
-    <row r="307" spans="1:11" ht="17.25" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:11" ht="17.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A307" s="7">
         <v>248</v>
       </c>
@@ -26948,7 +27381,7 @@
       </c>
       <c r="K307" s="7"/>
     </row>
-    <row r="308" spans="1:11" ht="17.25" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:11" ht="17.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A308" s="3">
         <v>249</v>
       </c>
@@ -26979,7 +27412,7 @@
       </c>
       <c r="K308" s="3"/>
     </row>
-    <row r="309" spans="1:11" ht="17.25" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:11" ht="17.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A309" s="7">
         <v>250</v>
       </c>
@@ -27010,7 +27443,7 @@
       </c>
       <c r="K309" s="7"/>
     </row>
-    <row r="310" spans="1:11" ht="17.25" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:11" ht="17.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A310" s="7">
         <v>251</v>
       </c>
@@ -27041,7 +27474,7 @@
       </c>
       <c r="K310" s="7"/>
     </row>
-    <row r="311" spans="1:11" ht="17.25" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:11" ht="17.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A311" s="3">
         <v>252</v>
       </c>
@@ -27072,7 +27505,7 @@
       </c>
       <c r="K311" s="3"/>
     </row>
-    <row r="312" spans="1:11" ht="17.25" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:11" ht="17.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A312" s="3">
         <v>253</v>
       </c>
@@ -27103,7 +27536,7 @@
       </c>
       <c r="K312" s="3"/>
     </row>
-    <row r="313" spans="1:11" ht="17.25" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:11" ht="17.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A313" s="3">
         <v>254</v>
       </c>
@@ -27134,7 +27567,7 @@
       </c>
       <c r="K313" s="3"/>
     </row>
-    <row r="314" spans="1:11" ht="17.25" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:11" ht="17.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A314" s="3">
         <v>255</v>
       </c>
@@ -27165,7 +27598,7 @@
       </c>
       <c r="K314" s="3"/>
     </row>
-    <row r="315" spans="1:11" ht="17.25" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:11" ht="17.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A315" s="7">
         <v>256</v>
       </c>
@@ -27196,7 +27629,7 @@
       </c>
       <c r="K315" s="7"/>
     </row>
-    <row r="316" spans="1:11" ht="17.25" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:11" ht="17.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A316" s="3">
         <v>257</v>
       </c>
@@ -27227,7 +27660,7 @@
       </c>
       <c r="K316" s="3"/>
     </row>
-    <row r="317" spans="1:11" ht="17.25" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:11" ht="17.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A317" s="3">
         <v>258</v>
       </c>
@@ -27258,7 +27691,7 @@
       </c>
       <c r="K317" s="3"/>
     </row>
-    <row r="318" spans="1:11" ht="17.25" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:11" ht="17.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A318" s="3"/>
       <c r="B318" s="3">
         <v>2579</v>
@@ -27287,7 +27720,7 @@
       </c>
       <c r="K318" s="3"/>
     </row>
-    <row r="319" spans="1:11" ht="17.25" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:11" ht="17.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A319" s="3"/>
       <c r="B319" s="3">
         <v>2580</v>
@@ -27316,7 +27749,7 @@
       </c>
       <c r="K319" s="3"/>
     </row>
-    <row r="320" spans="1:11" ht="17.25" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:11" ht="17.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A320" s="3"/>
       <c r="B320" s="3">
         <v>2581</v>
@@ -27345,7 +27778,7 @@
       </c>
       <c r="K320" s="3"/>
     </row>
-    <row r="321" spans="1:11" ht="17.25" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:11" ht="17.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A321" s="3"/>
       <c r="B321" s="3">
         <v>2582</v>
@@ -27374,7 +27807,7 @@
       </c>
       <c r="K321" s="3"/>
     </row>
-    <row r="322" spans="1:11" ht="34.5" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:11" ht="34.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A322" s="3"/>
       <c r="B322" s="3">
         <v>2583</v>
@@ -27403,7 +27836,7 @@
       </c>
       <c r="K322" s="3"/>
     </row>
-    <row r="323" spans="1:11" ht="17.25" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:11" ht="17.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A323" s="3"/>
       <c r="B323" s="3">
         <v>2584</v>
@@ -27432,7 +27865,7 @@
       </c>
       <c r="K323" s="3"/>
     </row>
-    <row r="324" spans="1:11" ht="17.25" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:11" ht="17.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A324" s="7">
         <v>259</v>
       </c>
@@ -27463,7 +27896,7 @@
       </c>
       <c r="K324" s="7"/>
     </row>
-    <row r="325" spans="1:11" ht="17.25" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:11" ht="17.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A325" s="7">
         <v>260</v>
       </c>
@@ -27494,7 +27927,7 @@
       </c>
       <c r="K325" s="7"/>
     </row>
-    <row r="326" spans="1:11" ht="17.25" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:11" ht="17.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A326" s="7">
         <v>261</v>
       </c>
@@ -27525,7 +27958,7 @@
       </c>
       <c r="K326" s="7"/>
     </row>
-    <row r="327" spans="1:11" ht="17.25" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:11" ht="17.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A327" s="7">
         <v>262</v>
       </c>
@@ -27556,7 +27989,7 @@
       </c>
       <c r="K327" s="7"/>
     </row>
-    <row r="328" spans="1:11" ht="17.25" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:11" ht="17.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A328" s="7">
         <v>263</v>
       </c>
@@ -27587,7 +28020,7 @@
       </c>
       <c r="K328" s="7"/>
     </row>
-    <row r="329" spans="1:11" ht="17.25" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:11" ht="17.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A329" s="7">
         <v>264</v>
       </c>
@@ -27618,7 +28051,7 @@
       </c>
       <c r="K329" s="7"/>
     </row>
-    <row r="330" spans="1:11" ht="17.25" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:11" ht="17.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A330" s="3">
         <v>265</v>
       </c>
@@ -27649,7 +28082,7 @@
       </c>
       <c r="K330" s="3"/>
     </row>
-    <row r="331" spans="1:11" ht="17.25" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:11" ht="17.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A331" s="7">
         <v>266</v>
       </c>
@@ -27680,7 +28113,7 @@
       </c>
       <c r="K331" s="7"/>
     </row>
-    <row r="332" spans="1:11" ht="17.25" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:11" ht="17.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A332" s="7">
         <v>267</v>
       </c>
@@ -27711,7 +28144,7 @@
       </c>
       <c r="K332" s="7"/>
     </row>
-    <row r="333" spans="1:11" ht="17.25" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:11" ht="17.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A333" s="7">
         <v>268</v>
       </c>
@@ -27742,7 +28175,7 @@
       </c>
       <c r="K333" s="7"/>
     </row>
-    <row r="334" spans="1:11" ht="17.25" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:11" ht="17.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A334" s="7">
         <v>269</v>
       </c>
@@ -27773,7 +28206,7 @@
       </c>
       <c r="K334" s="7"/>
     </row>
-    <row r="335" spans="1:11" ht="17.25" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:11" ht="17.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A335" s="3">
         <v>270</v>
       </c>
@@ -27804,7 +28237,7 @@
       </c>
       <c r="K335" s="3"/>
     </row>
-    <row r="336" spans="1:11" ht="17.25" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:11" ht="17.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A336" s="3">
         <v>271</v>
       </c>
@@ -27835,7 +28268,7 @@
       </c>
       <c r="K336" s="3"/>
     </row>
-    <row r="337" spans="1:11" ht="17.25" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:11" ht="17.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A337" s="3">
         <v>272</v>
       </c>
@@ -27866,7 +28299,7 @@
       </c>
       <c r="K337" s="3"/>
     </row>
-    <row r="338" spans="1:11" ht="17.25" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:11" ht="17.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A338" s="3">
         <v>273</v>
       </c>
@@ -27897,7 +28330,7 @@
       </c>
       <c r="K338" s="3"/>
     </row>
-    <row r="339" spans="1:11" ht="17.25" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:11" ht="17.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A339" s="3">
         <v>274</v>
       </c>
@@ -27928,7 +28361,7 @@
       </c>
       <c r="K339" s="3"/>
     </row>
-    <row r="340" spans="1:11" ht="17.25" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:11" ht="17.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A340" s="3">
         <v>275</v>
       </c>
@@ -27959,7 +28392,7 @@
       </c>
       <c r="K340" s="3"/>
     </row>
-    <row r="341" spans="1:11" ht="17.25" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:11" ht="17.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A341" s="3">
         <v>276</v>
       </c>
@@ -27990,7 +28423,7 @@
       </c>
       <c r="K341" s="3"/>
     </row>
-    <row r="342" spans="1:11" ht="17.25" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:11" ht="17.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A342" s="3">
         <v>277</v>
       </c>
@@ -28021,7 +28454,7 @@
       </c>
       <c r="K342" s="3"/>
     </row>
-    <row r="343" spans="1:11" ht="17.25" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:11" ht="17.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A343" s="3"/>
       <c r="B343" s="3">
         <v>5192</v>
@@ -28050,7 +28483,7 @@
       </c>
       <c r="K343" s="3"/>
     </row>
-    <row r="344" spans="1:11" ht="17.25" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:11" ht="17.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A344" s="3"/>
       <c r="B344" s="3">
         <v>5193</v>
@@ -28079,7 +28512,7 @@
       </c>
       <c r="K344" s="3"/>
     </row>
-    <row r="345" spans="1:11" ht="17.25" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:11" ht="17.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A345" s="3"/>
       <c r="B345" s="3">
         <v>5195</v>
@@ -28108,7 +28541,7 @@
       </c>
       <c r="K345" s="3"/>
     </row>
-    <row r="346" spans="1:11" ht="17.25" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:11" ht="17.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A346" s="3"/>
       <c r="B346" s="3">
         <v>5194</v>
@@ -28137,7 +28570,7 @@
       </c>
       <c r="K346" s="3"/>
     </row>
-    <row r="347" spans="1:11" ht="17.25" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:11" ht="17.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A347" s="3"/>
       <c r="B347" s="3">
         <v>5196</v>
@@ -28166,7 +28599,7 @@
       </c>
       <c r="K347" s="3"/>
     </row>
-    <row r="348" spans="1:11" ht="17.25" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:11" ht="17.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A348" s="3">
         <v>278</v>
       </c>
@@ -28197,7 +28630,7 @@
       </c>
       <c r="K348" s="3"/>
     </row>
-    <row r="349" spans="1:11" ht="17.25" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:11" ht="17.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A349" s="3">
         <v>279</v>
       </c>
@@ -28228,7 +28661,7 @@
       </c>
       <c r="K349" s="3"/>
     </row>
-    <row r="350" spans="1:11" ht="17.25" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:11" ht="17.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A350" s="3">
         <v>280</v>
       </c>
@@ -28261,7 +28694,7 @@
       </c>
       <c r="K350" s="3"/>
     </row>
-    <row r="351" spans="1:11" ht="17.25" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:11" ht="17.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A351" s="3">
         <v>281</v>
       </c>
@@ -28292,7 +28725,7 @@
       </c>
       <c r="K351" s="3"/>
     </row>
-    <row r="352" spans="1:11" ht="17.25" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:11" ht="17.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A352" s="3">
         <v>282</v>
       </c>
@@ -28323,7 +28756,7 @@
       </c>
       <c r="K352" s="3"/>
     </row>
-    <row r="353" spans="1:11" ht="17.25" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:11" ht="17.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A353" s="3"/>
       <c r="B353" s="3">
         <v>5784</v>
@@ -28352,7 +28785,7 @@
       </c>
       <c r="K353" s="3"/>
     </row>
-    <row r="354" spans="1:11" ht="17.25" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:11" ht="17.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A354" s="3"/>
       <c r="B354" s="3">
         <v>5785</v>
@@ -28381,7 +28814,7 @@
       </c>
       <c r="K354" s="3"/>
     </row>
-    <row r="355" spans="1:11" ht="17.25" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:11" ht="17.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A355" s="3"/>
       <c r="B355" s="3">
         <v>5789</v>
@@ -28410,7 +28843,7 @@
       </c>
       <c r="K355" s="3"/>
     </row>
-    <row r="356" spans="1:11" ht="17.25" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:11" ht="17.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A356" s="3"/>
       <c r="B356" s="3">
         <v>5790</v>
@@ -28439,7 +28872,7 @@
       </c>
       <c r="K356" s="3"/>
     </row>
-    <row r="357" spans="1:11" ht="17.25" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:11" ht="17.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A357" s="3"/>
       <c r="B357" s="3">
         <v>5787</v>
@@ -28468,7 +28901,7 @@
       </c>
       <c r="K357" s="3"/>
     </row>
-    <row r="358" spans="1:11" ht="17.25" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:11" ht="17.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A358" s="3"/>
       <c r="B358" s="3">
         <v>5788</v>
@@ -28497,7 +28930,7 @@
       </c>
       <c r="K358" s="3"/>
     </row>
-    <row r="359" spans="1:11" ht="17.25" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:11" ht="17.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A359" s="3">
         <v>283</v>
       </c>
@@ -28528,7 +28961,7 @@
       </c>
       <c r="K359" s="3"/>
     </row>
-    <row r="360" spans="1:11" ht="17.25" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:11" ht="17.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A360" s="3">
         <v>284</v>
       </c>
@@ -28559,7 +28992,7 @@
       </c>
       <c r="K360" s="3"/>
     </row>
-    <row r="361" spans="1:11" ht="17.25" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:11" ht="17.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A361" s="3"/>
       <c r="B361" s="3">
         <v>6133</v>
@@ -28588,7 +29021,7 @@
       </c>
       <c r="K361" s="3"/>
     </row>
-    <row r="362" spans="1:11" ht="17.25" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:11" ht="17.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A362" s="3"/>
       <c r="B362" s="3">
         <v>6134</v>
@@ -28617,7 +29050,7 @@
       </c>
       <c r="K362" s="3"/>
     </row>
-    <row r="363" spans="1:11" ht="17.25" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:11" ht="17.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A363" s="3"/>
       <c r="B363" s="3">
         <v>6135</v>
@@ -28646,7 +29079,7 @@
       </c>
       <c r="K363" s="3"/>
     </row>
-    <row r="364" spans="1:11" ht="17.25" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:11" ht="17.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A364" s="3"/>
       <c r="B364" s="3">
         <v>6136</v>
@@ -28675,7 +29108,7 @@
       </c>
       <c r="K364" s="3"/>
     </row>
-    <row r="365" spans="1:11" ht="17.25" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:11" ht="17.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A365" s="3">
         <v>285</v>
       </c>
@@ -28706,7 +29139,7 @@
       </c>
       <c r="K365" s="3"/>
     </row>
-    <row r="366" spans="1:11" ht="17.25" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:11" ht="17.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A366" s="3"/>
       <c r="B366" s="3">
         <v>6139</v>
@@ -28735,7 +29168,7 @@
       </c>
       <c r="K366" s="3"/>
     </row>
-    <row r="367" spans="1:11" ht="17.25" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:11" ht="17.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A367" s="3"/>
       <c r="B367" s="3">
         <v>6140</v>
@@ -28764,7 +29197,7 @@
       </c>
       <c r="K367" s="3"/>
     </row>
-    <row r="368" spans="1:11" ht="17.25" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:11" ht="17.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A368" s="3"/>
       <c r="B368" s="3">
         <v>6141</v>
@@ -28793,7 +29226,7 @@
       </c>
       <c r="K368" s="3"/>
     </row>
-    <row r="369" spans="1:11" ht="17.25" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:11" ht="17.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A369" s="3"/>
       <c r="B369" s="3">
         <v>6143</v>
@@ -28822,7 +29255,7 @@
       </c>
       <c r="K369" s="3"/>
     </row>
-    <row r="370" spans="1:11" ht="17.25" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:11" ht="17.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A370" s="3"/>
       <c r="B370" s="3">
         <v>6142</v>
@@ -28851,7 +29284,7 @@
       </c>
       <c r="K370" s="3"/>
     </row>
-    <row r="371" spans="1:11" ht="17.25" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:11" ht="17.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A371" s="3"/>
       <c r="B371" s="3">
         <v>6146</v>
@@ -28880,7 +29313,7 @@
       </c>
       <c r="K371" s="3"/>
     </row>
-    <row r="372" spans="1:11" ht="17.25" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:11" ht="17.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A372" s="3"/>
       <c r="B372" s="3">
         <v>6144</v>
@@ -28909,7 +29342,7 @@
       </c>
       <c r="K372" s="3"/>
     </row>
-    <row r="373" spans="1:11" ht="17.25" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:11" ht="17.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A373" s="3"/>
       <c r="B373" s="3">
         <v>6145</v>
@@ -28938,7 +29371,7 @@
       </c>
       <c r="K373" s="3"/>
     </row>
-    <row r="374" spans="1:11" ht="17.25" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:11" ht="17.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A374" s="3"/>
       <c r="B374" s="3">
         <v>6147</v>
@@ -28967,7 +29400,7 @@
       </c>
       <c r="K374" s="3"/>
     </row>
-    <row r="375" spans="1:11" ht="17.25" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:11" ht="17.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A375" s="3"/>
       <c r="B375" s="3">
         <v>6148</v>
@@ -28996,7 +29429,7 @@
       </c>
       <c r="K375" s="3"/>
     </row>
-    <row r="376" spans="1:11" ht="17.25" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:11" ht="17.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A376" s="3">
         <v>286</v>
       </c>
@@ -29027,7 +29460,7 @@
       </c>
       <c r="K376" s="3"/>
     </row>
-    <row r="377" spans="1:11" ht="17.25" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:11" ht="17.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A377" s="3">
         <v>287</v>
       </c>
@@ -29058,7 +29491,7 @@
       </c>
       <c r="K377" s="3"/>
     </row>
-    <row r="378" spans="1:11" ht="17.25" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:11" ht="17.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A378" s="3"/>
       <c r="B378" s="3">
         <v>6303</v>
@@ -29087,7 +29520,7 @@
       </c>
       <c r="K378" s="3"/>
     </row>
-    <row r="379" spans="1:11" ht="17.25" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:11" ht="17.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A379" s="3"/>
       <c r="B379" s="3">
         <v>6304</v>
@@ -29116,7 +29549,7 @@
       </c>
       <c r="K379" s="3"/>
     </row>
-    <row r="380" spans="1:11" ht="17.25" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:11" ht="17.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A380" s="3"/>
       <c r="B380" s="3">
         <v>6306</v>
@@ -29145,7 +29578,7 @@
       </c>
       <c r="K380" s="3"/>
     </row>
-    <row r="381" spans="1:11" ht="17.25" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:11" ht="17.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A381" s="3"/>
       <c r="B381" s="3">
         <v>6305</v>
@@ -29174,7 +29607,7 @@
       </c>
       <c r="K381" s="3"/>
     </row>
-    <row r="382" spans="1:11" ht="17.25" x14ac:dyDescent="0.25">
+    <row r="382" spans="1:11" ht="17.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A382" s="3">
         <v>288</v>
       </c>
@@ -29205,7 +29638,7 @@
       </c>
       <c r="K382" s="3"/>
     </row>
-    <row r="383" spans="1:11" ht="17.25" x14ac:dyDescent="0.25">
+    <row r="383" spans="1:11" ht="17.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A383" s="3">
         <v>289</v>
       </c>
@@ -29236,7 +29669,7 @@
       </c>
       <c r="K383" s="3"/>
     </row>
-    <row r="384" spans="1:11" ht="17.25" x14ac:dyDescent="0.25">
+    <row r="384" spans="1:11" ht="17.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A384" s="3">
         <v>290</v>
       </c>
@@ -29267,7 +29700,7 @@
       </c>
       <c r="K384" s="3"/>
     </row>
-    <row r="385" spans="1:11" ht="17.25" x14ac:dyDescent="0.25">
+    <row r="385" spans="1:11" ht="17.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A385" s="3">
         <v>291</v>
       </c>
@@ -29298,7 +29731,7 @@
       </c>
       <c r="K385" s="3"/>
     </row>
-    <row r="386" spans="1:11" ht="17.25" x14ac:dyDescent="0.25">
+    <row r="386" spans="1:11" ht="17.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A386" s="3">
         <v>292</v>
       </c>
@@ -29331,7 +29764,7 @@
       </c>
       <c r="K386" s="3"/>
     </row>
-    <row r="387" spans="1:11" ht="17.25" x14ac:dyDescent="0.25">
+    <row r="387" spans="1:11" ht="17.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A387" s="7">
         <v>293</v>
       </c>
@@ -29362,7 +29795,7 @@
       </c>
       <c r="K387" s="7"/>
     </row>
-    <row r="388" spans="1:11" ht="17.25" x14ac:dyDescent="0.25">
+    <row r="388" spans="1:11" ht="17.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A388" s="3">
         <v>294</v>
       </c>
@@ -29393,7 +29826,7 @@
       </c>
       <c r="K388" s="3"/>
     </row>
-    <row r="389" spans="1:11" ht="34.5" x14ac:dyDescent="0.25">
+    <row r="389" spans="1:11" ht="34.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A389" s="3">
         <v>295</v>
       </c>
@@ -29424,7 +29857,7 @@
       </c>
       <c r="K389" s="3"/>
     </row>
-    <row r="390" spans="1:11" ht="17.25" x14ac:dyDescent="0.25">
+    <row r="390" spans="1:11" ht="17.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A390" s="3">
         <v>296</v>
       </c>
@@ -29455,7 +29888,7 @@
       </c>
       <c r="K390" s="3"/>
     </row>
-    <row r="391" spans="1:11" ht="17.25" x14ac:dyDescent="0.25">
+    <row r="391" spans="1:11" ht="17.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A391" s="3"/>
       <c r="B391" s="3">
         <v>6870</v>
@@ -29484,7 +29917,7 @@
       </c>
       <c r="K391" s="3"/>
     </row>
-    <row r="392" spans="1:11" ht="17.25" x14ac:dyDescent="0.25">
+    <row r="392" spans="1:11" ht="17.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A392" s="3"/>
       <c r="B392" s="3">
         <v>6871</v>
@@ -29513,7 +29946,7 @@
       </c>
       <c r="K392" s="3"/>
     </row>
-    <row r="393" spans="1:11" ht="17.25" x14ac:dyDescent="0.25">
+    <row r="393" spans="1:11" ht="17.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A393" s="3">
         <v>297</v>
       </c>
@@ -29544,7 +29977,7 @@
       </c>
       <c r="K393" s="3"/>
     </row>
-    <row r="394" spans="1:11" ht="17.25" x14ac:dyDescent="0.25">
+    <row r="394" spans="1:11" ht="17.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A394" s="3"/>
       <c r="B394" s="3">
         <v>6874</v>
@@ -29573,7 +30006,7 @@
       </c>
       <c r="K394" s="3"/>
     </row>
-    <row r="395" spans="1:11" ht="17.25" x14ac:dyDescent="0.25">
+    <row r="395" spans="1:11" ht="17.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A395" s="3"/>
       <c r="B395" s="3">
         <v>6873</v>
@@ -29602,7 +30035,7 @@
       </c>
       <c r="K395" s="3"/>
     </row>
-    <row r="396" spans="1:11" ht="17.25" x14ac:dyDescent="0.25">
+    <row r="396" spans="1:11" ht="17.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A396" s="3"/>
       <c r="B396" s="3">
         <v>6872</v>
@@ -29631,7 +30064,7 @@
       </c>
       <c r="K396" s="3"/>
     </row>
-    <row r="397" spans="1:11" ht="17.25" x14ac:dyDescent="0.25">
+    <row r="397" spans="1:11" ht="17.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A397" s="3"/>
       <c r="B397" s="3">
         <v>6878</v>
@@ -29660,7 +30093,7 @@
       </c>
       <c r="K397" s="3"/>
     </row>
-    <row r="398" spans="1:11" ht="17.25" x14ac:dyDescent="0.25">
+    <row r="398" spans="1:11" ht="17.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A398" s="3"/>
       <c r="B398" s="3">
         <v>6877</v>
@@ -29689,7 +30122,7 @@
       </c>
       <c r="K398" s="3"/>
     </row>
-    <row r="399" spans="1:11" ht="17.25" x14ac:dyDescent="0.25">
+    <row r="399" spans="1:11" ht="17.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A399" s="3"/>
       <c r="B399" s="3">
         <v>6879</v>
@@ -29718,7 +30151,7 @@
       </c>
       <c r="K399" s="3"/>
     </row>
-    <row r="400" spans="1:11" ht="17.25" x14ac:dyDescent="0.25">
+    <row r="400" spans="1:11" ht="17.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A400" s="3"/>
       <c r="B400" s="3">
         <v>6876</v>
@@ -29747,7 +30180,7 @@
       </c>
       <c r="K400" s="3"/>
     </row>
-    <row r="401" spans="1:11" ht="17.25" x14ac:dyDescent="0.25">
+    <row r="401" spans="1:11" ht="17.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A401" s="3"/>
       <c r="B401" s="3">
         <v>6881</v>
@@ -29776,7 +30209,7 @@
       </c>
       <c r="K401" s="3"/>
     </row>
-    <row r="402" spans="1:11" ht="17.25" x14ac:dyDescent="0.25">
+    <row r="402" spans="1:11" ht="17.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A402" s="3"/>
       <c r="B402" s="3">
         <v>6880</v>
@@ -29805,7 +30238,7 @@
       </c>
       <c r="K402" s="3"/>
     </row>
-    <row r="403" spans="1:11" ht="17.25" x14ac:dyDescent="0.25">
+    <row r="403" spans="1:11" ht="17.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A403" s="3"/>
       <c r="B403" s="3">
         <v>6882</v>
@@ -29834,7 +30267,7 @@
       </c>
       <c r="K403" s="3"/>
     </row>
-    <row r="404" spans="1:11" ht="17.25" x14ac:dyDescent="0.25">
+    <row r="404" spans="1:11" ht="17.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A404" s="3">
         <v>298</v>
       </c>
@@ -29865,7 +30298,7 @@
       </c>
       <c r="K404" s="3"/>
     </row>
-    <row r="405" spans="1:11" ht="17.25" x14ac:dyDescent="0.25">
+    <row r="405" spans="1:11" ht="17.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A405" s="3">
         <v>299</v>
       </c>
@@ -29896,7 +30329,7 @@
       </c>
       <c r="K405" s="3"/>
     </row>
-    <row r="406" spans="1:11" ht="17.25" x14ac:dyDescent="0.25">
+    <row r="406" spans="1:11" ht="17.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A406" s="3">
         <v>300</v>
       </c>
@@ -29927,7 +30360,7 @@
       </c>
       <c r="K406" s="3"/>
     </row>
-    <row r="407" spans="1:11" ht="17.25" x14ac:dyDescent="0.25">
+    <row r="407" spans="1:11" ht="17.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A407" s="3">
         <v>301</v>
       </c>
@@ -29958,7 +30391,7 @@
       </c>
       <c r="K407" s="3"/>
     </row>
-    <row r="408" spans="1:11" ht="17.25" x14ac:dyDescent="0.25">
+    <row r="408" spans="1:11" ht="17.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A408" s="3">
         <v>302</v>
       </c>
@@ -29989,7 +30422,7 @@
       </c>
       <c r="K408" s="3"/>
     </row>
-    <row r="409" spans="1:11" ht="17.25" x14ac:dyDescent="0.25">
+    <row r="409" spans="1:11" ht="17.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A409" s="3">
         <v>303</v>
       </c>
@@ -30020,7 +30453,7 @@
       </c>
       <c r="K409" s="3"/>
     </row>
-    <row r="410" spans="1:11" ht="17.25" x14ac:dyDescent="0.25">
+    <row r="410" spans="1:11" ht="17.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A410" s="3">
         <v>304</v>
       </c>
@@ -30051,7 +30484,7 @@
       </c>
       <c r="K410" s="3"/>
     </row>
-    <row r="411" spans="1:11" ht="17.25" x14ac:dyDescent="0.25">
+    <row r="411" spans="1:11" ht="17.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A411" s="3">
         <v>305</v>
       </c>
@@ -30082,7 +30515,7 @@
       </c>
       <c r="K411" s="3"/>
     </row>
-    <row r="412" spans="1:11" ht="17.25" x14ac:dyDescent="0.25">
+    <row r="412" spans="1:11" ht="17.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A412" s="3">
         <v>306</v>
       </c>
@@ -30113,7 +30546,7 @@
       </c>
       <c r="K412" s="3"/>
     </row>
-    <row r="413" spans="1:11" ht="17.25" x14ac:dyDescent="0.25">
+    <row r="413" spans="1:11" ht="17.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A413" s="3">
         <v>307</v>
       </c>
@@ -30144,7 +30577,7 @@
       </c>
       <c r="K413" s="3"/>
     </row>
-    <row r="414" spans="1:11" ht="17.25" x14ac:dyDescent="0.25">
+    <row r="414" spans="1:11" ht="17.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A414" s="3">
         <v>309</v>
       </c>
@@ -30175,7 +30608,7 @@
       </c>
       <c r="K414" s="3"/>
     </row>
-    <row r="415" spans="1:11" ht="17.25" x14ac:dyDescent="0.25">
+    <row r="415" spans="1:11" ht="17.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A415" s="3">
         <v>310</v>
       </c>
@@ -30206,7 +30639,7 @@
       </c>
       <c r="K415" s="3"/>
     </row>
-    <row r="416" spans="1:11" ht="17.25" x14ac:dyDescent="0.25">
+    <row r="416" spans="1:11" ht="17.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A416" s="3">
         <v>311</v>
       </c>
@@ -30233,7 +30666,7 @@
       </c>
       <c r="K416" s="3"/>
     </row>
-    <row r="417" spans="1:11" ht="17.25" x14ac:dyDescent="0.25">
+    <row r="417" spans="1:11" ht="17.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A417" s="3">
         <v>312</v>
       </c>
@@ -30264,7 +30697,7 @@
       </c>
       <c r="K417" s="3"/>
     </row>
-    <row r="418" spans="1:11" ht="17.25" x14ac:dyDescent="0.25">
+    <row r="418" spans="1:11" ht="17.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A418" s="3">
         <v>313</v>
       </c>
@@ -30297,7 +30730,7 @@
       </c>
       <c r="K418" s="3"/>
     </row>
-    <row r="419" spans="1:11" ht="17.25" x14ac:dyDescent="0.25">
+    <row r="419" spans="1:11" ht="17.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A419" s="3"/>
       <c r="B419" s="3">
         <v>8757</v>
@@ -30328,7 +30761,7 @@
       </c>
       <c r="K419" s="3"/>
     </row>
-    <row r="420" spans="1:11" ht="17.25" x14ac:dyDescent="0.25">
+    <row r="420" spans="1:11" ht="17.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A420" s="3"/>
       <c r="B420" s="3">
         <v>8758</v>
@@ -30359,7 +30792,7 @@
       </c>
       <c r="K420" s="3"/>
     </row>
-    <row r="421" spans="1:11" ht="17.25" x14ac:dyDescent="0.25">
+    <row r="421" spans="1:11" ht="17.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A421" s="3"/>
       <c r="B421" s="3">
         <v>8759</v>
@@ -30390,7 +30823,7 @@
       </c>
       <c r="K421" s="3"/>
     </row>
-    <row r="422" spans="1:11" ht="17.25" x14ac:dyDescent="0.25">
+    <row r="422" spans="1:11" ht="17.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A422" s="3"/>
       <c r="B422" s="3">
         <v>8760</v>
@@ -30421,7 +30854,7 @@
       </c>
       <c r="K422" s="3"/>
     </row>
-    <row r="423" spans="1:11" ht="17.25" x14ac:dyDescent="0.25">
+    <row r="423" spans="1:11" ht="17.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A423" s="3"/>
       <c r="B423" s="3">
         <v>8761</v>
@@ -30452,7 +30885,7 @@
       </c>
       <c r="K423" s="3"/>
     </row>
-    <row r="424" spans="1:11" ht="17.25" x14ac:dyDescent="0.25">
+    <row r="424" spans="1:11" ht="17.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A424" s="3"/>
       <c r="B424" s="3">
         <v>8762</v>
@@ -30483,7 +30916,7 @@
       </c>
       <c r="K424" s="3"/>
     </row>
-    <row r="425" spans="1:11" ht="17.25" x14ac:dyDescent="0.25">
+    <row r="425" spans="1:11" ht="17.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A425" s="3"/>
       <c r="B425" s="3">
         <v>8763</v>
@@ -30514,7 +30947,7 @@
       </c>
       <c r="K425" s="3"/>
     </row>
-    <row r="426" spans="1:11" ht="17.25" x14ac:dyDescent="0.25">
+    <row r="426" spans="1:11" ht="17.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A426" s="3"/>
       <c r="B426" s="3">
         <v>8764</v>
@@ -30545,7 +30978,7 @@
       </c>
       <c r="K426" s="3"/>
     </row>
-    <row r="427" spans="1:11" ht="17.25" x14ac:dyDescent="0.25">
+    <row r="427" spans="1:11" ht="17.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A427" s="3"/>
       <c r="B427" s="3">
         <v>8765</v>
@@ -30576,7 +31009,7 @@
       </c>
       <c r="K427" s="3"/>
     </row>
-    <row r="428" spans="1:11" ht="17.25" x14ac:dyDescent="0.25">
+    <row r="428" spans="1:11" ht="17.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A428" s="3"/>
       <c r="B428" s="3">
         <v>8766</v>
@@ -30607,7 +31040,7 @@
       </c>
       <c r="K428" s="3"/>
     </row>
-    <row r="429" spans="1:11" ht="17.25" x14ac:dyDescent="0.25">
+    <row r="429" spans="1:11" ht="17.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A429" s="3"/>
       <c r="B429" s="3">
         <v>8767</v>
@@ -30638,7 +31071,7 @@
       </c>
       <c r="K429" s="3"/>
     </row>
-    <row r="430" spans="1:11" ht="17.25" x14ac:dyDescent="0.25">
+    <row r="430" spans="1:11" ht="17.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A430" s="3"/>
       <c r="B430" s="3">
         <v>8768</v>
@@ -30669,7 +31102,7 @@
       </c>
       <c r="K430" s="3"/>
     </row>
-    <row r="431" spans="1:11" ht="17.25" x14ac:dyDescent="0.25">
+    <row r="431" spans="1:11" ht="17.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A431" s="3"/>
       <c r="B431" s="3">
         <v>8769</v>
@@ -30700,7 +31133,7 @@
       </c>
       <c r="K431" s="3"/>
     </row>
-    <row r="432" spans="1:11" ht="17.25" x14ac:dyDescent="0.25">
+    <row r="432" spans="1:11" ht="17.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A432" s="3">
         <v>314</v>
       </c>
@@ -30733,7 +31166,7 @@
       </c>
       <c r="K432" s="3"/>
     </row>
-    <row r="433" spans="1:11" ht="17.25" x14ac:dyDescent="0.25">
+    <row r="433" spans="1:11" ht="17.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A433" s="3"/>
       <c r="B433" s="3">
         <v>8791</v>
@@ -30764,7 +31197,7 @@
       </c>
       <c r="K433" s="3"/>
     </row>
-    <row r="434" spans="1:11" ht="17.25" x14ac:dyDescent="0.25">
+    <row r="434" spans="1:11" ht="17.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A434" s="3"/>
       <c r="B434" s="3">
         <v>8792</v>
@@ -30795,7 +31228,7 @@
       </c>
       <c r="K434" s="3"/>
     </row>
-    <row r="435" spans="1:11" ht="17.25" x14ac:dyDescent="0.25">
+    <row r="435" spans="1:11" ht="17.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A435" s="3"/>
       <c r="B435" s="3">
         <v>8793</v>
@@ -30826,7 +31259,7 @@
       </c>
       <c r="K435" s="3"/>
     </row>
-    <row r="436" spans="1:11" ht="17.25" x14ac:dyDescent="0.25">
+    <row r="436" spans="1:11" ht="17.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A436" s="3"/>
       <c r="B436" s="3">
         <v>8794</v>
@@ -30857,7 +31290,7 @@
       </c>
       <c r="K436" s="3"/>
     </row>
-    <row r="437" spans="1:11" ht="17.25" x14ac:dyDescent="0.25">
+    <row r="437" spans="1:11" ht="17.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A437" s="3"/>
       <c r="B437" s="3">
         <v>8819</v>
@@ -30888,7 +31321,7 @@
       </c>
       <c r="K437" s="3"/>
     </row>
-    <row r="438" spans="1:11" ht="17.25" x14ac:dyDescent="0.25">
+    <row r="438" spans="1:11" ht="17.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A438" s="3"/>
       <c r="B438" s="3">
         <v>8821</v>
@@ -30919,7 +31352,7 @@
       </c>
       <c r="K438" s="3"/>
     </row>
-    <row r="439" spans="1:11" ht="17.25" x14ac:dyDescent="0.25">
+    <row r="439" spans="1:11" ht="17.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A439" s="3"/>
       <c r="B439" s="3">
         <v>8823</v>
@@ -30950,7 +31383,7 @@
       </c>
       <c r="K439" s="3"/>
     </row>
-    <row r="440" spans="1:11" ht="17.25" x14ac:dyDescent="0.25">
+    <row r="440" spans="1:11" ht="17.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A440" s="3"/>
       <c r="B440" s="3">
         <v>8824</v>
@@ -30981,7 +31414,7 @@
       </c>
       <c r="K440" s="3"/>
     </row>
-    <row r="441" spans="1:11" ht="17.25" x14ac:dyDescent="0.25">
+    <row r="441" spans="1:11" ht="17.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A441" s="3"/>
       <c r="B441" s="3">
         <v>8825</v>
@@ -31012,7 +31445,7 @@
       </c>
       <c r="K441" s="3"/>
     </row>
-    <row r="442" spans="1:11" ht="17.25" x14ac:dyDescent="0.25">
+    <row r="442" spans="1:11" ht="17.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A442" s="3"/>
       <c r="B442" s="3">
         <v>8826</v>
@@ -31043,7 +31476,7 @@
       </c>
       <c r="K442" s="3"/>
     </row>
-    <row r="443" spans="1:11" ht="17.25" x14ac:dyDescent="0.25">
+    <row r="443" spans="1:11" ht="17.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A443" s="3"/>
       <c r="B443" s="3">
         <v>8827</v>
@@ -31074,7 +31507,7 @@
       </c>
       <c r="K443" s="3"/>
     </row>
-    <row r="444" spans="1:11" ht="17.25" x14ac:dyDescent="0.25">
+    <row r="444" spans="1:11" ht="17.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A444" s="3"/>
       <c r="B444" s="3">
         <v>8828</v>
@@ -31105,7 +31538,7 @@
       </c>
       <c r="K444" s="3"/>
     </row>
-    <row r="445" spans="1:11" ht="17.25" x14ac:dyDescent="0.25">
+    <row r="445" spans="1:11" ht="17.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A445" s="3"/>
       <c r="B445" s="3">
         <v>8829</v>
@@ -31136,7 +31569,7 @@
       </c>
       <c r="K445" s="3"/>
     </row>
-    <row r="446" spans="1:11" ht="17.25" x14ac:dyDescent="0.25">
+    <row r="446" spans="1:11" ht="17.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A446" s="3"/>
       <c r="B446" s="3">
         <v>8830</v>
@@ -31167,7 +31600,7 @@
       </c>
       <c r="K446" s="3"/>
     </row>
-    <row r="447" spans="1:11" ht="17.25" x14ac:dyDescent="0.25">
+    <row r="447" spans="1:11" ht="17.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A447" s="3">
         <v>315</v>
       </c>
@@ -31200,7 +31633,7 @@
       </c>
       <c r="K447" s="3"/>
     </row>
-    <row r="448" spans="1:11" ht="17.25" x14ac:dyDescent="0.25">
+    <row r="448" spans="1:11" ht="17.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A448" s="3"/>
       <c r="B448" s="3">
         <v>8833</v>
@@ -31231,7 +31664,7 @@
       </c>
       <c r="K448" s="3"/>
     </row>
-    <row r="449" spans="1:11" ht="17.25" x14ac:dyDescent="0.25">
+    <row r="449" spans="1:11" ht="17.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A449" s="3"/>
       <c r="B449" s="3">
         <v>8834</v>
@@ -31262,7 +31695,7 @@
       </c>
       <c r="K449" s="3"/>
     </row>
-    <row r="450" spans="1:11" ht="17.25" x14ac:dyDescent="0.25">
+    <row r="450" spans="1:11" ht="17.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A450" s="3"/>
       <c r="B450" s="3">
         <v>8835</v>
@@ -31293,7 +31726,7 @@
       </c>
       <c r="K450" s="3"/>
     </row>
-    <row r="451" spans="1:11" ht="17.25" x14ac:dyDescent="0.25">
+    <row r="451" spans="1:11" ht="17.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A451" s="3"/>
       <c r="B451" s="3">
         <v>8836</v>
@@ -31324,7 +31757,7 @@
       </c>
       <c r="K451" s="3"/>
     </row>
-    <row r="452" spans="1:11" ht="17.25" x14ac:dyDescent="0.25">
+    <row r="452" spans="1:11" ht="17.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A452" s="3"/>
       <c r="B452" s="3">
         <v>8837</v>
@@ -31355,7 +31788,7 @@
       </c>
       <c r="K452" s="3"/>
     </row>
-    <row r="453" spans="1:11" ht="17.25" x14ac:dyDescent="0.25">
+    <row r="453" spans="1:11" ht="17.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A453" s="3"/>
       <c r="B453" s="3">
         <v>8838</v>
@@ -31386,7 +31819,7 @@
       </c>
       <c r="K453" s="3"/>
     </row>
-    <row r="454" spans="1:11" ht="17.25" x14ac:dyDescent="0.25">
+    <row r="454" spans="1:11" ht="17.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A454" s="3"/>
       <c r="B454" s="3">
         <v>8839</v>
@@ -31417,7 +31850,7 @@
       </c>
       <c r="K454" s="3"/>
     </row>
-    <row r="455" spans="1:11" ht="17.25" x14ac:dyDescent="0.25">
+    <row r="455" spans="1:11" ht="17.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A455" s="3"/>
       <c r="B455" s="3">
         <v>8840</v>
@@ -31448,7 +31881,7 @@
       </c>
       <c r="K455" s="3"/>
     </row>
-    <row r="456" spans="1:11" ht="17.25" x14ac:dyDescent="0.25">
+    <row r="456" spans="1:11" ht="17.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A456" s="3"/>
       <c r="B456" s="3">
         <v>8841</v>
@@ -31479,7 +31912,7 @@
       </c>
       <c r="K456" s="3"/>
     </row>
-    <row r="457" spans="1:11" ht="17.25" x14ac:dyDescent="0.25">
+    <row r="457" spans="1:11" ht="17.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A457" s="3"/>
       <c r="B457" s="3">
         <v>8842</v>
@@ -31510,7 +31943,7 @@
       </c>
       <c r="K457" s="3"/>
     </row>
-    <row r="458" spans="1:11" ht="17.25" x14ac:dyDescent="0.25">
+    <row r="458" spans="1:11" ht="17.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A458" s="3"/>
       <c r="B458" s="3">
         <v>8843</v>
@@ -31541,7 +31974,7 @@
       </c>
       <c r="K458" s="3"/>
     </row>
-    <row r="459" spans="1:11" ht="17.25" x14ac:dyDescent="0.25">
+    <row r="459" spans="1:11" ht="17.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A459" s="3">
         <v>316</v>
       </c>
@@ -31574,7 +32007,7 @@
       </c>
       <c r="K459" s="3"/>
     </row>
-    <row r="460" spans="1:11" ht="17.25" x14ac:dyDescent="0.25">
+    <row r="460" spans="1:11" ht="17.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A460" s="3"/>
       <c r="B460" s="3">
         <v>8857</v>
@@ -31605,7 +32038,7 @@
       </c>
       <c r="K460" s="3"/>
     </row>
-    <row r="461" spans="1:11" ht="17.25" x14ac:dyDescent="0.25">
+    <row r="461" spans="1:11" ht="17.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A461" s="3"/>
       <c r="B461" s="3">
         <v>8858</v>
@@ -31636,7 +32069,7 @@
       </c>
       <c r="K461" s="3"/>
     </row>
-    <row r="462" spans="1:11" ht="17.25" x14ac:dyDescent="0.25">
+    <row r="462" spans="1:11" ht="17.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A462" s="3"/>
       <c r="B462" s="3">
         <v>8859</v>
@@ -31667,7 +32100,7 @@
       </c>
       <c r="K462" s="3"/>
     </row>
-    <row r="463" spans="1:11" ht="17.25" x14ac:dyDescent="0.25">
+    <row r="463" spans="1:11" ht="17.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A463" s="3"/>
       <c r="B463" s="3">
         <v>8860</v>
@@ -31698,7 +32131,7 @@
       </c>
       <c r="K463" s="3"/>
     </row>
-    <row r="464" spans="1:11" ht="17.25" x14ac:dyDescent="0.25">
+    <row r="464" spans="1:11" ht="17.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A464" s="3"/>
       <c r="B464" s="3">
         <v>8861</v>
@@ -31729,7 +32162,7 @@
       </c>
       <c r="K464" s="3"/>
     </row>
-    <row r="465" spans="1:11" ht="17.25" x14ac:dyDescent="0.25">
+    <row r="465" spans="1:11" ht="17.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A465" s="3"/>
       <c r="B465" s="3">
         <v>8862</v>
@@ -31760,7 +32193,7 @@
       </c>
       <c r="K465" s="3"/>
     </row>
-    <row r="466" spans="1:11" ht="17.25" x14ac:dyDescent="0.25">
+    <row r="466" spans="1:11" ht="17.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A466" s="3"/>
       <c r="B466" s="3">
         <v>8863</v>
@@ -31791,7 +32224,7 @@
       </c>
       <c r="K466" s="3"/>
     </row>
-    <row r="467" spans="1:11" ht="17.25" x14ac:dyDescent="0.25">
+    <row r="467" spans="1:11" ht="17.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A467" s="3"/>
       <c r="B467" s="3">
         <v>8864</v>
@@ -31822,7 +32255,7 @@
       </c>
       <c r="K467" s="3"/>
     </row>
-    <row r="468" spans="1:11" ht="17.25" x14ac:dyDescent="0.25">
+    <row r="468" spans="1:11" ht="17.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A468" s="3"/>
       <c r="B468" s="3">
         <v>8865</v>
@@ -31853,7 +32286,7 @@
       </c>
       <c r="K468" s="3"/>
     </row>
-    <row r="469" spans="1:11" ht="17.25" x14ac:dyDescent="0.25">
+    <row r="469" spans="1:11" ht="17.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A469" s="3"/>
       <c r="B469" s="3">
         <v>8866</v>
@@ -31884,7 +32317,7 @@
       </c>
       <c r="K469" s="3"/>
     </row>
-    <row r="470" spans="1:11" ht="17.25" x14ac:dyDescent="0.25">
+    <row r="470" spans="1:11" ht="17.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A470" s="3"/>
       <c r="B470" s="3">
         <v>8867</v>
@@ -31915,7 +32348,7 @@
       </c>
       <c r="K470" s="3"/>
     </row>
-    <row r="471" spans="1:11" ht="17.25" x14ac:dyDescent="0.25">
+    <row r="471" spans="1:11" ht="17.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A471" s="3">
         <v>317</v>
       </c>
@@ -31948,7 +32381,7 @@
       </c>
       <c r="K471" s="3"/>
     </row>
-    <row r="472" spans="1:11" ht="17.25" x14ac:dyDescent="0.25">
+    <row r="472" spans="1:11" ht="17.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A472" s="3">
         <v>318</v>
       </c>
@@ -31981,7 +32414,7 @@
       </c>
       <c r="K472" s="3"/>
     </row>
-    <row r="473" spans="1:11" ht="17.25" x14ac:dyDescent="0.25">
+    <row r="473" spans="1:11" ht="17.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A473" s="3">
         <v>319</v>
       </c>
@@ -32014,7 +32447,7 @@
       </c>
       <c r="K473" s="3"/>
     </row>
-    <row r="474" spans="1:11" ht="17.25" x14ac:dyDescent="0.25">
+    <row r="474" spans="1:11" ht="17.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A474" s="3">
         <v>320</v>
       </c>
@@ -32047,7 +32480,7 @@
       </c>
       <c r="K474" s="3"/>
     </row>
-    <row r="475" spans="1:11" ht="17.25" x14ac:dyDescent="0.25">
+    <row r="475" spans="1:11" ht="17.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A475" s="7">
         <v>321</v>
       </c>
@@ -32076,7 +32509,7 @@
       </c>
       <c r="K475" s="7"/>
     </row>
-    <row r="476" spans="1:11" ht="17.25" x14ac:dyDescent="0.25">
+    <row r="476" spans="1:11" ht="17.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A476" s="3">
         <v>322</v>
       </c>
@@ -32109,7 +32542,7 @@
       </c>
       <c r="K476" s="3"/>
     </row>
-    <row r="477" spans="1:11" ht="17.25" x14ac:dyDescent="0.25">
+    <row r="477" spans="1:11" ht="17.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A477" s="3">
         <v>323</v>
       </c>
@@ -32140,7 +32573,7 @@
       </c>
       <c r="K477" s="3"/>
     </row>
-    <row r="478" spans="1:11" ht="17.25" x14ac:dyDescent="0.25">
+    <row r="478" spans="1:11" ht="17.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A478" s="3"/>
       <c r="B478" s="3">
         <v>3553</v>
@@ -32169,7 +32602,7 @@
       </c>
       <c r="K478" s="3"/>
     </row>
-    <row r="479" spans="1:11" ht="17.25" x14ac:dyDescent="0.25">
+    <row r="479" spans="1:11" ht="17.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A479" s="3"/>
       <c r="B479" s="3">
         <v>5503</v>
@@ -32198,7 +32631,7 @@
       </c>
       <c r="K479" s="3"/>
     </row>
-    <row r="480" spans="1:11" ht="17.25" x14ac:dyDescent="0.25">
+    <row r="480" spans="1:11" ht="17.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A480" s="3"/>
       <c r="B480" s="3">
         <v>5504</v>
@@ -32227,7 +32660,7 @@
       </c>
       <c r="K480" s="3"/>
     </row>
-    <row r="481" spans="1:11" ht="17.25" x14ac:dyDescent="0.25">
+    <row r="481" spans="1:11" ht="17.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A481" s="3"/>
       <c r="B481" s="3">
         <v>5505</v>
@@ -32256,7 +32689,7 @@
       </c>
       <c r="K481" s="3"/>
     </row>
-    <row r="482" spans="1:11" ht="17.25" x14ac:dyDescent="0.25">
+    <row r="482" spans="1:11" ht="17.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A482" s="3"/>
       <c r="B482" s="3">
         <v>5506</v>
@@ -32285,7 +32718,7 @@
       </c>
       <c r="K482" s="3"/>
     </row>
-    <row r="483" spans="1:11" ht="17.25" x14ac:dyDescent="0.25">
+    <row r="483" spans="1:11" ht="17.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A483" s="3"/>
       <c r="B483" s="3">
         <v>5507</v>
@@ -32314,7 +32747,7 @@
       </c>
       <c r="K483" s="3"/>
     </row>
-    <row r="484" spans="1:11" ht="17.25" x14ac:dyDescent="0.25">
+    <row r="484" spans="1:11" ht="17.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A484" s="3"/>
       <c r="B484" s="3">
         <v>5508</v>
@@ -32343,7 +32776,7 @@
       </c>
       <c r="K484" s="3"/>
     </row>
-    <row r="485" spans="1:11" ht="17.25" x14ac:dyDescent="0.25">
+    <row r="485" spans="1:11" ht="17.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A485" s="3"/>
       <c r="B485" s="3">
         <v>5509</v>
@@ -32372,7 +32805,7 @@
       </c>
       <c r="K485" s="3"/>
     </row>
-    <row r="486" spans="1:11" ht="17.25" x14ac:dyDescent="0.25">
+    <row r="486" spans="1:11" ht="17.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A486" s="3"/>
       <c r="B486" s="3">
         <v>5510</v>
@@ -32402,7 +32835,17 @@
       <c r="K486" s="3"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:K486" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
+  <autoFilter ref="A1:K486" xr:uid="{00000000-0001-0000-0000-000000000000}">
+    <filterColumn colId="2">
+      <filters blank="1"/>
+    </filterColumn>
+    <filterColumn colId="5">
+      <filters>
+        <filter val="سینمایی"/>
+        <filter val="مستند"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <phoneticPr fontId="3" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="E2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>

--- a/آمارفروش بین الملل غیرعربی.xlsx
+++ b/آمارفروش بین الملل غیرعربی.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\undergit\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF246E46-EE3A-4DA7-97CD-6A4541E538A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E72CAB80-7C51-4027-848E-D586C7278C1F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-9105" yWindow="3720" windowWidth="15375" windowHeight="7875" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="جزئیات فیلمهای خارجی" sheetId="1" r:id="rId1"/>
@@ -17460,14 +17460,14 @@
   <dimension ref="A1:K486"/>
   <sheetViews>
     <sheetView rightToLeft="1" tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A131" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A193" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="K487" sqref="K487"/>
+      <selection pane="bottomLeft" activeCell="K203" sqref="K203"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="0" hidden="1" customWidth="1"/>
+    <col min="3" max="3" width="9.140625" customWidth="1"/>
     <col min="4" max="4" width="28.7109375" style="1" customWidth="1"/>
     <col min="5" max="5" width="33.5703125" style="1" hidden="1" customWidth="1"/>
     <col min="6" max="6" width="13.5703125" style="1" hidden="1" customWidth="1"/>
@@ -17513,7 +17513,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="17.25" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" ht="17.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
         <v>1</v>
       </c>
@@ -17547,7 +17547,7 @@
         <v>256500</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="17.25" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" ht="17.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <v>2</v>
       </c>
@@ -17581,7 +17581,7 @@
         <v>130200</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="17.25" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" ht="17.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>3</v>
       </c>
@@ -17615,7 +17615,7 @@
         <v>264000</v>
       </c>
     </row>
-    <row r="5" spans="1:11" ht="17.25" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" ht="17.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>4</v>
       </c>
@@ -17649,7 +17649,7 @@
         <v>119000</v>
       </c>
     </row>
-    <row r="6" spans="1:11" ht="17.25" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" ht="17.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>5</v>
       </c>
@@ -17683,7 +17683,7 @@
         <v>72000</v>
       </c>
     </row>
-    <row r="7" spans="1:11" ht="17.25" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" ht="17.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <v>6</v>
       </c>
@@ -17717,7 +17717,7 @@
         <v>378000</v>
       </c>
     </row>
-    <row r="8" spans="1:11" ht="17.25" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" ht="17.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <v>7</v>
       </c>
@@ -17751,7 +17751,7 @@
         <v>234000</v>
       </c>
     </row>
-    <row r="9" spans="1:11" ht="17.25" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" ht="17.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <v>8</v>
       </c>
@@ -17785,7 +17785,7 @@
         <v>182000</v>
       </c>
     </row>
-    <row r="10" spans="1:11" ht="17.25" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" ht="17.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
         <v>9</v>
       </c>
@@ -17819,7 +17819,7 @@
         <v>238000</v>
       </c>
     </row>
-    <row r="11" spans="1:11" ht="17.25" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" ht="17.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
         <v>10</v>
       </c>
@@ -17853,7 +17853,7 @@
         <v>312000</v>
       </c>
     </row>
-    <row r="12" spans="1:11" ht="17.25" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" ht="17.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
         <v>11</v>
       </c>
@@ -17887,7 +17887,7 @@
         <v>340000</v>
       </c>
     </row>
-    <row r="13" spans="1:11" ht="17.25" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" ht="17.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
         <v>12</v>
       </c>
@@ -17921,7 +17921,7 @@
         <v>126000</v>
       </c>
     </row>
-    <row r="14" spans="1:11" ht="17.25" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" ht="17.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
         <v>13</v>
       </c>
@@ -17955,7 +17955,7 @@
         <v>301000</v>
       </c>
     </row>
-    <row r="15" spans="1:11" ht="17.25" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" ht="17.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
         <v>14</v>
       </c>
@@ -17989,7 +17989,7 @@
         <v>21000</v>
       </c>
     </row>
-    <row r="16" spans="1:11" ht="17.25" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" ht="17.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
         <v>15</v>
       </c>
@@ -18023,7 +18023,7 @@
         <v>391500</v>
       </c>
     </row>
-    <row r="17" spans="1:11" ht="17.25" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" ht="17.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
         <v>16</v>
       </c>
@@ -18057,7 +18057,7 @@
         <v>138000</v>
       </c>
     </row>
-    <row r="18" spans="1:11" ht="17.25" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" ht="17.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
         <v>17</v>
       </c>
@@ -18091,7 +18091,7 @@
         <v>121500</v>
       </c>
     </row>
-    <row r="19" spans="1:11" ht="17.25" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" ht="17.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
         <v>18</v>
       </c>
@@ -18125,7 +18125,7 @@
         <v>43500</v>
       </c>
     </row>
-    <row r="20" spans="1:11" ht="17.25" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11" ht="17.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A20" s="2">
         <v>19</v>
       </c>
@@ -18159,7 +18159,7 @@
         <v>97500</v>
       </c>
     </row>
-    <row r="21" spans="1:11" ht="17.25" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" ht="17.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
         <v>20</v>
       </c>
@@ -18193,7 +18193,7 @@
         <v>91500</v>
       </c>
     </row>
-    <row r="22" spans="1:11" ht="17.25" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" ht="17.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A22" s="2">
         <v>21</v>
       </c>
@@ -18227,7 +18227,7 @@
         <v>181500</v>
       </c>
     </row>
-    <row r="23" spans="1:11" ht="17.25" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11" ht="17.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A23" s="2">
         <v>22</v>
       </c>
@@ -18261,7 +18261,7 @@
         <v>112500</v>
       </c>
     </row>
-    <row r="24" spans="1:11" ht="17.25" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11" ht="17.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A24" s="2">
         <v>23</v>
       </c>
@@ -18295,7 +18295,7 @@
         <v>90000</v>
       </c>
     </row>
-    <row r="25" spans="1:11" ht="17.25" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11" ht="17.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A25" s="2">
         <v>24</v>
       </c>
@@ -18329,7 +18329,7 @@
         <v>134500</v>
       </c>
     </row>
-    <row r="26" spans="1:11" ht="17.25" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11" ht="17.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A26" s="2">
         <v>25</v>
       </c>
@@ -18363,7 +18363,7 @@
         <v>33000</v>
       </c>
     </row>
-    <row r="27" spans="1:11" ht="17.25" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11" ht="17.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A27" s="2">
         <v>26</v>
       </c>
@@ -18397,7 +18397,7 @@
         <v>89500</v>
       </c>
     </row>
-    <row r="28" spans="1:11" ht="17.25" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11" ht="17.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A28" s="2">
         <v>27</v>
       </c>
@@ -18431,7 +18431,7 @@
         <v>76500</v>
       </c>
     </row>
-    <row r="29" spans="1:11" ht="17.25" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:11" ht="17.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A29" s="2">
         <v>28</v>
       </c>
@@ -18465,7 +18465,7 @@
         <v>84000</v>
       </c>
     </row>
-    <row r="30" spans="1:11" ht="17.25" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:11" ht="17.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A30" s="2">
         <v>29</v>
       </c>
@@ -18499,7 +18499,7 @@
         <v>142500</v>
       </c>
     </row>
-    <row r="31" spans="1:11" ht="17.25" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:11" ht="17.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A31" s="2">
         <v>30</v>
       </c>
@@ -18533,7 +18533,7 @@
         <v>87500</v>
       </c>
     </row>
-    <row r="32" spans="1:11" ht="17.25" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:11" ht="17.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A32" s="2">
         <v>31</v>
       </c>
@@ -18567,7 +18567,7 @@
         <v>281500</v>
       </c>
     </row>
-    <row r="33" spans="1:11" ht="17.25" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:11" ht="17.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A33" s="2">
         <v>32</v>
       </c>
@@ -18601,7 +18601,7 @@
         <v>142000</v>
       </c>
     </row>
-    <row r="34" spans="1:11" ht="17.25" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:11" ht="17.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A34" s="2">
         <v>33</v>
       </c>
@@ -18635,7 +18635,7 @@
         <v>62000</v>
       </c>
     </row>
-    <row r="35" spans="1:11" ht="17.25" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:11" ht="17.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A35" s="2">
         <v>34</v>
       </c>
@@ -18669,7 +18669,7 @@
         <v>110000</v>
       </c>
     </row>
-    <row r="36" spans="1:11" ht="17.25" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:11" ht="17.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A36" s="2">
         <v>35</v>
       </c>
@@ -18703,7 +18703,7 @@
         <v>562000</v>
       </c>
     </row>
-    <row r="37" spans="1:11" ht="17.25" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:11" ht="17.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A37" s="2">
         <v>36</v>
       </c>
@@ -18737,7 +18737,7 @@
         <v>90000</v>
       </c>
     </row>
-    <row r="38" spans="1:11" ht="17.25" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:11" ht="17.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A38" s="2">
         <v>37</v>
       </c>
@@ -18771,7 +18771,7 @@
         <v>76500</v>
       </c>
     </row>
-    <row r="39" spans="1:11" ht="17.25" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:11" ht="17.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A39" s="2">
         <v>38</v>
       </c>
@@ -18805,7 +18805,7 @@
         <v>132000</v>
       </c>
     </row>
-    <row r="40" spans="1:11" ht="17.25" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:11" ht="17.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A40" s="2">
         <v>39</v>
       </c>
@@ -18839,7 +18839,7 @@
         <v>27000</v>
       </c>
     </row>
-    <row r="41" spans="1:11" ht="17.25" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:11" ht="17.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A41" s="2">
         <v>40</v>
       </c>
@@ -18873,7 +18873,7 @@
         <v>150000</v>
       </c>
     </row>
-    <row r="42" spans="1:11" ht="17.25" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:11" ht="17.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A42" s="2">
         <v>41</v>
       </c>
@@ -18907,7 +18907,7 @@
         <v>445000</v>
       </c>
     </row>
-    <row r="43" spans="1:11" ht="17.25" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:11" ht="17.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A43" s="2">
         <v>42</v>
       </c>
@@ -18941,7 +18941,7 @@
         <v>597500</v>
       </c>
     </row>
-    <row r="44" spans="1:11" ht="17.25" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:11" ht="17.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A44" s="2">
         <v>43</v>
       </c>
@@ -18975,7 +18975,7 @@
         <v>295000</v>
       </c>
     </row>
-    <row r="45" spans="1:11" ht="17.25" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:11" ht="17.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A45" s="2">
         <v>44</v>
       </c>
@@ -19009,7 +19009,7 @@
         <v>322500</v>
       </c>
     </row>
-    <row r="46" spans="1:11" ht="17.25" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:11" ht="17.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A46" s="2">
         <v>45</v>
       </c>
@@ -19043,7 +19043,7 @@
         <v>405000</v>
       </c>
     </row>
-    <row r="47" spans="1:11" ht="17.25" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:11" ht="17.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A47" s="2">
         <v>46</v>
       </c>
@@ -19077,7 +19077,7 @@
         <v>295000</v>
       </c>
     </row>
-    <row r="48" spans="1:11" ht="17.25" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:11" ht="17.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A48" s="2">
         <v>47</v>
       </c>
@@ -19111,7 +19111,7 @@
         <v>658000</v>
       </c>
     </row>
-    <row r="49" spans="1:11" ht="17.25" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:11" ht="17.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A49" s="2">
         <v>48</v>
       </c>
@@ -19145,7 +19145,7 @@
         <v>227500</v>
       </c>
     </row>
-    <row r="50" spans="1:11" ht="17.25" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:11" ht="17.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A50" s="2">
         <v>49</v>
       </c>
@@ -19179,7 +19179,7 @@
         <v>245500</v>
       </c>
     </row>
-    <row r="51" spans="1:11" ht="17.25" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:11" ht="17.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A51" s="2">
         <v>50</v>
       </c>
@@ -19213,7 +19213,7 @@
         <v>184500</v>
       </c>
     </row>
-    <row r="52" spans="1:11" ht="17.25" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:11" ht="17.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A52" s="2">
         <v>51</v>
       </c>
@@ -19247,7 +19247,7 @@
         <v>186000</v>
       </c>
     </row>
-    <row r="53" spans="1:11" ht="17.25" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:11" ht="17.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A53" s="2">
         <v>52</v>
       </c>
@@ -19281,7 +19281,7 @@
         <v>575500</v>
       </c>
     </row>
-    <row r="54" spans="1:11" ht="17.25" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:11" ht="17.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A54" s="2">
         <v>53</v>
       </c>
@@ -19315,7 +19315,7 @@
         <v>169500</v>
       </c>
     </row>
-    <row r="55" spans="1:11" ht="17.25" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:11" ht="17.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A55" s="2">
         <v>54</v>
       </c>
@@ -19349,7 +19349,7 @@
         <v>585000</v>
       </c>
     </row>
-    <row r="56" spans="1:11" ht="17.25" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:11" ht="17.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A56" s="2">
         <v>55</v>
       </c>
@@ -19383,7 +19383,7 @@
         <v>665000</v>
       </c>
     </row>
-    <row r="57" spans="1:11" ht="17.25" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:11" ht="17.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A57" s="2">
         <v>56</v>
       </c>
@@ -19417,7 +19417,7 @@
         <v>109500</v>
       </c>
     </row>
-    <row r="58" spans="1:11" ht="17.25" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:11" ht="17.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A58" s="2">
         <v>57</v>
       </c>
@@ -19451,7 +19451,7 @@
         <v>145000</v>
       </c>
     </row>
-    <row r="59" spans="1:11" ht="17.25" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:11" ht="17.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A59" s="2">
         <v>58</v>
       </c>
@@ -19485,7 +19485,7 @@
         <v>142500</v>
       </c>
     </row>
-    <row r="60" spans="1:11" ht="17.25" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:11" ht="17.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A60" s="2">
         <v>59</v>
       </c>
@@ -19519,7 +19519,7 @@
         <v>435000</v>
       </c>
     </row>
-    <row r="61" spans="1:11" ht="17.25" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:11" ht="17.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A61" s="2">
         <v>60</v>
       </c>
@@ -19553,7 +19553,7 @@
         <v>256000</v>
       </c>
     </row>
-    <row r="62" spans="1:11" ht="17.25" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:11" ht="17.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A62" s="2">
         <v>61</v>
       </c>
@@ -19587,7 +19587,7 @@
         <v>313000</v>
       </c>
     </row>
-    <row r="63" spans="1:11" ht="17.25" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:11" ht="17.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A63" s="2">
         <v>62</v>
       </c>
@@ -19621,7 +19621,7 @@
         <v>585000</v>
       </c>
     </row>
-    <row r="64" spans="1:11" ht="17.25" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:11" ht="17.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A64" s="2">
         <v>63</v>
       </c>
@@ -19655,7 +19655,7 @@
         <v>155000</v>
       </c>
     </row>
-    <row r="65" spans="1:11" ht="17.25" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:11" ht="17.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A65" s="2">
         <v>64</v>
       </c>
@@ -19689,7 +19689,7 @@
         <v>465000</v>
       </c>
     </row>
-    <row r="66" spans="1:11" ht="17.25" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:11" ht="17.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A66" s="2">
         <v>65</v>
       </c>
@@ -19723,7 +19723,7 @@
         <v>177000</v>
       </c>
     </row>
-    <row r="67" spans="1:11" ht="17.25" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:11" ht="17.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A67" s="2">
         <v>66</v>
       </c>
@@ -19757,7 +19757,7 @@
         <v>145000</v>
       </c>
     </row>
-    <row r="68" spans="1:11" ht="17.25" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:11" ht="17.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A68" s="2">
         <v>67</v>
       </c>
@@ -19791,7 +19791,7 @@
         <v>80000</v>
       </c>
     </row>
-    <row r="69" spans="1:11" ht="17.25" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:11" ht="17.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A69" s="2">
         <v>68</v>
       </c>
@@ -19825,7 +19825,7 @@
         <v>199500</v>
       </c>
     </row>
-    <row r="70" spans="1:11" ht="17.25" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:11" ht="17.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A70" s="2">
         <v>69</v>
       </c>
@@ -19859,7 +19859,7 @@
         <v>150000</v>
       </c>
     </row>
-    <row r="71" spans="1:11" ht="17.25" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:11" ht="17.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A71" s="2">
         <v>70</v>
       </c>
@@ -19893,7 +19893,7 @@
         <v>218500</v>
       </c>
     </row>
-    <row r="72" spans="1:11" ht="17.25" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:11" ht="17.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A72" s="2">
         <v>71</v>
       </c>
@@ -19927,7 +19927,7 @@
         <v>534000</v>
       </c>
     </row>
-    <row r="73" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:11" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="2">
         <v>72</v>
       </c>
@@ -20301,7 +20301,7 @@
         <v>69000</v>
       </c>
     </row>
-    <row r="84" spans="1:11" ht="17.25" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:11" ht="17.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A84" s="2">
         <v>83</v>
       </c>
@@ -20335,7 +20335,7 @@
         <v>672000</v>
       </c>
     </row>
-    <row r="85" spans="1:11" ht="17.25" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:11" ht="17.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A85" s="2">
         <v>84</v>
       </c>
@@ -20640,7 +20640,7 @@
         <v>3000</v>
       </c>
     </row>
-    <row r="94" spans="1:11" ht="17.25" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:11" ht="17.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A94" s="2">
         <v>93</v>
       </c>
@@ -20909,7 +20909,7 @@
         <v>16000</v>
       </c>
     </row>
-    <row r="102" spans="1:11" ht="17.25" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:11" ht="17.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A102" s="2">
         <v>101</v>
       </c>
@@ -20942,7 +20942,7 @@
         <v>36000</v>
       </c>
     </row>
-    <row r="103" spans="1:11" ht="17.25" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:11" ht="17.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A103" s="2">
         <v>102</v>
       </c>
@@ -21044,7 +21044,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="106" spans="1:11" ht="17.25" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:11" ht="17.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A106" s="2">
         <v>105</v>
       </c>
@@ -21278,7 +21278,7 @@
         <v>12750</v>
       </c>
     </row>
-    <row r="113" spans="1:11" ht="17.25" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:11" ht="17.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A113" s="2">
         <v>112</v>
       </c>
@@ -21311,7 +21311,7 @@
         <v>30000</v>
       </c>
     </row>
-    <row r="114" spans="1:11" ht="17.25" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:11" ht="17.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A114" s="2">
         <v>113</v>
       </c>
@@ -21344,7 +21344,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="115" spans="1:11" ht="17.25" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:11" ht="17.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A115" s="2">
         <v>114</v>
       </c>
@@ -21377,7 +21377,7 @@
         <v>60000</v>
       </c>
     </row>
-    <row r="116" spans="1:11" ht="17.25" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:11" ht="17.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A116" s="2">
         <v>115</v>
       </c>
@@ -21410,7 +21410,7 @@
         <v>33000</v>
       </c>
     </row>
-    <row r="117" spans="1:11" ht="17.25" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:11" ht="17.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A117" s="2">
         <v>116</v>
       </c>
@@ -21444,7 +21444,7 @@
         <v>125250</v>
       </c>
     </row>
-    <row r="118" spans="1:11" ht="17.25" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:11" ht="17.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A118" s="2">
         <v>117</v>
       </c>
@@ -21478,7 +21478,7 @@
         <v>384000</v>
       </c>
     </row>
-    <row r="119" spans="1:11" ht="17.25" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:11" ht="17.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A119" s="2">
         <v>118</v>
       </c>
@@ -21512,7 +21512,7 @@
         <v>33750</v>
       </c>
     </row>
-    <row r="120" spans="1:11" ht="17.25" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:11" ht="17.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A120" s="2">
         <v>119</v>
       </c>
@@ -21546,7 +21546,7 @@
         <v>86250</v>
       </c>
     </row>
-    <row r="121" spans="1:11" ht="17.25" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:11" ht="17.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A121" s="2">
         <v>120</v>
       </c>
@@ -21580,7 +21580,7 @@
         <v>76500</v>
       </c>
     </row>
-    <row r="122" spans="1:11" ht="17.25" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:11" ht="17.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A122" s="2">
         <v>121</v>
       </c>
@@ -21614,7 +21614,7 @@
         <v>46500</v>
       </c>
     </row>
-    <row r="123" spans="1:11" ht="17.25" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:11" ht="17.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A123" s="2">
         <v>122</v>
       </c>
@@ -21648,7 +21648,7 @@
         <v>40000</v>
       </c>
     </row>
-    <row r="124" spans="1:11" ht="17.25" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:11" ht="17.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A124" s="2">
         <v>123</v>
       </c>
@@ -21682,7 +21682,7 @@
         <v>41250</v>
       </c>
     </row>
-    <row r="125" spans="1:11" ht="17.25" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:11" ht="17.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A125" s="2">
         <v>124</v>
       </c>
@@ -21850,7 +21850,7 @@
         <v>27750</v>
       </c>
     </row>
-    <row r="130" spans="1:11" ht="17.25" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:11" ht="17.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A130" s="2">
         <v>129</v>
       </c>
@@ -21884,7 +21884,7 @@
         <v>85500</v>
       </c>
     </row>
-    <row r="131" spans="1:11" ht="17.25" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:11" ht="17.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A131" s="2">
         <v>130</v>
       </c>
@@ -22120,7 +22120,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="138" spans="1:11" ht="17.25" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:11" ht="17.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A138" s="2">
         <v>137</v>
       </c>
@@ -22154,7 +22154,7 @@
         <v>93000</v>
       </c>
     </row>
-    <row r="139" spans="1:11" ht="17.25" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:11" ht="17.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A139" s="2">
         <v>138</v>
       </c>
@@ -22188,7 +22188,7 @@
         <v>168000</v>
       </c>
     </row>
-    <row r="140" spans="1:11" ht="17.25" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:11" ht="17.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A140" s="2">
         <v>139</v>
       </c>
@@ -22221,7 +22221,7 @@
         <v>59000</v>
       </c>
     </row>
-    <row r="141" spans="1:11" ht="17.25" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:11" ht="17.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A141" s="2">
         <v>140</v>
       </c>
@@ -22254,7 +22254,7 @@
         <v>66000</v>
       </c>
     </row>
-    <row r="142" spans="1:11" ht="17.25" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:11" ht="17.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A142" s="2">
         <v>141</v>
       </c>
@@ -22288,7 +22288,7 @@
         <v>133000</v>
       </c>
     </row>
-    <row r="143" spans="1:11" ht="17.25" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:11" ht="17.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A143" s="2">
         <v>142</v>
       </c>
@@ -22322,7 +22322,7 @@
         <v>336000</v>
       </c>
     </row>
-    <row r="144" spans="1:11" ht="17.25" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:11" ht="17.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A144" s="2">
         <v>143</v>
       </c>
@@ -22356,7 +22356,7 @@
         <v>523000</v>
       </c>
     </row>
-    <row r="145" spans="1:11" ht="17.25" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:11" ht="17.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A145" s="2">
         <v>144</v>
       </c>
@@ -22390,7 +22390,7 @@
         <v>110250</v>
       </c>
     </row>
-    <row r="146" spans="1:11" ht="17.25" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:11" ht="17.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A146" s="2">
         <v>145</v>
       </c>
@@ -22424,7 +22424,7 @@
         <v>194000</v>
       </c>
     </row>
-    <row r="147" spans="1:11" ht="17.25" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:11" ht="17.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A147" s="2">
         <v>146</v>
       </c>
@@ -22458,7 +22458,7 @@
         <v>45500</v>
       </c>
     </row>
-    <row r="148" spans="1:11" ht="17.25" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:11" ht="17.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A148" s="2">
         <v>147</v>
       </c>
@@ -22492,7 +22492,7 @@
         <v>46500</v>
       </c>
     </row>
-    <row r="149" spans="1:11" ht="17.25" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:11" ht="17.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A149" s="2">
         <v>148</v>
       </c>
@@ -22929,7 +22929,7 @@
       </c>
       <c r="K162" s="2"/>
     </row>
-    <row r="163" spans="1:11" ht="17.25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:11" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A163" s="3">
         <v>162</v>
       </c>
@@ -22960,9 +22960,11 @@
       <c r="J163" s="3">
         <v>19</v>
       </c>
-      <c r="K163" s="3"/>
-    </row>
-    <row r="164" spans="1:11" ht="17.25" hidden="1" x14ac:dyDescent="0.25">
+      <c r="K163" s="3">
+        <v>182000</v>
+      </c>
+    </row>
+    <row r="164" spans="1:11" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A164" s="3">
         <v>163</v>
       </c>
@@ -22993,9 +22995,11 @@
       <c r="J164" s="3">
         <v>19</v>
       </c>
-      <c r="K164" s="3"/>
-    </row>
-    <row r="165" spans="1:11" ht="17.25" hidden="1" x14ac:dyDescent="0.25">
+      <c r="K164" s="3">
+        <v>263000</v>
+      </c>
+    </row>
+    <row r="165" spans="1:11" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A165" s="3">
         <v>164</v>
       </c>
@@ -23026,9 +23030,11 @@
       <c r="J165" s="3">
         <v>31</v>
       </c>
-      <c r="K165" s="3"/>
-    </row>
-    <row r="166" spans="1:11" ht="17.25" hidden="1" x14ac:dyDescent="0.25">
+      <c r="K165" s="3">
+        <v>307000</v>
+      </c>
+    </row>
+    <row r="166" spans="1:11" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A166" s="3">
         <v>165</v>
       </c>
@@ -23059,9 +23065,11 @@
       <c r="J166" s="3">
         <v>0</v>
       </c>
-      <c r="K166" s="3"/>
-    </row>
-    <row r="167" spans="1:11" ht="17.25" hidden="1" x14ac:dyDescent="0.25">
+      <c r="K166" s="3">
+        <v>26000</v>
+      </c>
+    </row>
+    <row r="167" spans="1:11" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A167" s="3">
         <v>166</v>
       </c>
@@ -23092,9 +23100,11 @@
       <c r="J167" s="3">
         <v>8</v>
       </c>
-      <c r="K167" s="3"/>
-    </row>
-    <row r="168" spans="1:11" ht="17.25" hidden="1" x14ac:dyDescent="0.25">
+      <c r="K167" s="3">
+        <v>99000</v>
+      </c>
+    </row>
+    <row r="168" spans="1:11" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A168" s="3">
         <v>167</v>
       </c>
@@ -23125,9 +23135,11 @@
       <c r="J168" s="3">
         <v>14</v>
       </c>
-      <c r="K168" s="3"/>
-    </row>
-    <row r="169" spans="1:11" ht="17.25" hidden="1" x14ac:dyDescent="0.25">
+      <c r="K168" s="3">
+        <v>230000</v>
+      </c>
+    </row>
+    <row r="169" spans="1:11" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A169" s="3">
         <v>168</v>
       </c>
@@ -23158,9 +23170,11 @@
       <c r="J169" s="3">
         <v>33</v>
       </c>
-      <c r="K169" s="3"/>
-    </row>
-    <row r="170" spans="1:11" ht="17.25" hidden="1" x14ac:dyDescent="0.25">
+      <c r="K169" s="3">
+        <v>699000</v>
+      </c>
+    </row>
+    <row r="170" spans="1:11" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A170" s="3">
         <v>169</v>
       </c>
@@ -23191,9 +23205,11 @@
       <c r="J170" s="3">
         <v>24</v>
       </c>
-      <c r="K170" s="3"/>
-    </row>
-    <row r="171" spans="1:11" ht="17.25" hidden="1" x14ac:dyDescent="0.25">
+      <c r="K170" s="3">
+        <v>372000</v>
+      </c>
+    </row>
+    <row r="171" spans="1:11" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A171" s="3">
         <v>170</v>
       </c>
@@ -23222,9 +23238,11 @@
         <v>2728</v>
       </c>
       <c r="J171" s="3"/>
-      <c r="K171" s="3"/>
-    </row>
-    <row r="172" spans="1:11" ht="17.25" hidden="1" x14ac:dyDescent="0.25">
+      <c r="K171" s="3">
+        <v>190000</v>
+      </c>
+    </row>
+    <row r="172" spans="1:11" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A172" s="3">
         <v>171</v>
       </c>
@@ -23255,9 +23273,11 @@
       <c r="J172" s="3">
         <v>22</v>
       </c>
-      <c r="K172" s="3"/>
-    </row>
-    <row r="173" spans="1:11" ht="17.25" hidden="1" x14ac:dyDescent="0.25">
+      <c r="K172" s="3">
+        <v>425000</v>
+      </c>
+    </row>
+    <row r="173" spans="1:11" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A173" s="3">
         <v>172</v>
       </c>
@@ -23288,9 +23308,11 @@
       <c r="J173" s="3">
         <v>23</v>
       </c>
-      <c r="K173" s="3"/>
-    </row>
-    <row r="174" spans="1:11" ht="17.25" hidden="1" x14ac:dyDescent="0.25">
+      <c r="K173" s="3">
+        <v>517000</v>
+      </c>
+    </row>
+    <row r="174" spans="1:11" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A174" s="3">
         <v>173</v>
       </c>
@@ -23321,9 +23343,11 @@
       <c r="J174" s="3">
         <v>15</v>
       </c>
-      <c r="K174" s="3"/>
-    </row>
-    <row r="175" spans="1:11" ht="17.25" hidden="1" x14ac:dyDescent="0.25">
+      <c r="K174" s="3">
+        <v>311000</v>
+      </c>
+    </row>
+    <row r="175" spans="1:11" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A175" s="3">
         <v>174</v>
       </c>
@@ -23354,9 +23378,11 @@
       <c r="J175" s="3">
         <v>16</v>
       </c>
-      <c r="K175" s="3"/>
-    </row>
-    <row r="176" spans="1:11" ht="17.25" hidden="1" x14ac:dyDescent="0.25">
+      <c r="K175" s="3">
+        <v>223000</v>
+      </c>
+    </row>
+    <row r="176" spans="1:11" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A176" s="3">
         <v>175</v>
       </c>
@@ -23387,9 +23413,11 @@
       <c r="J176" s="3">
         <v>6</v>
       </c>
-      <c r="K176" s="3"/>
-    </row>
-    <row r="177" spans="1:11" ht="17.25" hidden="1" x14ac:dyDescent="0.25">
+      <c r="K176" s="3">
+        <v>52000</v>
+      </c>
+    </row>
+    <row r="177" spans="1:11" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A177" s="3">
         <v>176</v>
       </c>
@@ -23420,9 +23448,11 @@
       <c r="J177" s="3">
         <v>13</v>
       </c>
-      <c r="K177" s="3"/>
-    </row>
-    <row r="178" spans="1:11" ht="17.25" hidden="1" x14ac:dyDescent="0.25">
+      <c r="K177" s="3">
+        <v>192000</v>
+      </c>
+    </row>
+    <row r="178" spans="1:11" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A178" s="3">
         <v>177</v>
       </c>
@@ -23453,9 +23483,11 @@
       <c r="J178" s="3">
         <v>8</v>
       </c>
-      <c r="K178" s="3"/>
-    </row>
-    <row r="179" spans="1:11" ht="17.25" hidden="1" x14ac:dyDescent="0.25">
+      <c r="K178" s="3">
+        <v>149000</v>
+      </c>
+    </row>
+    <row r="179" spans="1:11" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A179" s="3">
         <v>178</v>
       </c>
@@ -23486,7 +23518,9 @@
       <c r="J179" s="3">
         <v>45</v>
       </c>
-      <c r="K179" s="3"/>
+      <c r="K179" s="3">
+        <v>275000</v>
+      </c>
     </row>
     <row r="180" spans="1:11" ht="17.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A180" s="3">
@@ -23587,7 +23621,7 @@
       </c>
       <c r="K182" s="3"/>
     </row>
-    <row r="183" spans="1:11" ht="34.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:11" ht="34.5" x14ac:dyDescent="0.25">
       <c r="A183" s="3">
         <v>182</v>
       </c>
@@ -23618,9 +23652,11 @@
       <c r="J183" s="3">
         <v>78</v>
       </c>
-      <c r="K183" s="3"/>
-    </row>
-    <row r="184" spans="1:11" ht="17.25" hidden="1" x14ac:dyDescent="0.25">
+      <c r="K183" s="3">
+        <v>882000</v>
+      </c>
+    </row>
+    <row r="184" spans="1:11" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A184" s="3">
         <v>183</v>
       </c>
@@ -23651,9 +23687,11 @@
       <c r="J184" s="3">
         <v>4</v>
       </c>
-      <c r="K184" s="3"/>
-    </row>
-    <row r="185" spans="1:11" ht="17.25" hidden="1" x14ac:dyDescent="0.25">
+      <c r="K184" s="3">
+        <v>249000</v>
+      </c>
+    </row>
+    <row r="185" spans="1:11" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A185" s="3">
         <v>184</v>
       </c>
@@ -23684,9 +23722,11 @@
       <c r="J185" s="3">
         <v>53</v>
       </c>
-      <c r="K185" s="3"/>
-    </row>
-    <row r="186" spans="1:11" ht="17.25" hidden="1" x14ac:dyDescent="0.25">
+      <c r="K185" s="3">
+        <v>399000</v>
+      </c>
+    </row>
+    <row r="186" spans="1:11" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A186" s="3">
         <v>185</v>
       </c>
@@ -23717,9 +23757,11 @@
       <c r="J186" s="3">
         <v>6</v>
       </c>
-      <c r="K186" s="3"/>
-    </row>
-    <row r="187" spans="1:11" ht="17.25" hidden="1" x14ac:dyDescent="0.25">
+      <c r="K186" s="3">
+        <v>33500</v>
+      </c>
+    </row>
+    <row r="187" spans="1:11" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A187" s="3">
         <v>186</v>
       </c>
@@ -23750,7 +23792,9 @@
       <c r="J187" s="3">
         <v>11</v>
       </c>
-      <c r="K187" s="3"/>
+      <c r="K187" s="3">
+        <v>104000</v>
+      </c>
     </row>
     <row r="188" spans="1:11" ht="17.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A188" s="3">
@@ -23911,7 +23955,7 @@
       </c>
       <c r="K192" s="3"/>
     </row>
-    <row r="193" spans="1:11" ht="17.25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:11" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A193" s="3">
         <v>196</v>
       </c>
@@ -23942,9 +23986,11 @@
       <c r="J193" s="3">
         <v>229</v>
       </c>
-      <c r="K193" s="3"/>
-    </row>
-    <row r="194" spans="1:11" ht="17.25" hidden="1" x14ac:dyDescent="0.25">
+      <c r="K193" s="3">
+        <v>2099000</v>
+      </c>
+    </row>
+    <row r="194" spans="1:11" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A194" s="3">
         <v>197</v>
       </c>
@@ -23975,9 +24021,11 @@
       <c r="J194" s="3">
         <v>11</v>
       </c>
-      <c r="K194" s="3"/>
-    </row>
-    <row r="195" spans="1:11" ht="17.25" hidden="1" x14ac:dyDescent="0.25">
+      <c r="K194" s="3">
+        <v>169000</v>
+      </c>
+    </row>
+    <row r="195" spans="1:11" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A195" s="3">
         <v>198</v>
       </c>
@@ -24008,9 +24056,11 @@
       <c r="J195" s="3">
         <v>38</v>
       </c>
-      <c r="K195" s="3"/>
-    </row>
-    <row r="196" spans="1:11" ht="17.25" hidden="1" x14ac:dyDescent="0.25">
+      <c r="K195" s="3">
+        <v>439000</v>
+      </c>
+    </row>
+    <row r="196" spans="1:11" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A196" s="3">
         <v>199</v>
       </c>
@@ -24041,9 +24091,11 @@
       <c r="J196" s="3">
         <v>9</v>
       </c>
-      <c r="K196" s="3"/>
-    </row>
-    <row r="197" spans="1:11" ht="17.25" hidden="1" x14ac:dyDescent="0.25">
+      <c r="K196" s="3">
+        <v>49000</v>
+      </c>
+    </row>
+    <row r="197" spans="1:11" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A197" s="3">
         <v>200</v>
       </c>
@@ -24074,9 +24126,11 @@
       <c r="J197" s="3">
         <v>1</v>
       </c>
-      <c r="K197" s="3"/>
-    </row>
-    <row r="198" spans="1:11" ht="17.25" hidden="1" x14ac:dyDescent="0.25">
+      <c r="K197" s="3">
+        <v>16500</v>
+      </c>
+    </row>
+    <row r="198" spans="1:11" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A198" s="3">
         <v>201</v>
       </c>
@@ -24107,9 +24161,11 @@
       <c r="J198" s="3">
         <v>194</v>
       </c>
-      <c r="K198" s="3"/>
-    </row>
-    <row r="199" spans="1:11" ht="17.25" hidden="1" x14ac:dyDescent="0.25">
+      <c r="K198" s="3">
+        <v>1693000</v>
+      </c>
+    </row>
+    <row r="199" spans="1:11" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A199" s="3">
         <v>202</v>
       </c>
@@ -24140,9 +24196,11 @@
       <c r="J199" s="3">
         <v>81</v>
       </c>
-      <c r="K199" s="3"/>
-    </row>
-    <row r="200" spans="1:11" ht="17.25" hidden="1" x14ac:dyDescent="0.25">
+      <c r="K199" s="3">
+        <v>977000</v>
+      </c>
+    </row>
+    <row r="200" spans="1:11" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A200" s="3">
         <v>203</v>
       </c>
@@ -24173,9 +24231,11 @@
       <c r="J200" s="3">
         <v>162</v>
       </c>
-      <c r="K200" s="3"/>
-    </row>
-    <row r="201" spans="1:11" ht="17.25" hidden="1" x14ac:dyDescent="0.25">
+      <c r="K200" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="201" spans="1:11" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A201" s="3">
         <v>204</v>
       </c>
@@ -24206,9 +24266,11 @@
       <c r="J201" s="3">
         <v>59</v>
       </c>
-      <c r="K201" s="3"/>
-    </row>
-    <row r="202" spans="1:11" ht="17.25" hidden="1" x14ac:dyDescent="0.25">
+      <c r="K201" s="3">
+        <v>619000</v>
+      </c>
+    </row>
+    <row r="202" spans="1:11" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A202" s="3">
         <v>205</v>
       </c>
@@ -24239,9 +24301,11 @@
       <c r="J202" s="3">
         <v>31</v>
       </c>
-      <c r="K202" s="3"/>
-    </row>
-    <row r="203" spans="1:11" ht="17.25" hidden="1" x14ac:dyDescent="0.25">
+      <c r="K202" s="3">
+        <v>254000</v>
+      </c>
+    </row>
+    <row r="203" spans="1:11" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A203" s="3">
         <v>206</v>
       </c>
@@ -24272,9 +24336,11 @@
       <c r="J203" s="3">
         <v>96</v>
       </c>
-      <c r="K203" s="3"/>
-    </row>
-    <row r="204" spans="1:11" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="K203" s="3">
+        <v>826000</v>
+      </c>
+    </row>
+    <row r="204" spans="1:11" ht="17.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A204" s="3">
         <v>207</v>
       </c>
@@ -32837,7 +32903,9 @@
   </sheetData>
   <autoFilter ref="A1:K486" xr:uid="{00000000-0001-0000-0000-000000000000}">
     <filterColumn colId="2">
-      <filters blank="1"/>
+      <customFilters>
+        <customFilter operator="notEqual" val=" "/>
+      </customFilters>
     </filterColumn>
     <filterColumn colId="5">
       <filters>

--- a/آمارفروش بین الملل غیرعربی.xlsx
+++ b/آمارفروش بین الملل غیرعربی.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\undergit\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B722C36E-35A4-4EE7-BE81-162B33436E64}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7ADC1E53-8413-4A19-82D3-6DD71A13F7AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="جزئیات فیلمهای خارجی" sheetId="1" r:id="rId1"/>
@@ -2467,7 +2467,7 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_-_ ;_ * #,##0.00\-_ ;_ * &quot;-&quot;??_-_ ;_ @_ "/>
-    <numFmt numFmtId="165" formatCode="_ * #,##0_-_ ;_ * #,##0\-_ ;_ * &quot;-&quot;??_-_ ;_ @_ "/>
+    <numFmt numFmtId="164" formatCode="_ * #,##0_-_ ;_ * #,##0\-_ ;_ * &quot;-&quot;??_-_ ;_ @_ "/>
   </numFmts>
   <fonts count="9" x14ac:knownFonts="1">
     <font>
@@ -2611,10 +2611,10 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="6" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="6" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2647,10 +2647,10 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="6" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2662,27 +2662,11 @@
   <dxfs count="27">
     <dxf>
       <font>
+        <b val="0"/>
+        <i val="0"/>
         <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <name val="A  Mitra_1 (MRT)"/>
-        <charset val="178"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="165" formatCode="_ * #,##0_-_ ;_ * #,##0\-_ ;_ * &quot;-&quot;??_-_ ;_ @_ "/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
         <outline val="0"/>
         <shadow val="0"/>
         <u val="none"/>
@@ -2693,14 +2677,14 @@
         <charset val="178"/>
         <scheme val="none"/>
       </font>
-      <numFmt numFmtId="165" formatCode="_ * #,##0_-_ ;_ * #,##0\-_ ;_ * &quot;-&quot;??_-_ ;_ @_ "/>
+      <numFmt numFmtId="164" formatCode="_ * #,##0_-_ ;_ * #,##0\-_ ;_ * &quot;-&quot;??_-_ ;_ @_ "/>
       <fill>
         <patternFill patternType="none">
           <fgColor indexed="64"/>
-          <bgColor auto="1"/>
+          <bgColor indexed="65"/>
         </patternFill>
       </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -2719,6 +2703,7 @@
         <charset val="178"/>
         <scheme val="none"/>
       </font>
+      <numFmt numFmtId="164" formatCode="_ * #,##0_-_ ;_ * #,##0\-_ ;_ * &quot;-&quot;??_-_ ;_ @_ "/>
       <fill>
         <patternFill patternType="none">
           <fgColor indexed="64"/>
@@ -2744,33 +2729,7 @@
         <charset val="178"/>
         <scheme val="none"/>
       </font>
-      <numFmt numFmtId="165" formatCode="_ * #,##0_-_ ;_ * #,##0\-_ ;_ * &quot;-&quot;??_-_ ;_ @_ "/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="A  Mitra_1 (MRT)"/>
-        <charset val="178"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="165" formatCode="_ * #,##0_-_ ;_ * #,##0\-_ ;_ * &quot;-&quot;??_-_ ;_ @_ "/>
+      <numFmt numFmtId="164" formatCode="_ * #,##0_-_ ;_ * #,##0\-_ ;_ * &quot;-&quot;??_-_ ;_ @_ "/>
       <fill>
         <patternFill patternType="none">
           <fgColor indexed="64"/>
@@ -2796,11 +2755,37 @@
         <charset val="178"/>
         <scheme val="none"/>
       </font>
-      <numFmt numFmtId="165" formatCode="_ * #,##0_-_ ;_ * #,##0\-_ ;_ * &quot;-&quot;??_-_ ;_ @_ "/>
+      <numFmt numFmtId="164" formatCode="_ * #,##0_-_ ;_ * #,##0\-_ ;_ * &quot;-&quot;??_-_ ;_ @_ "/>
       <fill>
         <patternFill patternType="none">
           <fgColor indexed="64"/>
-          <bgColor auto="1"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="A  Mitra_1 (MRT)"/>
+        <charset val="178"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="_ * #,##0_-_ ;_ * #,##0\-_ ;_ * &quot;-&quot;??_-_ ;_ @_ "/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
         </patternFill>
       </fill>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -2847,11 +2832,10 @@
         <charset val="178"/>
         <scheme val="none"/>
       </font>
-      <numFmt numFmtId="165" formatCode="_ * #,##0_-_ ;_ * #,##0\-_ ;_ * &quot;-&quot;??_-_ ;_ @_ "/>
       <fill>
         <patternFill patternType="none">
           <fgColor indexed="64"/>
-          <bgColor auto="1"/>
+          <bgColor indexed="65"/>
         </patternFill>
       </fill>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -2898,7 +2882,207 @@
         <charset val="178"/>
         <scheme val="none"/>
       </font>
-      <numFmt numFmtId="165" formatCode="_ * #,##0_-_ ;_ * #,##0\-_ ;_ * &quot;-&quot;??_-_ ;_ @_ "/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="A  Mitra_1 (MRT)"/>
+        <charset val="178"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="A  Mitra_1 (MRT)"/>
+        <charset val="178"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="A  Mitra_1 (MRT)"/>
+        <charset val="178"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="A  Mitra_1 (MRT)"/>
+        <charset val="178"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="_ * #,##0_-_ ;_ * #,##0\-_ ;_ * &quot;-&quot;??_-_ ;_ @_ "/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="A  Mitra_1 (MRT)"/>
+        <charset val="178"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="_ * #,##0_-_ ;_ * #,##0\-_ ;_ * &quot;-&quot;??_-_ ;_ @_ "/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="A  Mitra_1 (MRT)"/>
+        <charset val="178"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="_ * #,##0_-_ ;_ * #,##0\-_ ;_ * &quot;-&quot;??_-_ ;_ @_ "/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="A  Mitra_1 (MRT)"/>
+        <charset val="178"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="_ * #,##0_-_ ;_ * #,##0\-_ ;_ * &quot;-&quot;??_-_ ;_ @_ "/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="A  Mitra_1 (MRT)"/>
+        <charset val="178"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="_ * #,##0_-_ ;_ * #,##0\-_ ;_ * &quot;-&quot;??_-_ ;_ @_ "/>
       <fill>
         <patternFill patternType="none">
           <fgColor indexed="64"/>
@@ -3084,153 +3268,16 @@
     </dxf>
     <dxf>
       <font>
-        <b val="0"/>
-        <i val="0"/>
         <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
         <outline val="0"/>
         <shadow val="0"/>
-        <u val="none"/>
         <vertAlign val="baseline"/>
         <sz val="11"/>
-        <color theme="1"/>
         <name val="A  Mitra_1 (MRT)"/>
         <charset val="178"/>
         <scheme val="none"/>
       </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="A  Mitra_1 (MRT)"/>
-        <charset val="178"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="A  Mitra_1 (MRT)"/>
-        <charset val="178"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="A  Mitra_1 (MRT)"/>
-        <charset val="178"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="A  Mitra_1 (MRT)"/>
-        <charset val="178"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="A  Mitra_1 (MRT)"/>
-        <charset val="178"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -3291,44 +3338,6 @@
         <top/>
         <bottom/>
       </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="A  Mitra_1 (MRT)"/>
-        <charset val="178"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <name val="A  Mitra_1 (MRT)"/>
-        <charset val="178"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -17924,12 +17933,18 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{DAEF691E-BE7B-4846-B83B-B7F73E8F6AAF}" name="Table1" displayName="Table1" ref="A1:L487" totalsRowCount="1" headerRowDxfId="24" dataDxfId="25" totalsRowDxfId="26">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{DAEF691E-BE7B-4846-B83B-B7F73E8F6AAF}" name="Table1" displayName="Table1" ref="A1:L487" totalsRowCount="1" headerRowDxfId="26" dataDxfId="25" totalsRowDxfId="24">
   <autoFilter ref="A1:L486" xr:uid="{DAEF691E-BE7B-4846-B83B-B7F73E8F6AAF}">
+    <filterColumn colId="2">
+      <customFilters>
+        <customFilter operator="notEqual" val=" "/>
+      </customFilters>
+    </filterColumn>
     <filterColumn colId="5">
       <filters>
-        <filter val="سینمایی"/>
-        <filter val="مستند"/>
+        <filter val="انیمیشن سریالی"/>
+        <filter val="انیمیشن سینمایی"/>
+        <filter val="انیمیشن کوتاه"/>
       </filters>
     </filterColumn>
   </autoFilter>
@@ -17937,18 +17952,18 @@
     <sortCondition descending="1" ref="L1:L486"/>
   </sortState>
   <tableColumns count="12">
-    <tableColumn id="1" xr3:uid="{F2EAA953-DAC7-405E-8842-AF11A39D0D4A}" name="ردیف " totalsRowLabel="Total" dataDxfId="23" totalsRowDxfId="22"/>
-    <tableColumn id="2" xr3:uid="{FA040720-3200-4954-8557-DFD3BF916ED4}" name="شناسه اثر" dataDxfId="21" totalsRowDxfId="20"/>
-    <tableColumn id="3" xr3:uid="{606426C5-4912-4204-A423-0B95ABB4FAE7}" name="کد تماشا" dataDxfId="19" totalsRowDxfId="18"/>
-    <tableColumn id="4" xr3:uid="{0250D3F5-C0B9-4842-B508-C2E8F3A1B3E3}" name="نام اثر" dataDxfId="17" totalsRowDxfId="16"/>
-    <tableColumn id="5" xr3:uid="{1C1EB89D-D4D8-460E-8485-8130937802E7}" name="لینک" dataDxfId="15" totalsRowDxfId="14"/>
-    <tableColumn id="6" xr3:uid="{3EDD6E86-9441-4314-AD91-E31D4211F91F}" name="قالب" dataDxfId="13" totalsRowDxfId="12"/>
-    <tableColumn id="7" xr3:uid="{BA48E9FA-7286-43EE-A8CC-F23B7ECE554D}" name="زبان" dataDxfId="11" totalsRowDxfId="10"/>
-    <tableColumn id="8" xr3:uid="{49EEF339-1122-4F52-95D9-5E46CD2E81D6}" name="تعداد تماشا " totalsRowFunction="sum" dataDxfId="9" totalsRowDxfId="8" dataCellStyle="Comma"/>
-    <tableColumn id="9" xr3:uid="{F34DC572-65BE-49F4-8B45-795A03D14590}" name="دقایق تماشا" totalsRowFunction="sum" dataDxfId="7" totalsRowDxfId="6" dataCellStyle="Comma"/>
-    <tableColumn id="10" xr3:uid="{67E35E64-27C1-4B72-A7B0-99EBC8BB6FF0}" name="تعداد دانلود" totalsRowFunction="sum" dataDxfId="5" totalsRowDxfId="4" dataCellStyle="Comma"/>
-    <tableColumn id="11" xr3:uid="{3E9E3753-6E5B-4AEF-B7F5-8A4A9A132A2E}" name="فروش" totalsRowFunction="sum" dataDxfId="3" totalsRowDxfId="2" dataCellStyle="Comma"/>
-    <tableColumn id="12" xr3:uid="{718C079A-104F-4A0A-9E7C-D29AA050BCB0}" name="مجموع تماشا و دانلود" totalsRowFunction="sum" dataDxfId="1" totalsRowDxfId="0" dataCellStyle="Comma" totalsRowCellStyle="Comma">
+    <tableColumn id="1" xr3:uid="{F2EAA953-DAC7-405E-8842-AF11A39D0D4A}" name="ردیف " totalsRowLabel="Total" dataDxfId="23" totalsRowDxfId="11"/>
+    <tableColumn id="2" xr3:uid="{FA040720-3200-4954-8557-DFD3BF916ED4}" name="شناسه اثر" dataDxfId="22" totalsRowDxfId="10"/>
+    <tableColumn id="3" xr3:uid="{606426C5-4912-4204-A423-0B95ABB4FAE7}" name="کد تماشا" dataDxfId="21" totalsRowDxfId="9"/>
+    <tableColumn id="4" xr3:uid="{0250D3F5-C0B9-4842-B508-C2E8F3A1B3E3}" name="نام اثر" dataDxfId="20" totalsRowDxfId="8"/>
+    <tableColumn id="5" xr3:uid="{1C1EB89D-D4D8-460E-8485-8130937802E7}" name="لینک" dataDxfId="19" totalsRowDxfId="7"/>
+    <tableColumn id="6" xr3:uid="{3EDD6E86-9441-4314-AD91-E31D4211F91F}" name="قالب" dataDxfId="18" totalsRowDxfId="6"/>
+    <tableColumn id="7" xr3:uid="{BA48E9FA-7286-43EE-A8CC-F23B7ECE554D}" name="زبان" dataDxfId="17" totalsRowDxfId="5"/>
+    <tableColumn id="8" xr3:uid="{49EEF339-1122-4F52-95D9-5E46CD2E81D6}" name="تعداد تماشا " totalsRowFunction="sum" dataDxfId="16" totalsRowDxfId="4" dataCellStyle="Comma"/>
+    <tableColumn id="9" xr3:uid="{F34DC572-65BE-49F4-8B45-795A03D14590}" name="دقایق تماشا" totalsRowFunction="sum" dataDxfId="15" totalsRowDxfId="3" dataCellStyle="Comma"/>
+    <tableColumn id="10" xr3:uid="{67E35E64-27C1-4B72-A7B0-99EBC8BB6FF0}" name="تعداد دانلود" totalsRowFunction="sum" dataDxfId="14" totalsRowDxfId="2" dataCellStyle="Comma"/>
+    <tableColumn id="11" xr3:uid="{3E9E3753-6E5B-4AEF-B7F5-8A4A9A132A2E}" name="فروش" totalsRowFunction="sum" dataDxfId="13" totalsRowDxfId="1" dataCellStyle="Comma"/>
+    <tableColumn id="12" xr3:uid="{718C079A-104F-4A0A-9E7C-D29AA050BCB0}" name="مجموع تماشا و دانلود" totalsRowFunction="sum" dataDxfId="12" totalsRowDxfId="0" dataCellStyle="Comma" totalsRowCellStyle="Comma">
       <calculatedColumnFormula>Table1[[#This Row],[تعداد دانلود]]+Table1[[#This Row],[تعداد تماشا ]]</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -18221,10 +18236,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L487"/>
   <sheetViews>
-    <sheetView rightToLeft="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+    <sheetView rightToLeft="1" tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A470" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="L2" sqref="D2:L31"/>
+      <selection pane="bottomLeft" activeCell="P474" sqref="P474"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.25"/>
@@ -18238,7 +18253,7 @@
     <col min="7" max="7" width="12.5703125" style="17" hidden="1" customWidth="1"/>
     <col min="8" max="9" width="11.85546875" style="16" hidden="1" customWidth="1"/>
     <col min="10" max="10" width="11.140625" style="16" hidden="1" customWidth="1"/>
-    <col min="11" max="11" width="12.28515625" style="16" hidden="1" customWidth="1"/>
+    <col min="11" max="11" width="12.28515625" style="16" customWidth="1"/>
     <col min="12" max="12" width="11" style="16" customWidth="1"/>
     <col min="13" max="16384" width="9.140625" style="16"/>
   </cols>
@@ -18281,7 +18296,7 @@
         <v>803</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" ht="36" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2" s="12">
         <v>105</v>
       </c>
@@ -18318,7 +18333,7 @@
         <v>1155</v>
       </c>
     </row>
-    <row r="3" spans="1:12" ht="36" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" ht="36" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3" s="13">
         <v>201</v>
       </c>
@@ -18357,7 +18372,7 @@
         <v>732</v>
       </c>
     </row>
-    <row r="4" spans="1:12" ht="36" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" ht="36" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4" s="13">
         <v>168</v>
       </c>
@@ -18396,7 +18411,7 @@
         <v>525</v>
       </c>
     </row>
-    <row r="5" spans="1:12" ht="36" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" ht="36" hidden="1" x14ac:dyDescent="0.25">
       <c r="A5" s="13">
         <v>183</v>
       </c>
@@ -18435,7 +18450,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="6" spans="1:12" ht="36" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" ht="36" hidden="1" x14ac:dyDescent="0.25">
       <c r="A6" s="13">
         <v>196</v>
       </c>
@@ -18474,7 +18489,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="7" spans="1:12" ht="36" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" ht="36" hidden="1" x14ac:dyDescent="0.25">
       <c r="A7" s="13">
         <v>206</v>
       </c>
@@ -18513,7 +18528,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="8" spans="1:12" ht="36" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" ht="36" hidden="1" x14ac:dyDescent="0.25">
       <c r="A8" s="13">
         <v>203</v>
       </c>
@@ -18552,7 +18567,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="9" spans="1:12" ht="36" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" ht="36" hidden="1" x14ac:dyDescent="0.25">
       <c r="A9" s="12">
         <v>52</v>
       </c>
@@ -18590,7 +18605,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="10" spans="1:12" ht="36" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" ht="36" hidden="1" x14ac:dyDescent="0.25">
       <c r="A10" s="12">
         <v>83</v>
       </c>
@@ -18628,7 +18643,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="11" spans="1:12" ht="36" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" ht="36" hidden="1" x14ac:dyDescent="0.25">
       <c r="A11" s="13">
         <v>182</v>
       </c>
@@ -18667,7 +18682,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="12" spans="1:12" ht="36" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" ht="36" hidden="1" x14ac:dyDescent="0.25">
       <c r="A12" s="13">
         <v>172</v>
       </c>
@@ -18706,7 +18721,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="13" spans="1:12" ht="36" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" ht="36" hidden="1" x14ac:dyDescent="0.25">
       <c r="A13" s="13">
         <v>171</v>
       </c>
@@ -18745,7 +18760,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="14" spans="1:12" ht="36" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" ht="36" hidden="1" x14ac:dyDescent="0.25">
       <c r="A14" s="12">
         <v>3</v>
       </c>
@@ -18783,7 +18798,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="15" spans="1:12" ht="36" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" ht="36" hidden="1" x14ac:dyDescent="0.25">
       <c r="A15" s="12">
         <v>6</v>
       </c>
@@ -18821,7 +18836,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="16" spans="1:12" ht="36" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" ht="36" hidden="1" x14ac:dyDescent="0.25">
       <c r="A16" s="12">
         <v>102</v>
       </c>
@@ -18859,7 +18874,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A17" s="12">
         <v>10</v>
       </c>
@@ -18897,7 +18912,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="18" spans="1:12" ht="36" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:12" ht="36" hidden="1" x14ac:dyDescent="0.25">
       <c r="A18" s="13">
         <v>202</v>
       </c>
@@ -18936,7 +18951,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A19" s="12">
         <v>35</v>
       </c>
@@ -18974,7 +18989,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A20" s="12">
         <v>13</v>
       </c>
@@ -19012,7 +19027,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A21" s="12">
         <v>1</v>
       </c>
@@ -19050,7 +19065,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="22" spans="1:12" ht="36" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:12" ht="36" hidden="1" x14ac:dyDescent="0.25">
       <c r="A22" s="12">
         <v>7</v>
       </c>
@@ -19088,7 +19103,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="23" spans="1:12" ht="36" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:12" ht="36" hidden="1" x14ac:dyDescent="0.25">
       <c r="A23" s="12">
         <v>54</v>
       </c>
@@ -19126,7 +19141,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="24" spans="1:12" ht="36" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:12" ht="36" hidden="1" x14ac:dyDescent="0.25">
       <c r="A24" s="12">
         <v>31</v>
       </c>
@@ -19164,7 +19179,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A25" s="12">
         <v>40</v>
       </c>
@@ -19202,7 +19217,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A26" s="12">
         <v>38</v>
       </c>
@@ -19240,7 +19255,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="27" spans="1:12" ht="36" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:12" ht="36" hidden="1" x14ac:dyDescent="0.25">
       <c r="A27" s="13">
         <v>164</v>
       </c>
@@ -19279,7 +19294,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="28" spans="1:12" ht="36" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:12" ht="36" hidden="1" x14ac:dyDescent="0.25">
       <c r="A28" s="13">
         <v>207</v>
       </c>
@@ -19317,7 +19332,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="29" spans="1:12" ht="36" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:12" ht="36" hidden="1" x14ac:dyDescent="0.25">
       <c r="A29" s="12">
         <v>2</v>
       </c>
@@ -19355,7 +19370,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A30" s="12">
         <v>71</v>
       </c>
@@ -19393,7 +19408,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="31" spans="1:12" ht="36" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:12" ht="36" hidden="1" x14ac:dyDescent="0.25">
       <c r="A31" s="12">
         <v>4</v>
       </c>
@@ -19431,7 +19446,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="32" spans="1:12" ht="36" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:12" ht="36" hidden="1" x14ac:dyDescent="0.25">
       <c r="A32" s="12">
         <v>62</v>
       </c>
@@ -19469,7 +19484,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="33" spans="1:12" ht="36" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:12" ht="36" hidden="1" x14ac:dyDescent="0.25">
       <c r="A33" s="13">
         <v>198</v>
       </c>
@@ -19508,7 +19523,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="34" spans="1:12" ht="36" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:12" ht="36" hidden="1" x14ac:dyDescent="0.25">
       <c r="A34" s="12">
         <v>55</v>
       </c>
@@ -19546,7 +19561,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="35" spans="1:12" ht="36" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:12" ht="36" hidden="1" x14ac:dyDescent="0.25">
       <c r="A35" s="12">
         <v>9</v>
       </c>
@@ -19584,7 +19599,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="36" spans="1:12" ht="36" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:12" ht="36" hidden="1" x14ac:dyDescent="0.25">
       <c r="A36" s="13">
         <v>204</v>
       </c>
@@ -19623,7 +19638,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="37" spans="1:12" ht="36" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:12" ht="36" hidden="1" x14ac:dyDescent="0.25">
       <c r="A37" s="13">
         <v>163</v>
       </c>
@@ -19662,7 +19677,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A38" s="12">
         <v>12</v>
       </c>
@@ -19700,7 +19715,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="39" spans="1:12" ht="36" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:12" ht="36" hidden="1" x14ac:dyDescent="0.25">
       <c r="A39" s="13">
         <v>169</v>
       </c>
@@ -19739,7 +19754,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A40" s="13">
         <v>184</v>
       </c>
@@ -19778,7 +19793,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A41" s="12">
         <v>36</v>
       </c>
@@ -19816,7 +19831,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="42" spans="1:12" ht="36" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:12" ht="36" hidden="1" x14ac:dyDescent="0.25">
       <c r="A42" s="13">
         <v>170</v>
       </c>
@@ -19853,7 +19868,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="43" spans="1:12" ht="36" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:12" ht="36" hidden="1" x14ac:dyDescent="0.25">
       <c r="A43" s="12">
         <v>5</v>
       </c>
@@ -19891,7 +19906,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="44" spans="1:12" ht="36" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:12" ht="36" hidden="1" x14ac:dyDescent="0.25">
       <c r="A44" s="13">
         <v>167</v>
       </c>
@@ -19930,7 +19945,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A45" s="12">
         <v>8</v>
       </c>
@@ -19968,7 +19983,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A46" s="12">
         <v>93</v>
       </c>
@@ -20006,7 +20021,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="47" spans="1:12" ht="36" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:12" ht="36" hidden="1" x14ac:dyDescent="0.25">
       <c r="A47" s="12">
         <v>24</v>
       </c>
@@ -20044,7 +20059,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="48" spans="1:12" ht="36" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:12" ht="36" hidden="1" x14ac:dyDescent="0.25">
       <c r="A48" s="12">
         <v>11</v>
       </c>
@@ -20082,7 +20097,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="49" spans="1:12" ht="36" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:12" ht="36" hidden="1" x14ac:dyDescent="0.25">
       <c r="A49" s="12">
         <v>116</v>
       </c>
@@ -20120,7 +20135,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="50" spans="1:12" ht="36" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:12" ht="36" hidden="1" x14ac:dyDescent="0.25">
       <c r="A50" s="12">
         <v>59</v>
       </c>
@@ -20158,7 +20173,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="51" spans="1:12" ht="36" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:12" ht="36" hidden="1" x14ac:dyDescent="0.25">
       <c r="A51" s="12">
         <v>21</v>
       </c>
@@ -20196,7 +20211,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="52" spans="1:12" ht="36" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:12" ht="36" hidden="1" x14ac:dyDescent="0.25">
       <c r="A52" s="12">
         <v>22</v>
       </c>
@@ -20234,7 +20249,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="53" spans="1:12" ht="36" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:12" ht="36" hidden="1" x14ac:dyDescent="0.25">
       <c r="A53" s="13">
         <v>178</v>
       </c>
@@ -20273,7 +20288,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="54" spans="1:12" ht="36" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:12" ht="36" hidden="1" x14ac:dyDescent="0.25">
       <c r="A54" s="12">
         <v>47</v>
       </c>
@@ -20311,7 +20326,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="55" spans="1:12" ht="36" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:12" ht="36" hidden="1" x14ac:dyDescent="0.25">
       <c r="A55" s="12">
         <v>145</v>
       </c>
@@ -20349,7 +20364,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="56" spans="1:12" ht="36" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:12" ht="36" hidden="1" x14ac:dyDescent="0.25">
       <c r="A56" s="12">
         <v>29</v>
       </c>
@@ -20387,7 +20402,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="57" spans="1:12" ht="36" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:12" ht="36" hidden="1" x14ac:dyDescent="0.25">
       <c r="A57" s="12">
         <v>15</v>
       </c>
@@ -20425,7 +20440,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="58" spans="1:12" ht="36" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:12" ht="36" hidden="1" x14ac:dyDescent="0.25">
       <c r="A58" s="12">
         <v>143</v>
       </c>
@@ -20463,7 +20478,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="59" spans="1:12" ht="36" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:12" ht="36" hidden="1" x14ac:dyDescent="0.25">
       <c r="A59" s="12">
         <v>64</v>
       </c>
@@ -20501,7 +20516,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="60" spans="1:12" ht="36" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:12" ht="36" hidden="1" x14ac:dyDescent="0.25">
       <c r="A60" s="13">
         <v>174</v>
       </c>
@@ -20540,7 +20555,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="61" spans="1:12" ht="36" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:12" ht="36" hidden="1" x14ac:dyDescent="0.25">
       <c r="A61" s="13">
         <v>205</v>
       </c>
@@ -20579,7 +20594,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="62" spans="1:12" ht="36" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:12" ht="36" hidden="1" x14ac:dyDescent="0.25">
       <c r="A62" s="12">
         <v>72</v>
       </c>
@@ -20617,7 +20632,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="63" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A63" s="12">
         <v>37</v>
       </c>
@@ -20655,7 +20670,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="64" spans="1:12" ht="36" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:12" ht="36" hidden="1" x14ac:dyDescent="0.25">
       <c r="A64" s="12">
         <v>16</v>
       </c>
@@ -20693,7 +20708,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="65" spans="1:12" ht="36" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:12" ht="36" hidden="1" x14ac:dyDescent="0.25">
       <c r="A65" s="12">
         <v>113</v>
       </c>
@@ -20730,7 +20745,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="66" spans="1:12" ht="36" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:12" ht="36" hidden="1" x14ac:dyDescent="0.25">
       <c r="A66" s="13">
         <v>162</v>
       </c>
@@ -20769,7 +20784,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="67" spans="1:12" ht="36" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:12" ht="36" hidden="1" x14ac:dyDescent="0.25">
       <c r="A67" s="12">
         <v>142</v>
       </c>
@@ -20807,7 +20822,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="68" spans="1:12" ht="36" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:12" ht="36" hidden="1" x14ac:dyDescent="0.25">
       <c r="A68" s="13">
         <v>173</v>
       </c>
@@ -20846,7 +20861,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="69" spans="1:12" ht="36" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:12" ht="36" hidden="1" x14ac:dyDescent="0.25">
       <c r="A69" s="12">
         <v>68</v>
       </c>
@@ -20884,7 +20899,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="70" spans="1:12" ht="36" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:12" ht="36" hidden="1" x14ac:dyDescent="0.25">
       <c r="A70" s="13">
         <v>166</v>
       </c>
@@ -20923,7 +20938,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="71" spans="1:12" ht="36" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:12" ht="36" hidden="1" x14ac:dyDescent="0.25">
       <c r="A71" s="12">
         <v>117</v>
       </c>
@@ -20961,7 +20976,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="72" spans="1:12" ht="36" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:12" ht="36" hidden="1" x14ac:dyDescent="0.25">
       <c r="A72" s="12">
         <v>26</v>
       </c>
@@ -20999,7 +21014,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="73" spans="1:12" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:12" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="12">
         <v>70</v>
       </c>
@@ -21417,7 +21432,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="84" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A84" s="12">
         <v>120</v>
       </c>
@@ -21455,7 +21470,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="85" spans="1:12" ht="36" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:12" ht="36" hidden="1" x14ac:dyDescent="0.25">
       <c r="A85" s="12">
         <v>114</v>
       </c>
@@ -21795,7 +21810,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="94" spans="1:12" ht="36" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:12" ht="36" hidden="1" x14ac:dyDescent="0.25">
       <c r="A94" s="12">
         <v>33</v>
       </c>
@@ -22096,7 +22111,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="102" spans="1:12" ht="36" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:12" ht="36" hidden="1" x14ac:dyDescent="0.25">
       <c r="A102" s="12">
         <v>32</v>
       </c>
@@ -22134,7 +22149,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="103" spans="1:12" ht="36" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:12" ht="36" hidden="1" x14ac:dyDescent="0.25">
       <c r="A103" s="12">
         <v>19</v>
       </c>
@@ -22248,7 +22263,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="106" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A106" s="12">
         <v>84</v>
       </c>
@@ -22511,7 +22526,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="113" spans="1:12" ht="36" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:12" ht="36" hidden="1" x14ac:dyDescent="0.25">
       <c r="A113" s="12">
         <v>124</v>
       </c>
@@ -22549,7 +22564,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="114" spans="1:12" ht="36" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:12" ht="36" hidden="1" x14ac:dyDescent="0.25">
       <c r="A114" s="13">
         <v>197</v>
       </c>
@@ -22588,7 +22603,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="115" spans="1:12" ht="36" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:12" ht="36" hidden="1" x14ac:dyDescent="0.25">
       <c r="A115" s="13">
         <v>176</v>
       </c>
@@ -22627,7 +22642,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="116" spans="1:12" ht="36" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:12" ht="36" hidden="1" x14ac:dyDescent="0.25">
       <c r="A116" s="12">
         <v>137</v>
       </c>
@@ -22665,7 +22680,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="117" spans="1:12" ht="36" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:12" ht="36" hidden="1" x14ac:dyDescent="0.25">
       <c r="A117" s="12">
         <v>27</v>
       </c>
@@ -22703,7 +22718,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="118" spans="1:12" ht="36" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:12" ht="36" hidden="1" x14ac:dyDescent="0.25">
       <c r="A118" s="12">
         <v>146</v>
       </c>
@@ -22741,7 +22756,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="119" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A119" s="12">
         <v>141</v>
       </c>
@@ -22779,7 +22794,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="120" spans="1:12" ht="36" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:12" ht="36" hidden="1" x14ac:dyDescent="0.25">
       <c r="A120" s="13">
         <v>186</v>
       </c>
@@ -22818,7 +22833,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="121" spans="1:12" ht="36" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:12" ht="36" hidden="1" x14ac:dyDescent="0.25">
       <c r="A121" s="12">
         <v>23</v>
       </c>
@@ -22856,7 +22871,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="122" spans="1:12" ht="36" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:12" ht="36" hidden="1" x14ac:dyDescent="0.25">
       <c r="A122" s="12">
         <v>61</v>
       </c>
@@ -22894,7 +22909,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="123" spans="1:12" ht="36" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:12" ht="36" hidden="1" x14ac:dyDescent="0.25">
       <c r="A123" s="12">
         <v>119</v>
       </c>
@@ -22932,7 +22947,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="124" spans="1:12" ht="36" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:12" ht="36" hidden="1" x14ac:dyDescent="0.25">
       <c r="A124" s="13">
         <v>177</v>
       </c>
@@ -22971,7 +22986,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="125" spans="1:12" ht="36" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:12" ht="36" hidden="1" x14ac:dyDescent="0.25">
       <c r="A125" s="12">
         <v>28</v>
       </c>
@@ -23159,7 +23174,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="130" spans="1:12" ht="36" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:12" ht="36" hidden="1" x14ac:dyDescent="0.25">
       <c r="A130" s="12">
         <v>53</v>
       </c>
@@ -23197,7 +23212,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="131" spans="1:12" ht="36" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:12" ht="36" hidden="1" x14ac:dyDescent="0.25">
       <c r="A131" s="12">
         <v>30</v>
       </c>
@@ -23461,7 +23476,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="138" spans="1:12" ht="36" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:12" ht="36" hidden="1" x14ac:dyDescent="0.25">
       <c r="A138" s="12">
         <v>17</v>
       </c>
@@ -23499,7 +23514,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="139" spans="1:12" ht="36" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:12" ht="36" hidden="1" x14ac:dyDescent="0.25">
       <c r="A139" s="12">
         <v>148</v>
       </c>
@@ -23537,7 +23552,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="140" spans="1:12" ht="36" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:12" ht="36" hidden="1" x14ac:dyDescent="0.25">
       <c r="A140" s="12">
         <v>34</v>
       </c>
@@ -23575,7 +23590,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="141" spans="1:12" ht="36" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:12" ht="36" hidden="1" x14ac:dyDescent="0.25">
       <c r="A141" s="12">
         <v>129</v>
       </c>
@@ -23613,7 +23628,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="142" spans="1:12" ht="36" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:12" ht="36" hidden="1" x14ac:dyDescent="0.25">
       <c r="A142" s="13">
         <v>165</v>
       </c>
@@ -23652,7 +23667,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="143" spans="1:12" ht="36" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:12" ht="36" hidden="1" x14ac:dyDescent="0.25">
       <c r="A143" s="12">
         <v>50</v>
       </c>
@@ -23690,7 +23705,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="144" spans="1:12" ht="36" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:12" ht="36" hidden="1" x14ac:dyDescent="0.25">
       <c r="A144" s="12">
         <v>42</v>
       </c>
@@ -23728,7 +23743,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="145" spans="1:12" ht="36" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:12" ht="36" hidden="1" x14ac:dyDescent="0.25">
       <c r="A145" s="12">
         <v>51</v>
       </c>
@@ -23766,7 +23781,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="146" spans="1:12" ht="36" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:12" ht="36" hidden="1" x14ac:dyDescent="0.25">
       <c r="A146" s="12">
         <v>20</v>
       </c>
@@ -23804,7 +23819,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="147" spans="1:12" ht="36" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:12" ht="36" hidden="1" x14ac:dyDescent="0.25">
       <c r="A147" s="12">
         <v>39</v>
       </c>
@@ -23842,7 +23857,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="148" spans="1:12" ht="36" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:12" ht="36" hidden="1" x14ac:dyDescent="0.25">
       <c r="A148" s="12">
         <v>44</v>
       </c>
@@ -23880,7 +23895,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="149" spans="1:12" ht="36" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:12" ht="36" hidden="1" x14ac:dyDescent="0.25">
       <c r="A149" s="12">
         <v>140</v>
       </c>
@@ -24372,7 +24387,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="163" spans="1:12" ht="36" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:12" ht="36" hidden="1" x14ac:dyDescent="0.25">
       <c r="A163" s="13">
         <v>175</v>
       </c>
@@ -24411,7 +24426,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="164" spans="1:12" ht="36" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:12" ht="36" hidden="1" x14ac:dyDescent="0.25">
       <c r="A164" s="12">
         <v>41</v>
       </c>
@@ -24449,7 +24464,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="165" spans="1:12" ht="36" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:12" ht="36" hidden="1" x14ac:dyDescent="0.25">
       <c r="A165" s="12">
         <v>57</v>
       </c>
@@ -24487,7 +24502,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="166" spans="1:12" ht="36" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:12" ht="36" hidden="1" x14ac:dyDescent="0.25">
       <c r="A166" s="13">
         <v>185</v>
       </c>
@@ -24526,7 +24541,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="167" spans="1:12" ht="36" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:12" ht="36" hidden="1" x14ac:dyDescent="0.25">
       <c r="A167" s="13">
         <v>199</v>
       </c>
@@ -24565,7 +24580,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="168" spans="1:12" ht="36" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:12" ht="36" hidden="1" x14ac:dyDescent="0.25">
       <c r="A168" s="12">
         <v>14</v>
       </c>
@@ -24603,7 +24618,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="169" spans="1:12" ht="36" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:12" ht="36" hidden="1" x14ac:dyDescent="0.25">
       <c r="A169" s="12">
         <v>65</v>
       </c>
@@ -24641,7 +24656,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="170" spans="1:12" ht="36" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:12" ht="36" hidden="1" x14ac:dyDescent="0.25">
       <c r="A170" s="12">
         <v>58</v>
       </c>
@@ -24679,7 +24694,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="171" spans="1:12" ht="36" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:12" ht="36" hidden="1" x14ac:dyDescent="0.25">
       <c r="A171" s="12">
         <v>130</v>
       </c>
@@ -24717,7 +24732,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="172" spans="1:12" ht="36" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:12" ht="36" hidden="1" x14ac:dyDescent="0.25">
       <c r="A172" s="12">
         <v>147</v>
       </c>
@@ -24755,7 +24770,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="173" spans="1:12" ht="36" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:12" ht="36" hidden="1" x14ac:dyDescent="0.25">
       <c r="A173" s="12">
         <v>139</v>
       </c>
@@ -24792,7 +24807,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="174" spans="1:12" ht="36" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:12" ht="36" hidden="1" x14ac:dyDescent="0.25">
       <c r="A174" s="12">
         <v>121</v>
       </c>
@@ -24830,7 +24845,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="175" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A175" s="12">
         <v>101</v>
       </c>
@@ -24867,7 +24882,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="176" spans="1:12" ht="36" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:12" ht="36" hidden="1" x14ac:dyDescent="0.25">
       <c r="A176" s="12">
         <v>45</v>
       </c>
@@ -24905,7 +24920,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="177" spans="1:12" ht="36" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:12" ht="36" hidden="1" x14ac:dyDescent="0.25">
       <c r="A177" s="12">
         <v>60</v>
       </c>
@@ -24943,7 +24958,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="178" spans="1:12" ht="36" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:12" ht="36" hidden="1" x14ac:dyDescent="0.25">
       <c r="A178" s="12">
         <v>69</v>
       </c>
@@ -24981,7 +24996,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="179" spans="1:12" ht="36" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:12" ht="36" hidden="1" x14ac:dyDescent="0.25">
       <c r="A179" s="12">
         <v>56</v>
       </c>
@@ -25130,7 +25145,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="183" spans="1:12" ht="36" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:12" ht="36" hidden="1" x14ac:dyDescent="0.25">
       <c r="A183" s="12">
         <v>123</v>
       </c>
@@ -25168,7 +25183,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="184" spans="1:12" ht="36" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:12" ht="36" hidden="1" x14ac:dyDescent="0.25">
       <c r="A184" s="12">
         <v>66</v>
       </c>
@@ -25206,7 +25221,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="185" spans="1:12" ht="36" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:12" ht="36" hidden="1" x14ac:dyDescent="0.25">
       <c r="A185" s="12">
         <v>49</v>
       </c>
@@ -25244,7 +25259,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="186" spans="1:12" ht="36" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:12" ht="36" hidden="1" x14ac:dyDescent="0.25">
       <c r="A186" s="12">
         <v>48</v>
       </c>
@@ -25282,7 +25297,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="187" spans="1:12" ht="36" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:12" ht="36" hidden="1" x14ac:dyDescent="0.25">
       <c r="A187" s="12">
         <v>63</v>
       </c>
@@ -25499,7 +25514,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="193" spans="1:12" ht="36" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:12" ht="36" hidden="1" x14ac:dyDescent="0.25">
       <c r="A193" s="12">
         <v>144</v>
       </c>
@@ -25537,7 +25552,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="194" spans="1:12" ht="36" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:12" ht="36" hidden="1" x14ac:dyDescent="0.25">
       <c r="A194" s="13">
         <v>200</v>
       </c>
@@ -25576,7 +25591,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="195" spans="1:12" ht="36" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:12" ht="36" hidden="1" x14ac:dyDescent="0.25">
       <c r="A195" s="12">
         <v>138</v>
       </c>
@@ -25614,7 +25629,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="196" spans="1:12" ht="36" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:12" ht="36" hidden="1" x14ac:dyDescent="0.25">
       <c r="A196" s="12">
         <v>118</v>
       </c>
@@ -25652,7 +25667,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="197" spans="1:12" ht="36" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:12" ht="36" hidden="1" x14ac:dyDescent="0.25">
       <c r="A197" s="12">
         <v>112</v>
       </c>
@@ -25689,7 +25704,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="198" spans="1:12" ht="36" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:12" ht="36" hidden="1" x14ac:dyDescent="0.25">
       <c r="A198" s="12">
         <v>122</v>
       </c>
@@ -25727,7 +25742,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="199" spans="1:12" ht="36" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:12" ht="36" hidden="1" x14ac:dyDescent="0.25">
       <c r="A199" s="12">
         <v>46</v>
       </c>
@@ -25765,7 +25780,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="200" spans="1:12" ht="36" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:12" ht="36" hidden="1" x14ac:dyDescent="0.25">
       <c r="A200" s="12">
         <v>43</v>
       </c>
@@ -25803,7 +25818,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="201" spans="1:12" ht="36" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:12" ht="36" hidden="1" x14ac:dyDescent="0.25">
       <c r="A201" s="12">
         <v>18</v>
       </c>
@@ -25841,7 +25856,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="202" spans="1:12" ht="36" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:12" ht="36" hidden="1" x14ac:dyDescent="0.25">
       <c r="A202" s="12">
         <v>25</v>
       </c>
@@ -25879,7 +25894,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="203" spans="1:12" ht="36" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:12" ht="36" hidden="1" x14ac:dyDescent="0.25">
       <c r="A203" s="12">
         <v>67</v>
       </c>
@@ -25917,7 +25932,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="204" spans="1:12" ht="36" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:12" ht="36" hidden="1" x14ac:dyDescent="0.25">
       <c r="A204" s="12">
         <v>115</v>
       </c>
@@ -25985,13 +26000,15 @@
       <c r="J205" s="11">
         <v>7</v>
       </c>
-      <c r="K205" s="11"/>
+      <c r="K205" s="11">
+        <v>126000</v>
+      </c>
       <c r="L205" s="10">
         <f>Table1[[#This Row],[تعداد دانلود]]+Table1[[#This Row],[تعداد تماشا ]]</f>
         <v>33</v>
       </c>
     </row>
-    <row r="206" spans="1:12" ht="36" hidden="1" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:12" ht="36" x14ac:dyDescent="0.25">
       <c r="A206" s="13">
         <v>209</v>
       </c>
@@ -30887,7 +30904,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="350" spans="1:12" ht="36" hidden="1" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:12" ht="36" x14ac:dyDescent="0.25">
       <c r="A350" s="13">
         <v>280</v>
       </c>
@@ -32101,7 +32118,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="386" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="386" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A386" s="13">
         <v>292</v>
       </c>
@@ -33195,7 +33212,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="418" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="418" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A418" s="13">
         <v>313</v>
       </c>
@@ -33232,7 +33249,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="419" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="419" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A419" s="13"/>
       <c r="B419" s="13">
         <v>8757</v>
@@ -33267,7 +33284,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="420" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="420" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A420" s="13"/>
       <c r="B420" s="13">
         <v>8758</v>
@@ -33302,7 +33319,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="421" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="421" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A421" s="13"/>
       <c r="B421" s="13">
         <v>8759</v>
@@ -33337,7 +33354,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="422" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="422" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A422" s="13"/>
       <c r="B422" s="13">
         <v>8760</v>
@@ -33372,7 +33389,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="423" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="423" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A423" s="13"/>
       <c r="B423" s="13">
         <v>8761</v>
@@ -33407,7 +33424,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="424" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="424" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A424" s="13"/>
       <c r="B424" s="13">
         <v>8762</v>
@@ -33442,7 +33459,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="425" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="425" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A425" s="13"/>
       <c r="B425" s="13">
         <v>8763</v>
@@ -33477,7 +33494,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="426" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="426" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A426" s="13"/>
       <c r="B426" s="13">
         <v>8764</v>
@@ -33512,7 +33529,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="427" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="427" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A427" s="13"/>
       <c r="B427" s="13">
         <v>8765</v>
@@ -33547,7 +33564,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="428" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="428" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A428" s="13"/>
       <c r="B428" s="13">
         <v>8766</v>
@@ -33582,7 +33599,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="429" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="429" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A429" s="13"/>
       <c r="B429" s="13">
         <v>8767</v>
@@ -33617,7 +33634,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="430" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="430" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A430" s="13"/>
       <c r="B430" s="13">
         <v>8768</v>
@@ -33652,7 +33669,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="431" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="431" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A431" s="13"/>
       <c r="B431" s="13">
         <v>8769</v>
@@ -33687,7 +33704,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="432" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="432" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A432" s="13">
         <v>314</v>
       </c>
@@ -33724,7 +33741,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="433" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="433" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A433" s="13"/>
       <c r="B433" s="13">
         <v>8791</v>
@@ -33759,7 +33776,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="434" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="434" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A434" s="13"/>
       <c r="B434" s="13">
         <v>8792</v>
@@ -33794,7 +33811,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="435" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="435" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A435" s="13"/>
       <c r="B435" s="13">
         <v>8793</v>
@@ -33829,7 +33846,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="436" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="436" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A436" s="13"/>
       <c r="B436" s="13">
         <v>8794</v>
@@ -33864,7 +33881,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="437" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="437" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A437" s="13"/>
       <c r="B437" s="13">
         <v>8819</v>
@@ -33899,7 +33916,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="438" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="438" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A438" s="13"/>
       <c r="B438" s="13">
         <v>8821</v>
@@ -33934,7 +33951,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="439" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="439" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A439" s="13"/>
       <c r="B439" s="13">
         <v>8823</v>
@@ -33969,7 +33986,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="440" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="440" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A440" s="13"/>
       <c r="B440" s="13">
         <v>8824</v>
@@ -34004,7 +34021,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="441" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="441" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A441" s="13"/>
       <c r="B441" s="13">
         <v>8825</v>
@@ -34039,7 +34056,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="442" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="442" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A442" s="13"/>
       <c r="B442" s="13">
         <v>8826</v>
@@ -34074,7 +34091,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="443" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="443" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A443" s="13"/>
       <c r="B443" s="13">
         <v>8827</v>
@@ -34109,7 +34126,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="444" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="444" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A444" s="13"/>
       <c r="B444" s="13">
         <v>8828</v>
@@ -34144,7 +34161,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="445" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="445" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A445" s="13"/>
       <c r="B445" s="13">
         <v>8829</v>
@@ -34179,7 +34196,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="446" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="446" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A446" s="13"/>
       <c r="B446" s="13">
         <v>8830</v>
@@ -34214,7 +34231,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="447" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="447" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A447" s="13">
         <v>315</v>
       </c>
@@ -34251,7 +34268,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="448" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="448" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A448" s="13"/>
       <c r="B448" s="13">
         <v>8833</v>
@@ -34286,7 +34303,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="449" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="449" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A449" s="13"/>
       <c r="B449" s="13">
         <v>8834</v>
@@ -34321,7 +34338,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="450" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="450" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A450" s="13"/>
       <c r="B450" s="13">
         <v>8835</v>
@@ -34356,7 +34373,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="451" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="451" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A451" s="13"/>
       <c r="B451" s="13">
         <v>8836</v>
@@ -34391,7 +34408,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="452" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="452" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A452" s="13"/>
       <c r="B452" s="13">
         <v>8837</v>
@@ -34426,7 +34443,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="453" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="453" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A453" s="13"/>
       <c r="B453" s="13">
         <v>8838</v>
@@ -34461,7 +34478,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="454" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="454" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A454" s="13"/>
       <c r="B454" s="13">
         <v>8839</v>
@@ -34496,7 +34513,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="455" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="455" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A455" s="13"/>
       <c r="B455" s="13">
         <v>8840</v>
@@ -34531,7 +34548,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="456" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="456" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A456" s="13"/>
       <c r="B456" s="13">
         <v>8841</v>
@@ -34566,7 +34583,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="457" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="457" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A457" s="13"/>
       <c r="B457" s="13">
         <v>8842</v>
@@ -34601,7 +34618,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="458" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="458" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A458" s="13"/>
       <c r="B458" s="13">
         <v>8843</v>
@@ -34636,7 +34653,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="459" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="459" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A459" s="13">
         <v>316</v>
       </c>
@@ -34673,7 +34690,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="460" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="460" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A460" s="13"/>
       <c r="B460" s="13">
         <v>8857</v>
@@ -34708,7 +34725,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="461" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="461" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A461" s="13"/>
       <c r="B461" s="13">
         <v>8858</v>
@@ -34743,7 +34760,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="462" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="462" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A462" s="13"/>
       <c r="B462" s="13">
         <v>8859</v>
@@ -34778,7 +34795,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="463" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="463" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A463" s="13"/>
       <c r="B463" s="13">
         <v>8860</v>
@@ -34813,7 +34830,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="464" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="464" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A464" s="13"/>
       <c r="B464" s="13">
         <v>8861</v>
@@ -34848,7 +34865,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="465" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="465" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A465" s="13"/>
       <c r="B465" s="13">
         <v>8862</v>
@@ -34883,7 +34900,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="466" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="466" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A466" s="13"/>
       <c r="B466" s="13">
         <v>8863</v>
@@ -34918,7 +34935,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="467" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="467" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A467" s="13"/>
       <c r="B467" s="13">
         <v>8864</v>
@@ -34953,7 +34970,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="468" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="468" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A468" s="13"/>
       <c r="B468" s="13">
         <v>8865</v>
@@ -34988,7 +35005,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="469" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="469" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A469" s="13"/>
       <c r="B469" s="13">
         <v>8866</v>
@@ -35023,7 +35040,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="470" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="470" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A470" s="13"/>
       <c r="B470" s="13">
         <v>8867</v>
@@ -35058,7 +35075,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="471" spans="1:12" ht="36" hidden="1" x14ac:dyDescent="0.25">
+    <row r="471" spans="1:12" ht="36" x14ac:dyDescent="0.25">
       <c r="A471" s="13">
         <v>317</v>
       </c>
@@ -35095,7 +35112,7 @@
         <v>621</v>
       </c>
     </row>
-    <row r="472" spans="1:12" ht="36" hidden="1" x14ac:dyDescent="0.25">
+    <row r="472" spans="1:12" ht="36" x14ac:dyDescent="0.25">
       <c r="A472" s="13">
         <v>318</v>
       </c>
@@ -35132,7 +35149,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="473" spans="1:12" ht="36" hidden="1" x14ac:dyDescent="0.25">
+    <row r="473" spans="1:12" ht="36" x14ac:dyDescent="0.25">
       <c r="A473" s="13">
         <v>319</v>
       </c>
@@ -35169,7 +35186,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="474" spans="1:12" ht="36" hidden="1" x14ac:dyDescent="0.25">
+    <row r="474" spans="1:12" ht="36" x14ac:dyDescent="0.25">
       <c r="A474" s="13">
         <v>320</v>
       </c>
@@ -35239,7 +35256,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="476" spans="1:12" ht="36" hidden="1" x14ac:dyDescent="0.25">
+    <row r="476" spans="1:12" ht="36" x14ac:dyDescent="0.25">
       <c r="A476" s="13">
         <v>322</v>
       </c>
@@ -35620,23 +35637,23 @@
       <c r="G487" s="15"/>
       <c r="H487" s="22">
         <f>SUBTOTAL(109,Table1[[تعداد تماشا ]])</f>
-        <v>11167</v>
+        <v>4159</v>
       </c>
       <c r="I487" s="22">
         <f>SUBTOTAL(109,Table1[دقایق تماشا])</f>
-        <v>120176</v>
+        <v>44006</v>
       </c>
       <c r="J487" s="22">
         <f>SUBTOTAL(109,Table1[تعداد دانلود])</f>
-        <v>4224</v>
+        <v>641</v>
       </c>
       <c r="K487" s="22">
         <f>SUBTOTAL(109,Table1[فروش])</f>
-        <v>35156350</v>
+        <v>0</v>
       </c>
       <c r="L487" s="23">
         <f>SUBTOTAL(109,Table1[مجموع تماشا و دانلود])</f>
-        <v>15391</v>
+        <v>4800</v>
       </c>
     </row>
   </sheetData>
@@ -35990,7 +36007,7 @@
   <dimension ref="A1:K10"/>
   <sheetViews>
     <sheetView rightToLeft="1" workbookViewId="0">
-      <selection activeCell="H16" sqref="H16"/>
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -36343,7 +36360,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BC6780B7-64EA-4B01-89CE-0F607322FE7B}">
   <dimension ref="A1:B7"/>
   <sheetViews>
-    <sheetView rightToLeft="1" tabSelected="1" workbookViewId="0">
+    <sheetView rightToLeft="1" workbookViewId="0">
       <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>

--- a/آمارفروش بین الملل غیرعربی.xlsx
+++ b/آمارفروش بین الملل غیرعربی.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\undergit\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7ADC1E53-8413-4A19-82D3-6DD71A13F7AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2CD541DC-7BDD-4997-86D9-03FA1AABB1F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2688,6 +2688,28 @@
     </dxf>
     <dxf>
       <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="A  Mitra_1 (MRT)"/>
+        <charset val="178"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="_ * #,##0_-_ ;_ * #,##0\-_ ;_ * &quot;-&quot;??_-_ ;_ @_ "/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
         <b val="0"/>
         <i val="0"/>
         <strike val="0"/>
@@ -2708,6 +2730,32 @@
         <patternFill patternType="none">
           <fgColor indexed="64"/>
           <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="A  Mitra_1 (MRT)"/>
+        <charset val="178"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="_ * #,##0_-_ ;_ * #,##0\-_ ;_ * &quot;-&quot;??_-_ ;_ @_ "/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
         </patternFill>
       </fill>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -2759,7 +2807,7 @@
       <fill>
         <patternFill patternType="none">
           <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
+          <bgColor auto="1"/>
         </patternFill>
       </fill>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -2786,229 +2834,6 @@
         <patternFill patternType="none">
           <fgColor indexed="64"/>
           <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="A  Mitra_1 (MRT)"/>
-        <charset val="178"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="A  Mitra_1 (MRT)"/>
-        <charset val="178"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="A  Mitra_1 (MRT)"/>
-        <charset val="178"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="A  Mitra_1 (MRT)"/>
-        <charset val="178"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="A  Mitra_1 (MRT)"/>
-        <charset val="178"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="A  Mitra_1 (MRT)"/>
-        <charset val="178"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="A  Mitra_1 (MRT)"/>
-        <charset val="178"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="A  Mitra_1 (MRT)"/>
-        <charset val="178"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="164" formatCode="_ * #,##0_-_ ;_ * #,##0\-_ ;_ * &quot;-&quot;??_-_ ;_ @_ "/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="A  Mitra_1 (MRT)"/>
-        <charset val="178"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="164" formatCode="_ * #,##0_-_ ;_ * #,##0\-_ ;_ * &quot;-&quot;??_-_ ;_ @_ "/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
         </patternFill>
       </fill>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -3060,7 +2885,7 @@
       <fill>
         <patternFill patternType="none">
           <fgColor indexed="64"/>
-          <bgColor auto="1"/>
+          <bgColor indexed="65"/>
         </patternFill>
       </fill>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -3111,7 +2936,7 @@
       <fill>
         <patternFill patternType="none">
           <fgColor indexed="64"/>
-          <bgColor auto="1"/>
+          <bgColor indexed="65"/>
         </patternFill>
       </fill>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -3161,7 +2986,7 @@
       <fill>
         <patternFill patternType="none">
           <fgColor indexed="64"/>
-          <bgColor auto="1"/>
+          <bgColor indexed="65"/>
         </patternFill>
       </fill>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -3211,6 +3036,31 @@
       <fill>
         <patternFill patternType="none">
           <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="A  Mitra_1 (MRT)"/>
+        <charset val="178"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
           <bgColor auto="1"/>
         </patternFill>
       </fill>
@@ -3236,7 +3086,157 @@
       <fill>
         <patternFill patternType="none">
           <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="A  Mitra_1 (MRT)"/>
+        <charset val="178"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
           <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="A  Mitra_1 (MRT)"/>
+        <charset val="178"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="A  Mitra_1 (MRT)"/>
+        <charset val="178"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="A  Mitra_1 (MRT)"/>
+        <charset val="178"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="A  Mitra_1 (MRT)"/>
+        <charset val="178"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="A  Mitra_1 (MRT)"/>
+        <charset val="178"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
         </patternFill>
       </fill>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -17935,35 +17935,28 @@
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{DAEF691E-BE7B-4846-B83B-B7F73E8F6AAF}" name="Table1" displayName="Table1" ref="A1:L487" totalsRowCount="1" headerRowDxfId="26" dataDxfId="25" totalsRowDxfId="24">
   <autoFilter ref="A1:L486" xr:uid="{DAEF691E-BE7B-4846-B83B-B7F73E8F6AAF}">
-    <filterColumn colId="2">
+    <filterColumn colId="10">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
       </customFilters>
-    </filterColumn>
-    <filterColumn colId="5">
-      <filters>
-        <filter val="انیمیشن سریالی"/>
-        <filter val="انیمیشن سینمایی"/>
-        <filter val="انیمیشن کوتاه"/>
-      </filters>
     </filterColumn>
   </autoFilter>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:L204">
     <sortCondition descending="1" ref="L1:L486"/>
   </sortState>
   <tableColumns count="12">
-    <tableColumn id="1" xr3:uid="{F2EAA953-DAC7-405E-8842-AF11A39D0D4A}" name="ردیف " totalsRowLabel="Total" dataDxfId="23" totalsRowDxfId="11"/>
-    <tableColumn id="2" xr3:uid="{FA040720-3200-4954-8557-DFD3BF916ED4}" name="شناسه اثر" dataDxfId="22" totalsRowDxfId="10"/>
-    <tableColumn id="3" xr3:uid="{606426C5-4912-4204-A423-0B95ABB4FAE7}" name="کد تماشا" dataDxfId="21" totalsRowDxfId="9"/>
-    <tableColumn id="4" xr3:uid="{0250D3F5-C0B9-4842-B508-C2E8F3A1B3E3}" name="نام اثر" dataDxfId="20" totalsRowDxfId="8"/>
-    <tableColumn id="5" xr3:uid="{1C1EB89D-D4D8-460E-8485-8130937802E7}" name="لینک" dataDxfId="19" totalsRowDxfId="7"/>
-    <tableColumn id="6" xr3:uid="{3EDD6E86-9441-4314-AD91-E31D4211F91F}" name="قالب" dataDxfId="18" totalsRowDxfId="6"/>
-    <tableColumn id="7" xr3:uid="{BA48E9FA-7286-43EE-A8CC-F23B7ECE554D}" name="زبان" dataDxfId="17" totalsRowDxfId="5"/>
-    <tableColumn id="8" xr3:uid="{49EEF339-1122-4F52-95D9-5E46CD2E81D6}" name="تعداد تماشا " totalsRowFunction="sum" dataDxfId="16" totalsRowDxfId="4" dataCellStyle="Comma"/>
-    <tableColumn id="9" xr3:uid="{F34DC572-65BE-49F4-8B45-795A03D14590}" name="دقایق تماشا" totalsRowFunction="sum" dataDxfId="15" totalsRowDxfId="3" dataCellStyle="Comma"/>
-    <tableColumn id="10" xr3:uid="{67E35E64-27C1-4B72-A7B0-99EBC8BB6FF0}" name="تعداد دانلود" totalsRowFunction="sum" dataDxfId="14" totalsRowDxfId="2" dataCellStyle="Comma"/>
-    <tableColumn id="11" xr3:uid="{3E9E3753-6E5B-4AEF-B7F5-8A4A9A132A2E}" name="فروش" totalsRowFunction="sum" dataDxfId="13" totalsRowDxfId="1" dataCellStyle="Comma"/>
-    <tableColumn id="12" xr3:uid="{718C079A-104F-4A0A-9E7C-D29AA050BCB0}" name="مجموع تماشا و دانلود" totalsRowFunction="sum" dataDxfId="12" totalsRowDxfId="0" dataCellStyle="Comma" totalsRowCellStyle="Comma">
+    <tableColumn id="1" xr3:uid="{F2EAA953-DAC7-405E-8842-AF11A39D0D4A}" name="ردیف " totalsRowLabel="Total" dataDxfId="23" totalsRowDxfId="22"/>
+    <tableColumn id="2" xr3:uid="{FA040720-3200-4954-8557-DFD3BF916ED4}" name="شناسه اثر" dataDxfId="21" totalsRowDxfId="20"/>
+    <tableColumn id="3" xr3:uid="{606426C5-4912-4204-A423-0B95ABB4FAE7}" name="کد تماشا" dataDxfId="19" totalsRowDxfId="18"/>
+    <tableColumn id="4" xr3:uid="{0250D3F5-C0B9-4842-B508-C2E8F3A1B3E3}" name="نام اثر" dataDxfId="17" totalsRowDxfId="16"/>
+    <tableColumn id="5" xr3:uid="{1C1EB89D-D4D8-460E-8485-8130937802E7}" name="لینک" dataDxfId="15" totalsRowDxfId="14"/>
+    <tableColumn id="6" xr3:uid="{3EDD6E86-9441-4314-AD91-E31D4211F91F}" name="قالب" dataDxfId="13" totalsRowDxfId="12"/>
+    <tableColumn id="7" xr3:uid="{BA48E9FA-7286-43EE-A8CC-F23B7ECE554D}" name="زبان" dataDxfId="11" totalsRowDxfId="10"/>
+    <tableColumn id="8" xr3:uid="{49EEF339-1122-4F52-95D9-5E46CD2E81D6}" name="تعداد تماشا " totalsRowFunction="sum" dataDxfId="9" totalsRowDxfId="8" dataCellStyle="Comma"/>
+    <tableColumn id="9" xr3:uid="{F34DC572-65BE-49F4-8B45-795A03D14590}" name="دقایق تماشا" totalsRowFunction="sum" dataDxfId="7" totalsRowDxfId="6" dataCellStyle="Comma"/>
+    <tableColumn id="10" xr3:uid="{67E35E64-27C1-4B72-A7B0-99EBC8BB6FF0}" name="تعداد دانلود" totalsRowFunction="sum" dataDxfId="5" totalsRowDxfId="4" dataCellStyle="Comma"/>
+    <tableColumn id="11" xr3:uid="{3E9E3753-6E5B-4AEF-B7F5-8A4A9A132A2E}" name="فروش" totalsRowFunction="sum" dataDxfId="3" totalsRowDxfId="2" dataCellStyle="Comma"/>
+    <tableColumn id="12" xr3:uid="{718C079A-104F-4A0A-9E7C-D29AA050BCB0}" name="مجموع تماشا و دانلود" totalsRowFunction="sum" dataDxfId="1" totalsRowDxfId="0" dataCellStyle="Comma" totalsRowCellStyle="Comma">
       <calculatedColumnFormula>Table1[[#This Row],[تعداد دانلود]]+Table1[[#This Row],[تعداد تماشا ]]</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -18237,9 +18230,9 @@
   <dimension ref="A1:L487"/>
   <sheetViews>
     <sheetView rightToLeft="1" tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A470" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A202" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="P474" sqref="P474"/>
+      <selection pane="bottomLeft" activeCell="L487" sqref="L487"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.25"/>
@@ -18248,11 +18241,11 @@
     <col min="2" max="2" width="10.5703125" style="16" customWidth="1"/>
     <col min="3" max="3" width="9.5703125" style="16" customWidth="1"/>
     <col min="4" max="4" width="28.7109375" style="17" customWidth="1"/>
-    <col min="5" max="5" width="33.5703125" style="17" hidden="1" customWidth="1"/>
-    <col min="6" max="6" width="13.5703125" style="17" hidden="1" customWidth="1"/>
-    <col min="7" max="7" width="12.5703125" style="17" hidden="1" customWidth="1"/>
-    <col min="8" max="9" width="11.85546875" style="16" hidden="1" customWidth="1"/>
-    <col min="10" max="10" width="11.140625" style="16" hidden="1" customWidth="1"/>
+    <col min="5" max="5" width="33.5703125" style="17" customWidth="1"/>
+    <col min="6" max="6" width="13.5703125" style="17" customWidth="1"/>
+    <col min="7" max="7" width="12.5703125" style="17" customWidth="1"/>
+    <col min="8" max="9" width="11.85546875" style="16" customWidth="1"/>
+    <col min="10" max="10" width="11.140625" style="16" customWidth="1"/>
     <col min="11" max="11" width="12.28515625" style="16" customWidth="1"/>
     <col min="12" max="12" width="11" style="16" customWidth="1"/>
     <col min="13" max="16384" width="9.140625" style="16"/>
@@ -18296,7 +18289,7 @@
         <v>803</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="36" hidden="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" ht="36" x14ac:dyDescent="0.25">
       <c r="A2" s="12">
         <v>105</v>
       </c>
@@ -18333,7 +18326,7 @@
         <v>1155</v>
       </c>
     </row>
-    <row r="3" spans="1:12" ht="36" hidden="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" ht="36" x14ac:dyDescent="0.25">
       <c r="A3" s="13">
         <v>201</v>
       </c>
@@ -18372,7 +18365,7 @@
         <v>732</v>
       </c>
     </row>
-    <row r="4" spans="1:12" ht="36" hidden="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" ht="36" x14ac:dyDescent="0.25">
       <c r="A4" s="13">
         <v>168</v>
       </c>
@@ -18411,7 +18404,7 @@
         <v>525</v>
       </c>
     </row>
-    <row r="5" spans="1:12" ht="36" hidden="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" ht="36" x14ac:dyDescent="0.25">
       <c r="A5" s="13">
         <v>183</v>
       </c>
@@ -18450,7 +18443,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="6" spans="1:12" ht="36" hidden="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" ht="36" x14ac:dyDescent="0.25">
       <c r="A6" s="13">
         <v>196</v>
       </c>
@@ -18489,7 +18482,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="7" spans="1:12" ht="36" hidden="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" ht="36" x14ac:dyDescent="0.25">
       <c r="A7" s="13">
         <v>206</v>
       </c>
@@ -18528,7 +18521,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="8" spans="1:12" ht="36" hidden="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" ht="36" x14ac:dyDescent="0.25">
       <c r="A8" s="13">
         <v>203</v>
       </c>
@@ -18567,7 +18560,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="9" spans="1:12" ht="36" hidden="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" ht="36" x14ac:dyDescent="0.25">
       <c r="A9" s="12">
         <v>52</v>
       </c>
@@ -18605,7 +18598,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="10" spans="1:12" ht="36" hidden="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" ht="36" x14ac:dyDescent="0.25">
       <c r="A10" s="12">
         <v>83</v>
       </c>
@@ -18643,7 +18636,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="11" spans="1:12" ht="36" hidden="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" ht="36" x14ac:dyDescent="0.25">
       <c r="A11" s="13">
         <v>182</v>
       </c>
@@ -18682,7 +18675,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="12" spans="1:12" ht="36" hidden="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" ht="36" x14ac:dyDescent="0.25">
       <c r="A12" s="13">
         <v>172</v>
       </c>
@@ -18721,7 +18714,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="13" spans="1:12" ht="36" hidden="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" ht="36" x14ac:dyDescent="0.25">
       <c r="A13" s="13">
         <v>171</v>
       </c>
@@ -18760,7 +18753,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="14" spans="1:12" ht="36" hidden="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" ht="36" x14ac:dyDescent="0.25">
       <c r="A14" s="12">
         <v>3</v>
       </c>
@@ -18798,7 +18791,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="15" spans="1:12" ht="36" hidden="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" ht="36" x14ac:dyDescent="0.25">
       <c r="A15" s="12">
         <v>6</v>
       </c>
@@ -18836,7 +18829,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="16" spans="1:12" ht="36" hidden="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" ht="36" x14ac:dyDescent="0.25">
       <c r="A16" s="12">
         <v>102</v>
       </c>
@@ -18874,7 +18867,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="17" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17" s="12">
         <v>10</v>
       </c>
@@ -18912,7 +18905,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="18" spans="1:12" ht="36" hidden="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:12" ht="36" x14ac:dyDescent="0.25">
       <c r="A18" s="13">
         <v>202</v>
       </c>
@@ -18951,7 +18944,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="19" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A19" s="12">
         <v>35</v>
       </c>
@@ -18989,7 +18982,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="20" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A20" s="12">
         <v>13</v>
       </c>
@@ -19027,7 +19020,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="21" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A21" s="12">
         <v>1</v>
       </c>
@@ -19065,7 +19058,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="22" spans="1:12" ht="36" hidden="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:12" ht="36" x14ac:dyDescent="0.25">
       <c r="A22" s="12">
         <v>7</v>
       </c>
@@ -19103,7 +19096,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="23" spans="1:12" ht="36" hidden="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:12" ht="36" x14ac:dyDescent="0.25">
       <c r="A23" s="12">
         <v>54</v>
       </c>
@@ -19141,7 +19134,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="24" spans="1:12" ht="36" hidden="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:12" ht="36" x14ac:dyDescent="0.25">
       <c r="A24" s="12">
         <v>31</v>
       </c>
@@ -19179,7 +19172,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="25" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A25" s="12">
         <v>40</v>
       </c>
@@ -19217,7 +19210,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="26" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A26" s="12">
         <v>38</v>
       </c>
@@ -19255,7 +19248,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="27" spans="1:12" ht="36" hidden="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:12" ht="36" x14ac:dyDescent="0.25">
       <c r="A27" s="13">
         <v>164</v>
       </c>
@@ -19294,7 +19287,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="28" spans="1:12" ht="36" hidden="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:12" ht="36" x14ac:dyDescent="0.25">
       <c r="A28" s="13">
         <v>207</v>
       </c>
@@ -19332,7 +19325,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="29" spans="1:12" ht="36" hidden="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:12" ht="36" x14ac:dyDescent="0.25">
       <c r="A29" s="12">
         <v>2</v>
       </c>
@@ -19370,7 +19363,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="30" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A30" s="12">
         <v>71</v>
       </c>
@@ -19408,7 +19401,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="31" spans="1:12" ht="36" hidden="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:12" ht="36" x14ac:dyDescent="0.25">
       <c r="A31" s="12">
         <v>4</v>
       </c>
@@ -19446,7 +19439,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="32" spans="1:12" ht="36" hidden="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:12" ht="36" x14ac:dyDescent="0.25">
       <c r="A32" s="12">
         <v>62</v>
       </c>
@@ -19484,7 +19477,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="33" spans="1:12" ht="36" hidden="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:12" ht="36" x14ac:dyDescent="0.25">
       <c r="A33" s="13">
         <v>198</v>
       </c>
@@ -19523,7 +19516,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="34" spans="1:12" ht="36" hidden="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:12" ht="36" x14ac:dyDescent="0.25">
       <c r="A34" s="12">
         <v>55</v>
       </c>
@@ -19561,7 +19554,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="35" spans="1:12" ht="36" hidden="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:12" ht="36" x14ac:dyDescent="0.25">
       <c r="A35" s="12">
         <v>9</v>
       </c>
@@ -19599,7 +19592,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="36" spans="1:12" ht="36" hidden="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:12" ht="36" x14ac:dyDescent="0.25">
       <c r="A36" s="13">
         <v>204</v>
       </c>
@@ -19638,7 +19631,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="37" spans="1:12" ht="36" hidden="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:12" ht="36" x14ac:dyDescent="0.25">
       <c r="A37" s="13">
         <v>163</v>
       </c>
@@ -19677,7 +19670,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="38" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A38" s="12">
         <v>12</v>
       </c>
@@ -19715,7 +19708,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="39" spans="1:12" ht="36" hidden="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:12" ht="36" x14ac:dyDescent="0.25">
       <c r="A39" s="13">
         <v>169</v>
       </c>
@@ -19754,7 +19747,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="40" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A40" s="13">
         <v>184</v>
       </c>
@@ -19793,7 +19786,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="41" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A41" s="12">
         <v>36</v>
       </c>
@@ -19831,7 +19824,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="42" spans="1:12" ht="36" hidden="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:12" ht="36" x14ac:dyDescent="0.25">
       <c r="A42" s="13">
         <v>170</v>
       </c>
@@ -19868,7 +19861,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="43" spans="1:12" ht="36" hidden="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:12" ht="36" x14ac:dyDescent="0.25">
       <c r="A43" s="12">
         <v>5</v>
       </c>
@@ -19906,7 +19899,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="44" spans="1:12" ht="36" hidden="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:12" ht="36" x14ac:dyDescent="0.25">
       <c r="A44" s="13">
         <v>167</v>
       </c>
@@ -19945,7 +19938,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="45" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A45" s="12">
         <v>8</v>
       </c>
@@ -19983,7 +19976,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="46" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A46" s="12">
         <v>93</v>
       </c>
@@ -20021,7 +20014,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="47" spans="1:12" ht="36" hidden="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:12" ht="36" x14ac:dyDescent="0.25">
       <c r="A47" s="12">
         <v>24</v>
       </c>
@@ -20059,7 +20052,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="48" spans="1:12" ht="36" hidden="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:12" ht="36" x14ac:dyDescent="0.25">
       <c r="A48" s="12">
         <v>11</v>
       </c>
@@ -20097,7 +20090,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="49" spans="1:12" ht="36" hidden="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:12" ht="36" x14ac:dyDescent="0.25">
       <c r="A49" s="12">
         <v>116</v>
       </c>
@@ -20135,7 +20128,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="50" spans="1:12" ht="36" hidden="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:12" ht="36" x14ac:dyDescent="0.25">
       <c r="A50" s="12">
         <v>59</v>
       </c>
@@ -20173,7 +20166,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="51" spans="1:12" ht="36" hidden="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:12" ht="36" x14ac:dyDescent="0.25">
       <c r="A51" s="12">
         <v>21</v>
       </c>
@@ -20211,7 +20204,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="52" spans="1:12" ht="36" hidden="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:12" ht="36" x14ac:dyDescent="0.25">
       <c r="A52" s="12">
         <v>22</v>
       </c>
@@ -20249,7 +20242,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="53" spans="1:12" ht="36" hidden="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:12" ht="36" x14ac:dyDescent="0.25">
       <c r="A53" s="13">
         <v>178</v>
       </c>
@@ -20288,7 +20281,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="54" spans="1:12" ht="36" hidden="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:12" ht="36" x14ac:dyDescent="0.25">
       <c r="A54" s="12">
         <v>47</v>
       </c>
@@ -20326,7 +20319,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="55" spans="1:12" ht="36" hidden="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:12" ht="36" x14ac:dyDescent="0.25">
       <c r="A55" s="12">
         <v>145</v>
       </c>
@@ -20364,7 +20357,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="56" spans="1:12" ht="36" hidden="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:12" ht="36" x14ac:dyDescent="0.25">
       <c r="A56" s="12">
         <v>29</v>
       </c>
@@ -20402,7 +20395,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="57" spans="1:12" ht="36" hidden="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:12" ht="36" x14ac:dyDescent="0.25">
       <c r="A57" s="12">
         <v>15</v>
       </c>
@@ -20440,7 +20433,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="58" spans="1:12" ht="36" hidden="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:12" ht="36" x14ac:dyDescent="0.25">
       <c r="A58" s="12">
         <v>143</v>
       </c>
@@ -20478,7 +20471,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="59" spans="1:12" ht="36" hidden="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:12" ht="36" x14ac:dyDescent="0.25">
       <c r="A59" s="12">
         <v>64</v>
       </c>
@@ -20516,7 +20509,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="60" spans="1:12" ht="36" hidden="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:12" ht="36" x14ac:dyDescent="0.25">
       <c r="A60" s="13">
         <v>174</v>
       </c>
@@ -20555,7 +20548,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="61" spans="1:12" ht="36" hidden="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:12" ht="36" x14ac:dyDescent="0.25">
       <c r="A61" s="13">
         <v>205</v>
       </c>
@@ -20594,7 +20587,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="62" spans="1:12" ht="36" hidden="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:12" ht="36" x14ac:dyDescent="0.25">
       <c r="A62" s="12">
         <v>72</v>
       </c>
@@ -20632,7 +20625,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="63" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A63" s="12">
         <v>37</v>
       </c>
@@ -20670,7 +20663,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="64" spans="1:12" ht="36" hidden="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:12" ht="36" x14ac:dyDescent="0.25">
       <c r="A64" s="12">
         <v>16</v>
       </c>
@@ -20708,7 +20701,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="65" spans="1:12" ht="36" hidden="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:12" ht="36" x14ac:dyDescent="0.25">
       <c r="A65" s="12">
         <v>113</v>
       </c>
@@ -20745,7 +20738,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="66" spans="1:12" ht="36" hidden="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:12" ht="36" x14ac:dyDescent="0.25">
       <c r="A66" s="13">
         <v>162</v>
       </c>
@@ -20784,7 +20777,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="67" spans="1:12" ht="36" hidden="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:12" ht="36" x14ac:dyDescent="0.25">
       <c r="A67" s="12">
         <v>142</v>
       </c>
@@ -20822,7 +20815,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="68" spans="1:12" ht="36" hidden="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:12" ht="36" x14ac:dyDescent="0.25">
       <c r="A68" s="13">
         <v>173</v>
       </c>
@@ -20861,7 +20854,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="69" spans="1:12" ht="36" hidden="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:12" ht="36" x14ac:dyDescent="0.25">
       <c r="A69" s="12">
         <v>68</v>
       </c>
@@ -20899,7 +20892,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="70" spans="1:12" ht="36" hidden="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:12" ht="36" x14ac:dyDescent="0.25">
       <c r="A70" s="13">
         <v>166</v>
       </c>
@@ -20938,7 +20931,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="71" spans="1:12" ht="36" hidden="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:12" ht="36" x14ac:dyDescent="0.25">
       <c r="A71" s="12">
         <v>117</v>
       </c>
@@ -20976,7 +20969,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="72" spans="1:12" ht="36" hidden="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:12" ht="36" x14ac:dyDescent="0.25">
       <c r="A72" s="12">
         <v>26</v>
       </c>
@@ -21014,7 +21007,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="73" spans="1:12" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:12" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="12">
         <v>70</v>
       </c>
@@ -21052,7 +21045,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="74" spans="1:12" ht="36" hidden="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:12" ht="36" x14ac:dyDescent="0.25">
       <c r="A74" s="12">
         <v>73</v>
       </c>
@@ -21090,7 +21083,7 @@
         <v>518</v>
       </c>
     </row>
-    <row r="75" spans="1:12" ht="36" hidden="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:12" ht="36" x14ac:dyDescent="0.25">
       <c r="A75" s="12">
         <v>74</v>
       </c>
@@ -21128,7 +21121,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="76" spans="1:12" ht="36" hidden="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:12" ht="36" x14ac:dyDescent="0.25">
       <c r="A76" s="12">
         <v>75</v>
       </c>
@@ -21166,7 +21159,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="77" spans="1:12" ht="36" hidden="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:12" ht="36" x14ac:dyDescent="0.25">
       <c r="A77" s="12">
         <v>76</v>
       </c>
@@ -21204,7 +21197,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="78" spans="1:12" ht="36" hidden="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:12" ht="36" x14ac:dyDescent="0.25">
       <c r="A78" s="12">
         <v>77</v>
       </c>
@@ -21242,7 +21235,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="79" spans="1:12" ht="36" hidden="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:12" ht="36" x14ac:dyDescent="0.25">
       <c r="A79" s="12">
         <v>78</v>
       </c>
@@ -21280,7 +21273,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="80" spans="1:12" ht="36" hidden="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:12" ht="36" x14ac:dyDescent="0.25">
       <c r="A80" s="12">
         <v>79</v>
       </c>
@@ -21318,7 +21311,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="81" spans="1:12" ht="36" hidden="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:12" ht="36" x14ac:dyDescent="0.25">
       <c r="A81" s="12">
         <v>80</v>
       </c>
@@ -21356,7 +21349,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="82" spans="1:12" ht="36" hidden="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:12" ht="36" x14ac:dyDescent="0.25">
       <c r="A82" s="12">
         <v>81</v>
       </c>
@@ -21394,7 +21387,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="83" spans="1:12" ht="36" hidden="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:12" ht="36" x14ac:dyDescent="0.25">
       <c r="A83" s="12">
         <v>82</v>
       </c>
@@ -21432,7 +21425,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="84" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A84" s="12">
         <v>120</v>
       </c>
@@ -21470,7 +21463,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="85" spans="1:12" ht="36" hidden="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:12" ht="36" x14ac:dyDescent="0.25">
       <c r="A85" s="12">
         <v>114</v>
       </c>
@@ -21507,7 +21500,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="86" spans="1:12" ht="36" hidden="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:12" ht="36" x14ac:dyDescent="0.25">
       <c r="A86" s="12">
         <v>85</v>
       </c>
@@ -21545,7 +21538,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="87" spans="1:12" ht="36" hidden="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:12" ht="36" x14ac:dyDescent="0.25">
       <c r="A87" s="12">
         <v>86</v>
       </c>
@@ -21583,7 +21576,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="88" spans="1:12" ht="36" hidden="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:12" ht="36" x14ac:dyDescent="0.25">
       <c r="A88" s="12">
         <v>87</v>
       </c>
@@ -21621,7 +21614,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="89" spans="1:12" ht="36" hidden="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:12" ht="36" x14ac:dyDescent="0.25">
       <c r="A89" s="12">
         <v>88</v>
       </c>
@@ -21659,7 +21652,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="90" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A90" s="12">
         <v>89</v>
       </c>
@@ -21697,7 +21690,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="91" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A91" s="12">
         <v>90</v>
       </c>
@@ -21735,7 +21728,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="92" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A92" s="12">
         <v>91</v>
       </c>
@@ -21773,7 +21766,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="93" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A93" s="12">
         <v>92</v>
       </c>
@@ -21810,7 +21803,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="94" spans="1:12" ht="36" hidden="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:12" ht="36" x14ac:dyDescent="0.25">
       <c r="A94" s="12">
         <v>33</v>
       </c>
@@ -21848,7 +21841,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="95" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A95" s="12">
         <v>94</v>
       </c>
@@ -21886,7 +21879,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="96" spans="1:12" ht="20.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A96" s="12">
         <v>95</v>
       </c>
@@ -21924,7 +21917,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="97" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A97" s="12">
         <v>96</v>
       </c>
@@ -21962,7 +21955,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="98" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A98" s="12">
         <v>97</v>
       </c>
@@ -21999,7 +21992,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="99" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A99" s="12">
         <v>98</v>
       </c>
@@ -22037,7 +22030,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="100" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A100" s="12">
         <v>99</v>
       </c>
@@ -22074,7 +22067,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="101" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A101" s="12">
         <v>100</v>
       </c>
@@ -22111,7 +22104,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="102" spans="1:12" ht="36" hidden="1" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:12" ht="36" x14ac:dyDescent="0.25">
       <c r="A102" s="12">
         <v>32</v>
       </c>
@@ -22149,7 +22142,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="103" spans="1:12" ht="36" hidden="1" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:12" ht="36" x14ac:dyDescent="0.25">
       <c r="A103" s="12">
         <v>19</v>
       </c>
@@ -22187,7 +22180,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="104" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A104" s="12">
         <v>103</v>
       </c>
@@ -22225,7 +22218,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="105" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A105" s="12">
         <v>104</v>
       </c>
@@ -22263,7 +22256,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="106" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A106" s="12">
         <v>84</v>
       </c>
@@ -22301,7 +22294,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="107" spans="1:12" ht="36" hidden="1" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:12" ht="36" x14ac:dyDescent="0.25">
       <c r="A107" s="12">
         <v>106</v>
       </c>
@@ -22339,7 +22332,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="108" spans="1:12" ht="36" hidden="1" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:12" ht="36" x14ac:dyDescent="0.25">
       <c r="A108" s="12">
         <v>107</v>
       </c>
@@ -22377,7 +22370,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="109" spans="1:12" ht="36" hidden="1" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:12" ht="36" x14ac:dyDescent="0.25">
       <c r="A109" s="12">
         <v>108</v>
       </c>
@@ -22415,7 +22408,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="110" spans="1:12" ht="36" hidden="1" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:12" ht="36" x14ac:dyDescent="0.25">
       <c r="A110" s="12">
         <v>109</v>
       </c>
@@ -22452,7 +22445,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="111" spans="1:12" ht="36" hidden="1" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:12" ht="36" x14ac:dyDescent="0.25">
       <c r="A111" s="12">
         <v>110</v>
       </c>
@@ -22489,7 +22482,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="112" spans="1:12" ht="36" hidden="1" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:12" ht="36" x14ac:dyDescent="0.25">
       <c r="A112" s="12">
         <v>111</v>
       </c>
@@ -22526,7 +22519,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="113" spans="1:12" ht="36" hidden="1" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:12" ht="36" x14ac:dyDescent="0.25">
       <c r="A113" s="12">
         <v>124</v>
       </c>
@@ -22564,7 +22557,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="114" spans="1:12" ht="36" hidden="1" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:12" ht="36" x14ac:dyDescent="0.25">
       <c r="A114" s="13">
         <v>197</v>
       </c>
@@ -22603,7 +22596,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="115" spans="1:12" ht="36" hidden="1" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:12" ht="36" x14ac:dyDescent="0.25">
       <c r="A115" s="13">
         <v>176</v>
       </c>
@@ -22642,7 +22635,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="116" spans="1:12" ht="36" hidden="1" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:12" ht="36" x14ac:dyDescent="0.25">
       <c r="A116" s="12">
         <v>137</v>
       </c>
@@ -22680,7 +22673,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="117" spans="1:12" ht="36" hidden="1" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:12" ht="36" x14ac:dyDescent="0.25">
       <c r="A117" s="12">
         <v>27</v>
       </c>
@@ -22718,7 +22711,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="118" spans="1:12" ht="36" hidden="1" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:12" ht="36" x14ac:dyDescent="0.25">
       <c r="A118" s="12">
         <v>146</v>
       </c>
@@ -22756,7 +22749,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="119" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A119" s="12">
         <v>141</v>
       </c>
@@ -22794,7 +22787,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="120" spans="1:12" ht="36" hidden="1" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:12" ht="36" x14ac:dyDescent="0.25">
       <c r="A120" s="13">
         <v>186</v>
       </c>
@@ -22833,7 +22826,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="121" spans="1:12" ht="36" hidden="1" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:12" ht="36" x14ac:dyDescent="0.25">
       <c r="A121" s="12">
         <v>23</v>
       </c>
@@ -22871,7 +22864,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="122" spans="1:12" ht="36" hidden="1" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:12" ht="36" x14ac:dyDescent="0.25">
       <c r="A122" s="12">
         <v>61</v>
       </c>
@@ -22909,7 +22902,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="123" spans="1:12" ht="36" hidden="1" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:12" ht="36" x14ac:dyDescent="0.25">
       <c r="A123" s="12">
         <v>119</v>
       </c>
@@ -22947,7 +22940,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="124" spans="1:12" ht="36" hidden="1" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:12" ht="36" x14ac:dyDescent="0.25">
       <c r="A124" s="13">
         <v>177</v>
       </c>
@@ -22986,7 +22979,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="125" spans="1:12" ht="36" hidden="1" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:12" ht="36" x14ac:dyDescent="0.25">
       <c r="A125" s="12">
         <v>28</v>
       </c>
@@ -23024,7 +23017,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="126" spans="1:12" ht="36" hidden="1" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:12" ht="36" x14ac:dyDescent="0.25">
       <c r="A126" s="12">
         <v>125</v>
       </c>
@@ -23062,7 +23055,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="127" spans="1:12" ht="36" hidden="1" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:12" ht="36" x14ac:dyDescent="0.25">
       <c r="A127" s="12">
         <v>126</v>
       </c>
@@ -23099,7 +23092,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="128" spans="1:12" ht="36" hidden="1" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:12" ht="36" x14ac:dyDescent="0.25">
       <c r="A128" s="12">
         <v>127</v>
       </c>
@@ -23137,7 +23130,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="129" spans="1:12" ht="36" hidden="1" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:12" ht="36" x14ac:dyDescent="0.25">
       <c r="A129" s="12">
         <v>128</v>
       </c>
@@ -23174,7 +23167,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="130" spans="1:12" ht="36" hidden="1" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:12" ht="36" x14ac:dyDescent="0.25">
       <c r="A130" s="12">
         <v>53</v>
       </c>
@@ -23212,7 +23205,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="131" spans="1:12" ht="36" hidden="1" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:12" ht="36" x14ac:dyDescent="0.25">
       <c r="A131" s="12">
         <v>30</v>
       </c>
@@ -23250,7 +23243,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="132" spans="1:12" ht="36" hidden="1" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:12" ht="36" x14ac:dyDescent="0.25">
       <c r="A132" s="12">
         <v>131</v>
       </c>
@@ -23288,7 +23281,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="133" spans="1:12" ht="36" hidden="1" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:12" ht="36" x14ac:dyDescent="0.25">
       <c r="A133" s="12">
         <v>132</v>
       </c>
@@ -23326,7 +23319,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="134" spans="1:12" ht="36" hidden="1" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:12" ht="36" x14ac:dyDescent="0.25">
       <c r="A134" s="12">
         <v>133</v>
       </c>
@@ -23364,7 +23357,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="135" spans="1:12" ht="36" hidden="1" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:12" ht="36" x14ac:dyDescent="0.25">
       <c r="A135" s="12">
         <v>134</v>
       </c>
@@ -23402,7 +23395,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="136" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A136" s="12">
         <v>135</v>
       </c>
@@ -23439,7 +23432,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="137" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A137" s="12">
         <v>136</v>
       </c>
@@ -23476,7 +23469,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="138" spans="1:12" ht="36" hidden="1" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:12" ht="36" x14ac:dyDescent="0.25">
       <c r="A138" s="12">
         <v>17</v>
       </c>
@@ -23514,7 +23507,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="139" spans="1:12" ht="36" hidden="1" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:12" ht="36" x14ac:dyDescent="0.25">
       <c r="A139" s="12">
         <v>148</v>
       </c>
@@ -23552,7 +23545,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="140" spans="1:12" ht="36" hidden="1" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:12" ht="36" x14ac:dyDescent="0.25">
       <c r="A140" s="12">
         <v>34</v>
       </c>
@@ -23590,7 +23583,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="141" spans="1:12" ht="36" hidden="1" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:12" ht="36" x14ac:dyDescent="0.25">
       <c r="A141" s="12">
         <v>129</v>
       </c>
@@ -23628,7 +23621,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="142" spans="1:12" ht="36" hidden="1" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:12" ht="36" x14ac:dyDescent="0.25">
       <c r="A142" s="13">
         <v>165</v>
       </c>
@@ -23667,7 +23660,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="143" spans="1:12" ht="36" hidden="1" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:12" ht="36" x14ac:dyDescent="0.25">
       <c r="A143" s="12">
         <v>50</v>
       </c>
@@ -23705,7 +23698,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="144" spans="1:12" ht="36" hidden="1" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:12" ht="36" x14ac:dyDescent="0.25">
       <c r="A144" s="12">
         <v>42</v>
       </c>
@@ -23743,7 +23736,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="145" spans="1:12" ht="36" hidden="1" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:12" ht="36" x14ac:dyDescent="0.25">
       <c r="A145" s="12">
         <v>51</v>
       </c>
@@ -23781,7 +23774,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="146" spans="1:12" ht="36" hidden="1" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:12" ht="36" x14ac:dyDescent="0.25">
       <c r="A146" s="12">
         <v>20</v>
       </c>
@@ -23819,7 +23812,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="147" spans="1:12" ht="36" hidden="1" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:12" ht="36" x14ac:dyDescent="0.25">
       <c r="A147" s="12">
         <v>39</v>
       </c>
@@ -23857,7 +23850,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="148" spans="1:12" ht="36" hidden="1" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:12" ht="36" x14ac:dyDescent="0.25">
       <c r="A148" s="12">
         <v>44</v>
       </c>
@@ -23895,7 +23888,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="149" spans="1:12" ht="36" hidden="1" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:12" ht="36" x14ac:dyDescent="0.25">
       <c r="A149" s="12">
         <v>140</v>
       </c>
@@ -24387,7 +24380,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="163" spans="1:12" ht="36" hidden="1" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:12" ht="36" x14ac:dyDescent="0.25">
       <c r="A163" s="13">
         <v>175</v>
       </c>
@@ -24426,7 +24419,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="164" spans="1:12" ht="36" hidden="1" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:12" ht="36" x14ac:dyDescent="0.25">
       <c r="A164" s="12">
         <v>41</v>
       </c>
@@ -24464,7 +24457,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="165" spans="1:12" ht="36" hidden="1" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:12" ht="36" x14ac:dyDescent="0.25">
       <c r="A165" s="12">
         <v>57</v>
       </c>
@@ -24502,7 +24495,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="166" spans="1:12" ht="36" hidden="1" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:12" ht="36" x14ac:dyDescent="0.25">
       <c r="A166" s="13">
         <v>185</v>
       </c>
@@ -24541,7 +24534,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="167" spans="1:12" ht="36" hidden="1" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:12" ht="36" x14ac:dyDescent="0.25">
       <c r="A167" s="13">
         <v>199</v>
       </c>
@@ -24580,7 +24573,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="168" spans="1:12" ht="36" hidden="1" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:12" ht="36" x14ac:dyDescent="0.25">
       <c r="A168" s="12">
         <v>14</v>
       </c>
@@ -24618,7 +24611,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="169" spans="1:12" ht="36" hidden="1" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:12" ht="36" x14ac:dyDescent="0.25">
       <c r="A169" s="12">
         <v>65</v>
       </c>
@@ -24656,7 +24649,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="170" spans="1:12" ht="36" hidden="1" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:12" ht="36" x14ac:dyDescent="0.25">
       <c r="A170" s="12">
         <v>58</v>
       </c>
@@ -24694,7 +24687,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="171" spans="1:12" ht="36" hidden="1" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:12" ht="36" x14ac:dyDescent="0.25">
       <c r="A171" s="12">
         <v>130</v>
       </c>
@@ -24732,7 +24725,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="172" spans="1:12" ht="36" hidden="1" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:12" ht="36" x14ac:dyDescent="0.25">
       <c r="A172" s="12">
         <v>147</v>
       </c>
@@ -24770,7 +24763,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="173" spans="1:12" ht="36" hidden="1" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:12" ht="36" x14ac:dyDescent="0.25">
       <c r="A173" s="12">
         <v>139</v>
       </c>
@@ -24807,7 +24800,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="174" spans="1:12" ht="36" hidden="1" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:12" ht="36" x14ac:dyDescent="0.25">
       <c r="A174" s="12">
         <v>121</v>
       </c>
@@ -24845,7 +24838,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="175" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A175" s="12">
         <v>101</v>
       </c>
@@ -24882,7 +24875,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="176" spans="1:12" ht="36" hidden="1" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:12" ht="36" x14ac:dyDescent="0.25">
       <c r="A176" s="12">
         <v>45</v>
       </c>
@@ -24920,7 +24913,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="177" spans="1:12" ht="36" hidden="1" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:12" ht="36" x14ac:dyDescent="0.25">
       <c r="A177" s="12">
         <v>60</v>
       </c>
@@ -24958,7 +24951,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="178" spans="1:12" ht="36" hidden="1" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:12" ht="36" x14ac:dyDescent="0.25">
       <c r="A178" s="12">
         <v>69</v>
       </c>
@@ -24996,7 +24989,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="179" spans="1:12" ht="36" hidden="1" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:12" ht="36" x14ac:dyDescent="0.25">
       <c r="A179" s="12">
         <v>56</v>
       </c>
@@ -25145,7 +25138,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="183" spans="1:12" ht="36" hidden="1" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:12" ht="36" x14ac:dyDescent="0.25">
       <c r="A183" s="12">
         <v>123</v>
       </c>
@@ -25183,7 +25176,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="184" spans="1:12" ht="36" hidden="1" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:12" ht="36" x14ac:dyDescent="0.25">
       <c r="A184" s="12">
         <v>66</v>
       </c>
@@ -25221,7 +25214,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="185" spans="1:12" ht="36" hidden="1" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:12" ht="36" x14ac:dyDescent="0.25">
       <c r="A185" s="12">
         <v>49</v>
       </c>
@@ -25259,7 +25252,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="186" spans="1:12" ht="36" hidden="1" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:12" ht="36" x14ac:dyDescent="0.25">
       <c r="A186" s="12">
         <v>48</v>
       </c>
@@ -25297,7 +25290,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="187" spans="1:12" ht="36" hidden="1" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:12" ht="36" x14ac:dyDescent="0.25">
       <c r="A187" s="12">
         <v>63</v>
       </c>
@@ -25514,7 +25507,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="193" spans="1:12" ht="36" hidden="1" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:12" ht="36" x14ac:dyDescent="0.25">
       <c r="A193" s="12">
         <v>144</v>
       </c>
@@ -25552,7 +25545,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="194" spans="1:12" ht="36" hidden="1" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:12" ht="36" x14ac:dyDescent="0.25">
       <c r="A194" s="13">
         <v>200</v>
       </c>
@@ -25591,7 +25584,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="195" spans="1:12" ht="36" hidden="1" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:12" ht="36" x14ac:dyDescent="0.25">
       <c r="A195" s="12">
         <v>138</v>
       </c>
@@ -25629,7 +25622,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="196" spans="1:12" ht="36" hidden="1" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:12" ht="36" x14ac:dyDescent="0.25">
       <c r="A196" s="12">
         <v>118</v>
       </c>
@@ -25667,7 +25660,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="197" spans="1:12" ht="36" hidden="1" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:12" ht="36" x14ac:dyDescent="0.25">
       <c r="A197" s="12">
         <v>112</v>
       </c>
@@ -25704,7 +25697,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="198" spans="1:12" ht="36" hidden="1" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:12" ht="36" x14ac:dyDescent="0.25">
       <c r="A198" s="12">
         <v>122</v>
       </c>
@@ -25742,7 +25735,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="199" spans="1:12" ht="36" hidden="1" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:12" ht="36" x14ac:dyDescent="0.25">
       <c r="A199" s="12">
         <v>46</v>
       </c>
@@ -25780,7 +25773,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="200" spans="1:12" ht="36" hidden="1" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:12" ht="36" x14ac:dyDescent="0.25">
       <c r="A200" s="12">
         <v>43</v>
       </c>
@@ -25818,7 +25811,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="201" spans="1:12" ht="36" hidden="1" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:12" ht="36" x14ac:dyDescent="0.25">
       <c r="A201" s="12">
         <v>18</v>
       </c>
@@ -25856,7 +25849,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="202" spans="1:12" ht="36" hidden="1" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:12" ht="36" x14ac:dyDescent="0.25">
       <c r="A202" s="12">
         <v>25</v>
       </c>
@@ -25894,7 +25887,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="203" spans="1:12" ht="36" hidden="1" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:12" ht="36" x14ac:dyDescent="0.25">
       <c r="A203" s="12">
         <v>67</v>
       </c>
@@ -25932,7 +25925,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="204" spans="1:12" ht="36" hidden="1" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:12" ht="36" x14ac:dyDescent="0.25">
       <c r="A204" s="12">
         <v>115</v>
       </c>
@@ -25969,7 +25962,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="205" spans="1:12" ht="36" hidden="1" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:12" ht="36" x14ac:dyDescent="0.25">
       <c r="A205" s="13">
         <v>208</v>
       </c>
@@ -26008,7 +26001,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="206" spans="1:12" ht="36" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:12" ht="36" hidden="1" x14ac:dyDescent="0.25">
       <c r="A206" s="13">
         <v>209</v>
       </c>
@@ -30904,7 +30897,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="350" spans="1:12" ht="36" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:12" ht="36" hidden="1" x14ac:dyDescent="0.25">
       <c r="A350" s="13">
         <v>280</v>
       </c>
@@ -32118,7 +32111,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="386" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="386" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A386" s="13">
         <v>292</v>
       </c>
@@ -33212,7 +33205,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="418" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="418" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A418" s="13">
         <v>313</v>
       </c>
@@ -33249,7 +33242,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="419" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="419" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A419" s="13"/>
       <c r="B419" s="13">
         <v>8757</v>
@@ -33284,7 +33277,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="420" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="420" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A420" s="13"/>
       <c r="B420" s="13">
         <v>8758</v>
@@ -33319,7 +33312,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="421" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="421" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A421" s="13"/>
       <c r="B421" s="13">
         <v>8759</v>
@@ -33354,7 +33347,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="422" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="422" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A422" s="13"/>
       <c r="B422" s="13">
         <v>8760</v>
@@ -33389,7 +33382,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="423" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="423" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A423" s="13"/>
       <c r="B423" s="13">
         <v>8761</v>
@@ -33424,7 +33417,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="424" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="424" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A424" s="13"/>
       <c r="B424" s="13">
         <v>8762</v>
@@ -33459,7 +33452,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="425" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="425" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A425" s="13"/>
       <c r="B425" s="13">
         <v>8763</v>
@@ -33494,7 +33487,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="426" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="426" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A426" s="13"/>
       <c r="B426" s="13">
         <v>8764</v>
@@ -33529,7 +33522,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="427" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="427" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A427" s="13"/>
       <c r="B427" s="13">
         <v>8765</v>
@@ -33564,7 +33557,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="428" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="428" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A428" s="13"/>
       <c r="B428" s="13">
         <v>8766</v>
@@ -33599,7 +33592,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="429" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="429" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A429" s="13"/>
       <c r="B429" s="13">
         <v>8767</v>
@@ -33634,7 +33627,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="430" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="430" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A430" s="13"/>
       <c r="B430" s="13">
         <v>8768</v>
@@ -33669,7 +33662,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="431" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="431" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A431" s="13"/>
       <c r="B431" s="13">
         <v>8769</v>
@@ -33704,7 +33697,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="432" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="432" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A432" s="13">
         <v>314</v>
       </c>
@@ -33741,7 +33734,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="433" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="433" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A433" s="13"/>
       <c r="B433" s="13">
         <v>8791</v>
@@ -33776,7 +33769,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="434" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="434" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A434" s="13"/>
       <c r="B434" s="13">
         <v>8792</v>
@@ -33811,7 +33804,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="435" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="435" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A435" s="13"/>
       <c r="B435" s="13">
         <v>8793</v>
@@ -33846,7 +33839,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="436" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="436" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A436" s="13"/>
       <c r="B436" s="13">
         <v>8794</v>
@@ -33881,7 +33874,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="437" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="437" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A437" s="13"/>
       <c r="B437" s="13">
         <v>8819</v>
@@ -33916,7 +33909,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="438" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="438" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A438" s="13"/>
       <c r="B438" s="13">
         <v>8821</v>
@@ -33951,7 +33944,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="439" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="439" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A439" s="13"/>
       <c r="B439" s="13">
         <v>8823</v>
@@ -33986,7 +33979,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="440" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="440" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A440" s="13"/>
       <c r="B440" s="13">
         <v>8824</v>
@@ -34021,7 +34014,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="441" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="441" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A441" s="13"/>
       <c r="B441" s="13">
         <v>8825</v>
@@ -34056,7 +34049,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="442" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="442" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A442" s="13"/>
       <c r="B442" s="13">
         <v>8826</v>
@@ -34091,7 +34084,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="443" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="443" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A443" s="13"/>
       <c r="B443" s="13">
         <v>8827</v>
@@ -34126,7 +34119,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="444" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="444" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A444" s="13"/>
       <c r="B444" s="13">
         <v>8828</v>
@@ -34161,7 +34154,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="445" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="445" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A445" s="13"/>
       <c r="B445" s="13">
         <v>8829</v>
@@ -34196,7 +34189,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="446" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="446" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A446" s="13"/>
       <c r="B446" s="13">
         <v>8830</v>
@@ -34231,7 +34224,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="447" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="447" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A447" s="13">
         <v>315</v>
       </c>
@@ -34268,7 +34261,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="448" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="448" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A448" s="13"/>
       <c r="B448" s="13">
         <v>8833</v>
@@ -34303,7 +34296,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="449" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="449" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A449" s="13"/>
       <c r="B449" s="13">
         <v>8834</v>
@@ -34338,7 +34331,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="450" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="450" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A450" s="13"/>
       <c r="B450" s="13">
         <v>8835</v>
@@ -34373,7 +34366,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="451" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="451" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A451" s="13"/>
       <c r="B451" s="13">
         <v>8836</v>
@@ -34408,7 +34401,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="452" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="452" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A452" s="13"/>
       <c r="B452" s="13">
         <v>8837</v>
@@ -34443,7 +34436,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="453" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="453" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A453" s="13"/>
       <c r="B453" s="13">
         <v>8838</v>
@@ -34478,7 +34471,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="454" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="454" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A454" s="13"/>
       <c r="B454" s="13">
         <v>8839</v>
@@ -34513,7 +34506,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="455" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="455" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A455" s="13"/>
       <c r="B455" s="13">
         <v>8840</v>
@@ -34548,7 +34541,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="456" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="456" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A456" s="13"/>
       <c r="B456" s="13">
         <v>8841</v>
@@ -34583,7 +34576,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="457" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="457" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A457" s="13"/>
       <c r="B457" s="13">
         <v>8842</v>
@@ -34618,7 +34611,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="458" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="458" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A458" s="13"/>
       <c r="B458" s="13">
         <v>8843</v>
@@ -34653,7 +34646,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="459" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="459" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A459" s="13">
         <v>316</v>
       </c>
@@ -34690,7 +34683,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="460" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="460" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A460" s="13"/>
       <c r="B460" s="13">
         <v>8857</v>
@@ -34725,7 +34718,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="461" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="461" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A461" s="13"/>
       <c r="B461" s="13">
         <v>8858</v>
@@ -34760,7 +34753,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="462" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="462" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A462" s="13"/>
       <c r="B462" s="13">
         <v>8859</v>
@@ -34795,7 +34788,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="463" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="463" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A463" s="13"/>
       <c r="B463" s="13">
         <v>8860</v>
@@ -34830,7 +34823,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="464" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="464" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A464" s="13"/>
       <c r="B464" s="13">
         <v>8861</v>
@@ -34865,7 +34858,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="465" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="465" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A465" s="13"/>
       <c r="B465" s="13">
         <v>8862</v>
@@ -34900,7 +34893,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="466" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="466" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A466" s="13"/>
       <c r="B466" s="13">
         <v>8863</v>
@@ -34935,7 +34928,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="467" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="467" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A467" s="13"/>
       <c r="B467" s="13">
         <v>8864</v>
@@ -34970,7 +34963,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="468" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="468" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A468" s="13"/>
       <c r="B468" s="13">
         <v>8865</v>
@@ -35005,7 +34998,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="469" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="469" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A469" s="13"/>
       <c r="B469" s="13">
         <v>8866</v>
@@ -35040,7 +35033,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="470" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="470" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A470" s="13"/>
       <c r="B470" s="13">
         <v>8867</v>
@@ -35075,7 +35068,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="471" spans="1:12" ht="36" x14ac:dyDescent="0.25">
+    <row r="471" spans="1:12" ht="36" hidden="1" x14ac:dyDescent="0.25">
       <c r="A471" s="13">
         <v>317</v>
       </c>
@@ -35112,7 +35105,7 @@
         <v>621</v>
       </c>
     </row>
-    <row r="472" spans="1:12" ht="36" x14ac:dyDescent="0.25">
+    <row r="472" spans="1:12" ht="36" hidden="1" x14ac:dyDescent="0.25">
       <c r="A472" s="13">
         <v>318</v>
       </c>
@@ -35149,7 +35142,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="473" spans="1:12" ht="36" x14ac:dyDescent="0.25">
+    <row r="473" spans="1:12" ht="36" hidden="1" x14ac:dyDescent="0.25">
       <c r="A473" s="13">
         <v>319</v>
       </c>
@@ -35186,7 +35179,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="474" spans="1:12" ht="36" x14ac:dyDescent="0.25">
+    <row r="474" spans="1:12" ht="36" hidden="1" x14ac:dyDescent="0.25">
       <c r="A474" s="13">
         <v>320</v>
       </c>
@@ -35256,7 +35249,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="476" spans="1:12" ht="36" x14ac:dyDescent="0.25">
+    <row r="476" spans="1:12" ht="36" hidden="1" x14ac:dyDescent="0.25">
       <c r="A476" s="13">
         <v>322</v>
       </c>
@@ -35637,23 +35630,23 @@
       <c r="G487" s="15"/>
       <c r="H487" s="22">
         <f>SUBTOTAL(109,Table1[[تعداد تماشا ]])</f>
-        <v>4159</v>
+        <v>12549</v>
       </c>
       <c r="I487" s="22">
         <f>SUBTOTAL(109,Table1[دقایق تماشا])</f>
-        <v>44006</v>
+        <v>130390</v>
       </c>
       <c r="J487" s="22">
         <f>SUBTOTAL(109,Table1[تعداد دانلود])</f>
-        <v>641</v>
+        <v>5528</v>
       </c>
       <c r="K487" s="22">
         <f>SUBTOTAL(109,Table1[فروش])</f>
-        <v>0</v>
+        <v>38174850</v>
       </c>
       <c r="L487" s="23">
         <f>SUBTOTAL(109,Table1[مجموع تماشا و دانلود])</f>
-        <v>4800</v>
+        <v>18077</v>
       </c>
     </row>
   </sheetData>

--- a/آمارفروش بین الملل غیرعربی.xlsx
+++ b/آمارفروش بین الملل غیرعربی.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\undergit\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2CD541DC-7BDD-4997-86D9-03FA1AABB1F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91604809-2031-46AA-88EE-E4117EBC5AD1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17935,15 +17935,19 @@
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{DAEF691E-BE7B-4846-B83B-B7F73E8F6AAF}" name="Table1" displayName="Table1" ref="A1:L487" totalsRowCount="1" headerRowDxfId="26" dataDxfId="25" totalsRowDxfId="24">
   <autoFilter ref="A1:L486" xr:uid="{DAEF691E-BE7B-4846-B83B-B7F73E8F6AAF}">
-    <filterColumn colId="10">
+    <filterColumn colId="2">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
       </customFilters>
     </filterColumn>
+    <filterColumn colId="5">
+      <filters>
+        <filter val="انیمیشن سریالی"/>
+        <filter val="انیمیشن سینمایی"/>
+        <filter val="انیمیشن کوتاه"/>
+      </filters>
+    </filterColumn>
   </autoFilter>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:L204">
-    <sortCondition descending="1" ref="L1:L486"/>
-  </sortState>
   <tableColumns count="12">
     <tableColumn id="1" xr3:uid="{F2EAA953-DAC7-405E-8842-AF11A39D0D4A}" name="ردیف " totalsRowLabel="Total" dataDxfId="23" totalsRowDxfId="22"/>
     <tableColumn id="2" xr3:uid="{FA040720-3200-4954-8557-DFD3BF916ED4}" name="شناسه اثر" dataDxfId="21" totalsRowDxfId="20"/>
@@ -18230,9 +18234,9 @@
   <dimension ref="A1:L487"/>
   <sheetViews>
     <sheetView rightToLeft="1" tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A202" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A469" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="L487" sqref="L487"/>
+      <selection pane="bottomLeft" activeCell="H210" sqref="H210"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.25"/>
@@ -18289,7 +18293,7 @@
         <v>803</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="36" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" ht="36" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2" s="12">
         <v>105</v>
       </c>
@@ -18326,7 +18330,7 @@
         <v>1155</v>
       </c>
     </row>
-    <row r="3" spans="1:12" ht="36" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" ht="36" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3" s="13">
         <v>201</v>
       </c>
@@ -18365,7 +18369,7 @@
         <v>732</v>
       </c>
     </row>
-    <row r="4" spans="1:12" ht="36" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" ht="36" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4" s="13">
         <v>168</v>
       </c>
@@ -18404,7 +18408,7 @@
         <v>525</v>
       </c>
     </row>
-    <row r="5" spans="1:12" ht="36" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" ht="36" hidden="1" x14ac:dyDescent="0.25">
       <c r="A5" s="13">
         <v>183</v>
       </c>
@@ -18443,7 +18447,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="6" spans="1:12" ht="36" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" ht="36" hidden="1" x14ac:dyDescent="0.25">
       <c r="A6" s="13">
         <v>196</v>
       </c>
@@ -18482,7 +18486,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="7" spans="1:12" ht="36" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" ht="36" hidden="1" x14ac:dyDescent="0.25">
       <c r="A7" s="13">
         <v>206</v>
       </c>
@@ -18521,7 +18525,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="8" spans="1:12" ht="36" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" ht="36" hidden="1" x14ac:dyDescent="0.25">
       <c r="A8" s="13">
         <v>203</v>
       </c>
@@ -18560,7 +18564,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="9" spans="1:12" ht="36" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" ht="36" hidden="1" x14ac:dyDescent="0.25">
       <c r="A9" s="12">
         <v>52</v>
       </c>
@@ -18598,7 +18602,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="10" spans="1:12" ht="36" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" ht="36" hidden="1" x14ac:dyDescent="0.25">
       <c r="A10" s="12">
         <v>83</v>
       </c>
@@ -18636,7 +18640,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="11" spans="1:12" ht="36" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" ht="36" hidden="1" x14ac:dyDescent="0.25">
       <c r="A11" s="13">
         <v>182</v>
       </c>
@@ -18675,7 +18679,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="12" spans="1:12" ht="36" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" ht="36" hidden="1" x14ac:dyDescent="0.25">
       <c r="A12" s="13">
         <v>172</v>
       </c>
@@ -18714,7 +18718,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="13" spans="1:12" ht="36" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" ht="36" hidden="1" x14ac:dyDescent="0.25">
       <c r="A13" s="13">
         <v>171</v>
       </c>
@@ -18753,7 +18757,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="14" spans="1:12" ht="36" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" ht="36" hidden="1" x14ac:dyDescent="0.25">
       <c r="A14" s="12">
         <v>3</v>
       </c>
@@ -18791,7 +18795,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="15" spans="1:12" ht="36" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" ht="36" hidden="1" x14ac:dyDescent="0.25">
       <c r="A15" s="12">
         <v>6</v>
       </c>
@@ -18829,7 +18833,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="16" spans="1:12" ht="36" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" ht="36" hidden="1" x14ac:dyDescent="0.25">
       <c r="A16" s="12">
         <v>102</v>
       </c>
@@ -18867,7 +18871,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A17" s="12">
         <v>10</v>
       </c>
@@ -18905,7 +18909,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="18" spans="1:12" ht="36" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:12" ht="36" hidden="1" x14ac:dyDescent="0.25">
       <c r="A18" s="13">
         <v>202</v>
       </c>
@@ -18944,7 +18948,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A19" s="12">
         <v>35</v>
       </c>
@@ -18982,7 +18986,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A20" s="12">
         <v>13</v>
       </c>
@@ -19020,7 +19024,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A21" s="12">
         <v>1</v>
       </c>
@@ -19058,7 +19062,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="22" spans="1:12" ht="36" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:12" ht="36" hidden="1" x14ac:dyDescent="0.25">
       <c r="A22" s="12">
         <v>7</v>
       </c>
@@ -19096,7 +19100,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="23" spans="1:12" ht="36" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:12" ht="36" hidden="1" x14ac:dyDescent="0.25">
       <c r="A23" s="12">
         <v>54</v>
       </c>
@@ -19134,7 +19138,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="24" spans="1:12" ht="36" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:12" ht="36" hidden="1" x14ac:dyDescent="0.25">
       <c r="A24" s="12">
         <v>31</v>
       </c>
@@ -19172,7 +19176,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A25" s="12">
         <v>40</v>
       </c>
@@ -19210,7 +19214,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A26" s="12">
         <v>38</v>
       </c>
@@ -19248,7 +19252,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="27" spans="1:12" ht="36" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:12" ht="36" hidden="1" x14ac:dyDescent="0.25">
       <c r="A27" s="13">
         <v>164</v>
       </c>
@@ -19287,7 +19291,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="28" spans="1:12" ht="36" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:12" ht="36" hidden="1" x14ac:dyDescent="0.25">
       <c r="A28" s="13">
         <v>207</v>
       </c>
@@ -19325,7 +19329,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="29" spans="1:12" ht="36" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:12" ht="36" hidden="1" x14ac:dyDescent="0.25">
       <c r="A29" s="12">
         <v>2</v>
       </c>
@@ -19363,7 +19367,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A30" s="12">
         <v>71</v>
       </c>
@@ -19401,7 +19405,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="31" spans="1:12" ht="36" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:12" ht="36" hidden="1" x14ac:dyDescent="0.25">
       <c r="A31" s="12">
         <v>4</v>
       </c>
@@ -19439,7 +19443,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="32" spans="1:12" ht="36" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:12" ht="36" hidden="1" x14ac:dyDescent="0.25">
       <c r="A32" s="12">
         <v>62</v>
       </c>
@@ -19477,7 +19481,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="33" spans="1:12" ht="36" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:12" ht="36" hidden="1" x14ac:dyDescent="0.25">
       <c r="A33" s="13">
         <v>198</v>
       </c>
@@ -19516,7 +19520,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="34" spans="1:12" ht="36" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:12" ht="36" hidden="1" x14ac:dyDescent="0.25">
       <c r="A34" s="12">
         <v>55</v>
       </c>
@@ -19554,7 +19558,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="35" spans="1:12" ht="36" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:12" ht="36" hidden="1" x14ac:dyDescent="0.25">
       <c r="A35" s="12">
         <v>9</v>
       </c>
@@ -19592,7 +19596,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="36" spans="1:12" ht="36" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:12" ht="36" hidden="1" x14ac:dyDescent="0.25">
       <c r="A36" s="13">
         <v>204</v>
       </c>
@@ -19631,7 +19635,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="37" spans="1:12" ht="36" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:12" ht="36" hidden="1" x14ac:dyDescent="0.25">
       <c r="A37" s="13">
         <v>163</v>
       </c>
@@ -19670,7 +19674,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A38" s="12">
         <v>12</v>
       </c>
@@ -19708,7 +19712,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="39" spans="1:12" ht="36" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:12" ht="36" hidden="1" x14ac:dyDescent="0.25">
       <c r="A39" s="13">
         <v>169</v>
       </c>
@@ -19747,7 +19751,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A40" s="13">
         <v>184</v>
       </c>
@@ -19786,7 +19790,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A41" s="12">
         <v>36</v>
       </c>
@@ -19824,7 +19828,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="42" spans="1:12" ht="36" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:12" ht="36" hidden="1" x14ac:dyDescent="0.25">
       <c r="A42" s="13">
         <v>170</v>
       </c>
@@ -19861,7 +19865,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="43" spans="1:12" ht="36" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:12" ht="36" hidden="1" x14ac:dyDescent="0.25">
       <c r="A43" s="12">
         <v>5</v>
       </c>
@@ -19899,7 +19903,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="44" spans="1:12" ht="36" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:12" ht="36" hidden="1" x14ac:dyDescent="0.25">
       <c r="A44" s="13">
         <v>167</v>
       </c>
@@ -19938,7 +19942,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A45" s="12">
         <v>8</v>
       </c>
@@ -19976,7 +19980,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A46" s="12">
         <v>93</v>
       </c>
@@ -20014,7 +20018,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="47" spans="1:12" ht="36" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:12" ht="36" hidden="1" x14ac:dyDescent="0.25">
       <c r="A47" s="12">
         <v>24</v>
       </c>
@@ -20052,7 +20056,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="48" spans="1:12" ht="36" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:12" ht="36" hidden="1" x14ac:dyDescent="0.25">
       <c r="A48" s="12">
         <v>11</v>
       </c>
@@ -20090,7 +20094,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="49" spans="1:12" ht="36" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:12" ht="36" hidden="1" x14ac:dyDescent="0.25">
       <c r="A49" s="12">
         <v>116</v>
       </c>
@@ -20128,7 +20132,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="50" spans="1:12" ht="36" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:12" ht="36" hidden="1" x14ac:dyDescent="0.25">
       <c r="A50" s="12">
         <v>59</v>
       </c>
@@ -20166,7 +20170,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="51" spans="1:12" ht="36" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:12" ht="36" hidden="1" x14ac:dyDescent="0.25">
       <c r="A51" s="12">
         <v>21</v>
       </c>
@@ -20204,7 +20208,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="52" spans="1:12" ht="36" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:12" ht="36" hidden="1" x14ac:dyDescent="0.25">
       <c r="A52" s="12">
         <v>22</v>
       </c>
@@ -20242,7 +20246,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="53" spans="1:12" ht="36" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:12" ht="36" hidden="1" x14ac:dyDescent="0.25">
       <c r="A53" s="13">
         <v>178</v>
       </c>
@@ -20281,7 +20285,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="54" spans="1:12" ht="36" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:12" ht="36" hidden="1" x14ac:dyDescent="0.25">
       <c r="A54" s="12">
         <v>47</v>
       </c>
@@ -20319,7 +20323,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="55" spans="1:12" ht="36" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:12" ht="36" hidden="1" x14ac:dyDescent="0.25">
       <c r="A55" s="12">
         <v>145</v>
       </c>
@@ -20357,7 +20361,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="56" spans="1:12" ht="36" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:12" ht="36" hidden="1" x14ac:dyDescent="0.25">
       <c r="A56" s="12">
         <v>29</v>
       </c>
@@ -20395,7 +20399,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="57" spans="1:12" ht="36" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:12" ht="36" hidden="1" x14ac:dyDescent="0.25">
       <c r="A57" s="12">
         <v>15</v>
       </c>
@@ -20433,7 +20437,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="58" spans="1:12" ht="36" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:12" ht="36" hidden="1" x14ac:dyDescent="0.25">
       <c r="A58" s="12">
         <v>143</v>
       </c>
@@ -20471,7 +20475,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="59" spans="1:12" ht="36" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:12" ht="36" hidden="1" x14ac:dyDescent="0.25">
       <c r="A59" s="12">
         <v>64</v>
       </c>
@@ -20509,7 +20513,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="60" spans="1:12" ht="36" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:12" ht="36" hidden="1" x14ac:dyDescent="0.25">
       <c r="A60" s="13">
         <v>174</v>
       </c>
@@ -20548,7 +20552,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="61" spans="1:12" ht="36" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:12" ht="36" hidden="1" x14ac:dyDescent="0.25">
       <c r="A61" s="13">
         <v>205</v>
       </c>
@@ -20587,7 +20591,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="62" spans="1:12" ht="36" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:12" ht="36" hidden="1" x14ac:dyDescent="0.25">
       <c r="A62" s="12">
         <v>72</v>
       </c>
@@ -20625,7 +20629,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="63" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A63" s="12">
         <v>37</v>
       </c>
@@ -20663,7 +20667,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="64" spans="1:12" ht="36" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:12" ht="36" hidden="1" x14ac:dyDescent="0.25">
       <c r="A64" s="12">
         <v>16</v>
       </c>
@@ -20701,7 +20705,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="65" spans="1:12" ht="36" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:12" ht="36" hidden="1" x14ac:dyDescent="0.25">
       <c r="A65" s="12">
         <v>113</v>
       </c>
@@ -20738,7 +20742,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="66" spans="1:12" ht="36" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:12" ht="36" hidden="1" x14ac:dyDescent="0.25">
       <c r="A66" s="13">
         <v>162</v>
       </c>
@@ -20777,7 +20781,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="67" spans="1:12" ht="36" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:12" ht="36" hidden="1" x14ac:dyDescent="0.25">
       <c r="A67" s="12">
         <v>142</v>
       </c>
@@ -20815,7 +20819,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="68" spans="1:12" ht="36" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:12" ht="36" hidden="1" x14ac:dyDescent="0.25">
       <c r="A68" s="13">
         <v>173</v>
       </c>
@@ -20854,7 +20858,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="69" spans="1:12" ht="36" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:12" ht="36" hidden="1" x14ac:dyDescent="0.25">
       <c r="A69" s="12">
         <v>68</v>
       </c>
@@ -20892,7 +20896,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="70" spans="1:12" ht="36" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:12" ht="36" hidden="1" x14ac:dyDescent="0.25">
       <c r="A70" s="13">
         <v>166</v>
       </c>
@@ -20931,7 +20935,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="71" spans="1:12" ht="36" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:12" ht="36" hidden="1" x14ac:dyDescent="0.25">
       <c r="A71" s="12">
         <v>117</v>
       </c>
@@ -20969,7 +20973,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="72" spans="1:12" ht="36" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:12" ht="36" hidden="1" x14ac:dyDescent="0.25">
       <c r="A72" s="12">
         <v>26</v>
       </c>
@@ -21007,7 +21011,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="73" spans="1:12" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:12" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="12">
         <v>70</v>
       </c>
@@ -21045,7 +21049,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="74" spans="1:12" ht="36" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:12" ht="36" hidden="1" x14ac:dyDescent="0.25">
       <c r="A74" s="12">
         <v>73</v>
       </c>
@@ -21083,7 +21087,7 @@
         <v>518</v>
       </c>
     </row>
-    <row r="75" spans="1:12" ht="36" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:12" ht="36" hidden="1" x14ac:dyDescent="0.25">
       <c r="A75" s="12">
         <v>74</v>
       </c>
@@ -21121,7 +21125,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="76" spans="1:12" ht="36" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:12" ht="36" hidden="1" x14ac:dyDescent="0.25">
       <c r="A76" s="12">
         <v>75</v>
       </c>
@@ -21159,7 +21163,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="77" spans="1:12" ht="36" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:12" ht="36" hidden="1" x14ac:dyDescent="0.25">
       <c r="A77" s="12">
         <v>76</v>
       </c>
@@ -21197,7 +21201,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="78" spans="1:12" ht="36" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:12" ht="36" hidden="1" x14ac:dyDescent="0.25">
       <c r="A78" s="12">
         <v>77</v>
       </c>
@@ -21235,7 +21239,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="79" spans="1:12" ht="36" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:12" ht="36" hidden="1" x14ac:dyDescent="0.25">
       <c r="A79" s="12">
         <v>78</v>
       </c>
@@ -21273,7 +21277,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="80" spans="1:12" ht="36" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:12" ht="36" hidden="1" x14ac:dyDescent="0.25">
       <c r="A80" s="12">
         <v>79</v>
       </c>
@@ -21311,7 +21315,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="81" spans="1:12" ht="36" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:12" ht="36" hidden="1" x14ac:dyDescent="0.25">
       <c r="A81" s="12">
         <v>80</v>
       </c>
@@ -21349,7 +21353,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="82" spans="1:12" ht="36" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:12" ht="36" hidden="1" x14ac:dyDescent="0.25">
       <c r="A82" s="12">
         <v>81</v>
       </c>
@@ -21387,7 +21391,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="83" spans="1:12" ht="36" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:12" ht="36" hidden="1" x14ac:dyDescent="0.25">
       <c r="A83" s="12">
         <v>82</v>
       </c>
@@ -21425,7 +21429,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="84" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A84" s="12">
         <v>120</v>
       </c>
@@ -21463,7 +21467,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="85" spans="1:12" ht="36" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:12" ht="36" hidden="1" x14ac:dyDescent="0.25">
       <c r="A85" s="12">
         <v>114</v>
       </c>
@@ -21500,7 +21504,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="86" spans="1:12" ht="36" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:12" ht="36" hidden="1" x14ac:dyDescent="0.25">
       <c r="A86" s="12">
         <v>85</v>
       </c>
@@ -21538,7 +21542,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="87" spans="1:12" ht="36" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:12" ht="36" hidden="1" x14ac:dyDescent="0.25">
       <c r="A87" s="12">
         <v>86</v>
       </c>
@@ -21576,7 +21580,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="88" spans="1:12" ht="36" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:12" ht="36" hidden="1" x14ac:dyDescent="0.25">
       <c r="A88" s="12">
         <v>87</v>
       </c>
@@ -21614,7 +21618,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="89" spans="1:12" ht="36" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:12" ht="36" hidden="1" x14ac:dyDescent="0.25">
       <c r="A89" s="12">
         <v>88</v>
       </c>
@@ -21652,7 +21656,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="90" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A90" s="12">
         <v>89</v>
       </c>
@@ -21690,7 +21694,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="91" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A91" s="12">
         <v>90</v>
       </c>
@@ -21728,7 +21732,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="92" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A92" s="12">
         <v>91</v>
       </c>
@@ -21766,7 +21770,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="93" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A93" s="12">
         <v>92</v>
       </c>
@@ -21803,7 +21807,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="94" spans="1:12" ht="36" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:12" ht="36" hidden="1" x14ac:dyDescent="0.25">
       <c r="A94" s="12">
         <v>33</v>
       </c>
@@ -21841,7 +21845,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="95" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A95" s="12">
         <v>94</v>
       </c>
@@ -21879,7 +21883,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="96" spans="1:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:12" ht="20.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A96" s="12">
         <v>95</v>
       </c>
@@ -21917,7 +21921,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="97" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A97" s="12">
         <v>96</v>
       </c>
@@ -21955,7 +21959,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="98" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A98" s="12">
         <v>97</v>
       </c>
@@ -21992,7 +21996,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="99" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A99" s="12">
         <v>98</v>
       </c>
@@ -22030,7 +22034,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="100" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A100" s="12">
         <v>99</v>
       </c>
@@ -22067,7 +22071,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="101" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A101" s="12">
         <v>100</v>
       </c>
@@ -22104,7 +22108,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="102" spans="1:12" ht="36" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:12" ht="36" hidden="1" x14ac:dyDescent="0.25">
       <c r="A102" s="12">
         <v>32</v>
       </c>
@@ -22142,7 +22146,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="103" spans="1:12" ht="36" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:12" ht="36" hidden="1" x14ac:dyDescent="0.25">
       <c r="A103" s="12">
         <v>19</v>
       </c>
@@ -22180,7 +22184,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="104" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A104" s="12">
         <v>103</v>
       </c>
@@ -22218,7 +22222,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="105" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A105" s="12">
         <v>104</v>
       </c>
@@ -22256,7 +22260,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="106" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A106" s="12">
         <v>84</v>
       </c>
@@ -22294,7 +22298,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="107" spans="1:12" ht="36" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:12" ht="36" hidden="1" x14ac:dyDescent="0.25">
       <c r="A107" s="12">
         <v>106</v>
       </c>
@@ -22332,7 +22336,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="108" spans="1:12" ht="36" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:12" ht="36" hidden="1" x14ac:dyDescent="0.25">
       <c r="A108" s="12">
         <v>107</v>
       </c>
@@ -22370,7 +22374,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="109" spans="1:12" ht="36" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:12" ht="36" hidden="1" x14ac:dyDescent="0.25">
       <c r="A109" s="12">
         <v>108</v>
       </c>
@@ -22408,7 +22412,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="110" spans="1:12" ht="36" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:12" ht="36" hidden="1" x14ac:dyDescent="0.25">
       <c r="A110" s="12">
         <v>109</v>
       </c>
@@ -22445,7 +22449,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="111" spans="1:12" ht="36" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:12" ht="36" hidden="1" x14ac:dyDescent="0.25">
       <c r="A111" s="12">
         <v>110</v>
       </c>
@@ -22482,7 +22486,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="112" spans="1:12" ht="36" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:12" ht="36" hidden="1" x14ac:dyDescent="0.25">
       <c r="A112" s="12">
         <v>111</v>
       </c>
@@ -22519,7 +22523,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="113" spans="1:12" ht="36" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:12" ht="36" hidden="1" x14ac:dyDescent="0.25">
       <c r="A113" s="12">
         <v>124</v>
       </c>
@@ -22557,7 +22561,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="114" spans="1:12" ht="36" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:12" ht="36" hidden="1" x14ac:dyDescent="0.25">
       <c r="A114" s="13">
         <v>197</v>
       </c>
@@ -22596,7 +22600,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="115" spans="1:12" ht="36" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:12" ht="36" hidden="1" x14ac:dyDescent="0.25">
       <c r="A115" s="13">
         <v>176</v>
       </c>
@@ -22635,7 +22639,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="116" spans="1:12" ht="36" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:12" ht="36" hidden="1" x14ac:dyDescent="0.25">
       <c r="A116" s="12">
         <v>137</v>
       </c>
@@ -22673,7 +22677,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="117" spans="1:12" ht="36" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:12" ht="36" hidden="1" x14ac:dyDescent="0.25">
       <c r="A117" s="12">
         <v>27</v>
       </c>
@@ -22711,7 +22715,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="118" spans="1:12" ht="36" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:12" ht="36" hidden="1" x14ac:dyDescent="0.25">
       <c r="A118" s="12">
         <v>146</v>
       </c>
@@ -22749,7 +22753,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="119" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A119" s="12">
         <v>141</v>
       </c>
@@ -22787,7 +22791,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="120" spans="1:12" ht="36" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:12" ht="36" hidden="1" x14ac:dyDescent="0.25">
       <c r="A120" s="13">
         <v>186</v>
       </c>
@@ -22826,7 +22830,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="121" spans="1:12" ht="36" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:12" ht="36" hidden="1" x14ac:dyDescent="0.25">
       <c r="A121" s="12">
         <v>23</v>
       </c>
@@ -22864,7 +22868,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="122" spans="1:12" ht="36" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:12" ht="36" hidden="1" x14ac:dyDescent="0.25">
       <c r="A122" s="12">
         <v>61</v>
       </c>
@@ -22902,7 +22906,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="123" spans="1:12" ht="36" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:12" ht="36" hidden="1" x14ac:dyDescent="0.25">
       <c r="A123" s="12">
         <v>119</v>
       </c>
@@ -22940,7 +22944,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="124" spans="1:12" ht="36" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:12" ht="36" hidden="1" x14ac:dyDescent="0.25">
       <c r="A124" s="13">
         <v>177</v>
       </c>
@@ -22979,7 +22983,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="125" spans="1:12" ht="36" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:12" ht="36" hidden="1" x14ac:dyDescent="0.25">
       <c r="A125" s="12">
         <v>28</v>
       </c>
@@ -23017,7 +23021,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="126" spans="1:12" ht="36" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:12" ht="36" hidden="1" x14ac:dyDescent="0.25">
       <c r="A126" s="12">
         <v>125</v>
       </c>
@@ -23055,7 +23059,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="127" spans="1:12" ht="36" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:12" ht="36" hidden="1" x14ac:dyDescent="0.25">
       <c r="A127" s="12">
         <v>126</v>
       </c>
@@ -23092,7 +23096,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="128" spans="1:12" ht="36" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:12" ht="36" hidden="1" x14ac:dyDescent="0.25">
       <c r="A128" s="12">
         <v>127</v>
       </c>
@@ -23130,7 +23134,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="129" spans="1:12" ht="36" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:12" ht="36" hidden="1" x14ac:dyDescent="0.25">
       <c r="A129" s="12">
         <v>128</v>
       </c>
@@ -23167,7 +23171,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="130" spans="1:12" ht="36" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:12" ht="36" hidden="1" x14ac:dyDescent="0.25">
       <c r="A130" s="12">
         <v>53</v>
       </c>
@@ -23205,7 +23209,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="131" spans="1:12" ht="36" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:12" ht="36" hidden="1" x14ac:dyDescent="0.25">
       <c r="A131" s="12">
         <v>30</v>
       </c>
@@ -23243,7 +23247,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="132" spans="1:12" ht="36" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:12" ht="36" hidden="1" x14ac:dyDescent="0.25">
       <c r="A132" s="12">
         <v>131</v>
       </c>
@@ -23281,7 +23285,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="133" spans="1:12" ht="36" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:12" ht="36" hidden="1" x14ac:dyDescent="0.25">
       <c r="A133" s="12">
         <v>132</v>
       </c>
@@ -23319,7 +23323,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="134" spans="1:12" ht="36" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:12" ht="36" hidden="1" x14ac:dyDescent="0.25">
       <c r="A134" s="12">
         <v>133</v>
       </c>
@@ -23357,7 +23361,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="135" spans="1:12" ht="36" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:12" ht="36" hidden="1" x14ac:dyDescent="0.25">
       <c r="A135" s="12">
         <v>134</v>
       </c>
@@ -23395,7 +23399,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="136" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A136" s="12">
         <v>135</v>
       </c>
@@ -23432,7 +23436,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="137" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A137" s="12">
         <v>136</v>
       </c>
@@ -23469,7 +23473,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="138" spans="1:12" ht="36" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:12" ht="36" hidden="1" x14ac:dyDescent="0.25">
       <c r="A138" s="12">
         <v>17</v>
       </c>
@@ -23507,7 +23511,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="139" spans="1:12" ht="36" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:12" ht="36" hidden="1" x14ac:dyDescent="0.25">
       <c r="A139" s="12">
         <v>148</v>
       </c>
@@ -23545,7 +23549,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="140" spans="1:12" ht="36" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:12" ht="36" hidden="1" x14ac:dyDescent="0.25">
       <c r="A140" s="12">
         <v>34</v>
       </c>
@@ -23583,7 +23587,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="141" spans="1:12" ht="36" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:12" ht="36" hidden="1" x14ac:dyDescent="0.25">
       <c r="A141" s="12">
         <v>129</v>
       </c>
@@ -23621,7 +23625,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="142" spans="1:12" ht="36" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:12" ht="36" hidden="1" x14ac:dyDescent="0.25">
       <c r="A142" s="13">
         <v>165</v>
       </c>
@@ -23660,7 +23664,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="143" spans="1:12" ht="36" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:12" ht="36" hidden="1" x14ac:dyDescent="0.25">
       <c r="A143" s="12">
         <v>50</v>
       </c>
@@ -23698,7 +23702,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="144" spans="1:12" ht="36" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:12" ht="36" hidden="1" x14ac:dyDescent="0.25">
       <c r="A144" s="12">
         <v>42</v>
       </c>
@@ -23736,7 +23740,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="145" spans="1:12" ht="36" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:12" ht="36" hidden="1" x14ac:dyDescent="0.25">
       <c r="A145" s="12">
         <v>51</v>
       </c>
@@ -23774,7 +23778,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="146" spans="1:12" ht="36" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:12" ht="36" hidden="1" x14ac:dyDescent="0.25">
       <c r="A146" s="12">
         <v>20</v>
       </c>
@@ -23812,7 +23816,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="147" spans="1:12" ht="36" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:12" ht="36" hidden="1" x14ac:dyDescent="0.25">
       <c r="A147" s="12">
         <v>39</v>
       </c>
@@ -23850,7 +23854,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="148" spans="1:12" ht="36" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:12" ht="36" hidden="1" x14ac:dyDescent="0.25">
       <c r="A148" s="12">
         <v>44</v>
       </c>
@@ -23888,7 +23892,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="149" spans="1:12" ht="36" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:12" ht="36" hidden="1" x14ac:dyDescent="0.25">
       <c r="A149" s="12">
         <v>140</v>
       </c>
@@ -24380,7 +24384,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="163" spans="1:12" ht="36" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:12" ht="36" hidden="1" x14ac:dyDescent="0.25">
       <c r="A163" s="13">
         <v>175</v>
       </c>
@@ -24419,7 +24423,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="164" spans="1:12" ht="36" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:12" ht="36" hidden="1" x14ac:dyDescent="0.25">
       <c r="A164" s="12">
         <v>41</v>
       </c>
@@ -24457,7 +24461,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="165" spans="1:12" ht="36" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:12" ht="36" hidden="1" x14ac:dyDescent="0.25">
       <c r="A165" s="12">
         <v>57</v>
       </c>
@@ -24495,7 +24499,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="166" spans="1:12" ht="36" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:12" ht="36" hidden="1" x14ac:dyDescent="0.25">
       <c r="A166" s="13">
         <v>185</v>
       </c>
@@ -24534,7 +24538,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="167" spans="1:12" ht="36" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:12" ht="36" hidden="1" x14ac:dyDescent="0.25">
       <c r="A167" s="13">
         <v>199</v>
       </c>
@@ -24573,7 +24577,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="168" spans="1:12" ht="36" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:12" ht="36" hidden="1" x14ac:dyDescent="0.25">
       <c r="A168" s="12">
         <v>14</v>
       </c>
@@ -24611,7 +24615,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="169" spans="1:12" ht="36" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:12" ht="36" hidden="1" x14ac:dyDescent="0.25">
       <c r="A169" s="12">
         <v>65</v>
       </c>
@@ -24649,7 +24653,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="170" spans="1:12" ht="36" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:12" ht="36" hidden="1" x14ac:dyDescent="0.25">
       <c r="A170" s="12">
         <v>58</v>
       </c>
@@ -24687,7 +24691,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="171" spans="1:12" ht="36" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:12" ht="36" hidden="1" x14ac:dyDescent="0.25">
       <c r="A171" s="12">
         <v>130</v>
       </c>
@@ -24725,7 +24729,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="172" spans="1:12" ht="36" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:12" ht="36" hidden="1" x14ac:dyDescent="0.25">
       <c r="A172" s="12">
         <v>147</v>
       </c>
@@ -24763,7 +24767,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="173" spans="1:12" ht="36" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:12" ht="36" hidden="1" x14ac:dyDescent="0.25">
       <c r="A173" s="12">
         <v>139</v>
       </c>
@@ -24800,7 +24804,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="174" spans="1:12" ht="36" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:12" ht="36" hidden="1" x14ac:dyDescent="0.25">
       <c r="A174" s="12">
         <v>121</v>
       </c>
@@ -24838,7 +24842,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="175" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A175" s="12">
         <v>101</v>
       </c>
@@ -24875,7 +24879,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="176" spans="1:12" ht="36" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:12" ht="36" hidden="1" x14ac:dyDescent="0.25">
       <c r="A176" s="12">
         <v>45</v>
       </c>
@@ -24913,7 +24917,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="177" spans="1:12" ht="36" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:12" ht="36" hidden="1" x14ac:dyDescent="0.25">
       <c r="A177" s="12">
         <v>60</v>
       </c>
@@ -24951,7 +24955,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="178" spans="1:12" ht="36" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:12" ht="36" hidden="1" x14ac:dyDescent="0.25">
       <c r="A178" s="12">
         <v>69</v>
       </c>
@@ -24989,7 +24993,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="179" spans="1:12" ht="36" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:12" ht="36" hidden="1" x14ac:dyDescent="0.25">
       <c r="A179" s="12">
         <v>56</v>
       </c>
@@ -25138,7 +25142,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="183" spans="1:12" ht="36" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:12" ht="36" hidden="1" x14ac:dyDescent="0.25">
       <c r="A183" s="12">
         <v>123</v>
       </c>
@@ -25176,7 +25180,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="184" spans="1:12" ht="36" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:12" ht="36" hidden="1" x14ac:dyDescent="0.25">
       <c r="A184" s="12">
         <v>66</v>
       </c>
@@ -25214,7 +25218,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="185" spans="1:12" ht="36" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:12" ht="36" hidden="1" x14ac:dyDescent="0.25">
       <c r="A185" s="12">
         <v>49</v>
       </c>
@@ -25252,7 +25256,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="186" spans="1:12" ht="36" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:12" ht="36" hidden="1" x14ac:dyDescent="0.25">
       <c r="A186" s="12">
         <v>48</v>
       </c>
@@ -25290,7 +25294,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="187" spans="1:12" ht="36" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:12" ht="36" hidden="1" x14ac:dyDescent="0.25">
       <c r="A187" s="12">
         <v>63</v>
       </c>
@@ -25507,7 +25511,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="193" spans="1:12" ht="36" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:12" ht="36" hidden="1" x14ac:dyDescent="0.25">
       <c r="A193" s="12">
         <v>144</v>
       </c>
@@ -25545,7 +25549,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="194" spans="1:12" ht="36" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:12" ht="36" hidden="1" x14ac:dyDescent="0.25">
       <c r="A194" s="13">
         <v>200</v>
       </c>
@@ -25584,7 +25588,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="195" spans="1:12" ht="36" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:12" ht="36" hidden="1" x14ac:dyDescent="0.25">
       <c r="A195" s="12">
         <v>138</v>
       </c>
@@ -25622,7 +25626,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="196" spans="1:12" ht="36" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:12" ht="36" hidden="1" x14ac:dyDescent="0.25">
       <c r="A196" s="12">
         <v>118</v>
       </c>
@@ -25660,7 +25664,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="197" spans="1:12" ht="36" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:12" ht="36" hidden="1" x14ac:dyDescent="0.25">
       <c r="A197" s="12">
         <v>112</v>
       </c>
@@ -25697,7 +25701,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="198" spans="1:12" ht="36" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:12" ht="36" hidden="1" x14ac:dyDescent="0.25">
       <c r="A198" s="12">
         <v>122</v>
       </c>
@@ -25735,7 +25739,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="199" spans="1:12" ht="36" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:12" ht="36" hidden="1" x14ac:dyDescent="0.25">
       <c r="A199" s="12">
         <v>46</v>
       </c>
@@ -25773,7 +25777,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="200" spans="1:12" ht="36" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:12" ht="36" hidden="1" x14ac:dyDescent="0.25">
       <c r="A200" s="12">
         <v>43</v>
       </c>
@@ -25811,7 +25815,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="201" spans="1:12" ht="36" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:12" ht="36" hidden="1" x14ac:dyDescent="0.25">
       <c r="A201" s="12">
         <v>18</v>
       </c>
@@ -25849,7 +25853,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="202" spans="1:12" ht="36" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:12" ht="36" hidden="1" x14ac:dyDescent="0.25">
       <c r="A202" s="12">
         <v>25</v>
       </c>
@@ -25887,7 +25891,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="203" spans="1:12" ht="36" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:12" ht="36" hidden="1" x14ac:dyDescent="0.25">
       <c r="A203" s="12">
         <v>67</v>
       </c>
@@ -25925,7 +25929,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="204" spans="1:12" ht="36" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:12" ht="36" hidden="1" x14ac:dyDescent="0.25">
       <c r="A204" s="12">
         <v>115</v>
       </c>
@@ -25962,7 +25966,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="205" spans="1:12" ht="36" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:12" ht="36" hidden="1" x14ac:dyDescent="0.25">
       <c r="A205" s="13">
         <v>208</v>
       </c>
@@ -26001,7 +26005,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="206" spans="1:12" ht="36" hidden="1" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:12" ht="36" x14ac:dyDescent="0.25">
       <c r="A206" s="13">
         <v>209</v>
       </c>
@@ -30897,7 +30901,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="350" spans="1:12" ht="36" hidden="1" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:12" ht="36" x14ac:dyDescent="0.25">
       <c r="A350" s="13">
         <v>280</v>
       </c>
@@ -32111,7 +32115,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="386" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="386" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A386" s="13">
         <v>292</v>
       </c>
@@ -33205,7 +33209,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="418" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="418" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A418" s="13">
         <v>313</v>
       </c>
@@ -33242,7 +33246,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="419" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="419" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A419" s="13"/>
       <c r="B419" s="13">
         <v>8757</v>
@@ -33277,7 +33281,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="420" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="420" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A420" s="13"/>
       <c r="B420" s="13">
         <v>8758</v>
@@ -33312,7 +33316,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="421" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="421" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A421" s="13"/>
       <c r="B421" s="13">
         <v>8759</v>
@@ -33347,7 +33351,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="422" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="422" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A422" s="13"/>
       <c r="B422" s="13">
         <v>8760</v>
@@ -33382,7 +33386,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="423" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="423" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A423" s="13"/>
       <c r="B423" s="13">
         <v>8761</v>
@@ -33417,7 +33421,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="424" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="424" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A424" s="13"/>
       <c r="B424" s="13">
         <v>8762</v>
@@ -33452,7 +33456,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="425" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="425" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A425" s="13"/>
       <c r="B425" s="13">
         <v>8763</v>
@@ -33487,7 +33491,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="426" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="426" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A426" s="13"/>
       <c r="B426" s="13">
         <v>8764</v>
@@ -33522,7 +33526,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="427" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="427" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A427" s="13"/>
       <c r="B427" s="13">
         <v>8765</v>
@@ -33557,7 +33561,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="428" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="428" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A428" s="13"/>
       <c r="B428" s="13">
         <v>8766</v>
@@ -33592,7 +33596,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="429" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="429" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A429" s="13"/>
       <c r="B429" s="13">
         <v>8767</v>
@@ -33627,7 +33631,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="430" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="430" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A430" s="13"/>
       <c r="B430" s="13">
         <v>8768</v>
@@ -33662,7 +33666,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="431" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="431" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A431" s="13"/>
       <c r="B431" s="13">
         <v>8769</v>
@@ -33697,7 +33701,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="432" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="432" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A432" s="13">
         <v>314</v>
       </c>
@@ -33734,7 +33738,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="433" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="433" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A433" s="13"/>
       <c r="B433" s="13">
         <v>8791</v>
@@ -33769,7 +33773,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="434" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="434" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A434" s="13"/>
       <c r="B434" s="13">
         <v>8792</v>
@@ -33804,7 +33808,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="435" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="435" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A435" s="13"/>
       <c r="B435" s="13">
         <v>8793</v>
@@ -33839,7 +33843,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="436" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="436" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A436" s="13"/>
       <c r="B436" s="13">
         <v>8794</v>
@@ -33874,7 +33878,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="437" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="437" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A437" s="13"/>
       <c r="B437" s="13">
         <v>8819</v>
@@ -33909,7 +33913,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="438" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="438" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A438" s="13"/>
       <c r="B438" s="13">
         <v>8821</v>
@@ -33944,7 +33948,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="439" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="439" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A439" s="13"/>
       <c r="B439" s="13">
         <v>8823</v>
@@ -33979,7 +33983,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="440" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="440" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A440" s="13"/>
       <c r="B440" s="13">
         <v>8824</v>
@@ -34014,7 +34018,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="441" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="441" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A441" s="13"/>
       <c r="B441" s="13">
         <v>8825</v>
@@ -34049,7 +34053,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="442" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="442" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A442" s="13"/>
       <c r="B442" s="13">
         <v>8826</v>
@@ -34084,7 +34088,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="443" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="443" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A443" s="13"/>
       <c r="B443" s="13">
         <v>8827</v>
@@ -34119,7 +34123,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="444" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="444" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A444" s="13"/>
       <c r="B444" s="13">
         <v>8828</v>
@@ -34154,7 +34158,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="445" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="445" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A445" s="13"/>
       <c r="B445" s="13">
         <v>8829</v>
@@ -34189,7 +34193,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="446" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="446" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A446" s="13"/>
       <c r="B446" s="13">
         <v>8830</v>
@@ -34224,7 +34228,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="447" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="447" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A447" s="13">
         <v>315</v>
       </c>
@@ -34261,7 +34265,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="448" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="448" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A448" s="13"/>
       <c r="B448" s="13">
         <v>8833</v>
@@ -34296,7 +34300,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="449" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="449" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A449" s="13"/>
       <c r="B449" s="13">
         <v>8834</v>
@@ -34331,7 +34335,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="450" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="450" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A450" s="13"/>
       <c r="B450" s="13">
         <v>8835</v>
@@ -34366,7 +34370,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="451" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="451" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A451" s="13"/>
       <c r="B451" s="13">
         <v>8836</v>
@@ -34401,7 +34405,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="452" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="452" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A452" s="13"/>
       <c r="B452" s="13">
         <v>8837</v>
@@ -34436,7 +34440,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="453" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="453" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A453" s="13"/>
       <c r="B453" s="13">
         <v>8838</v>
@@ -34471,7 +34475,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="454" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="454" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A454" s="13"/>
       <c r="B454" s="13">
         <v>8839</v>
@@ -34506,7 +34510,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="455" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="455" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A455" s="13"/>
       <c r="B455" s="13">
         <v>8840</v>
@@ -34541,7 +34545,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="456" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="456" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A456" s="13"/>
       <c r="B456" s="13">
         <v>8841</v>
@@ -34576,7 +34580,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="457" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="457" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A457" s="13"/>
       <c r="B457" s="13">
         <v>8842</v>
@@ -34611,7 +34615,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="458" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="458" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A458" s="13"/>
       <c r="B458" s="13">
         <v>8843</v>
@@ -34646,7 +34650,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="459" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="459" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A459" s="13">
         <v>316</v>
       </c>
@@ -34683,7 +34687,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="460" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="460" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A460" s="13"/>
       <c r="B460" s="13">
         <v>8857</v>
@@ -34718,7 +34722,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="461" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="461" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A461" s="13"/>
       <c r="B461" s="13">
         <v>8858</v>
@@ -34753,7 +34757,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="462" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="462" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A462" s="13"/>
       <c r="B462" s="13">
         <v>8859</v>
@@ -34788,7 +34792,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="463" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="463" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A463" s="13"/>
       <c r="B463" s="13">
         <v>8860</v>
@@ -34823,7 +34827,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="464" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="464" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A464" s="13"/>
       <c r="B464" s="13">
         <v>8861</v>
@@ -34858,7 +34862,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="465" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="465" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A465" s="13"/>
       <c r="B465" s="13">
         <v>8862</v>
@@ -34893,7 +34897,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="466" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="466" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A466" s="13"/>
       <c r="B466" s="13">
         <v>8863</v>
@@ -34928,7 +34932,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="467" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="467" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A467" s="13"/>
       <c r="B467" s="13">
         <v>8864</v>
@@ -34963,7 +34967,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="468" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="468" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A468" s="13"/>
       <c r="B468" s="13">
         <v>8865</v>
@@ -34998,7 +35002,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="469" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="469" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A469" s="13"/>
       <c r="B469" s="13">
         <v>8866</v>
@@ -35033,7 +35037,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="470" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="470" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A470" s="13"/>
       <c r="B470" s="13">
         <v>8867</v>
@@ -35068,7 +35072,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="471" spans="1:12" ht="36" hidden="1" x14ac:dyDescent="0.25">
+    <row r="471" spans="1:12" ht="36" x14ac:dyDescent="0.25">
       <c r="A471" s="13">
         <v>317</v>
       </c>
@@ -35105,7 +35109,7 @@
         <v>621</v>
       </c>
     </row>
-    <row r="472" spans="1:12" ht="36" hidden="1" x14ac:dyDescent="0.25">
+    <row r="472" spans="1:12" ht="36" x14ac:dyDescent="0.25">
       <c r="A472" s="13">
         <v>318</v>
       </c>
@@ -35142,7 +35146,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="473" spans="1:12" ht="36" hidden="1" x14ac:dyDescent="0.25">
+    <row r="473" spans="1:12" ht="36" x14ac:dyDescent="0.25">
       <c r="A473" s="13">
         <v>319</v>
       </c>
@@ -35179,7 +35183,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="474" spans="1:12" ht="36" hidden="1" x14ac:dyDescent="0.25">
+    <row r="474" spans="1:12" ht="36" x14ac:dyDescent="0.25">
       <c r="A474" s="13">
         <v>320</v>
       </c>
@@ -35249,7 +35253,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="476" spans="1:12" ht="36" hidden="1" x14ac:dyDescent="0.25">
+    <row r="476" spans="1:12" ht="36" x14ac:dyDescent="0.25">
       <c r="A476" s="13">
         <v>322</v>
       </c>
@@ -35630,23 +35634,23 @@
       <c r="G487" s="15"/>
       <c r="H487" s="22">
         <f>SUBTOTAL(109,Table1[[تعداد تماشا ]])</f>
-        <v>12549</v>
+        <v>4159</v>
       </c>
       <c r="I487" s="22">
         <f>SUBTOTAL(109,Table1[دقایق تماشا])</f>
-        <v>130390</v>
+        <v>44006</v>
       </c>
       <c r="J487" s="22">
         <f>SUBTOTAL(109,Table1[تعداد دانلود])</f>
-        <v>5528</v>
+        <v>641</v>
       </c>
       <c r="K487" s="22">
         <f>SUBTOTAL(109,Table1[فروش])</f>
-        <v>38174850</v>
+        <v>0</v>
       </c>
       <c r="L487" s="23">
         <f>SUBTOTAL(109,Table1[مجموع تماشا و دانلود])</f>
-        <v>18077</v>
+        <v>4800</v>
       </c>
     </row>
   </sheetData>

--- a/آمارفروش بین الملل غیرعربی.xlsx
+++ b/آمارفروش بین الملل غیرعربی.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\undergit\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91604809-2031-46AA-88EE-E4117EBC5AD1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{128E8A1B-9DB5-449C-9B92-20A44CAE4EBF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2046" uniqueCount="805">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2049" uniqueCount="806">
   <si>
     <t>دقایق تماشا</t>
   </si>
@@ -2459,6 +2459,9 @@
   </si>
   <si>
     <t>Total</t>
+  </si>
+  <si>
+    <t>رایگان</t>
   </si>
 </sst>
 </file>
@@ -2688,6 +2691,285 @@
     </dxf>
     <dxf>
       <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="A  Mitra_1 (MRT)"/>
+        <charset val="178"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="_ * #,##0_-_ ;_ * #,##0\-_ ;_ * &quot;-&quot;??_-_ ;_ @_ "/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="A  Mitra_1 (MRT)"/>
+        <charset val="178"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="_ * #,##0_-_ ;_ * #,##0\-_ ;_ * &quot;-&quot;??_-_ ;_ @_ "/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="A  Mitra_1 (MRT)"/>
+        <charset val="178"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="_ * #,##0_-_ ;_ * #,##0\-_ ;_ * &quot;-&quot;??_-_ ;_ @_ "/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="A  Mitra_1 (MRT)"/>
+        <charset val="178"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="_ * #,##0_-_ ;_ * #,##0\-_ ;_ * &quot;-&quot;??_-_ ;_ @_ "/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="A  Mitra_1 (MRT)"/>
+        <charset val="178"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="A  Mitra_1 (MRT)"/>
+        <charset val="178"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="A  Mitra_1 (MRT)"/>
+        <charset val="178"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="A  Mitra_1 (MRT)"/>
+        <charset val="178"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="A  Mitra_1 (MRT)"/>
+        <charset val="178"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="A  Mitra_1 (MRT)"/>
+        <charset val="178"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="A  Mitra_1 (MRT)"/>
+        <charset val="178"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
         <strike val="0"/>
         <outline val="0"/>
         <shadow val="0"/>
@@ -2729,7 +3011,7 @@
       <fill>
         <patternFill patternType="none">
           <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
+          <bgColor auto="1"/>
         </patternFill>
       </fill>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -2781,111 +3063,7 @@
       <fill>
         <patternFill patternType="none">
           <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="A  Mitra_1 (MRT)"/>
-        <charset val="178"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="164" formatCode="_ * #,##0_-_ ;_ * #,##0\-_ ;_ * &quot;-&quot;??_-_ ;_ @_ "/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
           <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="A  Mitra_1 (MRT)"/>
-        <charset val="178"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="164" formatCode="_ * #,##0_-_ ;_ * #,##0\-_ ;_ * &quot;-&quot;??_-_ ;_ @_ "/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="A  Mitra_1 (MRT)"/>
-        <charset val="178"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="164" formatCode="_ * #,##0_-_ ;_ * #,##0\-_ ;_ * &quot;-&quot;??_-_ ;_ @_ "/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="A  Mitra_1 (MRT)"/>
-        <charset val="178"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="164" formatCode="_ * #,##0_-_ ;_ * #,##0\-_ ;_ * &quot;-&quot;??_-_ ;_ @_ "/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
         </patternFill>
       </fill>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -2936,7 +3114,7 @@
       <fill>
         <patternFill patternType="none">
           <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
+          <bgColor auto="1"/>
         </patternFill>
       </fill>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -2986,7 +3164,7 @@
       <fill>
         <patternFill patternType="none">
           <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
+          <bgColor auto="1"/>
         </patternFill>
       </fill>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -3036,7 +3214,7 @@
       <fill>
         <patternFill patternType="none">
           <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
+          <bgColor auto="1"/>
         </patternFill>
       </fill>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -3062,181 +3240,6 @@
         <patternFill patternType="none">
           <fgColor indexed="64"/>
           <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="A  Mitra_1 (MRT)"/>
-        <charset val="178"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="A  Mitra_1 (MRT)"/>
-        <charset val="178"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="A  Mitra_1 (MRT)"/>
-        <charset val="178"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="A  Mitra_1 (MRT)"/>
-        <charset val="178"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="A  Mitra_1 (MRT)"/>
-        <charset val="178"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="A  Mitra_1 (MRT)"/>
-        <charset val="178"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="A  Mitra_1 (MRT)"/>
-        <charset val="178"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
         </patternFill>
       </fill>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -17934,33 +17937,20 @@
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{DAEF691E-BE7B-4846-B83B-B7F73E8F6AAF}" name="Table1" displayName="Table1" ref="A1:L487" totalsRowCount="1" headerRowDxfId="26" dataDxfId="25" totalsRowDxfId="24">
-  <autoFilter ref="A1:L486" xr:uid="{DAEF691E-BE7B-4846-B83B-B7F73E8F6AAF}">
-    <filterColumn colId="2">
-      <customFilters>
-        <customFilter operator="notEqual" val=" "/>
-      </customFilters>
-    </filterColumn>
-    <filterColumn colId="5">
-      <filters>
-        <filter val="انیمیشن سریالی"/>
-        <filter val="انیمیشن سینمایی"/>
-        <filter val="انیمیشن کوتاه"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A1:L486" xr:uid="{DAEF691E-BE7B-4846-B83B-B7F73E8F6AAF}"/>
   <tableColumns count="12">
-    <tableColumn id="1" xr3:uid="{F2EAA953-DAC7-405E-8842-AF11A39D0D4A}" name="ردیف " totalsRowLabel="Total" dataDxfId="23" totalsRowDxfId="22"/>
-    <tableColumn id="2" xr3:uid="{FA040720-3200-4954-8557-DFD3BF916ED4}" name="شناسه اثر" dataDxfId="21" totalsRowDxfId="20"/>
-    <tableColumn id="3" xr3:uid="{606426C5-4912-4204-A423-0B95ABB4FAE7}" name="کد تماشا" dataDxfId="19" totalsRowDxfId="18"/>
-    <tableColumn id="4" xr3:uid="{0250D3F5-C0B9-4842-B508-C2E8F3A1B3E3}" name="نام اثر" dataDxfId="17" totalsRowDxfId="16"/>
-    <tableColumn id="5" xr3:uid="{1C1EB89D-D4D8-460E-8485-8130937802E7}" name="لینک" dataDxfId="15" totalsRowDxfId="14"/>
-    <tableColumn id="6" xr3:uid="{3EDD6E86-9441-4314-AD91-E31D4211F91F}" name="قالب" dataDxfId="13" totalsRowDxfId="12"/>
-    <tableColumn id="7" xr3:uid="{BA48E9FA-7286-43EE-A8CC-F23B7ECE554D}" name="زبان" dataDxfId="11" totalsRowDxfId="10"/>
-    <tableColumn id="8" xr3:uid="{49EEF339-1122-4F52-95D9-5E46CD2E81D6}" name="تعداد تماشا " totalsRowFunction="sum" dataDxfId="9" totalsRowDxfId="8" dataCellStyle="Comma"/>
-    <tableColumn id="9" xr3:uid="{F34DC572-65BE-49F4-8B45-795A03D14590}" name="دقایق تماشا" totalsRowFunction="sum" dataDxfId="7" totalsRowDxfId="6" dataCellStyle="Comma"/>
-    <tableColumn id="10" xr3:uid="{67E35E64-27C1-4B72-A7B0-99EBC8BB6FF0}" name="تعداد دانلود" totalsRowFunction="sum" dataDxfId="5" totalsRowDxfId="4" dataCellStyle="Comma"/>
-    <tableColumn id="11" xr3:uid="{3E9E3753-6E5B-4AEF-B7F5-8A4A9A132A2E}" name="فروش" totalsRowFunction="sum" dataDxfId="3" totalsRowDxfId="2" dataCellStyle="Comma"/>
-    <tableColumn id="12" xr3:uid="{718C079A-104F-4A0A-9E7C-D29AA050BCB0}" name="مجموع تماشا و دانلود" totalsRowFunction="sum" dataDxfId="1" totalsRowDxfId="0" dataCellStyle="Comma" totalsRowCellStyle="Comma">
+    <tableColumn id="1" xr3:uid="{F2EAA953-DAC7-405E-8842-AF11A39D0D4A}" name="ردیف " totalsRowLabel="Total" dataDxfId="23" totalsRowDxfId="11"/>
+    <tableColumn id="2" xr3:uid="{FA040720-3200-4954-8557-DFD3BF916ED4}" name="شناسه اثر" dataDxfId="22" totalsRowDxfId="10"/>
+    <tableColumn id="3" xr3:uid="{606426C5-4912-4204-A423-0B95ABB4FAE7}" name="کد تماشا" dataDxfId="21" totalsRowDxfId="9"/>
+    <tableColumn id="4" xr3:uid="{0250D3F5-C0B9-4842-B508-C2E8F3A1B3E3}" name="نام اثر" dataDxfId="20" totalsRowDxfId="8"/>
+    <tableColumn id="5" xr3:uid="{1C1EB89D-D4D8-460E-8485-8130937802E7}" name="لینک" dataDxfId="19" totalsRowDxfId="7"/>
+    <tableColumn id="6" xr3:uid="{3EDD6E86-9441-4314-AD91-E31D4211F91F}" name="قالب" dataDxfId="18" totalsRowDxfId="6"/>
+    <tableColumn id="7" xr3:uid="{BA48E9FA-7286-43EE-A8CC-F23B7ECE554D}" name="زبان" dataDxfId="17" totalsRowDxfId="5"/>
+    <tableColumn id="8" xr3:uid="{49EEF339-1122-4F52-95D9-5E46CD2E81D6}" name="تعداد تماشا " totalsRowFunction="sum" dataDxfId="16" totalsRowDxfId="4" dataCellStyle="Comma"/>
+    <tableColumn id="9" xr3:uid="{F34DC572-65BE-49F4-8B45-795A03D14590}" name="دقایق تماشا" totalsRowFunction="sum" dataDxfId="15" totalsRowDxfId="3" dataCellStyle="Comma"/>
+    <tableColumn id="10" xr3:uid="{67E35E64-27C1-4B72-A7B0-99EBC8BB6FF0}" name="تعداد دانلود" totalsRowFunction="sum" dataDxfId="14" totalsRowDxfId="2" dataCellStyle="Comma"/>
+    <tableColumn id="11" xr3:uid="{3E9E3753-6E5B-4AEF-B7F5-8A4A9A132A2E}" name="فروش" totalsRowFunction="sum" dataDxfId="13" totalsRowDxfId="1" dataCellStyle="Comma"/>
+    <tableColumn id="12" xr3:uid="{718C079A-104F-4A0A-9E7C-D29AA050BCB0}" name="مجموع تماشا و دانلود" totalsRowFunction="sum" dataDxfId="12" totalsRowDxfId="0" dataCellStyle="Comma" totalsRowCellStyle="Comma">
       <calculatedColumnFormula>Table1[[#This Row],[تعداد دانلود]]+Table1[[#This Row],[تعداد تماشا ]]</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -18234,17 +18224,17 @@
   <dimension ref="A1:L487"/>
   <sheetViews>
     <sheetView rightToLeft="1" tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A469" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="H210" sqref="H210"/>
+      <selection pane="bottomLeft" activeCell="J3" sqref="J3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="16"/>
+    <col min="1" max="1" width="9.140625" style="16" customWidth="1"/>
     <col min="2" max="2" width="10.5703125" style="16" customWidth="1"/>
     <col min="3" max="3" width="9.5703125" style="16" customWidth="1"/>
-    <col min="4" max="4" width="28.7109375" style="17" customWidth="1"/>
+    <col min="4" max="4" width="13" style="17" customWidth="1"/>
     <col min="5" max="5" width="33.5703125" style="17" customWidth="1"/>
     <col min="6" max="6" width="13.5703125" style="17" customWidth="1"/>
     <col min="7" max="7" width="12.5703125" style="17" customWidth="1"/>
@@ -18293,7 +18283,7 @@
         <v>803</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="36" hidden="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" ht="36" x14ac:dyDescent="0.25">
       <c r="A2" s="12">
         <v>105</v>
       </c>
@@ -18330,7 +18320,7 @@
         <v>1155</v>
       </c>
     </row>
-    <row r="3" spans="1:12" ht="36" hidden="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" ht="36" x14ac:dyDescent="0.25">
       <c r="A3" s="13">
         <v>201</v>
       </c>
@@ -18369,7 +18359,7 @@
         <v>732</v>
       </c>
     </row>
-    <row r="4" spans="1:12" ht="36" hidden="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" ht="36" x14ac:dyDescent="0.25">
       <c r="A4" s="13">
         <v>168</v>
       </c>
@@ -18408,7 +18398,7 @@
         <v>525</v>
       </c>
     </row>
-    <row r="5" spans="1:12" ht="36" hidden="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" ht="36" x14ac:dyDescent="0.25">
       <c r="A5" s="13">
         <v>183</v>
       </c>
@@ -18447,7 +18437,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="6" spans="1:12" ht="36" hidden="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" ht="36" x14ac:dyDescent="0.25">
       <c r="A6" s="13">
         <v>196</v>
       </c>
@@ -18486,7 +18476,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="7" spans="1:12" ht="36" hidden="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" ht="36" x14ac:dyDescent="0.25">
       <c r="A7" s="13">
         <v>206</v>
       </c>
@@ -18525,7 +18515,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="8" spans="1:12" ht="36" hidden="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" ht="36" x14ac:dyDescent="0.25">
       <c r="A8" s="13">
         <v>203</v>
       </c>
@@ -18564,7 +18554,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="9" spans="1:12" ht="36" hidden="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" ht="36" x14ac:dyDescent="0.25">
       <c r="A9" s="12">
         <v>52</v>
       </c>
@@ -18602,7 +18592,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="10" spans="1:12" ht="36" hidden="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" ht="36" x14ac:dyDescent="0.25">
       <c r="A10" s="12">
         <v>83</v>
       </c>
@@ -18640,7 +18630,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="11" spans="1:12" ht="36" hidden="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" ht="36" x14ac:dyDescent="0.25">
       <c r="A11" s="13">
         <v>182</v>
       </c>
@@ -18679,7 +18669,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="12" spans="1:12" ht="36" hidden="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" ht="36" x14ac:dyDescent="0.25">
       <c r="A12" s="13">
         <v>172</v>
       </c>
@@ -18718,7 +18708,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="13" spans="1:12" ht="36" hidden="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" ht="36" x14ac:dyDescent="0.25">
       <c r="A13" s="13">
         <v>171</v>
       </c>
@@ -18757,7 +18747,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="14" spans="1:12" ht="36" hidden="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" ht="36" x14ac:dyDescent="0.25">
       <c r="A14" s="12">
         <v>3</v>
       </c>
@@ -18795,7 +18785,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="15" spans="1:12" ht="36" hidden="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" ht="36" x14ac:dyDescent="0.25">
       <c r="A15" s="12">
         <v>6</v>
       </c>
@@ -18833,7 +18823,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="16" spans="1:12" ht="36" hidden="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" ht="36" x14ac:dyDescent="0.25">
       <c r="A16" s="12">
         <v>102</v>
       </c>
@@ -18871,7 +18861,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="17" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17" s="12">
         <v>10</v>
       </c>
@@ -18909,7 +18899,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="18" spans="1:12" ht="36" hidden="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:12" ht="36" x14ac:dyDescent="0.25">
       <c r="A18" s="13">
         <v>202</v>
       </c>
@@ -18948,7 +18938,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="19" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A19" s="12">
         <v>35</v>
       </c>
@@ -18986,7 +18976,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="20" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A20" s="12">
         <v>13</v>
       </c>
@@ -19024,7 +19014,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="21" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A21" s="12">
         <v>1</v>
       </c>
@@ -19062,7 +19052,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="22" spans="1:12" ht="36" hidden="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:12" ht="36" x14ac:dyDescent="0.25">
       <c r="A22" s="12">
         <v>7</v>
       </c>
@@ -19100,7 +19090,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="23" spans="1:12" ht="36" hidden="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:12" ht="36" x14ac:dyDescent="0.25">
       <c r="A23" s="12">
         <v>54</v>
       </c>
@@ -19138,7 +19128,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="24" spans="1:12" ht="36" hidden="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:12" ht="36" x14ac:dyDescent="0.25">
       <c r="A24" s="12">
         <v>31</v>
       </c>
@@ -19176,7 +19166,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="25" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A25" s="12">
         <v>40</v>
       </c>
@@ -19214,7 +19204,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="26" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A26" s="12">
         <v>38</v>
       </c>
@@ -19252,7 +19242,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="27" spans="1:12" ht="36" hidden="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:12" ht="36" x14ac:dyDescent="0.25">
       <c r="A27" s="13">
         <v>164</v>
       </c>
@@ -19291,7 +19281,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="28" spans="1:12" ht="36" hidden="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:12" ht="36" x14ac:dyDescent="0.25">
       <c r="A28" s="13">
         <v>207</v>
       </c>
@@ -19329,7 +19319,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="29" spans="1:12" ht="36" hidden="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:12" ht="36" x14ac:dyDescent="0.25">
       <c r="A29" s="12">
         <v>2</v>
       </c>
@@ -19367,7 +19357,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="30" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A30" s="12">
         <v>71</v>
       </c>
@@ -19405,7 +19395,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="31" spans="1:12" ht="36" hidden="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:12" ht="36" x14ac:dyDescent="0.25">
       <c r="A31" s="12">
         <v>4</v>
       </c>
@@ -19443,7 +19433,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="32" spans="1:12" ht="36" hidden="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:12" ht="36" x14ac:dyDescent="0.25">
       <c r="A32" s="12">
         <v>62</v>
       </c>
@@ -19481,7 +19471,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="33" spans="1:12" ht="36" hidden="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:12" ht="36" x14ac:dyDescent="0.25">
       <c r="A33" s="13">
         <v>198</v>
       </c>
@@ -19520,7 +19510,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="34" spans="1:12" ht="36" hidden="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:12" ht="36" x14ac:dyDescent="0.25">
       <c r="A34" s="12">
         <v>55</v>
       </c>
@@ -19558,7 +19548,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="35" spans="1:12" ht="36" hidden="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:12" ht="36" x14ac:dyDescent="0.25">
       <c r="A35" s="12">
         <v>9</v>
       </c>
@@ -19596,7 +19586,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="36" spans="1:12" ht="36" hidden="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:12" ht="36" x14ac:dyDescent="0.25">
       <c r="A36" s="13">
         <v>204</v>
       </c>
@@ -19635,7 +19625,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="37" spans="1:12" ht="36" hidden="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:12" ht="36" x14ac:dyDescent="0.25">
       <c r="A37" s="13">
         <v>163</v>
       </c>
@@ -19674,7 +19664,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="38" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A38" s="12">
         <v>12</v>
       </c>
@@ -19712,7 +19702,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="39" spans="1:12" ht="36" hidden="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:12" ht="36" x14ac:dyDescent="0.25">
       <c r="A39" s="13">
         <v>169</v>
       </c>
@@ -19751,7 +19741,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="40" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A40" s="13">
         <v>184</v>
       </c>
@@ -19790,7 +19780,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="41" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A41" s="12">
         <v>36</v>
       </c>
@@ -19828,7 +19818,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="42" spans="1:12" ht="36" hidden="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:12" ht="36" x14ac:dyDescent="0.25">
       <c r="A42" s="13">
         <v>170</v>
       </c>
@@ -19865,7 +19855,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="43" spans="1:12" ht="36" hidden="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:12" ht="36" x14ac:dyDescent="0.25">
       <c r="A43" s="12">
         <v>5</v>
       </c>
@@ -19903,7 +19893,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="44" spans="1:12" ht="36" hidden="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:12" ht="36" x14ac:dyDescent="0.25">
       <c r="A44" s="13">
         <v>167</v>
       </c>
@@ -19942,7 +19932,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="45" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A45" s="12">
         <v>8</v>
       </c>
@@ -19980,7 +19970,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="46" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A46" s="12">
         <v>93</v>
       </c>
@@ -20018,7 +20008,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="47" spans="1:12" ht="36" hidden="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:12" ht="36" x14ac:dyDescent="0.25">
       <c r="A47" s="12">
         <v>24</v>
       </c>
@@ -20056,7 +20046,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="48" spans="1:12" ht="36" hidden="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:12" ht="36" x14ac:dyDescent="0.25">
       <c r="A48" s="12">
         <v>11</v>
       </c>
@@ -20094,7 +20084,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="49" spans="1:12" ht="36" hidden="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:12" ht="36" x14ac:dyDescent="0.25">
       <c r="A49" s="12">
         <v>116</v>
       </c>
@@ -20132,7 +20122,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="50" spans="1:12" ht="36" hidden="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:12" ht="36" x14ac:dyDescent="0.25">
       <c r="A50" s="12">
         <v>59</v>
       </c>
@@ -20170,7 +20160,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="51" spans="1:12" ht="36" hidden="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:12" ht="36" x14ac:dyDescent="0.25">
       <c r="A51" s="12">
         <v>21</v>
       </c>
@@ -20208,7 +20198,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="52" spans="1:12" ht="36" hidden="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:12" ht="36" x14ac:dyDescent="0.25">
       <c r="A52" s="12">
         <v>22</v>
       </c>
@@ -20246,7 +20236,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="53" spans="1:12" ht="36" hidden="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:12" ht="36" x14ac:dyDescent="0.25">
       <c r="A53" s="13">
         <v>178</v>
       </c>
@@ -20285,7 +20275,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="54" spans="1:12" ht="36" hidden="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:12" ht="36" x14ac:dyDescent="0.25">
       <c r="A54" s="12">
         <v>47</v>
       </c>
@@ -20323,7 +20313,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="55" spans="1:12" ht="36" hidden="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:12" ht="36" x14ac:dyDescent="0.25">
       <c r="A55" s="12">
         <v>145</v>
       </c>
@@ -20361,7 +20351,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="56" spans="1:12" ht="36" hidden="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:12" ht="36" x14ac:dyDescent="0.25">
       <c r="A56" s="12">
         <v>29</v>
       </c>
@@ -20399,7 +20389,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="57" spans="1:12" ht="36" hidden="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:12" ht="36" x14ac:dyDescent="0.25">
       <c r="A57" s="12">
         <v>15</v>
       </c>
@@ -20437,7 +20427,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="58" spans="1:12" ht="36" hidden="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:12" ht="36" x14ac:dyDescent="0.25">
       <c r="A58" s="12">
         <v>143</v>
       </c>
@@ -20475,7 +20465,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="59" spans="1:12" ht="36" hidden="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:12" ht="36" x14ac:dyDescent="0.25">
       <c r="A59" s="12">
         <v>64</v>
       </c>
@@ -20513,7 +20503,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="60" spans="1:12" ht="36" hidden="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:12" ht="36" x14ac:dyDescent="0.25">
       <c r="A60" s="13">
         <v>174</v>
       </c>
@@ -20552,7 +20542,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="61" spans="1:12" ht="36" hidden="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:12" ht="36" x14ac:dyDescent="0.25">
       <c r="A61" s="13">
         <v>205</v>
       </c>
@@ -20591,7 +20581,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="62" spans="1:12" ht="36" hidden="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:12" ht="36" x14ac:dyDescent="0.25">
       <c r="A62" s="12">
         <v>72</v>
       </c>
@@ -20629,7 +20619,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="63" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A63" s="12">
         <v>37</v>
       </c>
@@ -20667,7 +20657,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="64" spans="1:12" ht="36" hidden="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:12" ht="36" x14ac:dyDescent="0.25">
       <c r="A64" s="12">
         <v>16</v>
       </c>
@@ -20705,7 +20695,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="65" spans="1:12" ht="36" hidden="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:12" ht="36" x14ac:dyDescent="0.25">
       <c r="A65" s="12">
         <v>113</v>
       </c>
@@ -20742,7 +20732,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="66" spans="1:12" ht="36" hidden="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:12" ht="36" x14ac:dyDescent="0.25">
       <c r="A66" s="13">
         <v>162</v>
       </c>
@@ -20781,7 +20771,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="67" spans="1:12" ht="36" hidden="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:12" ht="36" x14ac:dyDescent="0.25">
       <c r="A67" s="12">
         <v>142</v>
       </c>
@@ -20819,7 +20809,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="68" spans="1:12" ht="36" hidden="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:12" ht="36" x14ac:dyDescent="0.25">
       <c r="A68" s="13">
         <v>173</v>
       </c>
@@ -20858,7 +20848,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="69" spans="1:12" ht="36" hidden="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:12" ht="36" x14ac:dyDescent="0.25">
       <c r="A69" s="12">
         <v>68</v>
       </c>
@@ -20896,7 +20886,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="70" spans="1:12" ht="36" hidden="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:12" ht="36" x14ac:dyDescent="0.25">
       <c r="A70" s="13">
         <v>166</v>
       </c>
@@ -20935,7 +20925,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="71" spans="1:12" ht="36" hidden="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:12" ht="36" x14ac:dyDescent="0.25">
       <c r="A71" s="12">
         <v>117</v>
       </c>
@@ -20973,7 +20963,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="72" spans="1:12" ht="36" hidden="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:12" ht="36" x14ac:dyDescent="0.25">
       <c r="A72" s="12">
         <v>26</v>
       </c>
@@ -21011,7 +21001,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="73" spans="1:12" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:12" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="12">
         <v>70</v>
       </c>
@@ -21049,7 +21039,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="74" spans="1:12" ht="36" hidden="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:12" ht="36" x14ac:dyDescent="0.25">
       <c r="A74" s="12">
         <v>73</v>
       </c>
@@ -21087,7 +21077,7 @@
         <v>518</v>
       </c>
     </row>
-    <row r="75" spans="1:12" ht="36" hidden="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:12" ht="36" x14ac:dyDescent="0.25">
       <c r="A75" s="12">
         <v>74</v>
       </c>
@@ -21125,7 +21115,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="76" spans="1:12" ht="36" hidden="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:12" ht="36" x14ac:dyDescent="0.25">
       <c r="A76" s="12">
         <v>75</v>
       </c>
@@ -21163,7 +21153,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="77" spans="1:12" ht="36" hidden="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:12" ht="36" x14ac:dyDescent="0.25">
       <c r="A77" s="12">
         <v>76</v>
       </c>
@@ -21201,7 +21191,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="78" spans="1:12" ht="36" hidden="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:12" ht="36" x14ac:dyDescent="0.25">
       <c r="A78" s="12">
         <v>77</v>
       </c>
@@ -21239,7 +21229,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="79" spans="1:12" ht="36" hidden="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:12" ht="36" x14ac:dyDescent="0.25">
       <c r="A79" s="12">
         <v>78</v>
       </c>
@@ -21277,7 +21267,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="80" spans="1:12" ht="36" hidden="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:12" ht="36" x14ac:dyDescent="0.25">
       <c r="A80" s="12">
         <v>79</v>
       </c>
@@ -21315,7 +21305,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="81" spans="1:12" ht="36" hidden="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:12" ht="36" x14ac:dyDescent="0.25">
       <c r="A81" s="12">
         <v>80</v>
       </c>
@@ -21353,7 +21343,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="82" spans="1:12" ht="36" hidden="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:12" ht="36" x14ac:dyDescent="0.25">
       <c r="A82" s="12">
         <v>81</v>
       </c>
@@ -21391,7 +21381,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="83" spans="1:12" ht="36" hidden="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:12" ht="36" x14ac:dyDescent="0.25">
       <c r="A83" s="12">
         <v>82</v>
       </c>
@@ -21429,7 +21419,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="84" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A84" s="12">
         <v>120</v>
       </c>
@@ -21467,7 +21457,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="85" spans="1:12" ht="36" hidden="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:12" ht="36" x14ac:dyDescent="0.25">
       <c r="A85" s="12">
         <v>114</v>
       </c>
@@ -21504,7 +21494,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="86" spans="1:12" ht="36" hidden="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:12" ht="36" x14ac:dyDescent="0.25">
       <c r="A86" s="12">
         <v>85</v>
       </c>
@@ -21542,7 +21532,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="87" spans="1:12" ht="36" hidden="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:12" ht="36" x14ac:dyDescent="0.25">
       <c r="A87" s="12">
         <v>86</v>
       </c>
@@ -21580,7 +21570,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="88" spans="1:12" ht="36" hidden="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:12" ht="36" x14ac:dyDescent="0.25">
       <c r="A88" s="12">
         <v>87</v>
       </c>
@@ -21618,7 +21608,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="89" spans="1:12" ht="36" hidden="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:12" ht="36" x14ac:dyDescent="0.25">
       <c r="A89" s="12">
         <v>88</v>
       </c>
@@ -21656,7 +21646,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="90" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A90" s="12">
         <v>89</v>
       </c>
@@ -21694,7 +21684,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="91" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A91" s="12">
         <v>90</v>
       </c>
@@ -21732,7 +21722,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="92" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A92" s="12">
         <v>91</v>
       </c>
@@ -21770,7 +21760,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="93" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A93" s="12">
         <v>92</v>
       </c>
@@ -21807,7 +21797,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="94" spans="1:12" ht="36" hidden="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:12" ht="36" x14ac:dyDescent="0.25">
       <c r="A94" s="12">
         <v>33</v>
       </c>
@@ -21845,7 +21835,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="95" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A95" s="12">
         <v>94</v>
       </c>
@@ -21883,7 +21873,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="96" spans="1:12" ht="20.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A96" s="12">
         <v>95</v>
       </c>
@@ -21921,7 +21911,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="97" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A97" s="12">
         <v>96</v>
       </c>
@@ -21959,7 +21949,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="98" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A98" s="12">
         <v>97</v>
       </c>
@@ -21996,7 +21986,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="99" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A99" s="12">
         <v>98</v>
       </c>
@@ -22034,7 +22024,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="100" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A100" s="12">
         <v>99</v>
       </c>
@@ -22071,7 +22061,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="101" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A101" s="12">
         <v>100</v>
       </c>
@@ -22108,7 +22098,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="102" spans="1:12" ht="36" hidden="1" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:12" ht="36" x14ac:dyDescent="0.25">
       <c r="A102" s="12">
         <v>32</v>
       </c>
@@ -22146,7 +22136,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="103" spans="1:12" ht="36" hidden="1" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:12" ht="36" x14ac:dyDescent="0.25">
       <c r="A103" s="12">
         <v>19</v>
       </c>
@@ -22184,7 +22174,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="104" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A104" s="12">
         <v>103</v>
       </c>
@@ -22222,7 +22212,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="105" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A105" s="12">
         <v>104</v>
       </c>
@@ -22260,7 +22250,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="106" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:12" ht="36" x14ac:dyDescent="0.25">
       <c r="A106" s="12">
         <v>84</v>
       </c>
@@ -22298,7 +22288,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="107" spans="1:12" ht="36" hidden="1" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:12" ht="36" x14ac:dyDescent="0.25">
       <c r="A107" s="12">
         <v>106</v>
       </c>
@@ -22336,7 +22326,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="108" spans="1:12" ht="36" hidden="1" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:12" ht="36" x14ac:dyDescent="0.25">
       <c r="A108" s="12">
         <v>107</v>
       </c>
@@ -22374,7 +22364,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="109" spans="1:12" ht="36" hidden="1" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:12" ht="36" x14ac:dyDescent="0.25">
       <c r="A109" s="12">
         <v>108</v>
       </c>
@@ -22412,7 +22402,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="110" spans="1:12" ht="36" hidden="1" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:12" ht="36" x14ac:dyDescent="0.25">
       <c r="A110" s="12">
         <v>109</v>
       </c>
@@ -22449,7 +22439,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="111" spans="1:12" ht="36" hidden="1" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:12" ht="36" x14ac:dyDescent="0.25">
       <c r="A111" s="12">
         <v>110</v>
       </c>
@@ -22486,7 +22476,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="112" spans="1:12" ht="36" hidden="1" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:12" ht="36" x14ac:dyDescent="0.25">
       <c r="A112" s="12">
         <v>111</v>
       </c>
@@ -22523,7 +22513,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="113" spans="1:12" ht="36" hidden="1" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:12" ht="36" x14ac:dyDescent="0.25">
       <c r="A113" s="12">
         <v>124</v>
       </c>
@@ -22561,7 +22551,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="114" spans="1:12" ht="36" hidden="1" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:12" ht="36" x14ac:dyDescent="0.25">
       <c r="A114" s="13">
         <v>197</v>
       </c>
@@ -22600,7 +22590,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="115" spans="1:12" ht="36" hidden="1" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:12" ht="36" x14ac:dyDescent="0.25">
       <c r="A115" s="13">
         <v>176</v>
       </c>
@@ -22639,7 +22629,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="116" spans="1:12" ht="36" hidden="1" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:12" ht="36" x14ac:dyDescent="0.25">
       <c r="A116" s="12">
         <v>137</v>
       </c>
@@ -22677,7 +22667,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="117" spans="1:12" ht="36" hidden="1" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:12" ht="36" x14ac:dyDescent="0.25">
       <c r="A117" s="12">
         <v>27</v>
       </c>
@@ -22715,7 +22705,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="118" spans="1:12" ht="36" hidden="1" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:12" ht="36" x14ac:dyDescent="0.25">
       <c r="A118" s="12">
         <v>146</v>
       </c>
@@ -22753,7 +22743,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="119" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A119" s="12">
         <v>141</v>
       </c>
@@ -22791,7 +22781,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="120" spans="1:12" ht="36" hidden="1" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:12" ht="36" x14ac:dyDescent="0.25">
       <c r="A120" s="13">
         <v>186</v>
       </c>
@@ -22830,7 +22820,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="121" spans="1:12" ht="36" hidden="1" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:12" ht="36" x14ac:dyDescent="0.25">
       <c r="A121" s="12">
         <v>23</v>
       </c>
@@ -22868,7 +22858,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="122" spans="1:12" ht="36" hidden="1" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:12" ht="36" x14ac:dyDescent="0.25">
       <c r="A122" s="12">
         <v>61</v>
       </c>
@@ -22906,7 +22896,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="123" spans="1:12" ht="36" hidden="1" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:12" ht="36" x14ac:dyDescent="0.25">
       <c r="A123" s="12">
         <v>119</v>
       </c>
@@ -22944,7 +22934,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="124" spans="1:12" ht="36" hidden="1" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:12" ht="36" x14ac:dyDescent="0.25">
       <c r="A124" s="13">
         <v>177</v>
       </c>
@@ -22983,7 +22973,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="125" spans="1:12" ht="36" hidden="1" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:12" ht="36" x14ac:dyDescent="0.25">
       <c r="A125" s="12">
         <v>28</v>
       </c>
@@ -23021,7 +23011,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="126" spans="1:12" ht="36" hidden="1" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:12" ht="36" x14ac:dyDescent="0.25">
       <c r="A126" s="12">
         <v>125</v>
       </c>
@@ -23059,7 +23049,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="127" spans="1:12" ht="36" hidden="1" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:12" ht="36" x14ac:dyDescent="0.25">
       <c r="A127" s="12">
         <v>126</v>
       </c>
@@ -23096,7 +23086,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="128" spans="1:12" ht="36" hidden="1" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:12" ht="36" x14ac:dyDescent="0.25">
       <c r="A128" s="12">
         <v>127</v>
       </c>
@@ -23134,7 +23124,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="129" spans="1:12" ht="36" hidden="1" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:12" ht="36" x14ac:dyDescent="0.25">
       <c r="A129" s="12">
         <v>128</v>
       </c>
@@ -23171,7 +23161,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="130" spans="1:12" ht="36" hidden="1" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:12" ht="36" x14ac:dyDescent="0.25">
       <c r="A130" s="12">
         <v>53</v>
       </c>
@@ -23209,7 +23199,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="131" spans="1:12" ht="36" hidden="1" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:12" ht="36" x14ac:dyDescent="0.25">
       <c r="A131" s="12">
         <v>30</v>
       </c>
@@ -23247,7 +23237,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="132" spans="1:12" ht="36" hidden="1" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:12" ht="36" x14ac:dyDescent="0.25">
       <c r="A132" s="12">
         <v>131</v>
       </c>
@@ -23285,7 +23275,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="133" spans="1:12" ht="36" hidden="1" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:12" ht="36" x14ac:dyDescent="0.25">
       <c r="A133" s="12">
         <v>132</v>
       </c>
@@ -23323,7 +23313,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="134" spans="1:12" ht="36" hidden="1" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:12" ht="36" x14ac:dyDescent="0.25">
       <c r="A134" s="12">
         <v>133</v>
       </c>
@@ -23361,7 +23351,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="135" spans="1:12" ht="36" hidden="1" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:12" ht="36" x14ac:dyDescent="0.25">
       <c r="A135" s="12">
         <v>134</v>
       </c>
@@ -23399,7 +23389,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="136" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A136" s="12">
         <v>135</v>
       </c>
@@ -23436,7 +23426,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="137" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A137" s="12">
         <v>136</v>
       </c>
@@ -23473,7 +23463,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="138" spans="1:12" ht="36" hidden="1" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:12" ht="36" x14ac:dyDescent="0.25">
       <c r="A138" s="12">
         <v>17</v>
       </c>
@@ -23511,7 +23501,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="139" spans="1:12" ht="36" hidden="1" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:12" ht="36" x14ac:dyDescent="0.25">
       <c r="A139" s="12">
         <v>148</v>
       </c>
@@ -23549,7 +23539,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="140" spans="1:12" ht="36" hidden="1" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:12" ht="36" x14ac:dyDescent="0.25">
       <c r="A140" s="12">
         <v>34</v>
       </c>
@@ -23587,7 +23577,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="141" spans="1:12" ht="36" hidden="1" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:12" ht="36" x14ac:dyDescent="0.25">
       <c r="A141" s="12">
         <v>129</v>
       </c>
@@ -23625,7 +23615,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="142" spans="1:12" ht="36" hidden="1" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:12" ht="36" x14ac:dyDescent="0.25">
       <c r="A142" s="13">
         <v>165</v>
       </c>
@@ -23664,7 +23654,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="143" spans="1:12" ht="36" hidden="1" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:12" ht="36" x14ac:dyDescent="0.25">
       <c r="A143" s="12">
         <v>50</v>
       </c>
@@ -23702,7 +23692,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="144" spans="1:12" ht="36" hidden="1" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:12" ht="36" x14ac:dyDescent="0.25">
       <c r="A144" s="12">
         <v>42</v>
       </c>
@@ -23740,7 +23730,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="145" spans="1:12" ht="36" hidden="1" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:12" ht="36" x14ac:dyDescent="0.25">
       <c r="A145" s="12">
         <v>51</v>
       </c>
@@ -23778,7 +23768,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="146" spans="1:12" ht="36" hidden="1" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:12" ht="36" x14ac:dyDescent="0.25">
       <c r="A146" s="12">
         <v>20</v>
       </c>
@@ -23816,7 +23806,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="147" spans="1:12" ht="36" hidden="1" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:12" ht="36" x14ac:dyDescent="0.25">
       <c r="A147" s="12">
         <v>39</v>
       </c>
@@ -23854,7 +23844,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="148" spans="1:12" ht="36" hidden="1" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:12" ht="36" x14ac:dyDescent="0.25">
       <c r="A148" s="12">
         <v>44</v>
       </c>
@@ -23892,7 +23882,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="149" spans="1:12" ht="36" hidden="1" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:12" ht="36" x14ac:dyDescent="0.25">
       <c r="A149" s="12">
         <v>140</v>
       </c>
@@ -23929,7 +23919,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="150" spans="1:12" ht="36" hidden="1" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:12" ht="36" x14ac:dyDescent="0.25">
       <c r="A150" s="12">
         <v>149</v>
       </c>
@@ -23958,13 +23948,16 @@
       <c r="J150" s="10">
         <v>3</v>
       </c>
-      <c r="K150" s="10"/>
+      <c r="K150" s="10">
+        <f>6000+3000+1500</f>
+        <v>10500</v>
+      </c>
       <c r="L150" s="10">
         <f>Table1[[#This Row],[تعداد دانلود]]+Table1[[#This Row],[تعداد تماشا ]]</f>
         <v>53</v>
       </c>
     </row>
-    <row r="151" spans="1:12" ht="36" hidden="1" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:12" ht="36" x14ac:dyDescent="0.25">
       <c r="A151" s="12">
         <v>150</v>
       </c>
@@ -23993,13 +23986,15 @@
       <c r="J151" s="10">
         <v>0</v>
       </c>
-      <c r="K151" s="10"/>
+      <c r="K151" s="10">
+        <v>3000</v>
+      </c>
       <c r="L151" s="10">
         <f>Table1[[#This Row],[تعداد دانلود]]+Table1[[#This Row],[تعداد تماشا ]]</f>
         <v>7</v>
       </c>
     </row>
-    <row r="152" spans="1:12" ht="36" hidden="1" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:12" ht="36" x14ac:dyDescent="0.25">
       <c r="A152" s="12">
         <v>151</v>
       </c>
@@ -24028,13 +24023,15 @@
       <c r="J152" s="10">
         <v>0</v>
       </c>
-      <c r="K152" s="10"/>
+      <c r="K152" s="10">
+        <v>1500</v>
+      </c>
       <c r="L152" s="10">
         <f>Table1[[#This Row],[تعداد دانلود]]+Table1[[#This Row],[تعداد تماشا ]]</f>
         <v>3</v>
       </c>
     </row>
-    <row r="153" spans="1:12" ht="36" hidden="1" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:12" ht="36" x14ac:dyDescent="0.25">
       <c r="A153" s="12">
         <v>152</v>
       </c>
@@ -24063,13 +24060,15 @@
       <c r="J153" s="10">
         <v>0</v>
       </c>
-      <c r="K153" s="10"/>
+      <c r="K153" s="10">
+        <v>0</v>
+      </c>
       <c r="L153" s="10">
         <f>Table1[[#This Row],[تعداد دانلود]]+Table1[[#This Row],[تعداد تماشا ]]</f>
         <v>3</v>
       </c>
     </row>
-    <row r="154" spans="1:12" ht="36" hidden="1" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:12" ht="36" x14ac:dyDescent="0.25">
       <c r="A154" s="12">
         <v>153</v>
       </c>
@@ -24098,13 +24097,15 @@
       <c r="J154" s="10">
         <v>0</v>
       </c>
-      <c r="K154" s="10"/>
+      <c r="K154" s="10">
+        <v>0</v>
+      </c>
       <c r="L154" s="10">
         <f>Table1[[#This Row],[تعداد دانلود]]+Table1[[#This Row],[تعداد تماشا ]]</f>
         <v>0</v>
       </c>
     </row>
-    <row r="155" spans="1:12" ht="36" hidden="1" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:12" ht="36" x14ac:dyDescent="0.25">
       <c r="A155" s="12">
         <v>154</v>
       </c>
@@ -24133,13 +24134,15 @@
       <c r="J155" s="10">
         <v>0</v>
       </c>
-      <c r="K155" s="10"/>
+      <c r="K155" s="10">
+        <v>0</v>
+      </c>
       <c r="L155" s="10">
         <f>Table1[[#This Row],[تعداد دانلود]]+Table1[[#This Row],[تعداد تماشا ]]</f>
         <v>1</v>
       </c>
     </row>
-    <row r="156" spans="1:12" ht="36" hidden="1" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:12" ht="36" x14ac:dyDescent="0.25">
       <c r="A156" s="12">
         <v>155</v>
       </c>
@@ -24168,13 +24171,15 @@
       <c r="J156" s="10">
         <v>0</v>
       </c>
-      <c r="K156" s="10"/>
+      <c r="K156" s="10">
+        <v>0</v>
+      </c>
       <c r="L156" s="10">
         <f>Table1[[#This Row],[تعداد دانلود]]+Table1[[#This Row],[تعداد تماشا ]]</f>
         <v>0</v>
       </c>
     </row>
-    <row r="157" spans="1:12" ht="36" hidden="1" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:12" ht="36" x14ac:dyDescent="0.25">
       <c r="A157" s="12">
         <v>156</v>
       </c>
@@ -24203,13 +24208,15 @@
       <c r="J157" s="10">
         <v>0</v>
       </c>
-      <c r="K157" s="10"/>
+      <c r="K157" s="10">
+        <v>0</v>
+      </c>
       <c r="L157" s="10">
         <f>Table1[[#This Row],[تعداد دانلود]]+Table1[[#This Row],[تعداد تماشا ]]</f>
         <v>1</v>
       </c>
     </row>
-    <row r="158" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A158" s="12">
         <v>157</v>
       </c>
@@ -24238,13 +24245,15 @@
       <c r="J158" s="10">
         <v>14</v>
       </c>
-      <c r="K158" s="10"/>
+      <c r="K158" s="10">
+        <v>16500</v>
+      </c>
       <c r="L158" s="10">
         <f>Table1[[#This Row],[تعداد دانلود]]+Table1[[#This Row],[تعداد تماشا ]]</f>
         <v>50</v>
       </c>
     </row>
-    <row r="159" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A159" s="12">
         <v>158</v>
       </c>
@@ -24273,13 +24282,15 @@
       <c r="J159" s="10">
         <v>7</v>
       </c>
-      <c r="K159" s="10"/>
+      <c r="K159" s="10">
+        <v>15000</v>
+      </c>
       <c r="L159" s="10">
         <f>Table1[[#This Row],[تعداد دانلود]]+Table1[[#This Row],[تعداد تماشا ]]</f>
         <v>26</v>
       </c>
     </row>
-    <row r="160" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A160" s="12">
         <v>159</v>
       </c>
@@ -24308,13 +24319,15 @@
       <c r="J160" s="10">
         <v>7</v>
       </c>
-      <c r="K160" s="10"/>
+      <c r="K160" s="10">
+        <v>16500</v>
+      </c>
       <c r="L160" s="10">
         <f>Table1[[#This Row],[تعداد دانلود]]+Table1[[#This Row],[تعداد تماشا ]]</f>
         <v>31</v>
       </c>
     </row>
-    <row r="161" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A161" s="12">
         <v>160</v>
       </c>
@@ -24343,13 +24356,15 @@
       <c r="J161" s="10">
         <v>6</v>
       </c>
-      <c r="K161" s="10"/>
+      <c r="K161" s="10">
+        <v>15000</v>
+      </c>
       <c r="L161" s="10">
         <f>Table1[[#This Row],[تعداد دانلود]]+Table1[[#This Row],[تعداد تماشا ]]</f>
         <v>40</v>
       </c>
     </row>
-    <row r="162" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A162" s="12">
         <v>161</v>
       </c>
@@ -24378,13 +24393,15 @@
       <c r="J162" s="10">
         <v>8</v>
       </c>
-      <c r="K162" s="10"/>
+      <c r="K162" s="10">
+        <v>7500</v>
+      </c>
       <c r="L162" s="10">
         <f>Table1[[#This Row],[تعداد دانلود]]+Table1[[#This Row],[تعداد تماشا ]]</f>
         <v>26</v>
       </c>
     </row>
-    <row r="163" spans="1:12" ht="36" hidden="1" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:12" ht="36" x14ac:dyDescent="0.25">
       <c r="A163" s="13">
         <v>175</v>
       </c>
@@ -24423,7 +24440,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="164" spans="1:12" ht="36" hidden="1" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:12" ht="36" x14ac:dyDescent="0.25">
       <c r="A164" s="12">
         <v>41</v>
       </c>
@@ -24461,7 +24478,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="165" spans="1:12" ht="36" hidden="1" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:12" ht="36" x14ac:dyDescent="0.25">
       <c r="A165" s="12">
         <v>57</v>
       </c>
@@ -24499,7 +24516,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="166" spans="1:12" ht="36" hidden="1" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:12" ht="36" x14ac:dyDescent="0.25">
       <c r="A166" s="13">
         <v>185</v>
       </c>
@@ -24538,7 +24555,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="167" spans="1:12" ht="36" hidden="1" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:12" ht="36" x14ac:dyDescent="0.25">
       <c r="A167" s="13">
         <v>199</v>
       </c>
@@ -24577,7 +24594,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="168" spans="1:12" ht="36" hidden="1" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:12" ht="36" x14ac:dyDescent="0.25">
       <c r="A168" s="12">
         <v>14</v>
       </c>
@@ -24615,7 +24632,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="169" spans="1:12" ht="36" hidden="1" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:12" ht="36" x14ac:dyDescent="0.25">
       <c r="A169" s="12">
         <v>65</v>
       </c>
@@ -24653,7 +24670,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="170" spans="1:12" ht="36" hidden="1" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:12" ht="36" x14ac:dyDescent="0.25">
       <c r="A170" s="12">
         <v>58</v>
       </c>
@@ -24691,7 +24708,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="171" spans="1:12" ht="36" hidden="1" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:12" ht="36" x14ac:dyDescent="0.25">
       <c r="A171" s="12">
         <v>130</v>
       </c>
@@ -24729,7 +24746,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="172" spans="1:12" ht="36" hidden="1" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:12" ht="36" x14ac:dyDescent="0.25">
       <c r="A172" s="12">
         <v>147</v>
       </c>
@@ -24767,7 +24784,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="173" spans="1:12" ht="36" hidden="1" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:12" ht="36" x14ac:dyDescent="0.25">
       <c r="A173" s="12">
         <v>139</v>
       </c>
@@ -24804,7 +24821,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="174" spans="1:12" ht="36" hidden="1" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:12" ht="36" x14ac:dyDescent="0.25">
       <c r="A174" s="12">
         <v>121</v>
       </c>
@@ -24842,7 +24859,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="175" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A175" s="12">
         <v>101</v>
       </c>
@@ -24879,7 +24896,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="176" spans="1:12" ht="36" hidden="1" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:12" ht="36" x14ac:dyDescent="0.25">
       <c r="A176" s="12">
         <v>45</v>
       </c>
@@ -24917,7 +24934,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="177" spans="1:12" ht="36" hidden="1" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:12" ht="36" x14ac:dyDescent="0.25">
       <c r="A177" s="12">
         <v>60</v>
       </c>
@@ -24955,7 +24972,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="178" spans="1:12" ht="36" hidden="1" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:12" ht="36" x14ac:dyDescent="0.25">
       <c r="A178" s="12">
         <v>69</v>
       </c>
@@ -24993,7 +25010,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="179" spans="1:12" ht="36" hidden="1" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:12" ht="36" x14ac:dyDescent="0.25">
       <c r="A179" s="12">
         <v>56</v>
       </c>
@@ -25031,7 +25048,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="180" spans="1:12" ht="36" hidden="1" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:12" ht="36" x14ac:dyDescent="0.25">
       <c r="A180" s="13">
         <v>179</v>
       </c>
@@ -25062,13 +25079,15 @@
       <c r="J180" s="11">
         <v>9</v>
       </c>
-      <c r="K180" s="11"/>
+      <c r="K180" s="11">
+        <v>29000</v>
+      </c>
       <c r="L180" s="10">
         <f>Table1[[#This Row],[تعداد دانلود]]+Table1[[#This Row],[تعداد تماشا ]]</f>
         <v>26</v>
       </c>
     </row>
-    <row r="181" spans="1:12" ht="36" hidden="1" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:12" ht="36" x14ac:dyDescent="0.25">
       <c r="A181" s="13">
         <v>180</v>
       </c>
@@ -25099,13 +25118,15 @@
       <c r="J181" s="11">
         <v>7</v>
       </c>
-      <c r="K181" s="11"/>
+      <c r="K181" s="11">
+        <v>25000</v>
+      </c>
       <c r="L181" s="10">
         <f>Table1[[#This Row],[تعداد دانلود]]+Table1[[#This Row],[تعداد تماشا ]]</f>
         <v>8</v>
       </c>
     </row>
-    <row r="182" spans="1:12" ht="36" hidden="1" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:12" ht="36" x14ac:dyDescent="0.25">
       <c r="A182" s="13">
         <v>181</v>
       </c>
@@ -25136,13 +25157,15 @@
       <c r="J182" s="11">
         <v>7</v>
       </c>
-      <c r="K182" s="11"/>
+      <c r="K182" s="11">
+        <v>25000</v>
+      </c>
       <c r="L182" s="10">
         <f>Table1[[#This Row],[تعداد دانلود]]+Table1[[#This Row],[تعداد تماشا ]]</f>
         <v>9</v>
       </c>
     </row>
-    <row r="183" spans="1:12" ht="36" hidden="1" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:12" ht="36" x14ac:dyDescent="0.25">
       <c r="A183" s="12">
         <v>123</v>
       </c>
@@ -25180,7 +25203,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="184" spans="1:12" ht="36" hidden="1" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:12" ht="36" x14ac:dyDescent="0.25">
       <c r="A184" s="12">
         <v>66</v>
       </c>
@@ -25218,7 +25241,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="185" spans="1:12" ht="36" hidden="1" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:12" ht="36" x14ac:dyDescent="0.25">
       <c r="A185" s="12">
         <v>49</v>
       </c>
@@ -25256,7 +25279,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="186" spans="1:12" ht="36" hidden="1" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:12" ht="36" x14ac:dyDescent="0.25">
       <c r="A186" s="12">
         <v>48</v>
       </c>
@@ -25294,7 +25317,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="187" spans="1:12" ht="36" hidden="1" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:12" ht="36" x14ac:dyDescent="0.25">
       <c r="A187" s="12">
         <v>63</v>
       </c>
@@ -25332,7 +25355,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="188" spans="1:12" ht="36" hidden="1" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:12" ht="54" x14ac:dyDescent="0.25">
       <c r="A188" s="13">
         <v>191</v>
       </c>
@@ -25363,13 +25386,15 @@
       <c r="J188" s="11">
         <v>59</v>
       </c>
-      <c r="K188" s="11"/>
+      <c r="K188" s="11" t="s">
+        <v>805</v>
+      </c>
       <c r="L188" s="10">
         <f>Table1[[#This Row],[تعداد دانلود]]+Table1[[#This Row],[تعداد تماشا ]]</f>
         <v>127</v>
       </c>
     </row>
-    <row r="189" spans="1:12" ht="36" hidden="1" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:12" ht="54" x14ac:dyDescent="0.25">
       <c r="A189" s="13">
         <v>192</v>
       </c>
@@ -25400,13 +25425,15 @@
       <c r="J189" s="11">
         <v>31</v>
       </c>
-      <c r="K189" s="11"/>
+      <c r="K189" s="11" t="s">
+        <v>805</v>
+      </c>
       <c r="L189" s="10">
         <f>Table1[[#This Row],[تعداد دانلود]]+Table1[[#This Row],[تعداد تماشا ]]</f>
         <v>36</v>
       </c>
     </row>
-    <row r="190" spans="1:12" ht="36" hidden="1" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:12" ht="54" x14ac:dyDescent="0.25">
       <c r="A190" s="13">
         <v>193</v>
       </c>
@@ -25435,13 +25462,15 @@
       <c r="J190" s="11">
         <v>25</v>
       </c>
-      <c r="K190" s="11"/>
+      <c r="K190" s="11">
+        <v>0</v>
+      </c>
       <c r="L190" s="10">
         <f>Table1[[#This Row],[تعداد دانلود]]+Table1[[#This Row],[تعداد تماشا ]]</f>
         <v>26</v>
       </c>
     </row>
-    <row r="191" spans="1:12" ht="36" hidden="1" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:12" ht="54" x14ac:dyDescent="0.25">
       <c r="A191" s="13">
         <v>194</v>
       </c>
@@ -25470,13 +25499,15 @@
       <c r="J191" s="11">
         <v>23</v>
       </c>
-      <c r="K191" s="11"/>
+      <c r="K191" s="11">
+        <v>0</v>
+      </c>
       <c r="L191" s="10">
         <f>Table1[[#This Row],[تعداد دانلود]]+Table1[[#This Row],[تعداد تماشا ]]</f>
         <v>26</v>
       </c>
     </row>
-    <row r="192" spans="1:12" ht="36" hidden="1" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:12" ht="54" x14ac:dyDescent="0.25">
       <c r="A192" s="13">
         <v>195</v>
       </c>
@@ -25505,13 +25536,15 @@
       <c r="J192" s="11">
         <v>21</v>
       </c>
-      <c r="K192" s="11"/>
+      <c r="K192" s="11">
+        <v>0</v>
+      </c>
       <c r="L192" s="10">
         <f>Table1[[#This Row],[تعداد دانلود]]+Table1[[#This Row],[تعداد تماشا ]]</f>
         <v>28</v>
       </c>
     </row>
-    <row r="193" spans="1:12" ht="36" hidden="1" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:12" ht="36" x14ac:dyDescent="0.25">
       <c r="A193" s="12">
         <v>144</v>
       </c>
@@ -25549,7 +25582,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="194" spans="1:12" ht="36" hidden="1" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:12" ht="36" x14ac:dyDescent="0.25">
       <c r="A194" s="13">
         <v>200</v>
       </c>
@@ -25588,7 +25621,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="195" spans="1:12" ht="36" hidden="1" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:12" ht="36" x14ac:dyDescent="0.25">
       <c r="A195" s="12">
         <v>138</v>
       </c>
@@ -25626,7 +25659,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="196" spans="1:12" ht="36" hidden="1" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:12" ht="36" x14ac:dyDescent="0.25">
       <c r="A196" s="12">
         <v>118</v>
       </c>
@@ -25664,7 +25697,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="197" spans="1:12" ht="36" hidden="1" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:12" ht="36" x14ac:dyDescent="0.25">
       <c r="A197" s="12">
         <v>112</v>
       </c>
@@ -25701,7 +25734,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="198" spans="1:12" ht="36" hidden="1" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:12" ht="36" x14ac:dyDescent="0.25">
       <c r="A198" s="12">
         <v>122</v>
       </c>
@@ -25739,7 +25772,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="199" spans="1:12" ht="36" hidden="1" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:12" ht="36" x14ac:dyDescent="0.25">
       <c r="A199" s="12">
         <v>46</v>
       </c>
@@ -25777,7 +25810,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="200" spans="1:12" ht="36" hidden="1" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:12" ht="36" x14ac:dyDescent="0.25">
       <c r="A200" s="12">
         <v>43</v>
       </c>
@@ -25815,7 +25848,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="201" spans="1:12" ht="36" hidden="1" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:12" ht="36" x14ac:dyDescent="0.25">
       <c r="A201" s="12">
         <v>18</v>
       </c>
@@ -25853,7 +25886,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="202" spans="1:12" ht="36" hidden="1" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:12" ht="36" x14ac:dyDescent="0.25">
       <c r="A202" s="12">
         <v>25</v>
       </c>
@@ -25891,7 +25924,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="203" spans="1:12" ht="36" hidden="1" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:12" ht="36" x14ac:dyDescent="0.25">
       <c r="A203" s="12">
         <v>67</v>
       </c>
@@ -25929,7 +25962,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="204" spans="1:12" ht="36" hidden="1" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:12" ht="36" x14ac:dyDescent="0.25">
       <c r="A204" s="12">
         <v>115</v>
       </c>
@@ -25966,7 +25999,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="205" spans="1:12" ht="36" hidden="1" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:12" ht="36" x14ac:dyDescent="0.25">
       <c r="A205" s="13">
         <v>208</v>
       </c>
@@ -26036,13 +26069,15 @@
       <c r="J206" s="11">
         <v>35</v>
       </c>
-      <c r="K206" s="11"/>
+      <c r="K206" s="11">
+        <v>731000</v>
+      </c>
       <c r="L206" s="10">
         <f>Table1[[#This Row],[تعداد دانلود]]+Table1[[#This Row],[تعداد تماشا ]]</f>
         <v>237</v>
       </c>
     </row>
-    <row r="207" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A207" s="13">
         <v>210</v>
       </c>
@@ -26071,13 +26106,16 @@
       <c r="J207" s="11">
         <v>18</v>
       </c>
-      <c r="K207" s="11"/>
+      <c r="K207" s="11">
+        <f>24000+12000+12000</f>
+        <v>48000</v>
+      </c>
       <c r="L207" s="10">
         <f>Table1[[#This Row],[تعداد دانلود]]+Table1[[#This Row],[تعداد تماشا ]]</f>
         <v>100</v>
       </c>
     </row>
-    <row r="208" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A208" s="13">
         <v>211</v>
       </c>
@@ -26106,13 +26144,16 @@
       <c r="J208" s="11">
         <v>14</v>
       </c>
-      <c r="K208" s="11"/>
+      <c r="K208" s="11">
+        <f>23000+11000+4000</f>
+        <v>38000</v>
+      </c>
       <c r="L208" s="10">
         <f>Table1[[#This Row],[تعداد دانلود]]+Table1[[#This Row],[تعداد تماشا ]]</f>
         <v>62</v>
       </c>
     </row>
-    <row r="209" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A209" s="13">
         <v>212</v>
       </c>
@@ -26141,13 +26182,16 @@
       <c r="J209" s="11">
         <v>18</v>
       </c>
-      <c r="K209" s="11"/>
+      <c r="K209" s="11">
+        <f>24000+9000+13500</f>
+        <v>46500</v>
+      </c>
       <c r="L209" s="10">
         <f>Table1[[#This Row],[تعداد دانلود]]+Table1[[#This Row],[تعداد تماشا ]]</f>
         <v>81</v>
       </c>
     </row>
-    <row r="210" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A210" s="13">
         <v>213</v>
       </c>
@@ -26176,13 +26220,16 @@
       <c r="J210" s="11">
         <v>9</v>
       </c>
-      <c r="K210" s="11"/>
+      <c r="K210" s="11">
+        <f>12000+7500+1500</f>
+        <v>21000</v>
+      </c>
       <c r="L210" s="10">
         <f>Table1[[#This Row],[تعداد دانلود]]+Table1[[#This Row],[تعداد تماشا ]]</f>
         <v>57</v>
       </c>
     </row>
-    <row r="211" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A211" s="13">
         <v>214</v>
       </c>
@@ -26211,13 +26258,16 @@
       <c r="J211" s="11">
         <v>14</v>
       </c>
-      <c r="K211" s="11"/>
+      <c r="K211" s="11">
+        <f>16500+9000+6000</f>
+        <v>31500</v>
+      </c>
       <c r="L211" s="10">
         <f>Table1[[#This Row],[تعداد دانلود]]+Table1[[#This Row],[تعداد تماشا ]]</f>
         <v>55</v>
       </c>
     </row>
-    <row r="212" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A212" s="13">
         <v>215</v>
       </c>
@@ -26246,13 +26296,15 @@
       <c r="J212" s="11">
         <v>4</v>
       </c>
-      <c r="K212" s="11"/>
+      <c r="K212" s="11">
+        <v>7000</v>
+      </c>
       <c r="L212" s="10">
         <f>Table1[[#This Row],[تعداد دانلود]]+Table1[[#This Row],[تعداد تماشا ]]</f>
         <v>10</v>
       </c>
     </row>
-    <row r="213" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A213" s="13">
         <v>216</v>
       </c>
@@ -26281,13 +26333,16 @@
       <c r="J213" s="11">
         <v>22</v>
       </c>
-      <c r="K213" s="11"/>
+      <c r="K213" s="11">
+        <f>33000+7500+13500</f>
+        <v>54000</v>
+      </c>
       <c r="L213" s="10">
         <f>Table1[[#This Row],[تعداد دانلود]]+Table1[[#This Row],[تعداد تماشا ]]</f>
         <v>67</v>
       </c>
     </row>
-    <row r="214" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A214" s="13">
         <v>217</v>
       </c>
@@ -26316,13 +26371,15 @@
       <c r="J214" s="11">
         <v>11</v>
       </c>
-      <c r="K214" s="11"/>
+      <c r="K214" s="11">
+        <v>15000</v>
+      </c>
       <c r="L214" s="10">
         <f>Table1[[#This Row],[تعداد دانلود]]+Table1[[#This Row],[تعداد تماشا ]]</f>
         <v>27</v>
       </c>
     </row>
-    <row r="215" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A215" s="13">
         <v>218</v>
       </c>
@@ -26351,13 +26408,16 @@
       <c r="J215" s="11">
         <v>39</v>
       </c>
-      <c r="K215" s="11"/>
+      <c r="K215" s="11">
+        <f>54000+22500+34500</f>
+        <v>111000</v>
+      </c>
       <c r="L215" s="10">
         <f>Table1[[#This Row],[تعداد دانلود]]+Table1[[#This Row],[تعداد تماشا ]]</f>
         <v>198</v>
       </c>
     </row>
-    <row r="216" spans="1:12" ht="36" hidden="1" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:12" ht="36" x14ac:dyDescent="0.25">
       <c r="A216" s="13">
         <v>219</v>
       </c>
@@ -26386,13 +26446,16 @@
       <c r="J216" s="11">
         <v>35</v>
       </c>
-      <c r="K216" s="11"/>
+      <c r="K216" s="11">
+        <f>38500+35000</f>
+        <v>73500</v>
+      </c>
       <c r="L216" s="10">
         <f>Table1[[#This Row],[تعداد دانلود]]+Table1[[#This Row],[تعداد تماشا ]]</f>
         <v>175</v>
       </c>
     </row>
-    <row r="217" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A217" s="13">
         <v>220</v>
       </c>
@@ -26421,13 +26484,16 @@
       <c r="J217" s="11">
         <v>18</v>
       </c>
-      <c r="K217" s="11"/>
+      <c r="K217" s="11">
+        <f>5000+16000</f>
+        <v>21000</v>
+      </c>
       <c r="L217" s="10">
         <f>Table1[[#This Row],[تعداد دانلود]]+Table1[[#This Row],[تعداد تماشا ]]</f>
         <v>34</v>
       </c>
     </row>
-    <row r="218" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A218" s="13">
         <v>221</v>
       </c>
@@ -26456,13 +26522,16 @@
       <c r="J218" s="11">
         <v>11</v>
       </c>
-      <c r="K218" s="11"/>
+      <c r="K218" s="11">
+        <f>23000+7000+3000</f>
+        <v>33000</v>
+      </c>
       <c r="L218" s="10">
         <f>Table1[[#This Row],[تعداد دانلود]]+Table1[[#This Row],[تعداد تماشا ]]</f>
         <v>68</v>
       </c>
     </row>
-    <row r="219" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A219" s="13">
         <v>222</v>
       </c>
@@ -26491,13 +26560,16 @@
       <c r="J219" s="11">
         <v>19</v>
       </c>
-      <c r="K219" s="11"/>
+      <c r="K219" s="11">
+        <f>25000+17000</f>
+        <v>42000</v>
+      </c>
       <c r="L219" s="10">
         <f>Table1[[#This Row],[تعداد دانلود]]+Table1[[#This Row],[تعداد تماشا ]]</f>
         <v>102</v>
       </c>
     </row>
-    <row r="220" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A220" s="13">
         <v>223</v>
       </c>
@@ -26526,13 +26598,15 @@
       <c r="J220" s="11">
         <v>12</v>
       </c>
-      <c r="K220" s="11"/>
+      <c r="K220" s="11">
+        <v>17000</v>
+      </c>
       <c r="L220" s="10">
         <f>Table1[[#This Row],[تعداد دانلود]]+Table1[[#This Row],[تعداد تماشا ]]</f>
         <v>28</v>
       </c>
     </row>
-    <row r="221" spans="1:12" ht="36" hidden="1" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:12" ht="36" x14ac:dyDescent="0.25">
       <c r="A221" s="13">
         <v>224</v>
       </c>
@@ -26561,13 +26635,16 @@
       <c r="J221" s="11">
         <v>59</v>
       </c>
-      <c r="K221" s="11"/>
+      <c r="K221" s="11">
+        <f>12000+46000+24000</f>
+        <v>82000</v>
+      </c>
       <c r="L221" s="10">
         <f>Table1[[#This Row],[تعداد دانلود]]+Table1[[#This Row],[تعداد تماشا ]]</f>
         <v>190</v>
       </c>
     </row>
-    <row r="222" spans="1:12" ht="36" hidden="1" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:12" ht="36" x14ac:dyDescent="0.25">
       <c r="A222" s="13">
         <v>225</v>
       </c>
@@ -26596,13 +26673,16 @@
       <c r="J222" s="11">
         <v>230</v>
       </c>
-      <c r="K222" s="11"/>
+      <c r="K222" s="11">
+        <f>0</f>
+        <v>0</v>
+      </c>
       <c r="L222" s="10">
         <f>Table1[[#This Row],[تعداد دانلود]]+Table1[[#This Row],[تعداد تماشا ]]</f>
         <v>1907</v>
       </c>
     </row>
-    <row r="223" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A223" s="13">
         <v>226</v>
       </c>
@@ -26631,13 +26711,16 @@
       <c r="J223" s="11">
         <v>8</v>
       </c>
-      <c r="K223" s="11"/>
+      <c r="K223" s="11">
+        <f>16500+4500+1500</f>
+        <v>22500</v>
+      </c>
       <c r="L223" s="10">
         <f>Table1[[#This Row],[تعداد دانلود]]+Table1[[#This Row],[تعداد تماشا ]]</f>
         <v>37</v>
       </c>
     </row>
-    <row r="224" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A224" s="13">
         <v>227</v>
       </c>
@@ -26666,13 +26749,15 @@
       <c r="J224" s="11">
         <v>50</v>
       </c>
-      <c r="K224" s="11"/>
+      <c r="K224" s="11">
+        <v>0</v>
+      </c>
       <c r="L224" s="10">
         <f>Table1[[#This Row],[تعداد دانلود]]+Table1[[#This Row],[تعداد تماشا ]]</f>
         <v>238</v>
       </c>
     </row>
-    <row r="225" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A225" s="13">
         <v>228</v>
       </c>
@@ -26701,13 +26786,16 @@
       <c r="J225" s="11">
         <v>53</v>
       </c>
-      <c r="K225" s="11"/>
+      <c r="K225" s="11">
+        <f>105000+45000+12000</f>
+        <v>162000</v>
+      </c>
       <c r="L225" s="10">
         <f>Table1[[#This Row],[تعداد دانلود]]+Table1[[#This Row],[تعداد تماشا ]]</f>
         <v>364</v>
       </c>
     </row>
-    <row r="226" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A226" s="13"/>
       <c r="B226" s="13">
         <v>3809</v>
@@ -26734,13 +26822,16 @@
       <c r="J226" s="11">
         <v>18</v>
       </c>
-      <c r="K226" s="11"/>
+      <c r="K226" s="11">
+        <f>54000+10500+9000</f>
+        <v>73500</v>
+      </c>
       <c r="L226" s="10">
         <f>Table1[[#This Row],[تعداد دانلود]]+Table1[[#This Row],[تعداد تماشا ]]</f>
         <v>105</v>
       </c>
     </row>
-    <row r="227" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A227" s="13"/>
       <c r="B227" s="13">
         <v>3811</v>
@@ -26767,13 +26858,16 @@
       <c r="J227" s="11">
         <v>8</v>
       </c>
-      <c r="K227" s="11"/>
+      <c r="K227" s="11">
+        <f>37500+4500+7500</f>
+        <v>49500</v>
+      </c>
       <c r="L227" s="10">
         <f>Table1[[#This Row],[تعداد دانلود]]+Table1[[#This Row],[تعداد تماشا ]]</f>
         <v>69</v>
       </c>
     </row>
-    <row r="228" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A228" s="13"/>
       <c r="B228" s="13">
         <v>3806</v>
@@ -26800,13 +26894,16 @@
       <c r="J228" s="11">
         <v>7</v>
       </c>
-      <c r="K228" s="11"/>
+      <c r="K228" s="11">
+        <f>33000+4500+4500</f>
+        <v>42000</v>
+      </c>
       <c r="L228" s="10">
         <f>Table1[[#This Row],[تعداد دانلود]]+Table1[[#This Row],[تعداد تماشا ]]</f>
         <v>56</v>
       </c>
     </row>
-    <row r="229" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A229" s="13"/>
       <c r="B229" s="13">
         <v>3807</v>
@@ -26833,13 +26930,16 @@
       <c r="J229" s="11">
         <v>9</v>
       </c>
-      <c r="K229" s="11"/>
+      <c r="K229" s="11">
+        <f>33000+6000+4500</f>
+        <v>43500</v>
+      </c>
       <c r="L229" s="10">
         <f>Table1[[#This Row],[تعداد دانلود]]+Table1[[#This Row],[تعداد تماشا ]]</f>
         <v>74</v>
       </c>
     </row>
-    <row r="230" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A230" s="13"/>
       <c r="B230" s="13">
         <v>3808</v>
@@ -26866,13 +26966,16 @@
       <c r="J230" s="11">
         <v>10</v>
       </c>
-      <c r="K230" s="11"/>
+      <c r="K230" s="11">
+        <f>24000+6000+4500</f>
+        <v>34500</v>
+      </c>
       <c r="L230" s="10">
         <f>Table1[[#This Row],[تعداد دانلود]]+Table1[[#This Row],[تعداد تماشا ]]</f>
         <v>62</v>
       </c>
     </row>
-    <row r="231" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A231" s="13"/>
       <c r="B231" s="13">
         <v>3805</v>
@@ -26899,13 +27002,16 @@
       <c r="J231" s="11">
         <v>8</v>
       </c>
-      <c r="K231" s="11"/>
+      <c r="K231" s="11">
+        <f>28500+4500+3000</f>
+        <v>36000</v>
+      </c>
       <c r="L231" s="10">
         <f>Table1[[#This Row],[تعداد دانلود]]+Table1[[#This Row],[تعداد تماشا ]]</f>
         <v>50</v>
       </c>
     </row>
-    <row r="232" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A232" s="13"/>
       <c r="B232" s="13">
         <v>3810</v>
@@ -26932,13 +27038,16 @@
       <c r="J232" s="11">
         <v>7</v>
       </c>
-      <c r="K232" s="11"/>
+      <c r="K232" s="11">
+        <f>21000+7500</f>
+        <v>28500</v>
+      </c>
       <c r="L232" s="10">
         <f>Table1[[#This Row],[تعداد دانلود]]+Table1[[#This Row],[تعداد تماشا ]]</f>
         <v>47</v>
       </c>
     </row>
-    <row r="233" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A233" s="13"/>
       <c r="B233" s="13">
         <v>3812</v>
@@ -26965,13 +27074,16 @@
       <c r="J233" s="11">
         <v>9</v>
       </c>
-      <c r="K233" s="11"/>
+      <c r="K233" s="11">
+        <f>31500+7500</f>
+        <v>39000</v>
+      </c>
       <c r="L233" s="10">
         <f>Table1[[#This Row],[تعداد دانلود]]+Table1[[#This Row],[تعداد تماشا ]]</f>
         <v>51</v>
       </c>
     </row>
-    <row r="234" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A234" s="13"/>
       <c r="B234" s="13">
         <v>3815</v>
@@ -26998,13 +27110,16 @@
       <c r="J234" s="11">
         <v>7</v>
       </c>
-      <c r="K234" s="11"/>
+      <c r="K234" s="11">
+        <f>22500+7500</f>
+        <v>30000</v>
+      </c>
       <c r="L234" s="10">
         <f>Table1[[#This Row],[تعداد دانلود]]+Table1[[#This Row],[تعداد تماشا ]]</f>
         <v>45</v>
       </c>
     </row>
-    <row r="235" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A235" s="13"/>
       <c r="B235" s="13">
         <v>3814</v>
@@ -27031,13 +27146,16 @@
       <c r="J235" s="11">
         <v>8</v>
       </c>
-      <c r="K235" s="11"/>
+      <c r="K235" s="11">
+        <f>18000+6000</f>
+        <v>24000</v>
+      </c>
       <c r="L235" s="10">
         <f>Table1[[#This Row],[تعداد دانلود]]+Table1[[#This Row],[تعداد تماشا ]]</f>
         <v>42</v>
       </c>
     </row>
-    <row r="236" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A236" s="13"/>
       <c r="B236" s="13">
         <v>3816</v>
@@ -27064,13 +27182,16 @@
       <c r="J236" s="11">
         <v>8</v>
       </c>
-      <c r="K236" s="11"/>
+      <c r="K236" s="11">
+        <f>15000+9000</f>
+        <v>24000</v>
+      </c>
       <c r="L236" s="10">
         <f>Table1[[#This Row],[تعداد دانلود]]+Table1[[#This Row],[تعداد تماشا ]]</f>
         <v>39</v>
       </c>
     </row>
-    <row r="237" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A237" s="13"/>
       <c r="B237" s="13">
         <v>3813</v>
@@ -27097,13 +27218,15 @@
       <c r="J237" s="11">
         <v>9</v>
       </c>
-      <c r="K237" s="11"/>
+      <c r="K237" s="11">
+        <v>24000</v>
+      </c>
       <c r="L237" s="10">
         <f>Table1[[#This Row],[تعداد دانلود]]+Table1[[#This Row],[تعداد تماشا ]]</f>
         <v>55</v>
       </c>
     </row>
-    <row r="238" spans="1:12" ht="36" hidden="1" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:12" ht="36" x14ac:dyDescent="0.25">
       <c r="A238" s="13">
         <v>229</v>
       </c>
@@ -27132,13 +27255,16 @@
       <c r="J238" s="11">
         <v>70</v>
       </c>
-      <c r="K238" s="11"/>
+      <c r="K238" s="11">
+        <f>72000+81000+18000</f>
+        <v>171000</v>
+      </c>
       <c r="L238" s="10">
         <f>Table1[[#This Row],[تعداد دانلود]]+Table1[[#This Row],[تعداد تماشا ]]</f>
         <v>680</v>
       </c>
     </row>
-    <row r="239" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A239" s="13">
         <v>230</v>
       </c>
@@ -27167,13 +27293,16 @@
       <c r="J239" s="11">
         <v>10</v>
       </c>
-      <c r="K239" s="11"/>
+      <c r="K239" s="11">
+        <f>86000+14000</f>
+        <v>100000</v>
+      </c>
       <c r="L239" s="10">
         <f>Table1[[#This Row],[تعداد دانلود]]+Table1[[#This Row],[تعداد تماشا ]]</f>
         <v>129</v>
       </c>
     </row>
-    <row r="240" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A240" s="13"/>
       <c r="B240" s="13">
         <v>3881</v>
@@ -27200,13 +27329,15 @@
       <c r="J240" s="11">
         <v>5</v>
       </c>
-      <c r="K240" s="11"/>
+      <c r="K240" s="11">
+        <v>80000</v>
+      </c>
       <c r="L240" s="10">
         <f>Table1[[#This Row],[تعداد دانلود]]+Table1[[#This Row],[تعداد تماشا ]]</f>
         <v>128</v>
       </c>
     </row>
-    <row r="241" spans="1:12" ht="36" hidden="1" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:12" ht="36" x14ac:dyDescent="0.25">
       <c r="A241" s="13"/>
       <c r="B241" s="13">
         <v>3882</v>
@@ -27233,13 +27364,15 @@
       <c r="J241" s="11">
         <v>1</v>
       </c>
-      <c r="K241" s="11"/>
+      <c r="K241" s="11">
+        <v>62000</v>
+      </c>
       <c r="L241" s="10">
         <f>Table1[[#This Row],[تعداد دانلود]]+Table1[[#This Row],[تعداد تماشا ]]</f>
         <v>107</v>
       </c>
     </row>
-    <row r="242" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:12" ht="36" x14ac:dyDescent="0.25">
       <c r="A242" s="13"/>
       <c r="B242" s="13">
         <v>3883</v>
@@ -27266,13 +27399,16 @@
       <c r="J242" s="11">
         <v>1</v>
       </c>
-      <c r="K242" s="11"/>
+      <c r="K242" s="11">
+        <f>52000+2000</f>
+        <v>54000</v>
+      </c>
       <c r="L242" s="10">
         <f>Table1[[#This Row],[تعداد دانلود]]+Table1[[#This Row],[تعداد تماشا ]]</f>
         <v>78</v>
       </c>
     </row>
-    <row r="243" spans="1:12" ht="36" hidden="1" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:12" ht="36" x14ac:dyDescent="0.25">
       <c r="A243" s="13"/>
       <c r="B243" s="13">
         <v>3884</v>
@@ -27299,13 +27435,15 @@
       <c r="J243" s="11">
         <v>3</v>
       </c>
-      <c r="K243" s="11"/>
+      <c r="K243" s="11">
+        <v>62000</v>
+      </c>
       <c r="L243" s="10">
         <f>Table1[[#This Row],[تعداد دانلود]]+Table1[[#This Row],[تعداد تماشا ]]</f>
         <v>93</v>
       </c>
     </row>
-    <row r="244" spans="1:12" ht="36" hidden="1" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:12" ht="36" x14ac:dyDescent="0.25">
       <c r="A244" s="13"/>
       <c r="B244" s="13">
         <v>3885</v>
@@ -27332,13 +27470,15 @@
       <c r="J244" s="11">
         <v>2</v>
       </c>
-      <c r="K244" s="11"/>
+      <c r="K244" s="11">
+        <v>56000</v>
+      </c>
       <c r="L244" s="10">
         <f>Table1[[#This Row],[تعداد دانلود]]+Table1[[#This Row],[تعداد تماشا ]]</f>
         <v>85</v>
       </c>
     </row>
-    <row r="245" spans="1:12" ht="36" hidden="1" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:12" ht="36" x14ac:dyDescent="0.25">
       <c r="A245" s="13"/>
       <c r="B245" s="13">
         <v>3886</v>
@@ -27365,13 +27505,15 @@
       <c r="J245" s="11">
         <v>1</v>
       </c>
-      <c r="K245" s="11"/>
+      <c r="K245" s="11">
+        <v>62000</v>
+      </c>
       <c r="L245" s="10">
         <f>Table1[[#This Row],[تعداد دانلود]]+Table1[[#This Row],[تعداد تماشا ]]</f>
         <v>59</v>
       </c>
     </row>
-    <row r="246" spans="1:12" ht="36" hidden="1" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:12" ht="36" x14ac:dyDescent="0.25">
       <c r="A246" s="13"/>
       <c r="B246" s="13">
         <v>3887</v>
@@ -27398,13 +27540,15 @@
       <c r="J246" s="11">
         <v>2</v>
       </c>
-      <c r="K246" s="11"/>
+      <c r="K246" s="11">
+        <v>62000</v>
+      </c>
       <c r="L246" s="10">
         <f>Table1[[#This Row],[تعداد دانلود]]+Table1[[#This Row],[تعداد تماشا ]]</f>
         <v>97</v>
       </c>
     </row>
-    <row r="247" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A247" s="13">
         <v>231</v>
       </c>
@@ -27433,13 +27577,16 @@
       <c r="J247" s="11">
         <v>15</v>
       </c>
-      <c r="K247" s="11"/>
+      <c r="K247" s="11">
+        <f>22500+15000+1500</f>
+        <v>39000</v>
+      </c>
       <c r="L247" s="10">
         <f>Table1[[#This Row],[تعداد دانلود]]+Table1[[#This Row],[تعداد تماشا ]]</f>
         <v>66</v>
       </c>
     </row>
-    <row r="248" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A248" s="13"/>
       <c r="B248" s="13">
         <v>4205</v>
@@ -27466,13 +27613,16 @@
       <c r="J248" s="11">
         <v>15</v>
       </c>
-      <c r="K248" s="11"/>
+      <c r="K248" s="11">
+        <f>16500+16500+1500</f>
+        <v>34500</v>
+      </c>
       <c r="L248" s="10">
         <f>Table1[[#This Row],[تعداد دانلود]]+Table1[[#This Row],[تعداد تماشا ]]</f>
         <v>37</v>
       </c>
     </row>
-    <row r="249" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A249" s="13"/>
       <c r="B249" s="13">
         <v>4203</v>
@@ -27499,13 +27649,15 @@
       <c r="J249" s="11">
         <v>10</v>
       </c>
-      <c r="K249" s="11"/>
+      <c r="K249" s="11">
+        <v>21000</v>
+      </c>
       <c r="L249" s="10">
         <f>Table1[[#This Row],[تعداد دانلود]]+Table1[[#This Row],[تعداد تماشا ]]</f>
         <v>34</v>
       </c>
     </row>
-    <row r="250" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A250" s="13"/>
       <c r="B250" s="13">
         <v>4206</v>
@@ -27532,13 +27684,16 @@
       <c r="J250" s="11">
         <v>10</v>
       </c>
-      <c r="K250" s="11"/>
+      <c r="K250" s="11">
+        <f>10500+9000+1500</f>
+        <v>21000</v>
+      </c>
       <c r="L250" s="10">
         <f>Table1[[#This Row],[تعداد دانلود]]+Table1[[#This Row],[تعداد تماشا ]]</f>
         <v>27</v>
       </c>
     </row>
-    <row r="251" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A251" s="13"/>
       <c r="B251" s="13">
         <v>4204</v>
@@ -27565,13 +27720,16 @@
       <c r="J251" s="11">
         <v>5</v>
       </c>
-      <c r="K251" s="11"/>
+      <c r="K251" s="11">
+        <f>15000</f>
+        <v>15000</v>
+      </c>
       <c r="L251" s="10">
         <f>Table1[[#This Row],[تعداد دانلود]]+Table1[[#This Row],[تعداد تماشا ]]</f>
         <v>24</v>
       </c>
     </row>
-    <row r="252" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A252" s="13">
         <v>232</v>
       </c>
@@ -27600,13 +27758,16 @@
       <c r="J252" s="11">
         <v>15</v>
       </c>
-      <c r="K252" s="11"/>
+      <c r="K252" s="11">
+        <f>60000+9000+1500</f>
+        <v>70500</v>
+      </c>
       <c r="L252" s="10">
         <f>Table1[[#This Row],[تعداد دانلود]]+Table1[[#This Row],[تعداد تماشا ]]</f>
         <v>219</v>
       </c>
     </row>
-    <row r="253" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A253" s="13"/>
       <c r="B253" s="13">
         <v>4072</v>
@@ -27633,13 +27794,16 @@
       <c r="J253" s="11">
         <v>5</v>
       </c>
-      <c r="K253" s="11"/>
+      <c r="K253" s="11">
+        <f>48000+4500</f>
+        <v>52500</v>
+      </c>
       <c r="L253" s="10">
         <f>Table1[[#This Row],[تعداد دانلود]]+Table1[[#This Row],[تعداد تماشا ]]</f>
         <v>155</v>
       </c>
     </row>
-    <row r="254" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A254" s="13"/>
       <c r="B254" s="13">
         <v>4073</v>
@@ -27666,13 +27830,16 @@
       <c r="J254" s="11">
         <v>6</v>
       </c>
-      <c r="K254" s="11"/>
+      <c r="K254" s="11">
+        <f>34500+4500</f>
+        <v>39000</v>
+      </c>
       <c r="L254" s="10">
         <f>Table1[[#This Row],[تعداد دانلود]]+Table1[[#This Row],[تعداد تماشا ]]</f>
         <v>75</v>
       </c>
     </row>
-    <row r="255" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A255" s="13"/>
       <c r="B255" s="13">
         <v>4077</v>
@@ -27699,13 +27866,16 @@
       <c r="J255" s="11">
         <v>4</v>
       </c>
-      <c r="K255" s="11"/>
+      <c r="K255" s="11">
+        <f>24000+3000</f>
+        <v>27000</v>
+      </c>
       <c r="L255" s="10">
         <f>Table1[[#This Row],[تعداد دانلود]]+Table1[[#This Row],[تعداد تماشا ]]</f>
         <v>67</v>
       </c>
     </row>
-    <row r="256" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A256" s="13"/>
       <c r="B256" s="13">
         <v>4078</v>
@@ -27732,13 +27902,15 @@
       <c r="J256" s="11">
         <v>5</v>
       </c>
-      <c r="K256" s="11"/>
+      <c r="K256" s="11">
+        <v>27000</v>
+      </c>
       <c r="L256" s="10">
         <f>Table1[[#This Row],[تعداد دانلود]]+Table1[[#This Row],[تعداد تماشا ]]</f>
         <v>57</v>
       </c>
     </row>
-    <row r="257" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A257" s="13"/>
       <c r="B257" s="13">
         <v>4079</v>
@@ -27765,13 +27937,15 @@
       <c r="J257" s="11">
         <v>4</v>
       </c>
-      <c r="K257" s="11"/>
+      <c r="K257" s="11">
+        <v>21000</v>
+      </c>
       <c r="L257" s="10">
         <f>Table1[[#This Row],[تعداد دانلود]]+Table1[[#This Row],[تعداد تماشا ]]</f>
         <v>52</v>
       </c>
     </row>
-    <row r="258" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A258" s="13"/>
       <c r="B258" s="13">
         <v>4081</v>
@@ -27798,13 +27972,16 @@
       <c r="J258" s="11">
         <v>2</v>
       </c>
-      <c r="K258" s="11"/>
+      <c r="K258" s="11">
+        <f>19500+3000</f>
+        <v>22500</v>
+      </c>
       <c r="L258" s="10">
         <f>Table1[[#This Row],[تعداد دانلود]]+Table1[[#This Row],[تعداد تماشا ]]</f>
         <v>44</v>
       </c>
     </row>
-    <row r="259" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A259" s="13"/>
       <c r="B259" s="13">
         <v>4076</v>
@@ -27831,13 +28008,15 @@
       <c r="J259" s="11">
         <v>5</v>
       </c>
-      <c r="K259" s="11"/>
+      <c r="K259" s="11">
+        <v>19500</v>
+      </c>
       <c r="L259" s="10">
         <f>Table1[[#This Row],[تعداد دانلود]]+Table1[[#This Row],[تعداد تماشا ]]</f>
         <v>59</v>
       </c>
     </row>
-    <row r="260" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A260" s="13"/>
       <c r="B260" s="13">
         <v>4075</v>
@@ -27864,13 +28043,15 @@
       <c r="J260" s="11">
         <v>4</v>
       </c>
-      <c r="K260" s="11"/>
+      <c r="K260" s="11">
+        <v>24000</v>
+      </c>
       <c r="L260" s="10">
         <f>Table1[[#This Row],[تعداد دانلود]]+Table1[[#This Row],[تعداد تماشا ]]</f>
         <v>56</v>
       </c>
     </row>
-    <row r="261" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A261" s="13"/>
       <c r="B261" s="13">
         <v>4080</v>
@@ -27897,13 +28078,15 @@
       <c r="J261" s="11">
         <v>3</v>
       </c>
-      <c r="K261" s="11"/>
+      <c r="K261" s="11">
+        <v>25500</v>
+      </c>
       <c r="L261" s="10">
         <f>Table1[[#This Row],[تعداد دانلود]]+Table1[[#This Row],[تعداد تماشا ]]</f>
         <v>55</v>
       </c>
     </row>
-    <row r="262" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A262" s="13"/>
       <c r="B262" s="13">
         <v>4074</v>
@@ -27930,13 +28113,15 @@
       <c r="J262" s="11">
         <v>2</v>
       </c>
-      <c r="K262" s="11"/>
+      <c r="K262" s="11">
+        <v>30000</v>
+      </c>
       <c r="L262" s="10">
         <f>Table1[[#This Row],[تعداد دانلود]]+Table1[[#This Row],[تعداد تماشا ]]</f>
         <v>44</v>
       </c>
     </row>
-    <row r="263" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A263" s="13">
         <v>233</v>
       </c>
@@ -27965,13 +28150,16 @@
       <c r="J263" s="11">
         <v>12</v>
       </c>
-      <c r="K263" s="11"/>
+      <c r="K263" s="11">
+        <f>86000+18000</f>
+        <v>104000</v>
+      </c>
       <c r="L263" s="10">
         <f>Table1[[#This Row],[تعداد دانلود]]+Table1[[#This Row],[تعداد تماشا ]]</f>
         <v>181</v>
       </c>
     </row>
-    <row r="264" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A264" s="13"/>
       <c r="B264" s="13">
         <v>3988</v>
@@ -27998,13 +28186,16 @@
       <c r="J264" s="11">
         <v>10</v>
       </c>
-      <c r="K264" s="11"/>
+      <c r="K264" s="11">
+        <f>64000+14000+2000</f>
+        <v>80000</v>
+      </c>
       <c r="L264" s="10">
         <f>Table1[[#This Row],[تعداد دانلود]]+Table1[[#This Row],[تعداد تماشا ]]</f>
         <v>148</v>
       </c>
     </row>
-    <row r="265" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A265" s="13"/>
       <c r="B265" s="13">
         <v>3989</v>
@@ -28031,13 +28222,16 @@
       <c r="J265" s="11">
         <v>11</v>
       </c>
-      <c r="K265" s="11"/>
+      <c r="K265" s="11">
+        <f>62000+14000+2000</f>
+        <v>78000</v>
+      </c>
       <c r="L265" s="10">
         <f>Table1[[#This Row],[تعداد دانلود]]+Table1[[#This Row],[تعداد تماشا ]]</f>
         <v>122</v>
       </c>
     </row>
-    <row r="266" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A266" s="13"/>
       <c r="B266" s="13">
         <v>3990</v>
@@ -28064,13 +28258,16 @@
       <c r="J266" s="11">
         <v>12</v>
       </c>
-      <c r="K266" s="11"/>
+      <c r="K266" s="11">
+        <f>46000+16000+4000</f>
+        <v>66000</v>
+      </c>
       <c r="L266" s="10">
         <f>Table1[[#This Row],[تعداد دانلود]]+Table1[[#This Row],[تعداد تماشا ]]</f>
         <v>89</v>
       </c>
     </row>
-    <row r="267" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A267" s="13">
         <v>234</v>
       </c>
@@ -28099,13 +28296,16 @@
       <c r="J267" s="11">
         <v>9</v>
       </c>
-      <c r="K267" s="11"/>
+      <c r="K267" s="11">
+        <f>16000+5000+2000</f>
+        <v>23000</v>
+      </c>
       <c r="L267" s="10">
         <f>Table1[[#This Row],[تعداد دانلود]]+Table1[[#This Row],[تعداد تماشا ]]</f>
         <v>84</v>
       </c>
     </row>
-    <row r="268" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A268" s="13"/>
       <c r="B268" s="13">
         <v>3957</v>
@@ -28132,13 +28332,15 @@
       <c r="J268" s="11">
         <v>2</v>
       </c>
-      <c r="K268" s="11"/>
+      <c r="K268" s="11">
+        <v>9000</v>
+      </c>
       <c r="L268" s="10">
         <f>Table1[[#This Row],[تعداد دانلود]]+Table1[[#This Row],[تعداد تماشا ]]</f>
         <v>37</v>
       </c>
     </row>
-    <row r="269" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A269" s="13"/>
       <c r="B269" s="13">
         <v>3958</v>
@@ -28165,13 +28367,15 @@
       <c r="J269" s="11">
         <v>1</v>
       </c>
-      <c r="K269" s="11"/>
+      <c r="K269" s="11">
+        <v>6000</v>
+      </c>
       <c r="L269" s="10">
         <f>Table1[[#This Row],[تعداد دانلود]]+Table1[[#This Row],[تعداد تماشا ]]</f>
         <v>25</v>
       </c>
     </row>
-    <row r="270" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A270" s="13"/>
       <c r="B270" s="13">
         <v>3960</v>
@@ -28198,13 +28402,15 @@
       <c r="J270" s="11">
         <v>1</v>
       </c>
-      <c r="K270" s="11"/>
+      <c r="K270" s="11">
+        <v>5000</v>
+      </c>
       <c r="L270" s="10">
         <f>Table1[[#This Row],[تعداد دانلود]]+Table1[[#This Row],[تعداد تماشا ]]</f>
         <v>18</v>
       </c>
     </row>
-    <row r="271" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A271" s="13"/>
       <c r="B271" s="13">
         <v>3961</v>
@@ -28231,13 +28437,15 @@
       <c r="J271" s="11">
         <v>2</v>
       </c>
-      <c r="K271" s="11"/>
+      <c r="K271" s="11">
+        <v>7000</v>
+      </c>
       <c r="L271" s="10">
         <f>Table1[[#This Row],[تعداد دانلود]]+Table1[[#This Row],[تعداد تماشا ]]</f>
         <v>13</v>
       </c>
     </row>
-    <row r="272" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A272" s="13"/>
       <c r="B272" s="13">
         <v>3962</v>
@@ -28264,13 +28472,15 @@
       <c r="J272" s="11">
         <v>2</v>
       </c>
-      <c r="K272" s="11"/>
+      <c r="K272" s="11">
+        <v>7000</v>
+      </c>
       <c r="L272" s="10">
         <f>Table1[[#This Row],[تعداد دانلود]]+Table1[[#This Row],[تعداد تماشا ]]</f>
         <v>21</v>
       </c>
     </row>
-    <row r="273" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A273" s="13"/>
       <c r="B273" s="13">
         <v>3963</v>
@@ -28297,13 +28507,15 @@
       <c r="J273" s="11">
         <v>2</v>
       </c>
-      <c r="K273" s="11"/>
+      <c r="K273" s="11">
+        <v>10000</v>
+      </c>
       <c r="L273" s="10">
         <f>Table1[[#This Row],[تعداد دانلود]]+Table1[[#This Row],[تعداد تماشا ]]</f>
         <v>26</v>
       </c>
     </row>
-    <row r="274" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A274" s="13">
         <v>235</v>
       </c>
@@ -28332,13 +28544,16 @@
       <c r="J274" s="11">
         <v>14</v>
       </c>
-      <c r="K274" s="11"/>
+      <c r="K274" s="11">
+        <f>104000+8000</f>
+        <v>112000</v>
+      </c>
       <c r="L274" s="10">
         <f>Table1[[#This Row],[تعداد دانلود]]+Table1[[#This Row],[تعداد تماشا ]]</f>
         <v>215</v>
       </c>
     </row>
-    <row r="275" spans="1:12" ht="36" hidden="1" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:12" ht="36" x14ac:dyDescent="0.25">
       <c r="A275" s="13">
         <v>236</v>
       </c>
@@ -28367,13 +28582,16 @@
       <c r="J275" s="11">
         <v>177</v>
       </c>
-      <c r="K275" s="11"/>
+      <c r="K275" s="11">
+        <f>184000+287000+108000</f>
+        <v>579000</v>
+      </c>
       <c r="L275" s="10">
         <f>Table1[[#This Row],[تعداد دانلود]]+Table1[[#This Row],[تعداد تماشا ]]</f>
         <v>726</v>
       </c>
     </row>
-    <row r="276" spans="1:12" ht="36" hidden="1" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:12" ht="36" x14ac:dyDescent="0.25">
       <c r="A276" s="13">
         <v>237</v>
       </c>
@@ -28402,13 +28620,16 @@
       <c r="J276" s="11">
         <v>15</v>
       </c>
-      <c r="K276" s="11"/>
+      <c r="K276" s="11">
+        <f>84000+27000+15000</f>
+        <v>126000</v>
+      </c>
       <c r="L276" s="10">
         <f>Table1[[#This Row],[تعداد دانلود]]+Table1[[#This Row],[تعداد تماشا ]]</f>
         <v>122</v>
       </c>
     </row>
-    <row r="277" spans="1:12" ht="36" hidden="1" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:12" ht="36" x14ac:dyDescent="0.25">
       <c r="A277" s="13">
         <v>238</v>
       </c>
@@ -28437,13 +28658,16 @@
       <c r="J277" s="11">
         <v>42</v>
       </c>
-      <c r="K277" s="11"/>
+      <c r="K277" s="11">
+        <f>54000+51000+37000</f>
+        <v>142000</v>
+      </c>
       <c r="L277" s="10">
         <f>Table1[[#This Row],[تعداد دانلود]]+Table1[[#This Row],[تعداد تماشا ]]</f>
         <v>151</v>
       </c>
     </row>
-    <row r="278" spans="1:12" ht="36" hidden="1" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:12" ht="36" x14ac:dyDescent="0.25">
       <c r="A278" s="13">
         <v>239</v>
       </c>
@@ -28472,13 +28696,16 @@
       <c r="J278" s="11">
         <v>78</v>
       </c>
-      <c r="K278" s="11"/>
+      <c r="K278" s="11">
+        <f>80000+210000+65000</f>
+        <v>355000</v>
+      </c>
       <c r="L278" s="10">
         <f>Table1[[#This Row],[تعداد دانلود]]+Table1[[#This Row],[تعداد تماشا ]]</f>
         <v>180</v>
       </c>
     </row>
-    <row r="279" spans="1:12" ht="36" hidden="1" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:12" ht="36" x14ac:dyDescent="0.25">
       <c r="A279" s="13">
         <v>240</v>
       </c>
@@ -28507,13 +28734,16 @@
       <c r="J279" s="11">
         <v>88</v>
       </c>
-      <c r="K279" s="11"/>
+      <c r="K279" s="11">
+        <f>217000+132000+80000+4000</f>
+        <v>433000</v>
+      </c>
       <c r="L279" s="10">
         <f>Table1[[#This Row],[تعداد دانلود]]+Table1[[#This Row],[تعداد تماشا ]]</f>
         <v>568</v>
       </c>
     </row>
-    <row r="280" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A280" s="13">
         <v>241</v>
       </c>
@@ -28542,13 +28772,16 @@
       <c r="J280" s="11">
         <v>9</v>
       </c>
-      <c r="K280" s="11"/>
+      <c r="K280" s="11">
+        <f>48000+7500+1500</f>
+        <v>57000</v>
+      </c>
       <c r="L280" s="10">
         <f>Table1[[#This Row],[تعداد دانلود]]+Table1[[#This Row],[تعداد تماشا ]]</f>
         <v>83</v>
       </c>
     </row>
-    <row r="281" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A281" s="13"/>
       <c r="B281" s="13">
         <v>3667</v>
@@ -28575,13 +28808,15 @@
       <c r="J281" s="11">
         <v>6</v>
       </c>
-      <c r="K281" s="11"/>
+      <c r="K281" s="11">
+        <v>45000</v>
+      </c>
       <c r="L281" s="10">
         <f>Table1[[#This Row],[تعداد دانلود]]+Table1[[#This Row],[تعداد تماشا ]]</f>
         <v>49</v>
       </c>
     </row>
-    <row r="282" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A282" s="13"/>
       <c r="B282" s="13">
         <v>3666</v>
@@ -28608,13 +28843,15 @@
       <c r="J282" s="11">
         <v>4</v>
       </c>
-      <c r="K282" s="11"/>
+      <c r="K282" s="11">
+        <v>36000</v>
+      </c>
       <c r="L282" s="10">
         <f>Table1[[#This Row],[تعداد دانلود]]+Table1[[#This Row],[تعداد تماشا ]]</f>
         <v>34</v>
       </c>
     </row>
-    <row r="283" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A283" s="13"/>
       <c r="B283" s="13">
         <v>3665</v>
@@ -28641,13 +28878,15 @@
       <c r="J283" s="11">
         <v>2</v>
       </c>
-      <c r="K283" s="11"/>
+      <c r="K283" s="11">
+        <v>33000</v>
+      </c>
       <c r="L283" s="10">
         <f>Table1[[#This Row],[تعداد دانلود]]+Table1[[#This Row],[تعداد تماشا ]]</f>
         <v>33</v>
       </c>
     </row>
-    <row r="284" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A284" s="13"/>
       <c r="B284" s="13">
         <v>3664</v>
@@ -28674,13 +28913,15 @@
       <c r="J284" s="11">
         <v>3</v>
       </c>
-      <c r="K284" s="11"/>
+      <c r="K284" s="11">
+        <v>34500</v>
+      </c>
       <c r="L284" s="10">
         <f>Table1[[#This Row],[تعداد دانلود]]+Table1[[#This Row],[تعداد تماشا ]]</f>
         <v>27</v>
       </c>
     </row>
-    <row r="285" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A285" s="13"/>
       <c r="B285" s="13">
         <v>3663</v>
@@ -28707,13 +28948,15 @@
       <c r="J285" s="11">
         <v>3</v>
       </c>
-      <c r="K285" s="11"/>
+      <c r="K285" s="11">
+        <v>33000</v>
+      </c>
       <c r="L285" s="10">
         <f>Table1[[#This Row],[تعداد دانلود]]+Table1[[#This Row],[تعداد تماشا ]]</f>
         <v>29</v>
       </c>
     </row>
-    <row r="286" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A286" s="13"/>
       <c r="B286" s="13">
         <v>3662</v>
@@ -28740,13 +28983,16 @@
       <c r="J286" s="11">
         <v>2</v>
       </c>
-      <c r="K286" s="11"/>
+      <c r="K286" s="11">
+        <f>28500+3000</f>
+        <v>31500</v>
+      </c>
       <c r="L286" s="10">
         <f>Table1[[#This Row],[تعداد دانلود]]+Table1[[#This Row],[تعداد تماشا ]]</f>
         <v>34</v>
       </c>
     </row>
-    <row r="287" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A287" s="13"/>
       <c r="B287" s="13">
         <v>3661</v>
@@ -28773,13 +29019,15 @@
       <c r="J287" s="11">
         <v>2</v>
       </c>
-      <c r="K287" s="11"/>
+      <c r="K287" s="11">
+        <v>33000</v>
+      </c>
       <c r="L287" s="10">
         <f>Table1[[#This Row],[تعداد دانلود]]+Table1[[#This Row],[تعداد تماشا ]]</f>
         <v>32</v>
       </c>
     </row>
-    <row r="288" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A288" s="13"/>
       <c r="B288" s="13">
         <v>3660</v>
@@ -28806,13 +29054,16 @@
       <c r="J288" s="11">
         <v>1</v>
       </c>
-      <c r="K288" s="11"/>
+      <c r="K288" s="11">
+        <f>25500+1500</f>
+        <v>27000</v>
+      </c>
       <c r="L288" s="10">
         <f>Table1[[#This Row],[تعداد دانلود]]+Table1[[#This Row],[تعداد تماشا ]]</f>
         <v>25</v>
       </c>
     </row>
-    <row r="289" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A289" s="13"/>
       <c r="B289" s="13">
         <v>3659</v>
@@ -28839,13 +29090,16 @@
       <c r="J289" s="11">
         <v>1</v>
       </c>
-      <c r="K289" s="11"/>
+      <c r="K289" s="11">
+        <f>31500</f>
+        <v>31500</v>
+      </c>
       <c r="L289" s="10">
         <f>Table1[[#This Row],[تعداد دانلود]]+Table1[[#This Row],[تعداد تماشا ]]</f>
         <v>25</v>
       </c>
     </row>
-    <row r="290" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:12" ht="36" x14ac:dyDescent="0.25">
       <c r="A290" s="13">
         <v>242</v>
       </c>
@@ -28874,13 +29128,15 @@
       <c r="J290" s="11">
         <v>26</v>
       </c>
-      <c r="K290" s="11"/>
+      <c r="K290" s="11">
+        <v>0</v>
+      </c>
       <c r="L290" s="10">
         <f>Table1[[#This Row],[تعداد دانلود]]+Table1[[#This Row],[تعداد تماشا ]]</f>
         <v>472</v>
       </c>
     </row>
-    <row r="291" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A291" s="13">
         <v>243</v>
       </c>
@@ -28909,13 +29165,15 @@
       <c r="J291" s="11">
         <v>15</v>
       </c>
-      <c r="K291" s="11"/>
+      <c r="K291" s="11">
+        <v>27000</v>
+      </c>
       <c r="L291" s="10">
         <f>Table1[[#This Row],[تعداد دانلود]]+Table1[[#This Row],[تعداد تماشا ]]</f>
         <v>47</v>
       </c>
     </row>
-    <row r="292" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A292" s="13"/>
       <c r="B292" s="13">
         <v>3556</v>
@@ -28942,13 +29200,15 @@
       <c r="J292" s="11">
         <v>5</v>
       </c>
-      <c r="K292" s="11"/>
+      <c r="K292" s="11">
+        <v>12000</v>
+      </c>
       <c r="L292" s="10">
         <f>Table1[[#This Row],[تعداد دانلود]]+Table1[[#This Row],[تعداد تماشا ]]</f>
         <v>22</v>
       </c>
     </row>
-    <row r="293" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A293" s="13"/>
       <c r="B293" s="13">
         <v>3557</v>
@@ -28975,13 +29235,15 @@
       <c r="J293" s="11">
         <v>4</v>
       </c>
-      <c r="K293" s="11"/>
+      <c r="K293" s="11">
+        <v>9000</v>
+      </c>
       <c r="L293" s="10">
         <f>Table1[[#This Row],[تعداد دانلود]]+Table1[[#This Row],[تعداد تماشا ]]</f>
         <v>18</v>
       </c>
     </row>
-    <row r="294" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:12" ht="36" x14ac:dyDescent="0.25">
       <c r="A294" s="13">
         <v>244</v>
       </c>
@@ -29010,13 +29272,15 @@
       <c r="J294" s="11">
         <v>145</v>
       </c>
-      <c r="K294" s="11"/>
+      <c r="K294" s="11">
+        <v>4000</v>
+      </c>
       <c r="L294" s="10">
         <f>Table1[[#This Row],[تعداد دانلود]]+Table1[[#This Row],[تعداد تماشا ]]</f>
         <v>310</v>
       </c>
     </row>
-    <row r="295" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A295" s="13">
         <v>245</v>
       </c>
@@ -29045,13 +29309,15 @@
       <c r="J295" s="11">
         <v>4</v>
       </c>
-      <c r="K295" s="11"/>
+      <c r="K295" s="11">
+        <v>10000</v>
+      </c>
       <c r="L295" s="10">
         <f>Table1[[#This Row],[تعداد دانلود]]+Table1[[#This Row],[تعداد تماشا ]]</f>
         <v>14</v>
       </c>
     </row>
-    <row r="296" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A296" s="13"/>
       <c r="B296" s="13">
         <v>3357</v>
@@ -29078,13 +29344,15 @@
       <c r="J296" s="11">
         <v>1</v>
       </c>
-      <c r="K296" s="11"/>
+      <c r="K296" s="11">
+        <v>10000</v>
+      </c>
       <c r="L296" s="10">
         <f>Table1[[#This Row],[تعداد دانلود]]+Table1[[#This Row],[تعداد تماشا ]]</f>
         <v>17</v>
       </c>
     </row>
-    <row r="297" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A297" s="13"/>
       <c r="B297" s="13">
         <v>3358</v>
@@ -29111,13 +29379,15 @@
       <c r="J297" s="11">
         <v>0</v>
       </c>
-      <c r="K297" s="11"/>
+      <c r="K297" s="11">
+        <v>3000</v>
+      </c>
       <c r="L297" s="10">
         <f>Table1[[#This Row],[تعداد دانلود]]+Table1[[#This Row],[تعداد تماشا ]]</f>
         <v>6</v>
       </c>
     </row>
-    <row r="298" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A298" s="13"/>
       <c r="B298" s="13">
         <v>3359</v>
@@ -29144,13 +29414,15 @@
       <c r="J298" s="11">
         <v>0</v>
       </c>
-      <c r="K298" s="11"/>
+      <c r="K298" s="11">
+        <v>2000</v>
+      </c>
       <c r="L298" s="10">
         <f>Table1[[#This Row],[تعداد دانلود]]+Table1[[#This Row],[تعداد تماشا ]]</f>
         <v>9</v>
       </c>
     </row>
-    <row r="299" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A299" s="13"/>
       <c r="B299" s="13">
         <v>3360</v>
@@ -29177,13 +29449,15 @@
       <c r="J299" s="11">
         <v>0</v>
       </c>
-      <c r="K299" s="11"/>
+      <c r="K299" s="11">
+        <v>3000</v>
+      </c>
       <c r="L299" s="10">
         <f>Table1[[#This Row],[تعداد دانلود]]+Table1[[#This Row],[تعداد تماشا ]]</f>
         <v>7</v>
       </c>
     </row>
-    <row r="300" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:12" ht="36" x14ac:dyDescent="0.25">
       <c r="A300" s="13"/>
       <c r="B300" s="13">
         <v>3361</v>
@@ -29210,13 +29484,15 @@
       <c r="J300" s="11">
         <v>0</v>
       </c>
-      <c r="K300" s="11"/>
+      <c r="K300" s="11">
+        <v>3000</v>
+      </c>
       <c r="L300" s="10">
         <f>Table1[[#This Row],[تعداد دانلود]]+Table1[[#This Row],[تعداد تماشا ]]</f>
         <v>4</v>
       </c>
     </row>
-    <row r="301" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A301" s="13"/>
       <c r="B301" s="13">
         <v>3362</v>
@@ -29243,13 +29519,15 @@
       <c r="J301" s="11">
         <v>0</v>
       </c>
-      <c r="K301" s="11"/>
+      <c r="K301" s="11">
+        <v>6000</v>
+      </c>
       <c r="L301" s="10">
         <f>Table1[[#This Row],[تعداد دانلود]]+Table1[[#This Row],[تعداد تماشا ]]</f>
         <v>23</v>
       </c>
     </row>
-    <row r="302" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A302" s="13"/>
       <c r="B302" s="13">
         <v>3363</v>
@@ -29276,13 +29554,15 @@
       <c r="J302" s="11">
         <v>0</v>
       </c>
-      <c r="K302" s="11"/>
+      <c r="K302" s="11">
+        <v>3000</v>
+      </c>
       <c r="L302" s="10">
         <f>Table1[[#This Row],[تعداد دانلود]]+Table1[[#This Row],[تعداد تماشا ]]</f>
         <v>7</v>
       </c>
     </row>
-    <row r="303" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A303" s="13"/>
       <c r="B303" s="13">
         <v>3364</v>
@@ -29309,13 +29589,15 @@
       <c r="J303" s="11">
         <v>0</v>
       </c>
-      <c r="K303" s="11"/>
+      <c r="K303" s="11">
+        <v>4000</v>
+      </c>
       <c r="L303" s="10">
         <f>Table1[[#This Row],[تعداد دانلود]]+Table1[[#This Row],[تعداد تماشا ]]</f>
         <v>9</v>
       </c>
     </row>
-    <row r="304" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A304" s="13"/>
       <c r="B304" s="13">
         <v>3365</v>
@@ -29342,13 +29624,15 @@
       <c r="J304" s="11">
         <v>0</v>
       </c>
-      <c r="K304" s="11"/>
+      <c r="K304" s="11">
+        <v>1000</v>
+      </c>
       <c r="L304" s="10">
         <f>Table1[[#This Row],[تعداد دانلود]]+Table1[[#This Row],[تعداد تماشا ]]</f>
         <v>2</v>
       </c>
     </row>
-    <row r="305" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A305" s="13">
         <v>246</v>
       </c>
@@ -29377,13 +29661,15 @@
       <c r="J305" s="11">
         <v>5</v>
       </c>
-      <c r="K305" s="11"/>
+      <c r="K305" s="11">
+        <v>0</v>
+      </c>
       <c r="L305" s="10">
         <f>Table1[[#This Row],[تعداد دانلود]]+Table1[[#This Row],[تعداد تماشا ]]</f>
         <v>48</v>
       </c>
     </row>
-    <row r="306" spans="1:12" ht="36" hidden="1" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:12" ht="36" x14ac:dyDescent="0.25">
       <c r="A306" s="13">
         <v>247</v>
       </c>
@@ -29412,13 +29698,16 @@
       <c r="J306" s="11">
         <v>55</v>
       </c>
-      <c r="K306" s="11"/>
+      <c r="K306" s="11">
+        <f>52000+124000+44000</f>
+        <v>220000</v>
+      </c>
       <c r="L306" s="10">
         <f>Table1[[#This Row],[تعداد دانلود]]+Table1[[#This Row],[تعداد تماشا ]]</f>
         <v>234</v>
       </c>
     </row>
-    <row r="307" spans="1:12" ht="36" hidden="1" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:12" ht="36" x14ac:dyDescent="0.25">
       <c r="A307" s="13">
         <v>248</v>
       </c>
@@ -29447,13 +29736,15 @@
       <c r="J307" s="11">
         <v>69</v>
       </c>
-      <c r="K307" s="11"/>
+      <c r="K307" s="11">
+        <v>0</v>
+      </c>
       <c r="L307" s="10">
         <f>Table1[[#This Row],[تعداد دانلود]]+Table1[[#This Row],[تعداد تماشا ]]</f>
         <v>934</v>
       </c>
     </row>
-    <row r="308" spans="1:12" ht="36" hidden="1" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:12" ht="36" x14ac:dyDescent="0.25">
       <c r="A308" s="13">
         <v>249</v>
       </c>
@@ -29482,13 +29773,16 @@
       <c r="J308" s="11">
         <v>38</v>
       </c>
-      <c r="K308" s="11"/>
+      <c r="K308" s="11">
+        <f>87000+80000+28000</f>
+        <v>195000</v>
+      </c>
       <c r="L308" s="10">
         <f>Table1[[#This Row],[تعداد دانلود]]+Table1[[#This Row],[تعداد تماشا ]]</f>
         <v>256</v>
       </c>
     </row>
-    <row r="309" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:12" ht="36" x14ac:dyDescent="0.25">
       <c r="A309" s="13">
         <v>250</v>
       </c>
@@ -29517,13 +29811,15 @@
       <c r="J309" s="11">
         <v>55</v>
       </c>
-      <c r="K309" s="11"/>
+      <c r="K309" s="11">
+        <v>0</v>
+      </c>
       <c r="L309" s="10">
         <f>Table1[[#This Row],[تعداد دانلود]]+Table1[[#This Row],[تعداد تماشا ]]</f>
         <v>685</v>
       </c>
     </row>
-    <row r="310" spans="1:12" ht="36" hidden="1" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:12" ht="36" x14ac:dyDescent="0.25">
       <c r="A310" s="13">
         <v>251</v>
       </c>
@@ -29552,13 +29848,15 @@
       <c r="J310" s="11">
         <v>16</v>
       </c>
-      <c r="K310" s="11"/>
+      <c r="K310" s="11">
+        <v>0</v>
+      </c>
       <c r="L310" s="10">
         <f>Table1[[#This Row],[تعداد دانلود]]+Table1[[#This Row],[تعداد تماشا ]]</f>
         <v>382</v>
       </c>
     </row>
-    <row r="311" spans="1:12" ht="36" hidden="1" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:12" ht="36" x14ac:dyDescent="0.25">
       <c r="A311" s="13">
         <v>252</v>
       </c>
@@ -29587,13 +29885,16 @@
       <c r="J311" s="11">
         <v>50</v>
       </c>
-      <c r="K311" s="11"/>
+      <c r="K311" s="11">
+        <f>48000+90000+62000+70000</f>
+        <v>270000</v>
+      </c>
       <c r="L311" s="10">
         <f>Table1[[#This Row],[تعداد دانلود]]+Table1[[#This Row],[تعداد تماشا ]]</f>
         <v>220</v>
       </c>
     </row>
-    <row r="312" spans="1:12" ht="36" hidden="1" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:12" ht="36" x14ac:dyDescent="0.25">
       <c r="A312" s="13">
         <v>253</v>
       </c>
@@ -29622,13 +29923,16 @@
       <c r="J312" s="11">
         <v>197</v>
       </c>
-      <c r="K312" s="11"/>
+      <c r="K312" s="11">
+        <f>123000+339000+179000</f>
+        <v>641000</v>
+      </c>
       <c r="L312" s="10">
         <f>Table1[[#This Row],[تعداد دانلود]]+Table1[[#This Row],[تعداد تماشا ]]</f>
         <v>895</v>
       </c>
     </row>
-    <row r="313" spans="1:12" ht="36" hidden="1" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:12" ht="36" x14ac:dyDescent="0.25">
       <c r="A313" s="13">
         <v>254</v>
       </c>
@@ -29657,13 +29961,16 @@
       <c r="J313" s="11">
         <v>103</v>
       </c>
-      <c r="K313" s="11"/>
+      <c r="K313" s="11">
+        <f>145000+156000+64000</f>
+        <v>365000</v>
+      </c>
       <c r="L313" s="10">
         <f>Table1[[#This Row],[تعداد دانلود]]+Table1[[#This Row],[تعداد تماشا ]]</f>
         <v>664</v>
       </c>
     </row>
-    <row r="314" spans="1:12" ht="36" hidden="1" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:12" ht="36" x14ac:dyDescent="0.25">
       <c r="A314" s="13">
         <v>255</v>
       </c>
@@ -29692,13 +29999,16 @@
       <c r="J314" s="11">
         <v>129</v>
       </c>
-      <c r="K314" s="11"/>
+      <c r="K314" s="11">
+        <f>142000+184000+96000</f>
+        <v>422000</v>
+      </c>
       <c r="L314" s="10">
         <f>Table1[[#This Row],[تعداد دانلود]]+Table1[[#This Row],[تعداد تماشا ]]</f>
         <v>612</v>
       </c>
     </row>
-    <row r="315" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A315" s="13">
         <v>256</v>
       </c>
@@ -29727,13 +30037,15 @@
       <c r="J315" s="11">
         <v>100</v>
       </c>
-      <c r="K315" s="11"/>
+      <c r="K315" s="11">
+        <v>0</v>
+      </c>
       <c r="L315" s="10">
         <f>Table1[[#This Row],[تعداد دانلود]]+Table1[[#This Row],[تعداد تماشا ]]</f>
         <v>750</v>
       </c>
     </row>
-    <row r="316" spans="1:12" ht="36" hidden="1" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:12" ht="36" x14ac:dyDescent="0.25">
       <c r="A316" s="13">
         <v>257</v>
       </c>
@@ -29762,13 +30074,16 @@
       <c r="J316" s="11">
         <v>153</v>
       </c>
-      <c r="K316" s="11"/>
+      <c r="K316" s="11">
+        <f>120000+207000+99000</f>
+        <v>426000</v>
+      </c>
       <c r="L316" s="10">
         <f>Table1[[#This Row],[تعداد دانلود]]+Table1[[#This Row],[تعداد تماشا ]]</f>
         <v>743</v>
       </c>
     </row>
-    <row r="317" spans="1:12" ht="36" hidden="1" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:12" ht="36" x14ac:dyDescent="0.25">
       <c r="A317" s="13">
         <v>258</v>
       </c>
@@ -29797,13 +30112,16 @@
       <c r="J317" s="11">
         <v>23</v>
       </c>
-      <c r="K317" s="11"/>
+      <c r="K317" s="11">
+        <f>76500+18000+6000</f>
+        <v>100500</v>
+      </c>
       <c r="L317" s="10">
         <f>Table1[[#This Row],[تعداد دانلود]]+Table1[[#This Row],[تعداد تماشا ]]</f>
         <v>191</v>
       </c>
     </row>
-    <row r="318" spans="1:12" ht="36" hidden="1" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:12" ht="36" x14ac:dyDescent="0.25">
       <c r="A318" s="13"/>
       <c r="B318" s="13">
         <v>2579</v>
@@ -29830,13 +30148,16 @@
       <c r="J318" s="11">
         <v>14</v>
       </c>
-      <c r="K318" s="11"/>
+      <c r="K318" s="11">
+        <f>58500+13500+1500</f>
+        <v>73500</v>
+      </c>
       <c r="L318" s="10">
         <f>Table1[[#This Row],[تعداد دانلود]]+Table1[[#This Row],[تعداد تماشا ]]</f>
         <v>116</v>
       </c>
     </row>
-    <row r="319" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:12" ht="36" x14ac:dyDescent="0.25">
       <c r="A319" s="13"/>
       <c r="B319" s="13">
         <v>2580</v>
@@ -29863,13 +30184,16 @@
       <c r="J319" s="11">
         <v>6</v>
       </c>
-      <c r="K319" s="11"/>
+      <c r="K319" s="11">
+        <f>63000+7500+1500</f>
+        <v>72000</v>
+      </c>
       <c r="L319" s="10">
         <f>Table1[[#This Row],[تعداد دانلود]]+Table1[[#This Row],[تعداد تماشا ]]</f>
         <v>84</v>
       </c>
     </row>
-    <row r="320" spans="1:12" ht="36" hidden="1" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:12" ht="36" x14ac:dyDescent="0.25">
       <c r="A320" s="13"/>
       <c r="B320" s="13">
         <v>2581</v>
@@ -29896,13 +30220,16 @@
       <c r="J320" s="11">
         <v>5</v>
       </c>
-      <c r="K320" s="11"/>
+      <c r="K320" s="11">
+        <f>54000+4500+3000</f>
+        <v>61500</v>
+      </c>
       <c r="L320" s="10">
         <f>Table1[[#This Row],[تعداد دانلود]]+Table1[[#This Row],[تعداد تماشا ]]</f>
         <v>84</v>
       </c>
     </row>
-    <row r="321" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:12" ht="36" x14ac:dyDescent="0.25">
       <c r="A321" s="13"/>
       <c r="B321" s="13">
         <v>2582</v>
@@ -29929,13 +30256,16 @@
       <c r="J321" s="11">
         <v>4</v>
       </c>
-      <c r="K321" s="11"/>
+      <c r="K321" s="11">
+        <f>39000+3000</f>
+        <v>42000</v>
+      </c>
       <c r="L321" s="10">
         <f>Table1[[#This Row],[تعداد دانلود]]+Table1[[#This Row],[تعداد تماشا ]]</f>
         <v>110</v>
       </c>
     </row>
-    <row r="322" spans="1:12" ht="36" hidden="1" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:12" ht="36" x14ac:dyDescent="0.25">
       <c r="A322" s="13"/>
       <c r="B322" s="13">
         <v>2583</v>
@@ -29962,13 +30292,16 @@
       <c r="J322" s="11">
         <v>5</v>
       </c>
-      <c r="K322" s="11"/>
+      <c r="K322" s="11">
+        <f>55500+3000+1500</f>
+        <v>60000</v>
+      </c>
       <c r="L322" s="10">
         <f>Table1[[#This Row],[تعداد دانلود]]+Table1[[#This Row],[تعداد تماشا ]]</f>
         <v>106</v>
       </c>
     </row>
-    <row r="323" spans="1:12" ht="36" hidden="1" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:12" ht="36" x14ac:dyDescent="0.25">
       <c r="A323" s="13"/>
       <c r="B323" s="13">
         <v>2584</v>
@@ -29995,13 +30328,15 @@
       <c r="J323" s="11">
         <v>4</v>
       </c>
-      <c r="K323" s="11"/>
+      <c r="K323" s="11">
+        <v>54000</v>
+      </c>
       <c r="L323" s="10">
         <f>Table1[[#This Row],[تعداد دانلود]]+Table1[[#This Row],[تعداد تماشا ]]</f>
         <v>100</v>
       </c>
     </row>
-    <row r="324" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A324" s="13">
         <v>259</v>
       </c>
@@ -30030,13 +30365,15 @@
       <c r="J324" s="11">
         <v>818</v>
       </c>
-      <c r="K324" s="11"/>
+      <c r="K324" s="11">
+        <v>0</v>
+      </c>
       <c r="L324" s="10">
         <f>Table1[[#This Row],[تعداد دانلود]]+Table1[[#This Row],[تعداد تماشا ]]</f>
         <v>1546</v>
       </c>
     </row>
-    <row r="325" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A325" s="13">
         <v>260</v>
       </c>
@@ -30065,13 +30402,15 @@
       <c r="J325" s="11">
         <v>35</v>
       </c>
-      <c r="K325" s="11"/>
+      <c r="K325" s="11">
+        <v>0</v>
+      </c>
       <c r="L325" s="10">
         <f>Table1[[#This Row],[تعداد دانلود]]+Table1[[#This Row],[تعداد تماشا ]]</f>
         <v>142</v>
       </c>
     </row>
-    <row r="326" spans="1:12" ht="36" hidden="1" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:12" ht="36" x14ac:dyDescent="0.25">
       <c r="A326" s="13">
         <v>261</v>
       </c>
@@ -30100,13 +30439,15 @@
       <c r="J326" s="11">
         <v>41</v>
       </c>
-      <c r="K326" s="11"/>
+      <c r="K326" s="11">
+        <v>0</v>
+      </c>
       <c r="L326" s="10">
         <f>Table1[[#This Row],[تعداد دانلود]]+Table1[[#This Row],[تعداد تماشا ]]</f>
         <v>178</v>
       </c>
     </row>
-    <row r="327" spans="1:12" ht="36" hidden="1" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:12" ht="36" x14ac:dyDescent="0.25">
       <c r="A327" s="13">
         <v>262</v>
       </c>
@@ -30135,13 +30476,15 @@
       <c r="J327" s="11">
         <v>226</v>
       </c>
-      <c r="K327" s="11"/>
+      <c r="K327" s="11">
+        <v>0</v>
+      </c>
       <c r="L327" s="10">
         <f>Table1[[#This Row],[تعداد دانلود]]+Table1[[#This Row],[تعداد تماشا ]]</f>
         <v>465</v>
       </c>
     </row>
-    <row r="328" spans="1:12" ht="36" hidden="1" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:12" ht="36" x14ac:dyDescent="0.25">
       <c r="A328" s="13">
         <v>263</v>
       </c>
@@ -30170,13 +30513,15 @@
       <c r="J328" s="11">
         <v>16</v>
       </c>
-      <c r="K328" s="11"/>
+      <c r="K328" s="11">
+        <v>0</v>
+      </c>
       <c r="L328" s="10">
         <f>Table1[[#This Row],[تعداد دانلود]]+Table1[[#This Row],[تعداد تماشا ]]</f>
         <v>46</v>
       </c>
     </row>
-    <row r="329" spans="1:12" ht="36" hidden="1" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:12" ht="36" x14ac:dyDescent="0.25">
       <c r="A329" s="13">
         <v>264</v>
       </c>
@@ -30205,13 +30550,15 @@
       <c r="J329" s="11">
         <v>4</v>
       </c>
-      <c r="K329" s="11"/>
+      <c r="K329" s="11">
+        <v>0</v>
+      </c>
       <c r="L329" s="10">
         <f>Table1[[#This Row],[تعداد دانلود]]+Table1[[#This Row],[تعداد تماشا ]]</f>
         <v>46</v>
       </c>
     </row>
-    <row r="330" spans="1:12" ht="36" hidden="1" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:12" ht="36" x14ac:dyDescent="0.25">
       <c r="A330" s="13">
         <v>265</v>
       </c>
@@ -30240,13 +30587,16 @@
       <c r="J330" s="11">
         <v>84</v>
       </c>
-      <c r="K330" s="11"/>
+      <c r="K330" s="11">
+        <f>111000+117000+45000</f>
+        <v>273000</v>
+      </c>
       <c r="L330" s="10">
         <f>Table1[[#This Row],[تعداد دانلود]]+Table1[[#This Row],[تعداد تماشا ]]</f>
         <v>621</v>
       </c>
     </row>
-    <row r="331" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A331" s="13">
         <v>266</v>
       </c>
@@ -30275,13 +30625,15 @@
       <c r="J331" s="11">
         <v>58</v>
       </c>
-      <c r="K331" s="11"/>
+      <c r="K331" s="11">
+        <v>0</v>
+      </c>
       <c r="L331" s="10">
         <f>Table1[[#This Row],[تعداد دانلود]]+Table1[[#This Row],[تعداد تماشا ]]</f>
         <v>140</v>
       </c>
     </row>
-    <row r="332" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:12" ht="36" x14ac:dyDescent="0.25">
       <c r="A332" s="13">
         <v>267</v>
       </c>
@@ -30310,13 +30662,15 @@
       <c r="J332" s="11">
         <v>134</v>
       </c>
-      <c r="K332" s="11"/>
+      <c r="K332" s="11">
+        <v>0</v>
+      </c>
       <c r="L332" s="10">
         <f>Table1[[#This Row],[تعداد دانلود]]+Table1[[#This Row],[تعداد تماشا ]]</f>
         <v>750</v>
       </c>
     </row>
-    <row r="333" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:12" ht="36" x14ac:dyDescent="0.25">
       <c r="A333" s="13">
         <v>268</v>
       </c>
@@ -30345,13 +30699,15 @@
       <c r="J333" s="11">
         <v>176</v>
       </c>
-      <c r="K333" s="11"/>
+      <c r="K333" s="11">
+        <v>0</v>
+      </c>
       <c r="L333" s="10">
         <f>Table1[[#This Row],[تعداد دانلود]]+Table1[[#This Row],[تعداد تماشا ]]</f>
         <v>742</v>
       </c>
     </row>
-    <row r="334" spans="1:12" ht="36" hidden="1" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:12" ht="36" x14ac:dyDescent="0.25">
       <c r="A334" s="13">
         <v>269</v>
       </c>
@@ -30380,13 +30736,15 @@
       <c r="J334" s="11">
         <v>310</v>
       </c>
-      <c r="K334" s="11"/>
+      <c r="K334" s="11">
+        <v>14000</v>
+      </c>
       <c r="L334" s="10">
         <f>Table1[[#This Row],[تعداد دانلود]]+Table1[[#This Row],[تعداد تماشا ]]</f>
         <v>445</v>
       </c>
     </row>
-    <row r="335" spans="1:12" ht="36" hidden="1" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:12" ht="36" x14ac:dyDescent="0.25">
       <c r="A335" s="13">
         <v>270</v>
       </c>
@@ -30415,13 +30773,16 @@
       <c r="J335" s="11">
         <v>226</v>
       </c>
-      <c r="K335" s="11"/>
+      <c r="K335" s="11">
+        <f>186000+222000+180000</f>
+        <v>588000</v>
+      </c>
       <c r="L335" s="10">
         <f>Table1[[#This Row],[تعداد دانلود]]+Table1[[#This Row],[تعداد تماشا ]]</f>
         <v>1112</v>
       </c>
     </row>
-    <row r="336" spans="1:12" ht="36" hidden="1" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:12" ht="36" x14ac:dyDescent="0.25">
       <c r="A336" s="13">
         <v>271</v>
       </c>
@@ -30450,13 +30811,16 @@
       <c r="J336" s="11">
         <v>121</v>
       </c>
-      <c r="K336" s="11"/>
+      <c r="K336" s="11">
+        <f>224000+134000+83000</f>
+        <v>441000</v>
+      </c>
       <c r="L336" s="10">
         <f>Table1[[#This Row],[تعداد دانلود]]+Table1[[#This Row],[تعداد تماشا ]]</f>
         <v>867</v>
       </c>
     </row>
-    <row r="337" spans="1:12" ht="36" hidden="1" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:12" ht="36" x14ac:dyDescent="0.25">
       <c r="A337" s="13">
         <v>272</v>
       </c>
@@ -30485,13 +30849,16 @@
       <c r="J337" s="11">
         <v>39</v>
       </c>
-      <c r="K337" s="11"/>
+      <c r="K337" s="11">
+        <f>44000+64000+20000</f>
+        <v>128000</v>
+      </c>
       <c r="L337" s="10">
         <f>Table1[[#This Row],[تعداد دانلود]]+Table1[[#This Row],[تعداد تماشا ]]</f>
         <v>197</v>
       </c>
     </row>
-    <row r="338" spans="1:12" ht="36" hidden="1" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:12" ht="36" x14ac:dyDescent="0.25">
       <c r="A338" s="13">
         <v>273</v>
       </c>
@@ -30520,13 +30887,16 @@
       <c r="J338" s="11">
         <v>35</v>
       </c>
-      <c r="K338" s="11"/>
+      <c r="K338" s="11">
+        <f>36000+80000+24000</f>
+        <v>140000</v>
+      </c>
       <c r="L338" s="10">
         <f>Table1[[#This Row],[تعداد دانلود]]+Table1[[#This Row],[تعداد تماشا ]]</f>
         <v>128</v>
       </c>
     </row>
-    <row r="339" spans="1:12" ht="36" hidden="1" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:12" ht="36" x14ac:dyDescent="0.25">
       <c r="A339" s="13">
         <v>274</v>
       </c>
@@ -30555,13 +30925,16 @@
       <c r="J339" s="11">
         <v>151</v>
       </c>
-      <c r="K339" s="11"/>
+      <c r="K339" s="11">
+        <f>158000+207000+78000</f>
+        <v>443000</v>
+      </c>
       <c r="L339" s="10">
         <f>Table1[[#This Row],[تعداد دانلود]]+Table1[[#This Row],[تعداد تماشا ]]</f>
         <v>1093</v>
       </c>
     </row>
-    <row r="340" spans="1:12" ht="36" hidden="1" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:12" ht="36" x14ac:dyDescent="0.25">
       <c r="A340" s="13">
         <v>275</v>
       </c>
@@ -30590,13 +30963,16 @@
       <c r="J340" s="11">
         <v>129</v>
       </c>
-      <c r="K340" s="11"/>
+      <c r="K340" s="11">
+        <f>225000+255000+185000</f>
+        <v>665000</v>
+      </c>
       <c r="L340" s="10">
         <f>Table1[[#This Row],[تعداد دانلود]]+Table1[[#This Row],[تعداد تماشا ]]</f>
         <v>545</v>
       </c>
     </row>
-    <row r="341" spans="1:12" ht="36" hidden="1" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:12" ht="36" x14ac:dyDescent="0.25">
       <c r="A341" s="13">
         <v>276</v>
       </c>
@@ -30625,13 +31001,16 @@
       <c r="J341" s="11">
         <v>50</v>
       </c>
-      <c r="K341" s="11"/>
+      <c r="K341" s="11">
+        <f>105000+72000+33000</f>
+        <v>210000</v>
+      </c>
       <c r="L341" s="10">
         <f>Table1[[#This Row],[تعداد دانلود]]+Table1[[#This Row],[تعداد تماشا ]]</f>
         <v>327</v>
       </c>
     </row>
-    <row r="342" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A342" s="13">
         <v>277</v>
       </c>
@@ -30660,13 +31039,16 @@
       <c r="J342" s="11">
         <v>24</v>
       </c>
-      <c r="K342" s="11"/>
+      <c r="K342" s="11">
+        <f>52500+19500+1500</f>
+        <v>73500</v>
+      </c>
       <c r="L342" s="10">
         <f>Table1[[#This Row],[تعداد دانلود]]+Table1[[#This Row],[تعداد تماشا ]]</f>
         <v>146</v>
       </c>
     </row>
-    <row r="343" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A343" s="13"/>
       <c r="B343" s="13">
         <v>5192</v>
@@ -30693,13 +31075,16 @@
       <c r="J343" s="11">
         <v>15</v>
       </c>
-      <c r="K343" s="11"/>
+      <c r="K343" s="11">
+        <f>37500+13500</f>
+        <v>51000</v>
+      </c>
       <c r="L343" s="10">
         <f>Table1[[#This Row],[تعداد دانلود]]+Table1[[#This Row],[تعداد تماشا ]]</f>
         <v>87</v>
       </c>
     </row>
-    <row r="344" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A344" s="13"/>
       <c r="B344" s="13">
         <v>5193</v>
@@ -30726,13 +31111,16 @@
       <c r="J344" s="11">
         <v>14</v>
       </c>
-      <c r="K344" s="11"/>
+      <c r="K344" s="11">
+        <f>37500+10500</f>
+        <v>48000</v>
+      </c>
       <c r="L344" s="10">
         <f>Table1[[#This Row],[تعداد دانلود]]+Table1[[#This Row],[تعداد تماشا ]]</f>
         <v>76</v>
       </c>
     </row>
-    <row r="345" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A345" s="13"/>
       <c r="B345" s="13">
         <v>5195</v>
@@ -30759,13 +31147,16 @@
       <c r="J345" s="11">
         <v>8</v>
       </c>
-      <c r="K345" s="11"/>
+      <c r="K345" s="11">
+        <f>21000+9000</f>
+        <v>30000</v>
+      </c>
       <c r="L345" s="10">
         <f>Table1[[#This Row],[تعداد دانلود]]+Table1[[#This Row],[تعداد تماشا ]]</f>
         <v>88</v>
       </c>
     </row>
-    <row r="346" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A346" s="13"/>
       <c r="B346" s="13">
         <v>5194</v>
@@ -30792,13 +31183,15 @@
       <c r="J346" s="11">
         <v>11</v>
       </c>
-      <c r="K346" s="11"/>
+      <c r="K346" s="11">
+        <v>39000</v>
+      </c>
       <c r="L346" s="10">
         <f>Table1[[#This Row],[تعداد دانلود]]+Table1[[#This Row],[تعداد تماشا ]]</f>
         <v>60</v>
       </c>
     </row>
-    <row r="347" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A347" s="13"/>
       <c r="B347" s="13">
         <v>5196</v>
@@ -30825,13 +31218,16 @@
       <c r="J347" s="11">
         <v>9</v>
       </c>
-      <c r="K347" s="11"/>
+      <c r="K347" s="11">
+        <f>37500+12000</f>
+        <v>49500</v>
+      </c>
       <c r="L347" s="10">
         <f>Table1[[#This Row],[تعداد دانلود]]+Table1[[#This Row],[تعداد تماشا ]]</f>
         <v>87</v>
       </c>
     </row>
-    <row r="348" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A348" s="13">
         <v>278</v>
       </c>
@@ -30860,13 +31256,16 @@
       <c r="J348" s="11">
         <v>30</v>
       </c>
-      <c r="K348" s="11"/>
+      <c r="K348" s="11">
+        <f>24000+32000+14000</f>
+        <v>70000</v>
+      </c>
       <c r="L348" s="10">
         <f>Table1[[#This Row],[تعداد دانلود]]+Table1[[#This Row],[تعداد تماشا ]]</f>
         <v>73</v>
       </c>
     </row>
-    <row r="349" spans="1:12" ht="36" hidden="1" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:12" ht="36" x14ac:dyDescent="0.25">
       <c r="A349" s="13">
         <v>279</v>
       </c>
@@ -30895,7 +31294,10 @@
       <c r="J349" s="11">
         <v>59</v>
       </c>
-      <c r="K349" s="11"/>
+      <c r="K349" s="11">
+        <f>45000+98000+33000</f>
+        <v>176000</v>
+      </c>
       <c r="L349" s="10">
         <f>Table1[[#This Row],[تعداد دانلود]]+Table1[[#This Row],[تعداد تماشا ]]</f>
         <v>252</v>
@@ -30932,13 +31334,15 @@
       <c r="J350" s="11">
         <v>49</v>
       </c>
-      <c r="K350" s="11"/>
+      <c r="K350" s="11">
+        <v>306000</v>
+      </c>
       <c r="L350" s="10">
         <f>Table1[[#This Row],[تعداد دانلود]]+Table1[[#This Row],[تعداد تماشا ]]</f>
         <v>264</v>
       </c>
     </row>
-    <row r="351" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A351" s="13">
         <v>281</v>
       </c>
@@ -30967,13 +31371,16 @@
       <c r="J351" s="11">
         <v>28</v>
       </c>
-      <c r="K351" s="11"/>
+      <c r="K351" s="11">
+        <f>68000+40000+8000</f>
+        <v>116000</v>
+      </c>
       <c r="L351" s="10">
         <f>Table1[[#This Row],[تعداد دانلود]]+Table1[[#This Row],[تعداد تماشا ]]</f>
         <v>165</v>
       </c>
     </row>
-    <row r="352" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A352" s="13">
         <v>282</v>
       </c>
@@ -31002,13 +31409,16 @@
       <c r="J352" s="11">
         <v>22</v>
       </c>
-      <c r="K352" s="11"/>
+      <c r="K352" s="11">
+        <f>94500+25500+4500</f>
+        <v>124500</v>
+      </c>
       <c r="L352" s="10">
         <f>Table1[[#This Row],[تعداد دانلود]]+Table1[[#This Row],[تعداد تماشا ]]</f>
         <v>202</v>
       </c>
     </row>
-    <row r="353" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A353" s="13"/>
       <c r="B353" s="13">
         <v>5784</v>
@@ -31035,13 +31445,16 @@
       <c r="J353" s="11">
         <v>11</v>
       </c>
-      <c r="K353" s="11"/>
+      <c r="K353" s="11">
+        <f>34500+10500+1500</f>
+        <v>46500</v>
+      </c>
       <c r="L353" s="10">
         <f>Table1[[#This Row],[تعداد دانلود]]+Table1[[#This Row],[تعداد تماشا ]]</f>
         <v>67</v>
       </c>
     </row>
-    <row r="354" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A354" s="13"/>
       <c r="B354" s="13">
         <v>5785</v>
@@ -31068,13 +31481,16 @@
       <c r="J354" s="11">
         <v>8</v>
       </c>
-      <c r="K354" s="11"/>
+      <c r="K354" s="11">
+        <f>22500+9000+3000</f>
+        <v>34500</v>
+      </c>
       <c r="L354" s="10">
         <f>Table1[[#This Row],[تعداد دانلود]]+Table1[[#This Row],[تعداد تماشا ]]</f>
         <v>39</v>
       </c>
     </row>
-    <row r="355" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A355" s="13"/>
       <c r="B355" s="13">
         <v>5789</v>
@@ -31101,13 +31517,16 @@
       <c r="J355" s="11">
         <v>4</v>
       </c>
-      <c r="K355" s="11"/>
+      <c r="K355" s="11">
+        <f>22500+6000</f>
+        <v>28500</v>
+      </c>
       <c r="L355" s="10">
         <f>Table1[[#This Row],[تعداد دانلود]]+Table1[[#This Row],[تعداد تماشا ]]</f>
         <v>31</v>
       </c>
     </row>
-    <row r="356" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A356" s="13"/>
       <c r="B356" s="13">
         <v>5790</v>
@@ -31134,13 +31553,16 @@
       <c r="J356" s="11">
         <v>8</v>
       </c>
-      <c r="K356" s="11"/>
+      <c r="K356" s="11">
+        <f>21000+7500</f>
+        <v>28500</v>
+      </c>
       <c r="L356" s="10">
         <f>Table1[[#This Row],[تعداد دانلود]]+Table1[[#This Row],[تعداد تماشا ]]</f>
         <v>39</v>
       </c>
     </row>
-    <row r="357" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A357" s="13"/>
       <c r="B357" s="13">
         <v>5787</v>
@@ -31167,13 +31589,16 @@
       <c r="J357" s="11">
         <v>6</v>
       </c>
-      <c r="K357" s="11"/>
+      <c r="K357" s="11">
+        <f>16500+7500</f>
+        <v>24000</v>
+      </c>
       <c r="L357" s="10">
         <f>Table1[[#This Row],[تعداد دانلود]]+Table1[[#This Row],[تعداد تماشا ]]</f>
         <v>34</v>
       </c>
     </row>
-    <row r="358" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A358" s="13"/>
       <c r="B358" s="13">
         <v>5788</v>
@@ -31200,13 +31625,16 @@
       <c r="J358" s="11">
         <v>4</v>
       </c>
-      <c r="K358" s="11"/>
+      <c r="K358" s="11">
+        <f>30000</f>
+        <v>30000</v>
+      </c>
       <c r="L358" s="10">
         <f>Table1[[#This Row],[تعداد دانلود]]+Table1[[#This Row],[تعداد تماشا ]]</f>
         <v>44</v>
       </c>
     </row>
-    <row r="359" spans="1:12" ht="36" hidden="1" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:12" ht="36" x14ac:dyDescent="0.25">
       <c r="A359" s="13">
         <v>283</v>
       </c>
@@ -31235,13 +31663,16 @@
       <c r="J359" s="11">
         <v>111</v>
       </c>
-      <c r="K359" s="11"/>
+      <c r="K359" s="11">
+        <f>132000+188000+104000</f>
+        <v>424000</v>
+      </c>
       <c r="L359" s="10">
         <f>Table1[[#This Row],[تعداد دانلود]]+Table1[[#This Row],[تعداد تماشا ]]</f>
         <v>420</v>
       </c>
     </row>
-    <row r="360" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A360" s="13">
         <v>284</v>
       </c>
@@ -31270,13 +31701,15 @@
       <c r="J360" s="11">
         <v>10</v>
       </c>
-      <c r="K360" s="11"/>
+      <c r="K360" s="11">
+        <v>52000</v>
+      </c>
       <c r="L360" s="10">
         <f>Table1[[#This Row],[تعداد دانلود]]+Table1[[#This Row],[تعداد تماشا ]]</f>
         <v>103</v>
       </c>
     </row>
-    <row r="361" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A361" s="13"/>
       <c r="B361" s="13">
         <v>6133</v>
@@ -31303,13 +31736,16 @@
       <c r="J361" s="11">
         <v>4</v>
       </c>
-      <c r="K361" s="11"/>
+      <c r="K361" s="11">
+        <f>23000+3000+1000</f>
+        <v>27000</v>
+      </c>
       <c r="L361" s="10">
         <f>Table1[[#This Row],[تعداد دانلود]]+Table1[[#This Row],[تعداد تماشا ]]</f>
         <v>41</v>
       </c>
     </row>
-    <row r="362" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A362" s="13"/>
       <c r="B362" s="13">
         <v>6134</v>
@@ -31336,13 +31772,16 @@
       <c r="J362" s="11">
         <v>5</v>
       </c>
-      <c r="K362" s="11"/>
+      <c r="K362" s="11">
+        <f>14000+3000</f>
+        <v>17000</v>
+      </c>
       <c r="L362" s="10">
         <f>Table1[[#This Row],[تعداد دانلود]]+Table1[[#This Row],[تعداد تماشا ]]</f>
         <v>49</v>
       </c>
     </row>
-    <row r="363" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A363" s="13"/>
       <c r="B363" s="13">
         <v>6135</v>
@@ -31369,13 +31808,16 @@
       <c r="J363" s="11">
         <v>3</v>
       </c>
-      <c r="K363" s="11"/>
+      <c r="K363" s="11">
+        <f>14000</f>
+        <v>14000</v>
+      </c>
       <c r="L363" s="10">
         <f>Table1[[#This Row],[تعداد دانلود]]+Table1[[#This Row],[تعداد تماشا ]]</f>
         <v>29</v>
       </c>
     </row>
-    <row r="364" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A364" s="13"/>
       <c r="B364" s="13">
         <v>6136</v>
@@ -31402,13 +31844,16 @@
       <c r="J364" s="11">
         <v>4</v>
       </c>
-      <c r="K364" s="11"/>
+      <c r="K364" s="11">
+        <f>20000</f>
+        <v>20000</v>
+      </c>
       <c r="L364" s="10">
         <f>Table1[[#This Row],[تعداد دانلود]]+Table1[[#This Row],[تعداد تماشا ]]</f>
         <v>28</v>
       </c>
     </row>
-    <row r="365" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A365" s="13">
         <v>285</v>
       </c>
@@ -31437,13 +31882,15 @@
       <c r="J365" s="11">
         <v>24</v>
       </c>
-      <c r="K365" s="11"/>
+      <c r="K365" s="11">
+        <v>5000</v>
+      </c>
       <c r="L365" s="10">
         <f>Table1[[#This Row],[تعداد دانلود]]+Table1[[#This Row],[تعداد تماشا ]]</f>
         <v>67</v>
       </c>
     </row>
-    <row r="366" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A366" s="13"/>
       <c r="B366" s="13">
         <v>6139</v>
@@ -31470,13 +31917,15 @@
       <c r="J366" s="11">
         <v>5</v>
       </c>
-      <c r="K366" s="11"/>
+      <c r="K366" s="11">
+        <v>29000</v>
+      </c>
       <c r="L366" s="10">
         <f>Table1[[#This Row],[تعداد دانلود]]+Table1[[#This Row],[تعداد تماشا ]]</f>
         <v>30</v>
       </c>
     </row>
-    <row r="367" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A367" s="13"/>
       <c r="B367" s="13">
         <v>6140</v>
@@ -31503,13 +31952,15 @@
       <c r="J367" s="11">
         <v>4</v>
       </c>
-      <c r="K367" s="11"/>
+      <c r="K367" s="11">
+        <v>16000</v>
+      </c>
       <c r="L367" s="10">
         <f>Table1[[#This Row],[تعداد دانلود]]+Table1[[#This Row],[تعداد تماشا ]]</f>
         <v>22</v>
       </c>
     </row>
-    <row r="368" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A368" s="13"/>
       <c r="B368" s="13">
         <v>6141</v>
@@ -31536,13 +31987,15 @@
       <c r="J368" s="11">
         <v>5</v>
       </c>
-      <c r="K368" s="11"/>
+      <c r="K368" s="11">
+        <v>13000</v>
+      </c>
       <c r="L368" s="10">
         <f>Table1[[#This Row],[تعداد دانلود]]+Table1[[#This Row],[تعداد تماشا ]]</f>
         <v>22</v>
       </c>
     </row>
-    <row r="369" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A369" s="13"/>
       <c r="B369" s="13">
         <v>6143</v>
@@ -31569,13 +32022,15 @@
       <c r="J369" s="11">
         <v>6</v>
       </c>
-      <c r="K369" s="11"/>
+      <c r="K369" s="11">
+        <v>11000</v>
+      </c>
       <c r="L369" s="10">
         <f>Table1[[#This Row],[تعداد دانلود]]+Table1[[#This Row],[تعداد تماشا ]]</f>
         <v>19</v>
       </c>
     </row>
-    <row r="370" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A370" s="13"/>
       <c r="B370" s="13">
         <v>6142</v>
@@ -31602,13 +32057,15 @@
       <c r="J370" s="11">
         <v>3</v>
       </c>
-      <c r="K370" s="11"/>
+      <c r="K370" s="11">
+        <v>16000</v>
+      </c>
       <c r="L370" s="10">
         <f>Table1[[#This Row],[تعداد دانلود]]+Table1[[#This Row],[تعداد تماشا ]]</f>
         <v>17</v>
       </c>
     </row>
-    <row r="371" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A371" s="13"/>
       <c r="B371" s="13">
         <v>6146</v>
@@ -31635,13 +32092,15 @@
       <c r="J371" s="11">
         <v>5</v>
       </c>
-      <c r="K371" s="11"/>
+      <c r="K371" s="11">
+        <v>15000</v>
+      </c>
       <c r="L371" s="10">
         <f>Table1[[#This Row],[تعداد دانلود]]+Table1[[#This Row],[تعداد تماشا ]]</f>
         <v>21</v>
       </c>
     </row>
-    <row r="372" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A372" s="13"/>
       <c r="B372" s="13">
         <v>6144</v>
@@ -31668,13 +32127,15 @@
       <c r="J372" s="11">
         <v>4</v>
       </c>
-      <c r="K372" s="11"/>
+      <c r="K372" s="11">
+        <v>15000</v>
+      </c>
       <c r="L372" s="10">
         <f>Table1[[#This Row],[تعداد دانلود]]+Table1[[#This Row],[تعداد تماشا ]]</f>
         <v>12</v>
       </c>
     </row>
-    <row r="373" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A373" s="13"/>
       <c r="B373" s="13">
         <v>6145</v>
@@ -31701,13 +32162,15 @@
       <c r="J373" s="11">
         <v>9</v>
       </c>
-      <c r="K373" s="11"/>
+      <c r="K373" s="11">
+        <v>5000</v>
+      </c>
       <c r="L373" s="10">
         <f>Table1[[#This Row],[تعداد دانلود]]+Table1[[#This Row],[تعداد تماشا ]]</f>
         <v>18</v>
       </c>
     </row>
-    <row r="374" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A374" s="13"/>
       <c r="B374" s="13">
         <v>6147</v>
@@ -31734,13 +32197,15 @@
       <c r="J374" s="11">
         <v>9</v>
       </c>
-      <c r="K374" s="11"/>
+      <c r="K374" s="11">
+        <v>5000</v>
+      </c>
       <c r="L374" s="10">
         <f>Table1[[#This Row],[تعداد دانلود]]+Table1[[#This Row],[تعداد تماشا ]]</f>
         <v>19</v>
       </c>
     </row>
-    <row r="375" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A375" s="13"/>
       <c r="B375" s="13">
         <v>6148</v>
@@ -31767,13 +32232,15 @@
       <c r="J375" s="11">
         <v>7</v>
       </c>
-      <c r="K375" s="11"/>
+      <c r="K375" s="11">
+        <v>10000</v>
+      </c>
       <c r="L375" s="10">
         <f>Table1[[#This Row],[تعداد دانلود]]+Table1[[#This Row],[تعداد تماشا ]]</f>
         <v>16</v>
       </c>
     </row>
-    <row r="376" spans="1:12" ht="36" hidden="1" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:12" ht="36" x14ac:dyDescent="0.25">
       <c r="A376" s="13">
         <v>286</v>
       </c>
@@ -31802,13 +32269,16 @@
       <c r="J376" s="11">
         <v>106</v>
       </c>
-      <c r="K376" s="11"/>
+      <c r="K376" s="11">
+        <f>61000+126000+54000</f>
+        <v>241000</v>
+      </c>
       <c r="L376" s="10">
         <f>Table1[[#This Row],[تعداد دانلود]]+Table1[[#This Row],[تعداد تماشا ]]</f>
         <v>405</v>
       </c>
     </row>
-    <row r="377" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A377" s="13">
         <v>287</v>
       </c>
@@ -31837,13 +32307,16 @@
       <c r="J377" s="11">
         <v>20</v>
       </c>
-      <c r="K377" s="11"/>
+      <c r="K377" s="11">
+        <f>116000+24000+6000</f>
+        <v>146000</v>
+      </c>
       <c r="L377" s="10">
         <f>Table1[[#This Row],[تعداد دانلود]]+Table1[[#This Row],[تعداد تماشا ]]</f>
         <v>174</v>
       </c>
     </row>
-    <row r="378" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A378" s="13"/>
       <c r="B378" s="13">
         <v>6303</v>
@@ -31870,13 +32343,16 @@
       <c r="J378" s="11">
         <v>9</v>
       </c>
-      <c r="K378" s="11"/>
+      <c r="K378" s="11">
+        <f>56000+16000</f>
+        <v>72000</v>
+      </c>
       <c r="L378" s="10">
         <f>Table1[[#This Row],[تعداد دانلود]]+Table1[[#This Row],[تعداد تماشا ]]</f>
         <v>77</v>
       </c>
     </row>
-    <row r="379" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A379" s="13"/>
       <c r="B379" s="13">
         <v>6304</v>
@@ -31903,13 +32379,15 @@
       <c r="J379" s="11">
         <v>5</v>
       </c>
-      <c r="K379" s="11"/>
+      <c r="K379" s="11">
+        <v>48000</v>
+      </c>
       <c r="L379" s="10">
         <f>Table1[[#This Row],[تعداد دانلود]]+Table1[[#This Row],[تعداد تماشا ]]</f>
         <v>59</v>
       </c>
     </row>
-    <row r="380" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A380" s="13"/>
       <c r="B380" s="13">
         <v>6306</v>
@@ -31936,13 +32414,15 @@
       <c r="J380" s="11">
         <v>3</v>
       </c>
-      <c r="K380" s="11"/>
+      <c r="K380" s="11">
+        <v>48000</v>
+      </c>
       <c r="L380" s="10">
         <f>Table1[[#This Row],[تعداد دانلود]]+Table1[[#This Row],[تعداد تماشا ]]</f>
         <v>52</v>
       </c>
     </row>
-    <row r="381" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A381" s="13"/>
       <c r="B381" s="13">
         <v>6305</v>
@@ -31969,13 +32449,15 @@
       <c r="J381" s="11">
         <v>3</v>
       </c>
-      <c r="K381" s="11"/>
+      <c r="K381" s="11">
+        <v>44000</v>
+      </c>
       <c r="L381" s="10">
         <f>Table1[[#This Row],[تعداد دانلود]]+Table1[[#This Row],[تعداد تماشا ]]</f>
         <v>59</v>
       </c>
     </row>
-    <row r="382" spans="1:12" ht="36" hidden="1" x14ac:dyDescent="0.25">
+    <row r="382" spans="1:12" ht="36" x14ac:dyDescent="0.25">
       <c r="A382" s="13">
         <v>288</v>
       </c>
@@ -32004,13 +32486,16 @@
       <c r="J382" s="11">
         <v>36</v>
       </c>
-      <c r="K382" s="11"/>
+      <c r="K382" s="11">
+        <f>48000+45000+24000</f>
+        <v>117000</v>
+      </c>
       <c r="L382" s="10">
         <f>Table1[[#This Row],[تعداد دانلود]]+Table1[[#This Row],[تعداد تماشا ]]</f>
         <v>205</v>
       </c>
     </row>
-    <row r="383" spans="1:12" ht="36" hidden="1" x14ac:dyDescent="0.25">
+    <row r="383" spans="1:12" ht="36" x14ac:dyDescent="0.25">
       <c r="A383" s="13">
         <v>289</v>
       </c>
@@ -32039,13 +32524,16 @@
       <c r="J383" s="11">
         <v>61</v>
       </c>
-      <c r="K383" s="11"/>
+      <c r="K383" s="11">
+        <f>120000+105000+21000</f>
+        <v>246000</v>
+      </c>
       <c r="L383" s="10">
         <f>Table1[[#This Row],[تعداد دانلود]]+Table1[[#This Row],[تعداد تماشا ]]</f>
         <v>576</v>
       </c>
     </row>
-    <row r="384" spans="1:12" ht="36" hidden="1" x14ac:dyDescent="0.25">
+    <row r="384" spans="1:12" ht="36" x14ac:dyDescent="0.25">
       <c r="A384" s="13">
         <v>290</v>
       </c>
@@ -32074,13 +32562,16 @@
       <c r="J384" s="11">
         <v>230</v>
       </c>
-      <c r="K384" s="11"/>
+      <c r="K384" s="11">
+        <f>44000+275000+216000</f>
+        <v>535000</v>
+      </c>
       <c r="L384" s="10">
         <f>Table1[[#This Row],[تعداد دانلود]]+Table1[[#This Row],[تعداد تماشا ]]</f>
         <v>1050</v>
       </c>
     </row>
-    <row r="385" spans="1:12" ht="36" hidden="1" x14ac:dyDescent="0.25">
+    <row r="385" spans="1:12" ht="36" x14ac:dyDescent="0.25">
       <c r="A385" s="13">
         <v>291</v>
       </c>
@@ -32109,7 +32600,10 @@
       <c r="J385" s="11">
         <v>42</v>
       </c>
-      <c r="K385" s="11"/>
+      <c r="K385" s="11">
+        <f>18000+120000+30000</f>
+        <v>168000</v>
+      </c>
       <c r="L385" s="10">
         <f>Table1[[#This Row],[تعداد دانلود]]+Table1[[#This Row],[تعداد تماشا ]]</f>
         <v>179</v>
@@ -32146,13 +32640,15 @@
       <c r="J386" s="11">
         <v>38</v>
       </c>
-      <c r="K386" s="11"/>
+      <c r="K386" s="11">
+        <v>583000</v>
+      </c>
       <c r="L386" s="10">
         <f>Table1[[#This Row],[تعداد دانلود]]+Table1[[#This Row],[تعداد تماشا ]]</f>
         <v>215</v>
       </c>
     </row>
-    <row r="387" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="387" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A387" s="13">
         <v>293</v>
       </c>
@@ -32181,13 +32677,15 @@
       <c r="J387" s="11">
         <v>85</v>
       </c>
-      <c r="K387" s="11"/>
+      <c r="K387" s="11">
+        <v>0</v>
+      </c>
       <c r="L387" s="10">
         <f>Table1[[#This Row],[تعداد دانلود]]+Table1[[#This Row],[تعداد تماشا ]]</f>
         <v>1036</v>
       </c>
     </row>
-    <row r="388" spans="1:12" ht="36" hidden="1" x14ac:dyDescent="0.25">
+    <row r="388" spans="1:12" ht="36" x14ac:dyDescent="0.25">
       <c r="A388" s="13">
         <v>294</v>
       </c>
@@ -32216,13 +32714,16 @@
       <c r="J388" s="11">
         <v>61</v>
       </c>
-      <c r="K388" s="11"/>
+      <c r="K388" s="11">
+        <f>39000+93000+37000</f>
+        <v>169000</v>
+      </c>
       <c r="L388" s="10">
         <f>Table1[[#This Row],[تعداد دانلود]]+Table1[[#This Row],[تعداد تماشا ]]</f>
         <v>443</v>
       </c>
     </row>
-    <row r="389" spans="1:12" ht="36" hidden="1" x14ac:dyDescent="0.25">
+    <row r="389" spans="1:12" ht="36" x14ac:dyDescent="0.25">
       <c r="A389" s="13">
         <v>295</v>
       </c>
@@ -32251,13 +32752,16 @@
       <c r="J389" s="11">
         <v>43</v>
       </c>
-      <c r="K389" s="11"/>
+      <c r="K389" s="11">
+        <f>112000+60000+36000</f>
+        <v>208000</v>
+      </c>
       <c r="L389" s="10">
         <f>Table1[[#This Row],[تعداد دانلود]]+Table1[[#This Row],[تعداد تماشا ]]</f>
         <v>400</v>
       </c>
     </row>
-    <row r="390" spans="1:12" ht="36" hidden="1" x14ac:dyDescent="0.25">
+    <row r="390" spans="1:12" ht="36" x14ac:dyDescent="0.25">
       <c r="A390" s="13">
         <v>296</v>
       </c>
@@ -32286,13 +32790,16 @@
       <c r="J390" s="11">
         <v>34</v>
       </c>
-      <c r="K390" s="11"/>
+      <c r="K390" s="11">
+        <f>199000+80000+28000</f>
+        <v>307000</v>
+      </c>
       <c r="L390" s="10">
         <f>Table1[[#This Row],[تعداد دانلود]]+Table1[[#This Row],[تعداد تماشا ]]</f>
         <v>459</v>
       </c>
     </row>
-    <row r="391" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="391" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A391" s="13"/>
       <c r="B391" s="13">
         <v>6870</v>
@@ -32319,13 +32826,16 @@
       <c r="J391" s="11">
         <v>20</v>
       </c>
-      <c r="K391" s="11"/>
+      <c r="K391" s="11">
+        <f>70000+26000+8000</f>
+        <v>104000</v>
+      </c>
       <c r="L391" s="10">
         <f>Table1[[#This Row],[تعداد دانلود]]+Table1[[#This Row],[تعداد تماشا ]]</f>
         <v>192</v>
       </c>
     </row>
-    <row r="392" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="392" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A392" s="13"/>
       <c r="B392" s="13">
         <v>6871</v>
@@ -32352,13 +32862,16 @@
       <c r="J392" s="11">
         <v>11</v>
       </c>
-      <c r="K392" s="11"/>
+      <c r="K392" s="11">
+        <f>42000+16000+4000</f>
+        <v>62000</v>
+      </c>
       <c r="L392" s="10">
         <f>Table1[[#This Row],[تعداد دانلود]]+Table1[[#This Row],[تعداد تماشا ]]</f>
         <v>74</v>
       </c>
     </row>
-    <row r="393" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="393" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A393" s="13">
         <v>297</v>
       </c>
@@ -32387,13 +32900,16 @@
       <c r="J393" s="11">
         <v>4</v>
       </c>
-      <c r="K393" s="11"/>
+      <c r="K393" s="11">
+        <f>24000+2000+4000</f>
+        <v>30000</v>
+      </c>
       <c r="L393" s="10">
         <f>Table1[[#This Row],[تعداد دانلود]]+Table1[[#This Row],[تعداد تماشا ]]</f>
         <v>42</v>
       </c>
     </row>
-    <row r="394" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="394" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A394" s="13"/>
       <c r="B394" s="13">
         <v>6874</v>
@@ -32420,13 +32936,15 @@
       <c r="J394" s="11">
         <v>3</v>
       </c>
-      <c r="K394" s="11"/>
+      <c r="K394" s="11">
+        <v>26000</v>
+      </c>
       <c r="L394" s="10">
         <f>Table1[[#This Row],[تعداد دانلود]]+Table1[[#This Row],[تعداد تماشا ]]</f>
         <v>38</v>
       </c>
     </row>
-    <row r="395" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="395" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A395" s="13"/>
       <c r="B395" s="13">
         <v>6873</v>
@@ -32453,13 +32971,15 @@
       <c r="J395" s="11">
         <v>3</v>
       </c>
-      <c r="K395" s="11"/>
+      <c r="K395" s="11">
+        <v>22000</v>
+      </c>
       <c r="L395" s="10">
         <f>Table1[[#This Row],[تعداد دانلود]]+Table1[[#This Row],[تعداد تماشا ]]</f>
         <v>41</v>
       </c>
     </row>
-    <row r="396" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="396" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A396" s="13"/>
       <c r="B396" s="13">
         <v>6872</v>
@@ -32486,13 +33006,15 @@
       <c r="J396" s="11">
         <v>4</v>
       </c>
-      <c r="K396" s="11"/>
+      <c r="K396" s="11">
+        <v>14000</v>
+      </c>
       <c r="L396" s="10">
         <f>Table1[[#This Row],[تعداد دانلود]]+Table1[[#This Row],[تعداد تماشا ]]</f>
         <v>22</v>
       </c>
     </row>
-    <row r="397" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="397" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A397" s="13"/>
       <c r="B397" s="13">
         <v>6878</v>
@@ -32519,13 +33041,15 @@
       <c r="J397" s="11">
         <v>4</v>
       </c>
-      <c r="K397" s="11"/>
+      <c r="K397" s="11">
+        <v>20000</v>
+      </c>
       <c r="L397" s="10">
         <f>Table1[[#This Row],[تعداد دانلود]]+Table1[[#This Row],[تعداد تماشا ]]</f>
         <v>22</v>
       </c>
     </row>
-    <row r="398" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="398" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A398" s="13"/>
       <c r="B398" s="13">
         <v>6877</v>
@@ -32552,13 +33076,15 @@
       <c r="J398" s="11">
         <v>4</v>
       </c>
-      <c r="K398" s="11"/>
+      <c r="K398" s="11">
+        <v>14000</v>
+      </c>
       <c r="L398" s="10">
         <f>Table1[[#This Row],[تعداد دانلود]]+Table1[[#This Row],[تعداد تماشا ]]</f>
         <v>20</v>
       </c>
     </row>
-    <row r="399" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="399" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A399" s="13"/>
       <c r="B399" s="13">
         <v>6879</v>
@@ -32585,13 +33111,15 @@
       <c r="J399" s="11">
         <v>4</v>
       </c>
-      <c r="K399" s="11"/>
+      <c r="K399" s="11">
+        <v>16000</v>
+      </c>
       <c r="L399" s="10">
         <f>Table1[[#This Row],[تعداد دانلود]]+Table1[[#This Row],[تعداد تماشا ]]</f>
         <v>15</v>
       </c>
     </row>
-    <row r="400" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="400" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A400" s="13"/>
       <c r="B400" s="13">
         <v>6876</v>
@@ -32618,13 +33146,15 @@
       <c r="J400" s="11">
         <v>4</v>
       </c>
-      <c r="K400" s="11"/>
+      <c r="K400" s="11">
+        <v>16000</v>
+      </c>
       <c r="L400" s="10">
         <f>Table1[[#This Row],[تعداد دانلود]]+Table1[[#This Row],[تعداد تماشا ]]</f>
         <v>14</v>
       </c>
     </row>
-    <row r="401" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="401" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A401" s="13"/>
       <c r="B401" s="13">
         <v>6881</v>
@@ -32651,13 +33181,15 @@
       <c r="J401" s="11">
         <v>4</v>
       </c>
-      <c r="K401" s="11"/>
+      <c r="K401" s="11">
+        <v>16000</v>
+      </c>
       <c r="L401" s="10">
         <f>Table1[[#This Row],[تعداد دانلود]]+Table1[[#This Row],[تعداد تماشا ]]</f>
         <v>11</v>
       </c>
     </row>
-    <row r="402" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="402" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A402" s="13"/>
       <c r="B402" s="13">
         <v>6880</v>
@@ -32684,13 +33216,15 @@
       <c r="J402" s="11">
         <v>3</v>
       </c>
-      <c r="K402" s="11"/>
+      <c r="K402" s="11">
+        <v>16000</v>
+      </c>
       <c r="L402" s="10">
         <f>Table1[[#This Row],[تعداد دانلود]]+Table1[[#This Row],[تعداد تماشا ]]</f>
         <v>17</v>
       </c>
     </row>
-    <row r="403" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="403" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A403" s="13"/>
       <c r="B403" s="13">
         <v>6882</v>
@@ -32717,13 +33251,15 @@
       <c r="J403" s="11">
         <v>3</v>
       </c>
-      <c r="K403" s="11"/>
+      <c r="K403" s="11">
+        <v>16000</v>
+      </c>
       <c r="L403" s="10">
         <f>Table1[[#This Row],[تعداد دانلود]]+Table1[[#This Row],[تعداد تماشا ]]</f>
         <v>24</v>
       </c>
     </row>
-    <row r="404" spans="1:12" ht="36" hidden="1" x14ac:dyDescent="0.25">
+    <row r="404" spans="1:12" ht="36" x14ac:dyDescent="0.25">
       <c r="A404" s="13">
         <v>298</v>
       </c>
@@ -32752,13 +33288,16 @@
       <c r="J404" s="11">
         <v>76</v>
       </c>
-      <c r="K404" s="11"/>
+      <c r="K404" s="11">
+        <f>27500+80000+40000</f>
+        <v>147500</v>
+      </c>
       <c r="L404" s="10">
         <f>Table1[[#This Row],[تعداد دانلود]]+Table1[[#This Row],[تعداد تماشا ]]</f>
         <v>455</v>
       </c>
     </row>
-    <row r="405" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="405" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A405" s="13">
         <v>299</v>
       </c>
@@ -32787,13 +33326,15 @@
       <c r="J405" s="11">
         <v>18</v>
       </c>
-      <c r="K405" s="11"/>
+      <c r="K405" s="11">
+        <v>6000</v>
+      </c>
       <c r="L405" s="10">
         <f>Table1[[#This Row],[تعداد دانلود]]+Table1[[#This Row],[تعداد تماشا ]]</f>
         <v>125</v>
       </c>
     </row>
-    <row r="406" spans="1:12" ht="36" hidden="1" x14ac:dyDescent="0.25">
+    <row r="406" spans="1:12" ht="36" x14ac:dyDescent="0.25">
       <c r="A406" s="13">
         <v>300</v>
       </c>
@@ -32822,13 +33363,16 @@
       <c r="J406" s="11">
         <v>55</v>
       </c>
-      <c r="K406" s="11"/>
+      <c r="K406" s="11">
+        <f>88000+232000+64000</f>
+        <v>384000</v>
+      </c>
       <c r="L406" s="10">
         <f>Table1[[#This Row],[تعداد دانلود]]+Table1[[#This Row],[تعداد تماشا ]]</f>
         <v>485</v>
       </c>
     </row>
-    <row r="407" spans="1:12" ht="36" hidden="1" x14ac:dyDescent="0.25">
+    <row r="407" spans="1:12" ht="36" x14ac:dyDescent="0.25">
       <c r="A407" s="13">
         <v>301</v>
       </c>
@@ -32857,13 +33401,16 @@
       <c r="J407" s="11">
         <v>78</v>
       </c>
-      <c r="K407" s="11"/>
+      <c r="K407" s="11">
+        <f>108000+270000+84000</f>
+        <v>462000</v>
+      </c>
       <c r="L407" s="10">
         <f>Table1[[#This Row],[تعداد دانلود]]+Table1[[#This Row],[تعداد تماشا ]]</f>
         <v>556</v>
       </c>
     </row>
-    <row r="408" spans="1:12" ht="36" hidden="1" x14ac:dyDescent="0.25">
+    <row r="408" spans="1:12" ht="36" x14ac:dyDescent="0.25">
       <c r="A408" s="13">
         <v>302</v>
       </c>
@@ -32892,13 +33439,16 @@
       <c r="J408" s="11">
         <v>61</v>
       </c>
-      <c r="K408" s="11"/>
+      <c r="K408" s="11">
+        <f>70000+238000+56000</f>
+        <v>364000</v>
+      </c>
       <c r="L408" s="10">
         <f>Table1[[#This Row],[تعداد دانلود]]+Table1[[#This Row],[تعداد تماشا ]]</f>
         <v>699</v>
       </c>
     </row>
-    <row r="409" spans="1:12" ht="36" hidden="1" x14ac:dyDescent="0.25">
+    <row r="409" spans="1:12" ht="36" x14ac:dyDescent="0.25">
       <c r="A409" s="13">
         <v>303</v>
       </c>
@@ -32927,13 +33477,16 @@
       <c r="J409" s="11">
         <v>87</v>
       </c>
-      <c r="K409" s="11"/>
+      <c r="K409" s="11">
+        <f>120000+120000+440000</f>
+        <v>680000</v>
+      </c>
       <c r="L409" s="10">
         <f>Table1[[#This Row],[تعداد دانلود]]+Table1[[#This Row],[تعداد تماشا ]]</f>
         <v>907</v>
       </c>
     </row>
-    <row r="410" spans="1:12" ht="36" hidden="1" x14ac:dyDescent="0.25">
+    <row r="410" spans="1:12" ht="36" x14ac:dyDescent="0.25">
       <c r="A410" s="13">
         <v>304</v>
       </c>
@@ -32962,13 +33515,16 @@
       <c r="J410" s="11">
         <v>57</v>
       </c>
-      <c r="K410" s="11"/>
+      <c r="K410" s="11">
+        <f>66000+138000+78000</f>
+        <v>282000</v>
+      </c>
       <c r="L410" s="10">
         <f>Table1[[#This Row],[تعداد دانلود]]+Table1[[#This Row],[تعداد تماشا ]]</f>
         <v>360</v>
       </c>
     </row>
-    <row r="411" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="411" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A411" s="13">
         <v>305</v>
       </c>
@@ -32997,13 +33553,16 @@
       <c r="J411" s="11">
         <v>132</v>
       </c>
-      <c r="K411" s="11"/>
+      <c r="K411" s="11">
+        <f>615000+300000+175000</f>
+        <v>1090000</v>
+      </c>
       <c r="L411" s="10">
         <f>Table1[[#This Row],[تعداد دانلود]]+Table1[[#This Row],[تعداد تماشا ]]</f>
         <v>662</v>
       </c>
     </row>
-    <row r="412" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="412" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A412" s="13">
         <v>306</v>
       </c>
@@ -33032,13 +33591,16 @@
       <c r="J412" s="11">
         <v>15</v>
       </c>
-      <c r="K412" s="11"/>
+      <c r="K412" s="11">
+        <f>666000+48000+6000</f>
+        <v>720000</v>
+      </c>
       <c r="L412" s="10">
         <f>Table1[[#This Row],[تعداد دانلود]]+Table1[[#This Row],[تعداد تماشا ]]</f>
         <v>321</v>
       </c>
     </row>
-    <row r="413" spans="1:12" ht="36" hidden="1" x14ac:dyDescent="0.25">
+    <row r="413" spans="1:12" ht="36" x14ac:dyDescent="0.25">
       <c r="A413" s="13">
         <v>307</v>
       </c>
@@ -33067,13 +33629,16 @@
       <c r="J413" s="11">
         <v>59</v>
       </c>
-      <c r="K413" s="11"/>
+      <c r="K413" s="11">
+        <f>602000+217000+91000</f>
+        <v>910000</v>
+      </c>
       <c r="L413" s="10">
         <f>Table1[[#This Row],[تعداد دانلود]]+Table1[[#This Row],[تعداد تماشا ]]</f>
         <v>498</v>
       </c>
     </row>
-    <row r="414" spans="1:12" ht="36" hidden="1" x14ac:dyDescent="0.25">
+    <row r="414" spans="1:12" ht="36" x14ac:dyDescent="0.25">
       <c r="A414" s="13">
         <v>309</v>
       </c>
@@ -33102,13 +33667,16 @@
       <c r="J414" s="11">
         <v>129</v>
       </c>
-      <c r="K414" s="11"/>
+      <c r="K414" s="11">
+        <f>112000+490000+189000</f>
+        <v>791000</v>
+      </c>
       <c r="L414" s="10">
         <f>Table1[[#This Row],[تعداد دانلود]]+Table1[[#This Row],[تعداد تماشا ]]</f>
         <v>867</v>
       </c>
     </row>
-    <row r="415" spans="1:12" ht="36" hidden="1" x14ac:dyDescent="0.25">
+    <row r="415" spans="1:12" ht="36" x14ac:dyDescent="0.25">
       <c r="A415" s="13">
         <v>310</v>
       </c>
@@ -33137,17 +33705,22 @@
       <c r="J415" s="11">
         <v>52</v>
       </c>
-      <c r="K415" s="11"/>
+      <c r="K415" s="11">
+        <f>301000+189000+77000</f>
+        <v>567000</v>
+      </c>
       <c r="L415" s="10">
         <f>Table1[[#This Row],[تعداد دانلود]]+Table1[[#This Row],[تعداد تماشا ]]</f>
         <v>680</v>
       </c>
     </row>
-    <row r="416" spans="1:12" ht="36" hidden="1" x14ac:dyDescent="0.25">
+    <row r="416" spans="1:12" ht="36" x14ac:dyDescent="0.25">
       <c r="A416" s="13">
         <v>311</v>
       </c>
-      <c r="B416" s="13"/>
+      <c r="B416" s="13">
+        <v>4276</v>
+      </c>
       <c r="C416" s="13"/>
       <c r="D416" s="13" t="s">
         <v>560</v>
@@ -33168,13 +33741,16 @@
       <c r="J416" s="11">
         <v>248</v>
       </c>
-      <c r="K416" s="11"/>
+      <c r="K416" s="11">
+        <f>520000+445000+290000</f>
+        <v>1255000</v>
+      </c>
       <c r="L416" s="10">
         <f>Table1[[#This Row],[تعداد دانلود]]+Table1[[#This Row],[تعداد تماشا ]]</f>
         <v>1394</v>
       </c>
     </row>
-    <row r="417" spans="1:12" ht="36" hidden="1" x14ac:dyDescent="0.25">
+    <row r="417" spans="1:12" ht="36" x14ac:dyDescent="0.25">
       <c r="A417" s="13">
         <v>312</v>
       </c>
@@ -33203,7 +33779,10 @@
       <c r="J417" s="11">
         <v>29</v>
       </c>
-      <c r="K417" s="11"/>
+      <c r="K417" s="11">
+        <f>49000+119000+21000</f>
+        <v>189000</v>
+      </c>
       <c r="L417" s="10">
         <f>Table1[[#This Row],[تعداد دانلود]]+Table1[[#This Row],[تعداد تماشا ]]</f>
         <v>156</v>
@@ -33240,7 +33819,9 @@
       <c r="J418" s="11">
         <v>15</v>
       </c>
-      <c r="K418" s="11"/>
+      <c r="K418" s="11">
+        <v>422000</v>
+      </c>
       <c r="L418" s="10">
         <f>Table1[[#This Row],[تعداد دانلود]]+Table1[[#This Row],[تعداد تماشا ]]</f>
         <v>144</v>
@@ -33275,7 +33856,9 @@
       <c r="J419" s="11">
         <v>4</v>
       </c>
-      <c r="K419" s="11"/>
+      <c r="K419" s="11">
+        <v>213000</v>
+      </c>
       <c r="L419" s="10">
         <f>Table1[[#This Row],[تعداد دانلود]]+Table1[[#This Row],[تعداد تماشا ]]</f>
         <v>61</v>
@@ -33310,7 +33893,9 @@
       <c r="J420" s="11">
         <v>2</v>
       </c>
-      <c r="K420" s="11"/>
+      <c r="K420" s="11">
+        <v>149000</v>
+      </c>
       <c r="L420" s="10">
         <f>Table1[[#This Row],[تعداد دانلود]]+Table1[[#This Row],[تعداد تماشا ]]</f>
         <v>35</v>
@@ -33345,7 +33930,9 @@
       <c r="J421" s="11">
         <v>1</v>
       </c>
-      <c r="K421" s="11"/>
+      <c r="K421" s="11">
+        <v>149000</v>
+      </c>
       <c r="L421" s="10">
         <f>Table1[[#This Row],[تعداد دانلود]]+Table1[[#This Row],[تعداد تماشا ]]</f>
         <v>39</v>
@@ -33380,7 +33967,9 @@
       <c r="J422" s="11">
         <v>1</v>
       </c>
-      <c r="K422" s="11"/>
+      <c r="K422" s="11">
+        <v>166000</v>
+      </c>
       <c r="L422" s="10">
         <f>Table1[[#This Row],[تعداد دانلود]]+Table1[[#This Row],[تعداد تماشا ]]</f>
         <v>41</v>
@@ -33415,7 +34004,9 @@
       <c r="J423" s="11">
         <v>1</v>
       </c>
-      <c r="K423" s="11"/>
+      <c r="K423" s="11">
+        <v>103000</v>
+      </c>
       <c r="L423" s="10">
         <f>Table1[[#This Row],[تعداد دانلود]]+Table1[[#This Row],[تعداد تماشا ]]</f>
         <v>23</v>
@@ -33450,7 +34041,9 @@
       <c r="J424" s="11">
         <v>1</v>
       </c>
-      <c r="K424" s="11"/>
+      <c r="K424" s="11">
+        <v>102000</v>
+      </c>
       <c r="L424" s="10">
         <f>Table1[[#This Row],[تعداد دانلود]]+Table1[[#This Row],[تعداد تماشا ]]</f>
         <v>26</v>
@@ -33485,7 +34078,9 @@
       <c r="J425" s="11">
         <v>3</v>
       </c>
-      <c r="K425" s="11"/>
+      <c r="K425" s="11">
+        <v>71000</v>
+      </c>
       <c r="L425" s="10">
         <f>Table1[[#This Row],[تعداد دانلود]]+Table1[[#This Row],[تعداد تماشا ]]</f>
         <v>16</v>
@@ -33520,7 +34115,9 @@
       <c r="J426" s="11">
         <v>1</v>
       </c>
-      <c r="K426" s="11"/>
+      <c r="K426" s="11">
+        <v>102000</v>
+      </c>
       <c r="L426" s="10">
         <f>Table1[[#This Row],[تعداد دانلود]]+Table1[[#This Row],[تعداد تماشا ]]</f>
         <v>20</v>
@@ -33555,7 +34152,9 @@
       <c r="J427" s="11">
         <v>1</v>
       </c>
-      <c r="K427" s="11"/>
+      <c r="K427" s="11">
+        <v>86000</v>
+      </c>
       <c r="L427" s="10">
         <f>Table1[[#This Row],[تعداد دانلود]]+Table1[[#This Row],[تعداد تماشا ]]</f>
         <v>20</v>
@@ -33590,7 +34189,9 @@
       <c r="J428" s="11">
         <v>1</v>
       </c>
-      <c r="K428" s="11"/>
+      <c r="K428" s="11">
+        <v>91000</v>
+      </c>
       <c r="L428" s="10">
         <f>Table1[[#This Row],[تعداد دانلود]]+Table1[[#This Row],[تعداد تماشا ]]</f>
         <v>17</v>
@@ -33625,7 +34226,9 @@
       <c r="J429" s="11">
         <v>1</v>
       </c>
-      <c r="K429" s="11"/>
+      <c r="K429" s="11">
+        <v>72000</v>
+      </c>
       <c r="L429" s="10">
         <f>Table1[[#This Row],[تعداد دانلود]]+Table1[[#This Row],[تعداد تماشا ]]</f>
         <v>15</v>
@@ -33660,7 +34263,9 @@
       <c r="J430" s="11">
         <v>1</v>
       </c>
-      <c r="K430" s="11"/>
+      <c r="K430" s="11">
+        <v>93000</v>
+      </c>
       <c r="L430" s="10">
         <f>Table1[[#This Row],[تعداد دانلود]]+Table1[[#This Row],[تعداد تماشا ]]</f>
         <v>18</v>
@@ -33695,7 +34300,9 @@
       <c r="J431" s="11">
         <v>2</v>
       </c>
-      <c r="K431" s="11"/>
+      <c r="K431" s="11">
+        <v>128000</v>
+      </c>
       <c r="L431" s="10">
         <f>Table1[[#This Row],[تعداد دانلود]]+Table1[[#This Row],[تعداد تماشا ]]</f>
         <v>30</v>
@@ -33732,7 +34339,9 @@
       <c r="J432" s="11">
         <v>15</v>
       </c>
-      <c r="K432" s="11"/>
+      <c r="K432" s="11">
+        <v>344000</v>
+      </c>
       <c r="L432" s="10">
         <f>Table1[[#This Row],[تعداد دانلود]]+Table1[[#This Row],[تعداد تماشا ]]</f>
         <v>167</v>
@@ -33767,7 +34376,9 @@
       <c r="J433" s="11">
         <v>17</v>
       </c>
-      <c r="K433" s="11"/>
+      <c r="K433" s="11">
+        <v>321000</v>
+      </c>
       <c r="L433" s="10">
         <f>Table1[[#This Row],[تعداد دانلود]]+Table1[[#This Row],[تعداد تماشا ]]</f>
         <v>182</v>
@@ -33802,7 +34413,9 @@
       <c r="J434" s="11">
         <v>14</v>
       </c>
-      <c r="K434" s="11"/>
+      <c r="K434" s="11">
+        <v>206000</v>
+      </c>
       <c r="L434" s="10">
         <f>Table1[[#This Row],[تعداد دانلود]]+Table1[[#This Row],[تعداد تماشا ]]</f>
         <v>123</v>
@@ -33837,7 +34450,9 @@
       <c r="J435" s="11">
         <v>10</v>
       </c>
-      <c r="K435" s="11"/>
+      <c r="K435" s="11">
+        <v>220000</v>
+      </c>
       <c r="L435" s="10">
         <f>Table1[[#This Row],[تعداد دانلود]]+Table1[[#This Row],[تعداد تماشا ]]</f>
         <v>85</v>
@@ -33872,7 +34487,9 @@
       <c r="J436" s="11">
         <v>8</v>
       </c>
-      <c r="K436" s="11"/>
+      <c r="K436" s="11">
+        <v>146000</v>
+      </c>
       <c r="L436" s="10">
         <f>Table1[[#This Row],[تعداد دانلود]]+Table1[[#This Row],[تعداد تماشا ]]</f>
         <v>54</v>
@@ -33907,7 +34524,9 @@
       <c r="J437" s="11">
         <v>7</v>
       </c>
-      <c r="K437" s="11"/>
+      <c r="K437" s="11">
+        <v>170000</v>
+      </c>
       <c r="L437" s="10">
         <f>Table1[[#This Row],[تعداد دانلود]]+Table1[[#This Row],[تعداد تماشا ]]</f>
         <v>59</v>
@@ -33942,7 +34561,9 @@
       <c r="J438" s="11">
         <v>9</v>
       </c>
-      <c r="K438" s="11"/>
+      <c r="K438" s="11">
+        <v>141000</v>
+      </c>
       <c r="L438" s="10">
         <f>Table1[[#This Row],[تعداد دانلود]]+Table1[[#This Row],[تعداد تماشا ]]</f>
         <v>59</v>
@@ -33977,7 +34598,9 @@
       <c r="J439" s="11">
         <v>6</v>
       </c>
-      <c r="K439" s="11"/>
+      <c r="K439" s="11">
+        <v>118000</v>
+      </c>
       <c r="L439" s="10">
         <f>Table1[[#This Row],[تعداد دانلود]]+Table1[[#This Row],[تعداد تماشا ]]</f>
         <v>41</v>
@@ -34012,7 +34635,9 @@
       <c r="J440" s="11">
         <v>5</v>
       </c>
-      <c r="K440" s="11"/>
+      <c r="K440" s="11">
+        <v>114000</v>
+      </c>
       <c r="L440" s="10">
         <f>Table1[[#This Row],[تعداد دانلود]]+Table1[[#This Row],[تعداد تماشا ]]</f>
         <v>79</v>
@@ -34047,7 +34672,9 @@
       <c r="J441" s="11">
         <v>3</v>
       </c>
-      <c r="K441" s="11"/>
+      <c r="K441" s="11">
+        <v>80000</v>
+      </c>
       <c r="L441" s="10">
         <f>Table1[[#This Row],[تعداد دانلود]]+Table1[[#This Row],[تعداد تماشا ]]</f>
         <v>70</v>
@@ -34082,7 +34709,9 @@
       <c r="J442" s="11">
         <v>4</v>
       </c>
-      <c r="K442" s="11"/>
+      <c r="K442" s="11">
+        <v>102000</v>
+      </c>
       <c r="L442" s="10">
         <f>Table1[[#This Row],[تعداد دانلود]]+Table1[[#This Row],[تعداد تماشا ]]</f>
         <v>38</v>
@@ -34117,7 +34746,9 @@
       <c r="J443" s="11">
         <v>4</v>
       </c>
-      <c r="K443" s="11"/>
+      <c r="K443" s="11">
+        <v>125000</v>
+      </c>
       <c r="L443" s="10">
         <f>Table1[[#This Row],[تعداد دانلود]]+Table1[[#This Row],[تعداد تماشا ]]</f>
         <v>67</v>
@@ -34152,7 +34783,9 @@
       <c r="J444" s="11">
         <v>1</v>
       </c>
-      <c r="K444" s="11"/>
+      <c r="K444" s="11">
+        <v>78000</v>
+      </c>
       <c r="L444" s="10">
         <f>Table1[[#This Row],[تعداد دانلود]]+Table1[[#This Row],[تعداد تماشا ]]</f>
         <v>45</v>
@@ -34187,7 +34820,9 @@
       <c r="J445" s="11">
         <v>2</v>
       </c>
-      <c r="K445" s="11"/>
+      <c r="K445" s="11">
+        <v>96000</v>
+      </c>
       <c r="L445" s="10">
         <f>Table1[[#This Row],[تعداد دانلود]]+Table1[[#This Row],[تعداد تماشا ]]</f>
         <v>63</v>
@@ -34222,7 +34857,9 @@
       <c r="J446" s="11">
         <v>4</v>
       </c>
-      <c r="K446" s="11"/>
+      <c r="K446" s="11">
+        <v>121000</v>
+      </c>
       <c r="L446" s="10">
         <f>Table1[[#This Row],[تعداد دانلود]]+Table1[[#This Row],[تعداد تماشا ]]</f>
         <v>42</v>
@@ -34259,7 +34896,9 @@
       <c r="J447" s="11">
         <v>35</v>
       </c>
-      <c r="K447" s="11"/>
+      <c r="K447" s="11">
+        <v>501000</v>
+      </c>
       <c r="L447" s="10">
         <f>Table1[[#This Row],[تعداد دانلود]]+Table1[[#This Row],[تعداد تماشا ]]</f>
         <v>202</v>
@@ -34294,7 +34933,9 @@
       <c r="J448" s="11">
         <v>17</v>
       </c>
-      <c r="K448" s="11"/>
+      <c r="K448" s="11">
+        <v>220000</v>
+      </c>
       <c r="L448" s="10">
         <f>Table1[[#This Row],[تعداد دانلود]]+Table1[[#This Row],[تعداد تماشا ]]</f>
         <v>69</v>
@@ -34329,7 +34970,9 @@
       <c r="J449" s="11">
         <v>8</v>
       </c>
-      <c r="K449" s="11"/>
+      <c r="K449" s="11">
+        <v>166000</v>
+      </c>
       <c r="L449" s="10">
         <f>Table1[[#This Row],[تعداد دانلود]]+Table1[[#This Row],[تعداد تماشا ]]</f>
         <v>52</v>
@@ -34364,7 +35007,9 @@
       <c r="J450" s="11">
         <v>9</v>
       </c>
-      <c r="K450" s="11"/>
+      <c r="K450" s="11">
+        <v>81000</v>
+      </c>
       <c r="L450" s="10">
         <f>Table1[[#This Row],[تعداد دانلود]]+Table1[[#This Row],[تعداد تماشا ]]</f>
         <v>29</v>
@@ -34399,7 +35044,9 @@
       <c r="J451" s="11">
         <v>7</v>
       </c>
-      <c r="K451" s="11"/>
+      <c r="K451" s="11">
+        <v>100000</v>
+      </c>
       <c r="L451" s="10">
         <f>Table1[[#This Row],[تعداد دانلود]]+Table1[[#This Row],[تعداد تماشا ]]</f>
         <v>32</v>
@@ -34434,7 +35081,9 @@
       <c r="J452" s="11">
         <v>9</v>
       </c>
-      <c r="K452" s="11"/>
+      <c r="K452" s="11">
+        <v>78000</v>
+      </c>
       <c r="L452" s="10">
         <f>Table1[[#This Row],[تعداد دانلود]]+Table1[[#This Row],[تعداد تماشا ]]</f>
         <v>27</v>
@@ -34469,7 +35118,9 @@
       <c r="J453" s="11">
         <v>8</v>
       </c>
-      <c r="K453" s="11"/>
+      <c r="K453" s="11">
+        <v>78000</v>
+      </c>
       <c r="L453" s="10">
         <f>Table1[[#This Row],[تعداد دانلود]]+Table1[[#This Row],[تعداد تماشا ]]</f>
         <v>26</v>
@@ -34504,7 +35155,9 @@
       <c r="J454" s="11">
         <v>9</v>
       </c>
-      <c r="K454" s="11"/>
+      <c r="K454" s="11">
+        <v>93000</v>
+      </c>
       <c r="L454" s="10">
         <f>Table1[[#This Row],[تعداد دانلود]]+Table1[[#This Row],[تعداد تماشا ]]</f>
         <v>30</v>
@@ -34539,7 +35192,9 @@
       <c r="J455" s="11">
         <v>6</v>
       </c>
-      <c r="K455" s="11"/>
+      <c r="K455" s="11">
+        <v>43000</v>
+      </c>
       <c r="L455" s="10">
         <f>Table1[[#This Row],[تعداد دانلود]]+Table1[[#This Row],[تعداد تماشا ]]</f>
         <v>16</v>
@@ -34574,7 +35229,9 @@
       <c r="J456" s="11">
         <v>6</v>
       </c>
-      <c r="K456" s="11"/>
+      <c r="K456" s="11">
+        <v>60000</v>
+      </c>
       <c r="L456" s="10">
         <f>Table1[[#This Row],[تعداد دانلود]]+Table1[[#This Row],[تعداد تماشا ]]</f>
         <v>18</v>
@@ -34609,7 +35266,9 @@
       <c r="J457" s="11">
         <v>5</v>
       </c>
-      <c r="K457" s="11"/>
+      <c r="K457" s="11">
+        <v>80000</v>
+      </c>
       <c r="L457" s="10">
         <f>Table1[[#This Row],[تعداد دانلود]]+Table1[[#This Row],[تعداد تماشا ]]</f>
         <v>34</v>
@@ -34644,7 +35303,9 @@
       <c r="J458" s="11">
         <v>5</v>
       </c>
-      <c r="K458" s="11"/>
+      <c r="K458" s="11">
+        <v>52000</v>
+      </c>
       <c r="L458" s="10">
         <f>Table1[[#This Row],[تعداد دانلود]]+Table1[[#This Row],[تعداد تماشا ]]</f>
         <v>22</v>
@@ -34681,7 +35342,9 @@
       <c r="J459" s="11">
         <v>3</v>
       </c>
-      <c r="K459" s="11"/>
+      <c r="K459" s="11">
+        <v>90000</v>
+      </c>
       <c r="L459" s="10">
         <f>Table1[[#This Row],[تعداد دانلود]]+Table1[[#This Row],[تعداد تماشا ]]</f>
         <v>37</v>
@@ -34716,7 +35379,9 @@
       <c r="J460" s="11">
         <v>3</v>
       </c>
-      <c r="K460" s="11"/>
+      <c r="K460" s="11">
+        <v>47000</v>
+      </c>
       <c r="L460" s="10">
         <f>Table1[[#This Row],[تعداد دانلود]]+Table1[[#This Row],[تعداد تماشا ]]</f>
         <v>18</v>
@@ -34751,7 +35416,9 @@
       <c r="J461" s="11">
         <v>2</v>
       </c>
-      <c r="K461" s="11"/>
+      <c r="K461" s="11">
+        <v>13000</v>
+      </c>
       <c r="L461" s="10">
         <f>Table1[[#This Row],[تعداد دانلود]]+Table1[[#This Row],[تعداد تماشا ]]</f>
         <v>5</v>
@@ -34786,7 +35453,9 @@
       <c r="J462" s="11">
         <v>1</v>
       </c>
-      <c r="K462" s="11"/>
+      <c r="K462" s="11">
+        <v>21000</v>
+      </c>
       <c r="L462" s="10">
         <f>Table1[[#This Row],[تعداد دانلود]]+Table1[[#This Row],[تعداد تماشا ]]</f>
         <v>4</v>
@@ -34821,7 +35490,9 @@
       <c r="J463" s="11">
         <v>1</v>
       </c>
-      <c r="K463" s="11"/>
+      <c r="K463" s="11">
+        <v>8000</v>
+      </c>
       <c r="L463" s="10">
         <f>Table1[[#This Row],[تعداد دانلود]]+Table1[[#This Row],[تعداد تماشا ]]</f>
         <v>3</v>
@@ -34856,7 +35527,9 @@
       <c r="J464" s="11">
         <v>1</v>
       </c>
-      <c r="K464" s="11"/>
+      <c r="K464" s="11">
+        <v>13000</v>
+      </c>
       <c r="L464" s="10">
         <f>Table1[[#This Row],[تعداد دانلود]]+Table1[[#This Row],[تعداد تماشا ]]</f>
         <v>5</v>
@@ -34891,7 +35564,9 @@
       <c r="J465" s="11">
         <v>1</v>
       </c>
-      <c r="K465" s="11"/>
+      <c r="K465" s="11">
+        <v>25000</v>
+      </c>
       <c r="L465" s="10">
         <f>Table1[[#This Row],[تعداد دانلود]]+Table1[[#This Row],[تعداد تماشا ]]</f>
         <v>7</v>
@@ -34926,7 +35601,9 @@
       <c r="J466" s="11">
         <v>1</v>
       </c>
-      <c r="K466" s="11"/>
+      <c r="K466" s="11">
+        <v>14000</v>
+      </c>
       <c r="L466" s="10">
         <f>Table1[[#This Row],[تعداد دانلود]]+Table1[[#This Row],[تعداد تماشا ]]</f>
         <v>2</v>
@@ -34961,7 +35638,9 @@
       <c r="J467" s="11">
         <v>1</v>
       </c>
-      <c r="K467" s="11"/>
+      <c r="K467" s="11">
+        <v>19000</v>
+      </c>
       <c r="L467" s="10">
         <f>Table1[[#This Row],[تعداد دانلود]]+Table1[[#This Row],[تعداد تماشا ]]</f>
         <v>2</v>
@@ -34996,7 +35675,9 @@
       <c r="J468" s="11">
         <v>1</v>
       </c>
-      <c r="K468" s="11"/>
+      <c r="K468" s="11">
+        <v>21000</v>
+      </c>
       <c r="L468" s="10">
         <f>Table1[[#This Row],[تعداد دانلود]]+Table1[[#This Row],[تعداد تماشا ]]</f>
         <v>3</v>
@@ -35031,7 +35712,9 @@
       <c r="J469" s="11">
         <v>1</v>
       </c>
-      <c r="K469" s="11"/>
+      <c r="K469" s="11">
+        <v>19000</v>
+      </c>
       <c r="L469" s="10">
         <f>Table1[[#This Row],[تعداد دانلود]]+Table1[[#This Row],[تعداد تماشا ]]</f>
         <v>5</v>
@@ -35066,7 +35749,9 @@
       <c r="J470" s="11">
         <v>1</v>
       </c>
-      <c r="K470" s="11"/>
+      <c r="K470" s="11">
+        <v>45000</v>
+      </c>
       <c r="L470" s="10">
         <f>Table1[[#This Row],[تعداد دانلود]]+Table1[[#This Row],[تعداد تماشا ]]</f>
         <v>6</v>
@@ -35103,7 +35788,9 @@
       <c r="J471" s="11">
         <v>87</v>
       </c>
-      <c r="K471" s="11"/>
+      <c r="K471" s="11">
+        <v>1178000</v>
+      </c>
       <c r="L471" s="10">
         <f>Table1[[#This Row],[تعداد دانلود]]+Table1[[#This Row],[تعداد تماشا ]]</f>
         <v>621</v>
@@ -35140,7 +35827,9 @@
       <c r="J472" s="11">
         <v>25</v>
       </c>
-      <c r="K472" s="11"/>
+      <c r="K472" s="11">
+        <v>279000</v>
+      </c>
       <c r="L472" s="10">
         <f>Table1[[#This Row],[تعداد دانلود]]+Table1[[#This Row],[تعداد تماشا ]]</f>
         <v>142</v>
@@ -35177,7 +35866,9 @@
       <c r="J473" s="11">
         <v>11</v>
       </c>
-      <c r="K473" s="11"/>
+      <c r="K473" s="11">
+        <v>422000</v>
+      </c>
       <c r="L473" s="10">
         <f>Table1[[#This Row],[تعداد دانلود]]+Table1[[#This Row],[تعداد تماشا ]]</f>
         <v>277</v>
@@ -35214,13 +35905,15 @@
       <c r="J474" s="11">
         <v>44</v>
       </c>
-      <c r="K474" s="11"/>
+      <c r="K474" s="11">
+        <v>635000</v>
+      </c>
       <c r="L474" s="10">
         <f>Table1[[#This Row],[تعداد دانلود]]+Table1[[#This Row],[تعداد تماشا ]]</f>
         <v>290</v>
       </c>
     </row>
-    <row r="475" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="475" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A475" s="13">
         <v>321</v>
       </c>
@@ -35247,7 +35940,10 @@
       <c r="J475" s="11">
         <v>44</v>
       </c>
-      <c r="K475" s="11"/>
+      <c r="K475" s="11">
+        <f>1000</f>
+        <v>1000</v>
+      </c>
       <c r="L475" s="10">
         <f>Table1[[#This Row],[تعداد دانلود]]+Table1[[#This Row],[تعداد تماشا ]]</f>
         <v>350</v>
@@ -35284,13 +35980,15 @@
       <c r="J476" s="11">
         <v>67</v>
       </c>
-      <c r="K476" s="11"/>
+      <c r="K476" s="11" t="s">
+        <v>802</v>
+      </c>
       <c r="L476" s="10">
         <f>Table1[[#This Row],[تعداد دانلود]]+Table1[[#This Row],[تعداد تماشا ]]</f>
         <v>421</v>
       </c>
     </row>
-    <row r="477" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="477" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A477" s="13">
         <v>323</v>
       </c>
@@ -35319,13 +36017,16 @@
       <c r="J477" s="11">
         <v>1</v>
       </c>
-      <c r="K477" s="11"/>
+      <c r="K477" s="11">
+        <f>8000</f>
+        <v>8000</v>
+      </c>
       <c r="L477" s="10">
         <f>Table1[[#This Row],[تعداد دانلود]]+Table1[[#This Row],[تعداد تماشا ]]</f>
         <v>5</v>
       </c>
     </row>
-    <row r="478" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="478" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A478" s="13"/>
       <c r="B478" s="13">
         <v>3553</v>
@@ -35352,13 +36053,15 @@
       <c r="J478" s="11">
         <v>1</v>
       </c>
-      <c r="K478" s="11"/>
+      <c r="K478" s="11">
+        <v>6000</v>
+      </c>
       <c r="L478" s="10">
         <f>Table1[[#This Row],[تعداد دانلود]]+Table1[[#This Row],[تعداد تماشا ]]</f>
         <v>4</v>
       </c>
     </row>
-    <row r="479" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="479" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A479" s="13"/>
       <c r="B479" s="13">
         <v>5503</v>
@@ -35385,13 +36088,15 @@
       <c r="J479" s="11">
         <v>3</v>
       </c>
-      <c r="K479" s="11"/>
+      <c r="K479" s="11">
+        <v>8000</v>
+      </c>
       <c r="L479" s="10">
         <f>Table1[[#This Row],[تعداد دانلود]]+Table1[[#This Row],[تعداد تماشا ]]</f>
         <v>8</v>
       </c>
     </row>
-    <row r="480" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="480" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A480" s="13"/>
       <c r="B480" s="13">
         <v>5504</v>
@@ -35418,13 +36123,15 @@
       <c r="J480" s="11">
         <v>1</v>
       </c>
-      <c r="K480" s="11"/>
+      <c r="K480" s="11">
+        <v>6000</v>
+      </c>
       <c r="L480" s="10">
         <f>Table1[[#This Row],[تعداد دانلود]]+Table1[[#This Row],[تعداد تماشا ]]</f>
         <v>3</v>
       </c>
     </row>
-    <row r="481" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="481" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A481" s="13"/>
       <c r="B481" s="13">
         <v>5505</v>
@@ -35451,13 +36158,15 @@
       <c r="J481" s="11">
         <v>1</v>
       </c>
-      <c r="K481" s="11"/>
+      <c r="K481" s="11">
+        <v>6000</v>
+      </c>
       <c r="L481" s="10">
         <f>Table1[[#This Row],[تعداد دانلود]]+Table1[[#This Row],[تعداد تماشا ]]</f>
         <v>3</v>
       </c>
     </row>
-    <row r="482" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="482" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A482" s="13"/>
       <c r="B482" s="13">
         <v>5506</v>
@@ -35484,13 +36193,15 @@
       <c r="J482" s="11">
         <v>1</v>
       </c>
-      <c r="K482" s="11"/>
+      <c r="K482" s="11">
+        <v>4000</v>
+      </c>
       <c r="L482" s="10">
         <f>Table1[[#This Row],[تعداد دانلود]]+Table1[[#This Row],[تعداد تماشا ]]</f>
         <v>2</v>
       </c>
     </row>
-    <row r="483" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="483" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A483" s="13"/>
       <c r="B483" s="13">
         <v>5507</v>
@@ -35517,13 +36228,15 @@
       <c r="J483" s="11">
         <v>1</v>
       </c>
-      <c r="K483" s="11"/>
+      <c r="K483" s="11">
+        <v>6000</v>
+      </c>
       <c r="L483" s="10">
         <f>Table1[[#This Row],[تعداد دانلود]]+Table1[[#This Row],[تعداد تماشا ]]</f>
         <v>5</v>
       </c>
     </row>
-    <row r="484" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="484" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A484" s="13"/>
       <c r="B484" s="13">
         <v>5508</v>
@@ -35550,13 +36263,15 @@
       <c r="J484" s="11">
         <v>1</v>
       </c>
-      <c r="K484" s="11"/>
+      <c r="K484" s="11">
+        <v>6000</v>
+      </c>
       <c r="L484" s="10">
         <f>Table1[[#This Row],[تعداد دانلود]]+Table1[[#This Row],[تعداد تماشا ]]</f>
         <v>3</v>
       </c>
     </row>
-    <row r="485" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="485" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A485" s="13"/>
       <c r="B485" s="13">
         <v>5509</v>
@@ -35583,13 +36298,15 @@
       <c r="J485" s="11">
         <v>1</v>
       </c>
-      <c r="K485" s="11"/>
+      <c r="K485" s="11">
+        <v>4000</v>
+      </c>
       <c r="L485" s="10">
         <f>Table1[[#This Row],[تعداد دانلود]]+Table1[[#This Row],[تعداد تماشا ]]</f>
         <v>4</v>
       </c>
     </row>
-    <row r="486" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="486" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A486" s="13"/>
       <c r="B486" s="13">
         <v>5510</v>
@@ -35616,7 +36333,9 @@
       <c r="J486" s="11">
         <v>1</v>
       </c>
-      <c r="K486" s="11"/>
+      <c r="K486" s="11">
+        <v>4000</v>
+      </c>
       <c r="L486" s="10">
         <f>Table1[[#This Row],[تعداد دانلود]]+Table1[[#This Row],[تعداد تماشا ]]</f>
         <v>3</v>
@@ -35634,23 +36353,23 @@
       <c r="G487" s="15"/>
       <c r="H487" s="22">
         <f>SUBTOTAL(109,Table1[[تعداد تماشا ]])</f>
-        <v>4159</v>
+        <v>53590</v>
       </c>
       <c r="I487" s="22">
         <f>SUBTOTAL(109,Table1[دقایق تماشا])</f>
-        <v>44006</v>
+        <v>459408</v>
       </c>
       <c r="J487" s="22">
         <f>SUBTOTAL(109,Table1[تعداد دانلود])</f>
-        <v>641</v>
+        <v>14188</v>
       </c>
       <c r="K487" s="22">
         <f>SUBTOTAL(109,Table1[فروش])</f>
-        <v>0</v>
+        <v>71956850</v>
       </c>
       <c r="L487" s="23">
         <f>SUBTOTAL(109,Table1[مجموع تماشا و دانلود])</f>
-        <v>4800</v>
+        <v>67778</v>
       </c>
     </row>
   </sheetData>
